--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1528"/>
+  <dimension ref="A1:H1529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43470,35 +43470,35 @@
     </row>
     <row r="1283">
       <c r="A1283">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1283">
-        <v>4031</v>
+        <v>2251</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1283">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1283" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1283">
-        <v>1611010123003</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43512,27 +43512,27 @@
         </is>
       </c>
       <c r="C1284">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1284">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1284" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1284">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -43546,27 +43546,27 @@
         </is>
       </c>
       <c r="C1285">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1285">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1285">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -43596,11 +43596,11 @@
         </is>
       </c>
       <c r="G1286">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -43614,27 +43614,27 @@
         </is>
       </c>
       <c r="C1287">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1287">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1287" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1287">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -43648,27 +43648,27 @@
         </is>
       </c>
       <c r="C1288">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1288">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1288" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1288">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -43698,11 +43698,11 @@
         </is>
       </c>
       <c r="G1289">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -43716,27 +43716,27 @@
         </is>
       </c>
       <c r="C1290">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1290">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1290">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -43750,27 +43750,27 @@
         </is>
       </c>
       <c r="C1291">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1291">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1291">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -43784,11 +43784,11 @@
         </is>
       </c>
       <c r="C1292">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1292">
@@ -43800,7 +43800,12 @@
         </is>
       </c>
       <c r="G1292">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
       </c>
     </row>
     <row r="1293">
@@ -43829,12 +43834,7 @@
         </is>
       </c>
       <c r="G1293">
-        <v>1911010199000</v>
-      </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
-        </is>
+        <v>1739990126001</v>
       </c>
     </row>
     <row r="1294">
@@ -43847,11 +43847,11 @@
         </is>
       </c>
       <c r="C1294">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1294">
@@ -43863,45 +43863,45 @@
         </is>
       </c>
       <c r="G1294">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1295">
       <c r="A1295">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1295">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1295">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1295">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43931,11 +43931,11 @@
         </is>
       </c>
       <c r="G1296">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -43965,11 +43965,11 @@
         </is>
       </c>
       <c r="G1297">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -43999,11 +43999,11 @@
         </is>
       </c>
       <c r="G1298">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -44033,11 +44033,11 @@
         </is>
       </c>
       <c r="G1299">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -44067,11 +44067,11 @@
         </is>
       </c>
       <c r="G1300">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -44101,11 +44101,11 @@
         </is>
       </c>
       <c r="G1301">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -44135,11 +44135,11 @@
         </is>
       </c>
       <c r="G1302">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -44169,11 +44169,11 @@
         </is>
       </c>
       <c r="G1303">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -44203,11 +44203,11 @@
         </is>
       </c>
       <c r="G1304">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -44237,11 +44237,11 @@
         </is>
       </c>
       <c r="G1305">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -44271,11 +44271,11 @@
         </is>
       </c>
       <c r="G1306">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -44305,11 +44305,11 @@
         </is>
       </c>
       <c r="G1307">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -44339,11 +44339,11 @@
         </is>
       </c>
       <c r="G1308">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -44373,11 +44373,11 @@
         </is>
       </c>
       <c r="G1309">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -44407,11 +44407,11 @@
         </is>
       </c>
       <c r="G1310">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -44441,11 +44441,11 @@
         </is>
       </c>
       <c r="G1311">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -44475,11 +44475,11 @@
         </is>
       </c>
       <c r="G1312">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -44509,11 +44509,11 @@
         </is>
       </c>
       <c r="G1313">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -44543,11 +44543,11 @@
         </is>
       </c>
       <c r="G1314">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -44577,11 +44577,11 @@
         </is>
       </c>
       <c r="G1315">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44611,11 +44611,11 @@
         </is>
       </c>
       <c r="G1316">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44645,11 +44645,11 @@
         </is>
       </c>
       <c r="G1317">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44679,45 +44679,45 @@
         </is>
       </c>
       <c r="G1318">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1319">
       <c r="A1319">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1319">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1319">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1319">
-        <v>1114502101000</v>
+        <v>1911090399000</v>
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
         </is>
       </c>
     </row>
@@ -44747,11 +44747,11 @@
         </is>
       </c>
       <c r="G1320">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -44781,11 +44781,11 @@
         </is>
       </c>
       <c r="G1321">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -44815,11 +44815,11 @@
         </is>
       </c>
       <c r="G1322">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -44849,11 +44849,11 @@
         </is>
       </c>
       <c r="G1323">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -44883,45 +44883,45 @@
         </is>
       </c>
       <c r="G1324">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1325">
       <c r="A1325">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1325">
-        <v>1231</v>
+        <v>9999</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1325">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1325">
-        <v>1349010103000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44935,11 +44935,11 @@
         </is>
       </c>
       <c r="C1326">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1326">
@@ -44951,11 +44951,11 @@
         </is>
       </c>
       <c r="G1326">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -44969,27 +44969,27 @@
         </is>
       </c>
       <c r="C1327">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1327">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1327">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -45019,11 +45019,11 @@
         </is>
       </c>
       <c r="G1328">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45053,11 +45053,11 @@
         </is>
       </c>
       <c r="G1329">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45087,11 +45087,11 @@
         </is>
       </c>
       <c r="G1330">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45121,11 +45121,11 @@
         </is>
       </c>
       <c r="G1331">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45155,11 +45155,11 @@
         </is>
       </c>
       <c r="G1332">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45189,11 +45189,11 @@
         </is>
       </c>
       <c r="G1333">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45223,11 +45223,11 @@
         </is>
       </c>
       <c r="G1334">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1334" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45257,11 +45257,11 @@
         </is>
       </c>
       <c r="G1335">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45291,11 +45291,11 @@
         </is>
       </c>
       <c r="G1336">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45325,11 +45325,11 @@
         </is>
       </c>
       <c r="G1337">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45359,11 +45359,11 @@
         </is>
       </c>
       <c r="G1338">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45385,19 +45385,19 @@
         </is>
       </c>
       <c r="E1339">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1339">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45427,11 +45427,11 @@
         </is>
       </c>
       <c r="G1340">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45461,11 +45461,11 @@
         </is>
       </c>
       <c r="G1341">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45495,11 +45495,11 @@
         </is>
       </c>
       <c r="G1342">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45529,11 +45529,11 @@
         </is>
       </c>
       <c r="G1343">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45563,11 +45563,11 @@
         </is>
       </c>
       <c r="G1344">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45597,11 +45597,11 @@
         </is>
       </c>
       <c r="G1345">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45631,11 +45631,11 @@
         </is>
       </c>
       <c r="G1346">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45665,11 +45665,11 @@
         </is>
       </c>
       <c r="G1347">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45699,11 +45699,11 @@
         </is>
       </c>
       <c r="G1348">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45733,11 +45733,11 @@
         </is>
       </c>
       <c r="G1349">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45767,11 +45767,11 @@
         </is>
       </c>
       <c r="G1350">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45801,11 +45801,11 @@
         </is>
       </c>
       <c r="G1351">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45835,11 +45835,11 @@
         </is>
       </c>
       <c r="G1352">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45869,11 +45869,11 @@
         </is>
       </c>
       <c r="G1353">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45903,11 +45903,11 @@
         </is>
       </c>
       <c r="G1354">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45937,11 +45937,11 @@
         </is>
       </c>
       <c r="G1355">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -45971,11 +45971,11 @@
         </is>
       </c>
       <c r="G1356">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46005,11 +46005,11 @@
         </is>
       </c>
       <c r="G1357">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46039,11 +46039,11 @@
         </is>
       </c>
       <c r="G1358">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46073,11 +46073,11 @@
         </is>
       </c>
       <c r="G1359">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46107,11 +46107,11 @@
         </is>
       </c>
       <c r="G1360">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46141,11 +46141,11 @@
         </is>
       </c>
       <c r="G1361">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46175,11 +46175,11 @@
         </is>
       </c>
       <c r="G1362">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46209,11 +46209,11 @@
         </is>
       </c>
       <c r="G1363">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46243,11 +46243,11 @@
         </is>
       </c>
       <c r="G1364">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46261,27 +46261,27 @@
         </is>
       </c>
       <c r="C1365">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1365">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1365">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -46311,11 +46311,11 @@
         </is>
       </c>
       <c r="G1366">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46345,11 +46345,11 @@
         </is>
       </c>
       <c r="G1367">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -46379,11 +46379,11 @@
         </is>
       </c>
       <c r="G1368">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -46413,11 +46413,11 @@
         </is>
       </c>
       <c r="G1369">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -46447,11 +46447,11 @@
         </is>
       </c>
       <c r="G1370">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -46481,11 +46481,11 @@
         </is>
       </c>
       <c r="G1371">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -46515,11 +46515,11 @@
         </is>
       </c>
       <c r="G1372">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -46541,19 +46541,19 @@
         </is>
       </c>
       <c r="E1373">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1373">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -46583,11 +46583,11 @@
         </is>
       </c>
       <c r="G1374">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -46617,11 +46617,11 @@
         </is>
       </c>
       <c r="G1375">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -46651,11 +46651,11 @@
         </is>
       </c>
       <c r="G1376">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -46685,11 +46685,11 @@
         </is>
       </c>
       <c r="G1377">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -46719,11 +46719,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -46753,11 +46753,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -46787,11 +46787,11 @@
         </is>
       </c>
       <c r="G1380">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46805,27 +46805,27 @@
         </is>
       </c>
       <c r="C1381">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1381">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1381" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1381">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46855,11 +46855,11 @@
         </is>
       </c>
       <c r="G1382">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46889,11 +46889,11 @@
         </is>
       </c>
       <c r="G1383">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -46923,11 +46923,11 @@
         </is>
       </c>
       <c r="G1384">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46957,11 +46957,11 @@
         </is>
       </c>
       <c r="G1385">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -46975,27 +46975,27 @@
         </is>
       </c>
       <c r="C1386">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1386">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1386">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47025,11 +47025,11 @@
         </is>
       </c>
       <c r="G1387">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -47051,19 +47051,19 @@
         </is>
       </c>
       <c r="E1388">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1388">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -47093,11 +47093,11 @@
         </is>
       </c>
       <c r="G1389">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -47127,11 +47127,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -47161,11 +47161,11 @@
         </is>
       </c>
       <c r="G1391">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -47179,27 +47179,27 @@
         </is>
       </c>
       <c r="C1392">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1392">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1392">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -47229,11 +47229,11 @@
         </is>
       </c>
       <c r="G1393">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47247,27 +47247,27 @@
         </is>
       </c>
       <c r="C1394">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1394">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1394">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -47297,11 +47297,11 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -47331,11 +47331,11 @@
         </is>
       </c>
       <c r="G1396">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -47365,11 +47365,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -47399,11 +47399,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -47433,11 +47433,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -47467,11 +47467,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -47501,11 +47501,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -47535,11 +47535,11 @@
         </is>
       </c>
       <c r="G1402">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -47569,11 +47569,11 @@
         </is>
       </c>
       <c r="G1403">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -47603,11 +47603,11 @@
         </is>
       </c>
       <c r="G1404">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47637,11 +47637,11 @@
         </is>
       </c>
       <c r="G1405">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47671,11 +47671,11 @@
         </is>
       </c>
       <c r="G1406">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47705,11 +47705,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -47739,11 +47739,11 @@
         </is>
       </c>
       <c r="G1408">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47773,11 +47773,11 @@
         </is>
       </c>
       <c r="G1409">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -47791,27 +47791,27 @@
         </is>
       </c>
       <c r="C1410">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1410">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1410">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -47841,11 +47841,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -47859,27 +47859,27 @@
         </is>
       </c>
       <c r="C1412">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1412">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1412" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1412">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47909,11 +47909,11 @@
         </is>
       </c>
       <c r="G1413">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -47943,11 +47943,11 @@
         </is>
       </c>
       <c r="G1414">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -47977,11 +47977,11 @@
         </is>
       </c>
       <c r="G1415">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48011,11 +48011,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48045,11 +48045,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48079,11 +48079,11 @@
         </is>
       </c>
       <c r="G1418">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48113,11 +48113,11 @@
         </is>
       </c>
       <c r="G1419">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48147,11 +48147,11 @@
         </is>
       </c>
       <c r="G1420">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48181,11 +48181,11 @@
         </is>
       </c>
       <c r="G1421">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48215,11 +48215,11 @@
         </is>
       </c>
       <c r="G1422">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48249,11 +48249,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48283,11 +48283,11 @@
         </is>
       </c>
       <c r="G1424">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48317,11 +48317,11 @@
         </is>
       </c>
       <c r="G1425">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48343,19 +48343,19 @@
         </is>
       </c>
       <c r="E1426">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1426">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48385,11 +48385,11 @@
         </is>
       </c>
       <c r="G1427">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48419,11 +48419,11 @@
         </is>
       </c>
       <c r="G1428">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48453,11 +48453,11 @@
         </is>
       </c>
       <c r="G1429">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48487,11 +48487,11 @@
         </is>
       </c>
       <c r="G1430">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48521,11 +48521,11 @@
         </is>
       </c>
       <c r="G1431">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48555,11 +48555,11 @@
         </is>
       </c>
       <c r="G1432">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48589,11 +48589,11 @@
         </is>
       </c>
       <c r="G1433">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48623,11 +48623,11 @@
         </is>
       </c>
       <c r="G1434">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48657,11 +48657,11 @@
         </is>
       </c>
       <c r="G1435">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48691,11 +48691,11 @@
         </is>
       </c>
       <c r="G1436">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48725,11 +48725,11 @@
         </is>
       </c>
       <c r="G1437">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48759,11 +48759,11 @@
         </is>
       </c>
       <c r="G1438">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48793,11 +48793,11 @@
         </is>
       </c>
       <c r="G1439">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48827,11 +48827,11 @@
         </is>
       </c>
       <c r="G1440">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48861,11 +48861,11 @@
         </is>
       </c>
       <c r="G1441">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48895,11 +48895,11 @@
         </is>
       </c>
       <c r="G1442">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48929,11 +48929,11 @@
         </is>
       </c>
       <c r="G1443">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48963,11 +48963,11 @@
         </is>
       </c>
       <c r="G1444">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -48997,11 +48997,11 @@
         </is>
       </c>
       <c r="G1445">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49031,11 +49031,11 @@
         </is>
       </c>
       <c r="G1446">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49065,11 +49065,11 @@
         </is>
       </c>
       <c r="G1447">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49099,11 +49099,11 @@
         </is>
       </c>
       <c r="G1448">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49133,11 +49133,11 @@
         </is>
       </c>
       <c r="G1449">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49167,11 +49167,11 @@
         </is>
       </c>
       <c r="G1450">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49201,11 +49201,11 @@
         </is>
       </c>
       <c r="G1451">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49235,11 +49235,11 @@
         </is>
       </c>
       <c r="G1452">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49269,11 +49269,11 @@
         </is>
       </c>
       <c r="G1453">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49303,11 +49303,11 @@
         </is>
       </c>
       <c r="G1454">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49337,11 +49337,11 @@
         </is>
       </c>
       <c r="G1455">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49363,19 +49363,19 @@
         </is>
       </c>
       <c r="E1456">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1456">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49405,11 +49405,11 @@
         </is>
       </c>
       <c r="G1457">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -49431,19 +49431,19 @@
         </is>
       </c>
       <c r="E1458">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1458">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49473,11 +49473,11 @@
         </is>
       </c>
       <c r="G1459">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49507,11 +49507,11 @@
         </is>
       </c>
       <c r="G1460">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -49533,19 +49533,19 @@
         </is>
       </c>
       <c r="E1461">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1461">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -49575,11 +49575,11 @@
         </is>
       </c>
       <c r="G1462">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -49593,11 +49593,11 @@
         </is>
       </c>
       <c r="C1463">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1463">
@@ -49627,27 +49627,27 @@
         </is>
       </c>
       <c r="C1464">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1464">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1464">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -49661,27 +49661,27 @@
         </is>
       </c>
       <c r="C1465">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1465">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1465">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -49711,11 +49711,11 @@
         </is>
       </c>
       <c r="G1466">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49737,19 +49737,19 @@
         </is>
       </c>
       <c r="E1467">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1467">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49779,11 +49779,11 @@
         </is>
       </c>
       <c r="G1468">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49805,19 +49805,19 @@
         </is>
       </c>
       <c r="E1469">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1469" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1469">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49831,27 +49831,27 @@
         </is>
       </c>
       <c r="C1470">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1470">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1470">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49873,19 +49873,19 @@
         </is>
       </c>
       <c r="E1471">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1471">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -49899,23 +49899,28 @@
         </is>
       </c>
       <c r="C1472">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1472">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1472" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1472">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+        </is>
       </c>
     </row>
     <row r="1473">
@@ -49944,7 +49949,7 @@
         </is>
       </c>
       <c r="G1473">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
     </row>
     <row r="1474">
@@ -49957,23 +49962,23 @@
         </is>
       </c>
       <c r="C1474">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1474">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1474">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
     </row>
     <row r="1475">
@@ -49986,28 +49991,23 @@
         </is>
       </c>
       <c r="C1475">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1475">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1475">
-        <v>1922990199000</v>
-      </c>
-      <c r="H1475" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
-        </is>
+        <v>1741990140001</v>
       </c>
     </row>
     <row r="1476">
@@ -50020,27 +50020,27 @@
         </is>
       </c>
       <c r="C1476">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1476">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1476">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50054,27 +50054,27 @@
         </is>
       </c>
       <c r="C1477">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1477">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1477">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -50088,27 +50088,27 @@
         </is>
       </c>
       <c r="C1478">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1478">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1478">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50138,41 +50138,41 @@
         </is>
       </c>
       <c r="G1479">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+        </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1480">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1480">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1480">
-        <v>7215021101001</v>
-      </c>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>1911090101006</v>
       </c>
     </row>
     <row r="1481">
@@ -50201,11 +50201,11 @@
         </is>
       </c>
       <c r="G1481">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50235,11 +50235,11 @@
         </is>
       </c>
       <c r="G1482">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -50269,11 +50269,11 @@
         </is>
       </c>
       <c r="G1483">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50303,11 +50303,11 @@
         </is>
       </c>
       <c r="G1484">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50337,11 +50337,11 @@
         </is>
       </c>
       <c r="G1485">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50371,11 +50371,11 @@
         </is>
       </c>
       <c r="G1486">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50405,11 +50405,11 @@
         </is>
       </c>
       <c r="G1487">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50431,19 +50431,19 @@
         </is>
       </c>
       <c r="E1488">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1488">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -50473,11 +50473,11 @@
         </is>
       </c>
       <c r="G1489">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -50507,11 +50507,11 @@
         </is>
       </c>
       <c r="G1490">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -50541,11 +50541,11 @@
         </is>
       </c>
       <c r="G1491">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -50575,11 +50575,11 @@
         </is>
       </c>
       <c r="G1492">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -50609,11 +50609,11 @@
         </is>
       </c>
       <c r="G1493">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -50643,11 +50643,11 @@
         </is>
       </c>
       <c r="G1494">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -50677,11 +50677,11 @@
         </is>
       </c>
       <c r="G1495">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -50711,11 +50711,11 @@
         </is>
       </c>
       <c r="G1496">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -50745,11 +50745,11 @@
         </is>
       </c>
       <c r="G1497">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -50779,11 +50779,11 @@
         </is>
       </c>
       <c r="G1498">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -50813,11 +50813,11 @@
         </is>
       </c>
       <c r="G1499">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -50847,11 +50847,11 @@
         </is>
       </c>
       <c r="G1500">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -50881,11 +50881,11 @@
         </is>
       </c>
       <c r="G1501">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -50915,11 +50915,11 @@
         </is>
       </c>
       <c r="G1502">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -50949,11 +50949,11 @@
         </is>
       </c>
       <c r="G1503">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -50983,11 +50983,11 @@
         </is>
       </c>
       <c r="G1504">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -51017,11 +51017,11 @@
         </is>
       </c>
       <c r="G1505">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -51051,11 +51051,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -51085,11 +51085,11 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -51119,11 +51119,11 @@
         </is>
       </c>
       <c r="G1508">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -51153,11 +51153,11 @@
         </is>
       </c>
       <c r="G1509">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51179,19 +51179,19 @@
         </is>
       </c>
       <c r="E1510">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1510" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1510">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51213,19 +51213,19 @@
         </is>
       </c>
       <c r="E1511">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1511">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51255,11 +51255,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51289,11 +51289,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51323,11 +51323,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -51357,45 +51357,45 @@
         </is>
       </c>
       <c r="G1515">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1516">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1516">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1516">
-        <v>1215521104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51425,11 +51425,11 @@
         </is>
       </c>
       <c r="G1517">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -51459,45 +51459,45 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1519">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1519">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1519" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1519">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -51511,27 +51511,27 @@
         </is>
       </c>
       <c r="C1520">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1520">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1520" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1520">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51545,11 +51545,11 @@
         </is>
       </c>
       <c r="C1521">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1521" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1521">
@@ -51579,11 +51579,11 @@
         </is>
       </c>
       <c r="C1522">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1522">
@@ -51595,11 +51595,11 @@
         </is>
       </c>
       <c r="G1522">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51629,11 +51629,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51663,11 +51663,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -51681,27 +51681,27 @@
         </is>
       </c>
       <c r="C1525">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1525">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1525" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1525">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -51715,27 +51715,27 @@
         </is>
       </c>
       <c r="C1526">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1526">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1526" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1526">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51765,11 +51765,11 @@
         </is>
       </c>
       <c r="G1527">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51799,9 +51799,43 @@
         </is>
       </c>
       <c r="G1528">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1528" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529">
+        <v>899</v>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1529">
+        <v>9999</v>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1529">
+        <v>95</v>
+      </c>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1529">
         <v>1921990101000</v>
       </c>
-      <c r="H1528" t="inlineStr">
+      <c r="H1529" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1639"/>
+  <dimension ref="A1:H1640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39832,69 +39832,69 @@
     </row>
     <row r="1166">
       <c r="A1166">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS DA UNIÃO REFERENTES ÀS PARTICIPAÇÕES NA EXPLORAÇÃO DE PETRÓLEO E GÁS NATURAL DESTINADAS AO FEP - LEI 9.478/1997</t>
+          <t>TRANSFERÊNCIAS DA POLÍTICA NACIONAL ALDIR BLANC DE FOMENTO À CULTURA - LEI Nº 14.399/2022</t>
         </is>
       </c>
       <c r="C1166">
-        <v>9999</v>
+        <v>1271</v>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SECULT</t>
         </is>
       </c>
       <c r="E1166">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="G1166">
-        <v>1712521101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>COTA-PARTE COMPENSACAO FINANCEIRA PRODUCAO PETROLEO - LEI FEDERAL NO 7.990/89 - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1167">
       <c r="A1167">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
+          <t>TRANSFERÊNCIAS DA UNIÃO REFERENTES ÀS PARTICIPAÇÕES NA EXPLORAÇÃO DE PETRÓLEO E GÁS NATURAL DESTINADAS AO FEP - LEI 9.478/1997</t>
         </is>
       </c>
       <c r="C1167">
-        <v>2061</v>
+        <v>9999</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1167">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
         </is>
       </c>
       <c r="G1167">
-        <v>1741990127999</v>
+        <v>1712521101000</v>
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>EDUCACAO - OUTROS</t>
+          <t>COTA-PARTE COMPENSACAO FINANCEIRA PRODUCAO PETROLEO - LEI FEDERAL NO 7.990/89 - PRINC.</t>
         </is>
       </c>
     </row>
@@ -39908,11 +39908,11 @@
         </is>
       </c>
       <c r="C1168">
-        <v>2091</v>
+        <v>2061</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1168">
@@ -39924,11 +39924,11 @@
         </is>
       </c>
       <c r="G1168">
-        <v>1321010101000</v>
+        <v>1741990127999</v>
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>EDUCACAO - OUTROS</t>
         </is>
       </c>
     </row>
@@ -39958,11 +39958,11 @@
         </is>
       </c>
       <c r="G1169">
-        <v>1741990146999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>MEIO AMBIENTE - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -39976,11 +39976,11 @@
         </is>
       </c>
       <c r="C1170">
-        <v>2201</v>
+        <v>2091</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>IEPHA</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1170">
@@ -39992,11 +39992,11 @@
         </is>
       </c>
       <c r="G1170">
-        <v>1321010101000</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MEIO AMBIENTE - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40010,11 +40010,11 @@
         </is>
       </c>
       <c r="C1171">
-        <v>4091</v>
+        <v>2201</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>FIA</t>
+          <t>IEPHA</t>
         </is>
       </c>
       <c r="E1171">
@@ -40026,11 +40026,11 @@
         </is>
       </c>
       <c r="G1171">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40060,11 +40060,11 @@
         </is>
       </c>
       <c r="G1172">
-        <v>1791990114000</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40078,11 +40078,11 @@
         </is>
       </c>
       <c r="C1173">
-        <v>4601</v>
+        <v>4091</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>FEI</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="E1173">
@@ -40094,11 +40094,11 @@
         </is>
       </c>
       <c r="G1173">
-        <v>1741990141999</v>
+        <v>1791990114000</v>
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
         </is>
       </c>
     </row>
@@ -40128,11 +40128,11 @@
         </is>
       </c>
       <c r="G1174">
-        <v>1791990114000</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40146,27 +40146,27 @@
         </is>
       </c>
       <c r="C1175">
-        <v>9999</v>
+        <v>4601</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEI</t>
         </is>
       </c>
       <c r="E1175">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1175">
-        <v>1321010101000</v>
+        <v>1791990114000</v>
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
         </is>
       </c>
     </row>
@@ -40196,11 +40196,11 @@
         </is>
       </c>
       <c r="G1176">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40230,7 +40230,7 @@
         </is>
       </c>
       <c r="G1177">
-        <v>2441990150999</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1177" t="inlineStr">
         <is>
@@ -40256,19 +40256,19 @@
         </is>
       </c>
       <c r="E1178">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1178">
-        <v>1321010101000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40298,11 +40298,11 @@
         </is>
       </c>
       <c r="G1179">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40332,11 +40332,11 @@
         </is>
       </c>
       <c r="G1180">
-        <v>1741990150999</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40366,11 +40366,11 @@
         </is>
       </c>
       <c r="G1181">
-        <v>1791990123000</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40400,11 +40400,11 @@
         </is>
       </c>
       <c r="G1182">
-        <v>2441990150999</v>
+        <v>1791990123000</v>
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
         </is>
       </c>
     </row>
@@ -40434,11 +40434,11 @@
         </is>
       </c>
       <c r="G1183">
-        <v>2491990123000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40460,19 +40460,19 @@
         </is>
       </c>
       <c r="E1184">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1184">
-        <v>1321010101000</v>
+        <v>2491990123000</v>
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
         </is>
       </c>
     </row>
@@ -40502,11 +40502,11 @@
         </is>
       </c>
       <c r="G1185">
-        <v>1792010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40520,27 +40520,27 @@
         </is>
       </c>
       <c r="C1186">
-        <v>1251</v>
+        <v>9999</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1186">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1186" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1186">
-        <v>1791990123000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -40554,11 +40554,11 @@
         </is>
       </c>
       <c r="C1187">
-        <v>1451</v>
+        <v>1251</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1187">
@@ -40570,11 +40570,11 @@
         </is>
       </c>
       <c r="G1187">
-        <v>1321010101000</v>
+        <v>1791990123000</v>
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
         </is>
       </c>
     </row>
@@ -40588,11 +40588,11 @@
         </is>
       </c>
       <c r="C1188">
-        <v>2171</v>
+        <v>1451</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>FAOP</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1188">
@@ -40622,11 +40622,11 @@
         </is>
       </c>
       <c r="C1189">
-        <v>1251</v>
+        <v>2171</v>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>FAOP</t>
         </is>
       </c>
       <c r="E1189">
@@ -40638,11 +40638,11 @@
         </is>
       </c>
       <c r="G1189">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40672,7 +40672,7 @@
         </is>
       </c>
       <c r="G1190">
-        <v>2441990150999</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1190" t="inlineStr">
         <is>
@@ -40690,11 +40690,11 @@
         </is>
       </c>
       <c r="C1191">
-        <v>1511</v>
+        <v>1251</v>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1191">
@@ -40706,11 +40706,11 @@
         </is>
       </c>
       <c r="G1191">
-        <v>1321010101000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40724,11 +40724,11 @@
         </is>
       </c>
       <c r="C1192">
-        <v>1401</v>
+        <v>1511</v>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>CBMMG</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1192">
@@ -40740,11 +40740,11 @@
         </is>
       </c>
       <c r="G1192">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40758,11 +40758,11 @@
         </is>
       </c>
       <c r="C1193">
-        <v>1071</v>
+        <v>1401</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>GABINETE MILITAR</t>
+          <t>CBMMG</t>
         </is>
       </c>
       <c r="E1193">
@@ -40774,11 +40774,11 @@
         </is>
       </c>
       <c r="G1193">
-        <v>1321010101000</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40792,27 +40792,27 @@
         </is>
       </c>
       <c r="C1194">
-        <v>1251</v>
+        <v>1071</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>GABINETE MILITAR</t>
         </is>
       </c>
       <c r="E1194">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1194">
-        <v>2441990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40834,19 +40834,19 @@
         </is>
       </c>
       <c r="E1195">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1195">
-        <v>1321010101000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40860,27 +40860,27 @@
         </is>
       </c>
       <c r="C1196">
-        <v>1081</v>
+        <v>1251</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1196">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1196">
-        <v>1741990134999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -40910,7 +40910,7 @@
         </is>
       </c>
       <c r="G1197">
-        <v>2441990134999</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1197" t="inlineStr">
         <is>
@@ -40928,27 +40928,27 @@
         </is>
       </c>
       <c r="C1198">
-        <v>1481</v>
+        <v>1081</v>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>SEDESE</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="E1198">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1198">
-        <v>1741990140001</v>
+        <v>2441990134999</v>
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -40962,27 +40962,27 @@
         </is>
       </c>
       <c r="C1199">
-        <v>9999</v>
+        <v>1481</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEDESE</t>
         </is>
       </c>
       <c r="E1199">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1199">
-        <v>1741990134999</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -41012,7 +41012,7 @@
         </is>
       </c>
       <c r="G1200">
-        <v>2441990134999</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1200" t="inlineStr">
         <is>
@@ -41030,11 +41030,11 @@
         </is>
       </c>
       <c r="C1201">
-        <v>1371</v>
+        <v>9999</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1201">
@@ -41046,11 +41046,11 @@
         </is>
       </c>
       <c r="G1201">
-        <v>1741990146999</v>
+        <v>2441990134999</v>
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>MEIO AMBIENTE - OUTROS</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41080,7 +41080,7 @@
         </is>
       </c>
       <c r="G1202">
-        <v>2441990146999</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1202" t="inlineStr">
         <is>
@@ -41098,11 +41098,11 @@
         </is>
       </c>
       <c r="C1203">
-        <v>9999</v>
+        <v>1371</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1203">
@@ -41114,7 +41114,7 @@
         </is>
       </c>
       <c r="G1203">
-        <v>1741990146999</v>
+        <v>2441990146999</v>
       </c>
       <c r="H1203" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         </is>
       </c>
       <c r="G1204">
-        <v>2441990146999</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1204" t="inlineStr">
         <is>
@@ -41166,11 +41166,11 @@
         </is>
       </c>
       <c r="C1205">
-        <v>1251</v>
+        <v>9999</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1205">
@@ -41182,11 +41182,11 @@
         </is>
       </c>
       <c r="G1205">
-        <v>1321010101000</v>
+        <v>2441990146999</v>
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MEIO AMBIENTE - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41200,11 +41200,11 @@
         </is>
       </c>
       <c r="C1206">
-        <v>1371</v>
+        <v>1251</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1206">
@@ -41234,11 +41234,11 @@
         </is>
       </c>
       <c r="C1207">
-        <v>1511</v>
+        <v>1371</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1207">
@@ -41250,11 +41250,11 @@
         </is>
       </c>
       <c r="G1207">
-        <v>2441990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41268,11 +41268,11 @@
         </is>
       </c>
       <c r="C1208">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>CGE</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1208">
@@ -41284,11 +41284,11 @@
         </is>
       </c>
       <c r="G1208">
-        <v>1741990134999</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41302,11 +41302,11 @@
         </is>
       </c>
       <c r="C1209">
-        <v>2091</v>
+        <v>1521</v>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>CGE</t>
         </is>
       </c>
       <c r="E1209">
@@ -41318,11 +41318,11 @@
         </is>
       </c>
       <c r="G1209">
-        <v>1321010101000</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41352,11 +41352,11 @@
         </is>
       </c>
       <c r="G1210">
-        <v>1741990146999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>MEIO AMBIENTE - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41386,7 +41386,7 @@
         </is>
       </c>
       <c r="G1211">
-        <v>2441990146999</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1211" t="inlineStr">
         <is>
@@ -41404,11 +41404,11 @@
         </is>
       </c>
       <c r="C1212">
-        <v>2201</v>
+        <v>2091</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>IEPHA</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1212">
@@ -41420,11 +41420,11 @@
         </is>
       </c>
       <c r="G1212">
-        <v>1741990139999</v>
+        <v>2441990146999</v>
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>CULTURA - OUTROS</t>
+          <t>MEIO AMBIENTE - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41454,7 +41454,7 @@
         </is>
       </c>
       <c r="G1213">
-        <v>2441990139999</v>
+        <v>1741990139999</v>
       </c>
       <c r="H1213" t="inlineStr">
         <is>
@@ -41472,11 +41472,11 @@
         </is>
       </c>
       <c r="C1214">
-        <v>2101</v>
+        <v>2201</v>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IEPHA</t>
         </is>
       </c>
       <c r="E1214">
@@ -41488,11 +41488,11 @@
         </is>
       </c>
       <c r="G1214">
-        <v>1321010101000</v>
+        <v>2441990139999</v>
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CULTURA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41522,11 +41522,11 @@
         </is>
       </c>
       <c r="G1215">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41540,27 +41540,27 @@
         </is>
       </c>
       <c r="C1216">
-        <v>2171</v>
+        <v>2101</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>FAOP</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1216">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1216">
-        <v>1741990139999</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>CULTURA - OUTROS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -41590,7 +41590,7 @@
         </is>
       </c>
       <c r="G1217">
-        <v>2441990139999</v>
+        <v>1741990139999</v>
       </c>
       <c r="H1217" t="inlineStr">
         <is>
@@ -41608,27 +41608,27 @@
         </is>
       </c>
       <c r="C1218">
-        <v>4331</v>
+        <v>2171</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FAOP</t>
         </is>
       </c>
       <c r="E1218">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1218" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1218">
-        <v>1321010101000</v>
+        <v>2441990139999</v>
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CULTURA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41658,11 +41658,11 @@
         </is>
       </c>
       <c r="G1219">
-        <v>1741990152001</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>URBANISMO - BELLAGIO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41692,11 +41692,11 @@
         </is>
       </c>
       <c r="G1220">
-        <v>1922990199000</v>
+        <v>1741990152001</v>
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>URBANISMO - BELLAGIO</t>
         </is>
       </c>
     </row>
@@ -41710,11 +41710,11 @@
         </is>
       </c>
       <c r="C1221">
-        <v>9999</v>
+        <v>4331</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1221">
@@ -41752,19 +41752,19 @@
         </is>
       </c>
       <c r="E1222">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1222">
-        <v>1719990128000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. UNIAO ENTIDADES - POLITICA NACIONAL ALDIR BLANC DE FOMENTO A CULTURA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -41786,19 +41786,19 @@
         </is>
       </c>
       <c r="E1223">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F1223" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="G1223">
-        <v>1922990199000</v>
+        <v>1719990128000</v>
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS TRANSF. UNIAO ENTIDADES - POLITICA NACIONAL ALDIR BLANC DE FOMENTO A CULTURA</t>
         </is>
       </c>
     </row>
@@ -41828,11 +41828,11 @@
         </is>
       </c>
       <c r="G1224">
-        <v>2441990123999</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -41846,27 +41846,27 @@
         </is>
       </c>
       <c r="C1225">
-        <v>1081</v>
+        <v>9999</v>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1225">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1225">
-        <v>1321010101000</v>
+        <v>2441990123999</v>
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -41880,11 +41880,11 @@
         </is>
       </c>
       <c r="C1226">
-        <v>2201</v>
+        <v>1081</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>IEPHA</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="E1226">
@@ -41914,11 +41914,11 @@
         </is>
       </c>
       <c r="C1227">
-        <v>1191</v>
+        <v>2201</v>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>SEF</t>
+          <t>IEPHA</t>
         </is>
       </c>
       <c r="E1227">
@@ -41964,11 +41964,11 @@
         </is>
       </c>
       <c r="G1228">
-        <v>1741990134999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41982,11 +41982,11 @@
         </is>
       </c>
       <c r="C1229">
-        <v>1251</v>
+        <v>1191</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>SEF</t>
         </is>
       </c>
       <c r="E1229">
@@ -41998,11 +41998,11 @@
         </is>
       </c>
       <c r="G1229">
-        <v>1741990150999</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -42016,11 +42016,11 @@
         </is>
       </c>
       <c r="C1230">
-        <v>1081</v>
+        <v>1251</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1230">
@@ -42032,7 +42032,12 @@
         </is>
       </c>
       <c r="G1230">
-        <v>1741990133999</v>
+        <v>1741990150999</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
+        </is>
       </c>
     </row>
     <row r="1231">
@@ -42061,7 +42066,7 @@
         </is>
       </c>
       <c r="G1231">
-        <v>2441990133999</v>
+        <v>1741990133999</v>
       </c>
     </row>
     <row r="1232">
@@ -42074,28 +42079,23 @@
         </is>
       </c>
       <c r="C1232">
-        <v>1251</v>
+        <v>1081</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="E1232">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1232">
-        <v>2441990123999</v>
-      </c>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
-        </is>
+        <v>2441990133999</v>
       </c>
     </row>
     <row r="1233">
@@ -42108,27 +42108,27 @@
         </is>
       </c>
       <c r="C1233">
-        <v>1511</v>
+        <v>1251</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1233">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1233">
-        <v>1321010101000</v>
+        <v>2441990123999</v>
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -42142,11 +42142,11 @@
         </is>
       </c>
       <c r="C1234">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>CGE</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1234">
@@ -42176,11 +42176,11 @@
         </is>
       </c>
       <c r="C1235">
-        <v>9999</v>
+        <v>1521</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>CGE</t>
         </is>
       </c>
       <c r="E1235">
@@ -42192,7 +42192,12 @@
         </is>
       </c>
       <c r="G1235">
-        <v>1741990133001</v>
+        <v>1321010101000</v>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+        </is>
       </c>
     </row>
     <row r="1236">
@@ -42221,7 +42226,7 @@
         </is>
       </c>
       <c r="G1236">
-        <v>1741990133999</v>
+        <v>1741990133001</v>
       </c>
     </row>
     <row r="1237">
@@ -42250,7 +42255,7 @@
         </is>
       </c>
       <c r="G1237">
-        <v>2441990133001</v>
+        <v>1741990133999</v>
       </c>
     </row>
     <row r="1238">
@@ -42279,7 +42284,7 @@
         </is>
       </c>
       <c r="G1238">
-        <v>2441990133999</v>
+        <v>2441990133001</v>
       </c>
     </row>
     <row r="1239">
@@ -42300,20 +42305,15 @@
         </is>
       </c>
       <c r="E1239">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1239">
-        <v>1321010101000</v>
-      </c>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
-        </is>
+        <v>2441990133999</v>
       </c>
     </row>
     <row r="1240">
@@ -42326,27 +42326,27 @@
         </is>
       </c>
       <c r="C1240">
-        <v>1511</v>
+        <v>9999</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1240">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="G1240">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42360,11 +42360,11 @@
         </is>
       </c>
       <c r="C1241">
-        <v>9999</v>
+        <v>1511</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1241">
@@ -42376,41 +42376,41 @@
         </is>
       </c>
       <c r="G1241">
-        <v>2419990106001</v>
+        <v>1741990150999</v>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
+        </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
+          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
         </is>
       </c>
       <c r="C1242">
-        <v>2301</v>
+        <v>9999</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1242">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1242">
-        <v>1321010101000</v>
-      </c>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
-        </is>
+        <v>2419990106001</v>
       </c>
     </row>
     <row r="1243">
@@ -42423,11 +42423,11 @@
         </is>
       </c>
       <c r="C1243">
-        <v>9999</v>
+        <v>2301</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1243">
@@ -42439,11 +42439,11 @@
         </is>
       </c>
       <c r="G1243">
-        <v>1711540101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42473,11 +42473,11 @@
         </is>
       </c>
       <c r="G1244">
-        <v>1711540102000</v>
+        <v>1711540101000</v>
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
         </is>
       </c>
     </row>
@@ -42507,45 +42507,45 @@
         </is>
       </c>
       <c r="G1245">
-        <v>9711540102000</v>
+        <v>1711540102000</v>
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
     <row r="1246">
       <c r="A1246">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
+          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
         </is>
       </c>
       <c r="C1246">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1246">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1246" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="G1246">
-        <v>1911010103001</v>
+        <v>9711540102000</v>
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -42575,11 +42575,11 @@
         </is>
       </c>
       <c r="G1247">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -42593,27 +42593,27 @@
         </is>
       </c>
       <c r="C1248">
-        <v>4381</v>
+        <v>1911</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1248">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1248" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1248">
-        <v>1911010103002</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -42643,11 +42643,11 @@
         </is>
       </c>
       <c r="G1249">
-        <v>1911010103003</v>
+        <v>1911010103002</v>
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -42661,27 +42661,27 @@
         </is>
       </c>
       <c r="C1250">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1250">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1250" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1250">
-        <v>1911010103001</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -42711,11 +42711,11 @@
         </is>
       </c>
       <c r="G1251">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -42729,27 +42729,27 @@
         </is>
       </c>
       <c r="C1252">
-        <v>4381</v>
+        <v>9999</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1252">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1252" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1252">
-        <v>1922990199000</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -42779,11 +42779,11 @@
         </is>
       </c>
       <c r="G1253">
-        <v>9911010103003</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -42797,27 +42797,27 @@
         </is>
       </c>
       <c r="C1254">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1254">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1254">
-        <v>1911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -42847,11 +42847,11 @@
         </is>
       </c>
       <c r="G1255">
-        <v>9911010103003</v>
+        <v>1911010103004</v>
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -42881,45 +42881,45 @@
         </is>
       </c>
       <c r="G1256">
-        <v>9911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
     <row r="1257">
       <c r="A1257">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
+          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
         </is>
       </c>
       <c r="C1257">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1257">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F1257" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1257">
-        <v>1121040103000</v>
+        <v>9911010103004</v>
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -42949,11 +42949,11 @@
         </is>
       </c>
       <c r="G1258">
-        <v>1121040203000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -42983,11 +42983,11 @@
         </is>
       </c>
       <c r="G1259">
-        <v>1121040303000</v>
+        <v>1121040203000</v>
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43017,11 +43017,11 @@
         </is>
       </c>
       <c r="G1260">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43051,11 +43051,11 @@
         </is>
       </c>
       <c r="G1261">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43077,19 +43077,19 @@
         </is>
       </c>
       <c r="E1262">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1262">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -43119,11 +43119,11 @@
         </is>
       </c>
       <c r="G1263">
-        <v>1121040109000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43137,27 +43137,27 @@
         </is>
       </c>
       <c r="C1264">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1264">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F1264" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1264">
-        <v>1121040101000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -43187,11 +43187,11 @@
         </is>
       </c>
       <c r="G1265">
-        <v>1121040201000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -43221,11 +43221,11 @@
         </is>
       </c>
       <c r="G1266">
-        <v>1121040301000</v>
+        <v>1121040201000</v>
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -43255,11 +43255,11 @@
         </is>
       </c>
       <c r="G1267">
-        <v>1922990199000</v>
+        <v>1121040301000</v>
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -43281,19 +43281,19 @@
         </is>
       </c>
       <c r="E1268">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1268">
-        <v>1121040103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -43323,11 +43323,11 @@
         </is>
       </c>
       <c r="G1269">
-        <v>1121040303000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43357,11 +43357,11 @@
         </is>
       </c>
       <c r="G1270">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43391,11 +43391,11 @@
         </is>
       </c>
       <c r="G1271">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43417,19 +43417,19 @@
         </is>
       </c>
       <c r="E1272">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1272" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1272">
-        <v>1121040105000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -43459,11 +43459,11 @@
         </is>
       </c>
       <c r="G1273">
-        <v>1121040106000</v>
+        <v>1121040105000</v>
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
         </is>
       </c>
     </row>
@@ -43493,11 +43493,11 @@
         </is>
       </c>
       <c r="G1274">
-        <v>1121040107000</v>
+        <v>1121040106000</v>
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
         </is>
       </c>
     </row>
@@ -43527,11 +43527,11 @@
         </is>
       </c>
       <c r="G1275">
-        <v>1121040109000</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -43561,11 +43561,11 @@
         </is>
       </c>
       <c r="G1276">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -43579,11 +43579,11 @@
         </is>
       </c>
       <c r="C1277">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1277">
@@ -43595,11 +43595,11 @@
         </is>
       </c>
       <c r="G1277">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -43629,11 +43629,11 @@
         </is>
       </c>
       <c r="G1278">
-        <v>1121040108000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -43663,11 +43663,11 @@
         </is>
       </c>
       <c r="G1279">
-        <v>1121040109000</v>
+        <v>1121040108000</v>
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
         </is>
       </c>
     </row>
@@ -43697,11 +43697,11 @@
         </is>
       </c>
       <c r="G1280">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -43715,11 +43715,11 @@
         </is>
       </c>
       <c r="C1281">
-        <v>2301</v>
+        <v>2241</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1281">
@@ -43731,11 +43731,11 @@
         </is>
       </c>
       <c r="G1281">
-        <v>1122010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -43765,11 +43765,11 @@
         </is>
       </c>
       <c r="G1282">
-        <v>1122010101006</v>
+        <v>1122010101001</v>
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -43799,11 +43799,11 @@
         </is>
       </c>
       <c r="G1283">
-        <v>1122010104000</v>
+        <v>1122010101006</v>
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -43833,11 +43833,11 @@
         </is>
       </c>
       <c r="G1284">
-        <v>1122010201006</v>
+        <v>1122010104000</v>
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -43867,11 +43867,11 @@
         </is>
       </c>
       <c r="G1285">
-        <v>1122010301006</v>
+        <v>1122010201006</v>
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -43901,11 +43901,11 @@
         </is>
       </c>
       <c r="G1286">
-        <v>1122010401006</v>
+        <v>1122010301006</v>
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -43919,11 +43919,11 @@
         </is>
       </c>
       <c r="C1287">
-        <v>2371</v>
+        <v>2301</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1287">
@@ -43935,11 +43935,11 @@
         </is>
       </c>
       <c r="G1287">
-        <v>1122010101003</v>
+        <v>1122010401006</v>
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
+          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -43969,11 +43969,11 @@
         </is>
       </c>
       <c r="G1288">
-        <v>1321010101000</v>
+        <v>1122010101003</v>
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
         </is>
       </c>
     </row>
@@ -44003,11 +44003,11 @@
         </is>
       </c>
       <c r="G1289">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44021,27 +44021,27 @@
         </is>
       </c>
       <c r="C1290">
-        <v>2441</v>
+        <v>2371</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1290">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1290">
-        <v>1121010104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44071,11 +44071,11 @@
         </is>
       </c>
       <c r="G1291">
-        <v>1922990199000</v>
+        <v>1121010104000</v>
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -44089,19 +44089,19 @@
         </is>
       </c>
       <c r="C1292">
-        <v>4711</v>
+        <v>2441</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1292">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1292" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1292">
@@ -44123,27 +44123,27 @@
         </is>
       </c>
       <c r="C1293">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1293">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1293">
-        <v>1121010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44173,11 +44173,11 @@
         </is>
       </c>
       <c r="G1294">
-        <v>1121010101002</v>
+        <v>1121010101001</v>
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -44207,11 +44207,11 @@
         </is>
       </c>
       <c r="G1295">
-        <v>1121010101003</v>
+        <v>1121010101002</v>
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -44241,11 +44241,11 @@
         </is>
       </c>
       <c r="G1296">
-        <v>1121010101004</v>
+        <v>1121010101003</v>
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -44275,11 +44275,11 @@
         </is>
       </c>
       <c r="G1297">
-        <v>1121010101006</v>
+        <v>1121010101004</v>
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -44309,11 +44309,11 @@
         </is>
       </c>
       <c r="G1298">
-        <v>1121010201001</v>
+        <v>1121010101006</v>
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -44343,11 +44343,11 @@
         </is>
       </c>
       <c r="G1299">
-        <v>1121010201003</v>
+        <v>1121010201001</v>
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -44377,11 +44377,11 @@
         </is>
       </c>
       <c r="G1300">
-        <v>1121010201004</v>
+        <v>1121010201003</v>
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -44411,11 +44411,11 @@
         </is>
       </c>
       <c r="G1301">
-        <v>1121010301001</v>
+        <v>1121010201004</v>
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -44445,11 +44445,11 @@
         </is>
       </c>
       <c r="G1302">
-        <v>1121010301002</v>
+        <v>1121010301001</v>
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -44479,11 +44479,11 @@
         </is>
       </c>
       <c r="G1303">
-        <v>1121010301003</v>
+        <v>1121010301002</v>
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -44513,11 +44513,11 @@
         </is>
       </c>
       <c r="G1304">
-        <v>1121010401002</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -44547,11 +44547,11 @@
         </is>
       </c>
       <c r="G1305">
-        <v>1121010401003</v>
+        <v>1121010401002</v>
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -44581,11 +44581,11 @@
         </is>
       </c>
       <c r="G1306">
-        <v>1922990199000</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -44607,19 +44607,19 @@
         </is>
       </c>
       <c r="E1307">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1307" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1307">
-        <v>1121040107000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44649,11 +44649,11 @@
         </is>
       </c>
       <c r="G1308">
-        <v>1122010101002</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -44683,11 +44683,11 @@
         </is>
       </c>
       <c r="G1309">
-        <v>1122010101004</v>
+        <v>1122010101002</v>
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -44717,11 +44717,11 @@
         </is>
       </c>
       <c r="G1310">
-        <v>1122010101005</v>
+        <v>1122010101004</v>
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -44751,11 +44751,11 @@
         </is>
       </c>
       <c r="G1311">
-        <v>1122010101011</v>
+        <v>1122010101005</v>
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
     </row>
@@ -44785,11 +44785,11 @@
         </is>
       </c>
       <c r="G1312">
-        <v>1122010201002</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -44819,11 +44819,11 @@
         </is>
       </c>
       <c r="G1313">
-        <v>1122010201004</v>
+        <v>1122010201002</v>
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -44845,19 +44845,19 @@
         </is>
       </c>
       <c r="E1314">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F1314" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1314">
-        <v>1121010101005</v>
+        <v>1122010201004</v>
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -44887,11 +44887,11 @@
         </is>
       </c>
       <c r="G1315">
-        <v>1121010201005</v>
+        <v>1121010101005</v>
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -44921,11 +44921,11 @@
         </is>
       </c>
       <c r="G1316">
-        <v>1121010301005</v>
+        <v>1121010201005</v>
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -44955,11 +44955,11 @@
         </is>
       </c>
       <c r="G1317">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -44981,19 +44981,19 @@
         </is>
       </c>
       <c r="E1318">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1318">
-        <v>1121040102000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -45023,11 +45023,11 @@
         </is>
       </c>
       <c r="G1319">
-        <v>1121040202000</v>
+        <v>1121040102000</v>
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -45057,11 +45057,11 @@
         </is>
       </c>
       <c r="G1320">
-        <v>1121040302000</v>
+        <v>1121040202000</v>
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -45091,11 +45091,11 @@
         </is>
       </c>
       <c r="G1321">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -45125,11 +45125,11 @@
         </is>
       </c>
       <c r="G1322">
-        <v>1922990199000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -45151,19 +45151,19 @@
         </is>
       </c>
       <c r="E1323">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1323">
-        <v>1121040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45185,19 +45185,19 @@
         </is>
       </c>
       <c r="E1324">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F1324" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1324">
-        <v>1792010101000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -45219,19 +45219,19 @@
         </is>
       </c>
       <c r="E1325">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F1325" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1325">
-        <v>1321010101000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -45253,11 +45253,11 @@
         </is>
       </c>
       <c r="E1326">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F1326" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1326">
@@ -45295,11 +45295,11 @@
         </is>
       </c>
       <c r="G1327">
-        <v>1921990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45329,11 +45329,11 @@
         </is>
       </c>
       <c r="G1328">
-        <v>1922063199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45363,11 +45363,11 @@
         </is>
       </c>
       <c r="G1329">
-        <v>1922990199000</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45389,19 +45389,19 @@
         </is>
       </c>
       <c r="E1330">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1330" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1330">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45415,27 +45415,27 @@
         </is>
       </c>
       <c r="C1331">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1331">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F1331" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1331">
-        <v>1121040107000</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45465,11 +45465,11 @@
         </is>
       </c>
       <c r="G1332">
-        <v>1122010101011</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -45483,27 +45483,27 @@
         </is>
       </c>
       <c r="C1333">
-        <v>2441</v>
+        <v>2091</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1333">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1333" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1333">
-        <v>1121010204000</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -45517,27 +45517,27 @@
         </is>
       </c>
       <c r="C1334">
-        <v>1911</v>
+        <v>2441</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1334">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F1334" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1334">
-        <v>1121010301003</v>
+        <v>1121010204000</v>
       </c>
       <c r="H1334" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -45567,11 +45567,11 @@
         </is>
       </c>
       <c r="G1335">
-        <v>1121010401003</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -45593,19 +45593,19 @@
         </is>
       </c>
       <c r="E1336">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1336">
-        <v>1121010301005</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -45635,11 +45635,11 @@
         </is>
       </c>
       <c r="G1337">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -45661,19 +45661,19 @@
         </is>
       </c>
       <c r="E1338">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1338">
-        <v>1121040302000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -45703,21 +45703,21 @@
         </is>
       </c>
       <c r="G1339">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
+          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
         </is>
       </c>
       <c r="C1340">
@@ -45729,19 +45729,19 @@
         </is>
       </c>
       <c r="E1340">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1340">
-        <v>1321010101000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -45755,11 +45755,11 @@
         </is>
       </c>
       <c r="C1341">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1341">
@@ -45805,11 +45805,11 @@
         </is>
       </c>
       <c r="G1342">
-        <v>1922063199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45839,11 +45839,11 @@
         </is>
       </c>
       <c r="G1343">
-        <v>2119990103004</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45873,11 +45873,11 @@
         </is>
       </c>
       <c r="G1344">
-        <v>2129990103001</v>
+        <v>2119990103004</v>
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
+          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
         </is>
       </c>
     </row>
@@ -45907,11 +45907,11 @@
         </is>
       </c>
       <c r="G1345">
-        <v>1922063299000</v>
+        <v>2129990103001</v>
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
         </is>
       </c>
     </row>
@@ -45941,11 +45941,11 @@
         </is>
       </c>
       <c r="G1346">
-        <v>2119990102002</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45959,11 +45959,11 @@
         </is>
       </c>
       <c r="C1347">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1347">
@@ -45975,45 +45975,45 @@
         </is>
       </c>
       <c r="G1347">
-        <v>1922063299000</v>
+        <v>2119990102002</v>
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
         </is>
       </c>
     </row>
     <row r="1348">
       <c r="A1348">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
+          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
         </is>
       </c>
       <c r="C1348">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1348">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F1348" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="G1348">
-        <v>1321010101000</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46043,11 +46043,11 @@
         </is>
       </c>
       <c r="G1349">
-        <v>2211020104000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46077,11 +46077,11 @@
         </is>
       </c>
       <c r="G1350">
-        <v>2211020105000</v>
+        <v>2211020104000</v>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
         </is>
       </c>
     </row>
@@ -46111,11 +46111,11 @@
         </is>
       </c>
       <c r="G1351">
-        <v>2211020199000</v>
+        <v>2211020105000</v>
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
         </is>
       </c>
     </row>
@@ -46145,11 +46145,11 @@
         </is>
       </c>
       <c r="G1352">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46179,45 +46179,45 @@
         </is>
       </c>
       <c r="G1353">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
         </is>
       </c>
       <c r="C1354">
-        <v>2011</v>
+        <v>9999</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1354">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1354">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46231,11 +46231,11 @@
         </is>
       </c>
       <c r="C1355">
-        <v>2091</v>
+        <v>2011</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1355">
@@ -46265,11 +46265,11 @@
         </is>
       </c>
       <c r="C1356">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1356">
@@ -46299,11 +46299,11 @@
         </is>
       </c>
       <c r="C1357">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1357">
@@ -46333,11 +46333,11 @@
         </is>
       </c>
       <c r="C1358">
-        <v>2181</v>
+        <v>2121</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>FCS</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1358">
@@ -46367,11 +46367,11 @@
         </is>
       </c>
       <c r="C1359">
-        <v>2241</v>
+        <v>2181</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1359">
@@ -46401,11 +46401,11 @@
         </is>
       </c>
       <c r="C1360">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>FHEMIG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1360">
@@ -46435,11 +46435,11 @@
         </is>
       </c>
       <c r="C1361">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>UTRAMIG</t>
+          <t>FHEMIG</t>
         </is>
       </c>
       <c r="E1361">
@@ -46469,11 +46469,11 @@
         </is>
       </c>
       <c r="C1362">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>UTRAMIG</t>
         </is>
       </c>
       <c r="E1362">
@@ -46519,11 +46519,11 @@
         </is>
       </c>
       <c r="G1363">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46537,11 +46537,11 @@
         </is>
       </c>
       <c r="C1364">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1364">
@@ -46553,11 +46553,11 @@
         </is>
       </c>
       <c r="G1364">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46571,11 +46571,11 @@
         </is>
       </c>
       <c r="C1365">
-        <v>2371</v>
+        <v>2321</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="E1365">
@@ -46605,11 +46605,11 @@
         </is>
       </c>
       <c r="C1366">
-        <v>4031</v>
+        <v>2371</v>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1366">
@@ -46639,11 +46639,11 @@
         </is>
       </c>
       <c r="C1367">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1367">
@@ -46655,11 +46655,11 @@
         </is>
       </c>
       <c r="G1367">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46689,11 +46689,11 @@
         </is>
       </c>
       <c r="G1368">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46707,11 +46707,11 @@
         </is>
       </c>
       <c r="C1369">
-        <v>1091</v>
+        <v>9999</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1369">
@@ -46723,11 +46723,11 @@
         </is>
       </c>
       <c r="G1369">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46741,11 +46741,11 @@
         </is>
       </c>
       <c r="C1370">
-        <v>2261</v>
+        <v>1091</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>FUNED</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1370">
@@ -46757,11 +46757,11 @@
         </is>
       </c>
       <c r="G1370">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46775,11 +46775,11 @@
         </is>
       </c>
       <c r="C1371">
-        <v>2151</v>
+        <v>2261</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>FUNED</t>
         </is>
       </c>
       <c r="E1371">
@@ -46809,11 +46809,11 @@
         </is>
       </c>
       <c r="C1372">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>FUCAM</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="E1372">
@@ -46843,11 +46843,11 @@
         </is>
       </c>
       <c r="C1373">
-        <v>2251</v>
+        <v>2161</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FUCAM</t>
         </is>
       </c>
       <c r="E1373">
@@ -46859,11 +46859,11 @@
         </is>
       </c>
       <c r="G1373">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46877,11 +46877,11 @@
         </is>
       </c>
       <c r="C1374">
-        <v>1091</v>
+        <v>2251</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1374">
@@ -46893,11 +46893,11 @@
         </is>
       </c>
       <c r="G1374">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46911,11 +46911,11 @@
         </is>
       </c>
       <c r="C1375">
-        <v>1441</v>
+        <v>1091</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>DEF PUB</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1375">
@@ -46945,11 +46945,11 @@
         </is>
       </c>
       <c r="C1376">
-        <v>3051</v>
+        <v>1441</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>DEF PUB</t>
         </is>
       </c>
       <c r="E1376">
@@ -46979,11 +46979,11 @@
         </is>
       </c>
       <c r="C1377">
-        <v>2061</v>
+        <v>3051</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="E1377">
@@ -47013,11 +47013,11 @@
         </is>
       </c>
       <c r="C1378">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1378">
@@ -47029,11 +47029,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>2211020199000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47047,11 +47047,11 @@
         </is>
       </c>
       <c r="C1379">
-        <v>4441</v>
+        <v>2071</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1379">
@@ -47063,11 +47063,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47081,11 +47081,11 @@
         </is>
       </c>
       <c r="C1380">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="E1380">
@@ -47115,11 +47115,11 @@
         </is>
       </c>
       <c r="C1381">
-        <v>2071</v>
+        <v>4451</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="E1381">
@@ -47149,11 +47149,11 @@
         </is>
       </c>
       <c r="C1382">
-        <v>2251</v>
+        <v>2071</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1382">
@@ -47183,11 +47183,11 @@
         </is>
       </c>
       <c r="C1383">
-        <v>2121</v>
+        <v>2251</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1383">
@@ -47199,45 +47199,45 @@
         </is>
       </c>
       <c r="G1383">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1384">
       <c r="A1384">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1384">
-        <v>4031</v>
+        <v>2121</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1384">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1384">
-        <v>1611010123003</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47251,27 +47251,27 @@
         </is>
       </c>
       <c r="C1385">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1385">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1385">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -47285,27 +47285,27 @@
         </is>
       </c>
       <c r="C1386">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1386">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1386">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -47335,11 +47335,11 @@
         </is>
       </c>
       <c r="G1387">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -47353,27 +47353,27 @@
         </is>
       </c>
       <c r="C1388">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1388">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1388">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47387,27 +47387,27 @@
         </is>
       </c>
       <c r="C1389">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1389">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1389">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -47437,11 +47437,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -47455,27 +47455,27 @@
         </is>
       </c>
       <c r="C1391">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1391">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1391">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -47489,27 +47489,27 @@
         </is>
       </c>
       <c r="C1392">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1392">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1392" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1392">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -47523,11 +47523,11 @@
         </is>
       </c>
       <c r="C1393">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1393">
@@ -47539,11 +47539,11 @@
         </is>
       </c>
       <c r="G1393">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47573,11 +47573,11 @@
         </is>
       </c>
       <c r="G1394">
-        <v>1911010199000</v>
+        <v>1739990126001</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
+          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -47591,11 +47591,11 @@
         </is>
       </c>
       <c r="C1395">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1395">
@@ -47607,45 +47607,45 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1396">
       <c r="A1396">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1396">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1396">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1396" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1396">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47675,11 +47675,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -47709,11 +47709,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -47743,11 +47743,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -47777,11 +47777,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -47811,11 +47811,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -47845,11 +47845,11 @@
         </is>
       </c>
       <c r="G1402">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -47879,11 +47879,11 @@
         </is>
       </c>
       <c r="G1403">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -47913,11 +47913,11 @@
         </is>
       </c>
       <c r="G1404">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -47947,11 +47947,11 @@
         </is>
       </c>
       <c r="G1405">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -47981,11 +47981,11 @@
         </is>
       </c>
       <c r="G1406">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -48015,11 +48015,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -48049,11 +48049,11 @@
         </is>
       </c>
       <c r="G1408">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -48083,11 +48083,11 @@
         </is>
       </c>
       <c r="G1409">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -48117,11 +48117,11 @@
         </is>
       </c>
       <c r="G1410">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -48151,11 +48151,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -48185,11 +48185,11 @@
         </is>
       </c>
       <c r="G1412">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -48219,11 +48219,11 @@
         </is>
       </c>
       <c r="G1413">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -48253,11 +48253,11 @@
         </is>
       </c>
       <c r="G1414">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -48287,11 +48287,11 @@
         </is>
       </c>
       <c r="G1415">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -48321,11 +48321,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48355,11 +48355,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48389,11 +48389,11 @@
         </is>
       </c>
       <c r="G1418">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48423,45 +48423,45 @@
         </is>
       </c>
       <c r="G1419">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1420">
       <c r="A1420">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1420">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1420">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1420">
-        <v>1114502101000</v>
+        <v>1911090399000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
         </is>
       </c>
     </row>
@@ -48491,11 +48491,11 @@
         </is>
       </c>
       <c r="G1421">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48525,11 +48525,11 @@
         </is>
       </c>
       <c r="G1422">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48559,11 +48559,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48593,11 +48593,11 @@
         </is>
       </c>
       <c r="G1424">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48627,11 +48627,11 @@
         </is>
       </c>
       <c r="G1425">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48645,11 +48645,11 @@
         </is>
       </c>
       <c r="C1426">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1426">
@@ -48661,11 +48661,11 @@
         </is>
       </c>
       <c r="G1426">
-        <v>1114502101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48695,11 +48695,11 @@
         </is>
       </c>
       <c r="G1427">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48729,11 +48729,11 @@
         </is>
       </c>
       <c r="G1428">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48763,45 +48763,45 @@
         </is>
       </c>
       <c r="G1429">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
     <row r="1430">
       <c r="A1430">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1430">
-        <v>1231</v>
+        <v>1911</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1430">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1430">
-        <v>1349010103000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -48815,11 +48815,11 @@
         </is>
       </c>
       <c r="C1431">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1431">
@@ -48831,11 +48831,11 @@
         </is>
       </c>
       <c r="G1431">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -48849,27 +48849,27 @@
         </is>
       </c>
       <c r="C1432">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1432">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1432" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1432">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -48899,11 +48899,11 @@
         </is>
       </c>
       <c r="G1433">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48933,11 +48933,11 @@
         </is>
       </c>
       <c r="G1434">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -48967,11 +48967,11 @@
         </is>
       </c>
       <c r="G1435">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49001,11 +49001,11 @@
         </is>
       </c>
       <c r="G1436">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49035,11 +49035,11 @@
         </is>
       </c>
       <c r="G1437">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49069,11 +49069,11 @@
         </is>
       </c>
       <c r="G1438">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49103,11 +49103,11 @@
         </is>
       </c>
       <c r="G1439">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49137,11 +49137,11 @@
         </is>
       </c>
       <c r="G1440">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49171,11 +49171,11 @@
         </is>
       </c>
       <c r="G1441">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49205,11 +49205,11 @@
         </is>
       </c>
       <c r="G1442">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49239,11 +49239,11 @@
         </is>
       </c>
       <c r="G1443">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49265,19 +49265,19 @@
         </is>
       </c>
       <c r="E1444">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1444">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -49307,11 +49307,11 @@
         </is>
       </c>
       <c r="G1445">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49341,11 +49341,11 @@
         </is>
       </c>
       <c r="G1446">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49375,11 +49375,11 @@
         </is>
       </c>
       <c r="G1447">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49409,11 +49409,11 @@
         </is>
       </c>
       <c r="G1448">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49443,11 +49443,11 @@
         </is>
       </c>
       <c r="G1449">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49477,11 +49477,11 @@
         </is>
       </c>
       <c r="G1450">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49511,11 +49511,11 @@
         </is>
       </c>
       <c r="G1451">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49545,11 +49545,11 @@
         </is>
       </c>
       <c r="G1452">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49579,11 +49579,11 @@
         </is>
       </c>
       <c r="G1453">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49613,11 +49613,11 @@
         </is>
       </c>
       <c r="G1454">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49647,11 +49647,11 @@
         </is>
       </c>
       <c r="G1455">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49681,11 +49681,11 @@
         </is>
       </c>
       <c r="G1456">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49715,11 +49715,11 @@
         </is>
       </c>
       <c r="G1457">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49749,11 +49749,11 @@
         </is>
       </c>
       <c r="G1458">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49783,11 +49783,11 @@
         </is>
       </c>
       <c r="G1459">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49817,11 +49817,11 @@
         </is>
       </c>
       <c r="G1460">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49851,11 +49851,11 @@
         </is>
       </c>
       <c r="G1461">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49885,11 +49885,11 @@
         </is>
       </c>
       <c r="G1462">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49919,11 +49919,11 @@
         </is>
       </c>
       <c r="G1463">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49953,11 +49953,11 @@
         </is>
       </c>
       <c r="G1464">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -49987,11 +49987,11 @@
         </is>
       </c>
       <c r="G1465">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -50021,11 +50021,11 @@
         </is>
       </c>
       <c r="G1466">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -50055,11 +50055,11 @@
         </is>
       </c>
       <c r="G1467">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -50089,11 +50089,11 @@
         </is>
       </c>
       <c r="G1468">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -50123,11 +50123,11 @@
         </is>
       </c>
       <c r="G1469">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -50141,27 +50141,27 @@
         </is>
       </c>
       <c r="C1470">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1470">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1470">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -50191,11 +50191,11 @@
         </is>
       </c>
       <c r="G1471">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50225,11 +50225,11 @@
         </is>
       </c>
       <c r="G1472">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -50259,11 +50259,11 @@
         </is>
       </c>
       <c r="G1473">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -50293,11 +50293,11 @@
         </is>
       </c>
       <c r="G1474">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -50327,11 +50327,11 @@
         </is>
       </c>
       <c r="G1475">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -50361,11 +50361,11 @@
         </is>
       </c>
       <c r="G1476">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -50395,11 +50395,11 @@
         </is>
       </c>
       <c r="G1477">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -50421,19 +50421,19 @@
         </is>
       </c>
       <c r="E1478">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1478">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -50463,11 +50463,11 @@
         </is>
       </c>
       <c r="G1479">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -50497,11 +50497,11 @@
         </is>
       </c>
       <c r="G1480">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -50531,11 +50531,11 @@
         </is>
       </c>
       <c r="G1481">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -50565,11 +50565,11 @@
         </is>
       </c>
       <c r="G1482">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -50599,11 +50599,11 @@
         </is>
       </c>
       <c r="G1483">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -50633,11 +50633,11 @@
         </is>
       </c>
       <c r="G1484">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -50667,11 +50667,11 @@
         </is>
       </c>
       <c r="G1485">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50685,27 +50685,27 @@
         </is>
       </c>
       <c r="C1486">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1486">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1486">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50735,11 +50735,11 @@
         </is>
       </c>
       <c r="G1487">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -50769,11 +50769,11 @@
         </is>
       </c>
       <c r="G1488">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -50803,11 +50803,11 @@
         </is>
       </c>
       <c r="G1489">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50837,11 +50837,11 @@
         </is>
       </c>
       <c r="G1490">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -50855,27 +50855,27 @@
         </is>
       </c>
       <c r="C1491">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1491">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1491" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1491">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50905,11 +50905,11 @@
         </is>
       </c>
       <c r="G1492">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -50931,19 +50931,19 @@
         </is>
       </c>
       <c r="E1493">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1493">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -50973,11 +50973,11 @@
         </is>
       </c>
       <c r="G1494">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -51007,11 +51007,11 @@
         </is>
       </c>
       <c r="G1495">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -51041,11 +51041,11 @@
         </is>
       </c>
       <c r="G1496">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -51059,27 +51059,27 @@
         </is>
       </c>
       <c r="C1497">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1497">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1497">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -51109,11 +51109,11 @@
         </is>
       </c>
       <c r="G1498">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51127,27 +51127,27 @@
         </is>
       </c>
       <c r="C1499">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1499">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1499" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1499">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -51177,11 +51177,11 @@
         </is>
       </c>
       <c r="G1500">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -51211,11 +51211,11 @@
         </is>
       </c>
       <c r="G1501">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -51245,11 +51245,11 @@
         </is>
       </c>
       <c r="G1502">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -51279,11 +51279,11 @@
         </is>
       </c>
       <c r="G1503">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -51313,11 +51313,11 @@
         </is>
       </c>
       <c r="G1504">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -51347,11 +51347,11 @@
         </is>
       </c>
       <c r="G1505">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -51381,11 +51381,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -51415,11 +51415,11 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -51449,11 +51449,11 @@
         </is>
       </c>
       <c r="G1508">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -51483,11 +51483,11 @@
         </is>
       </c>
       <c r="G1509">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51517,11 +51517,11 @@
         </is>
       </c>
       <c r="G1510">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51551,11 +51551,11 @@
         </is>
       </c>
       <c r="G1511">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51585,11 +51585,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -51619,11 +51619,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51653,11 +51653,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -51671,27 +51671,27 @@
         </is>
       </c>
       <c r="C1515">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1515">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1515" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1515">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -51721,11 +51721,11 @@
         </is>
       </c>
       <c r="G1516">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -51739,27 +51739,27 @@
         </is>
       </c>
       <c r="C1517">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1517">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1517">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51789,11 +51789,11 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51823,11 +51823,11 @@
         </is>
       </c>
       <c r="G1519">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51857,11 +51857,11 @@
         </is>
       </c>
       <c r="G1520">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51891,11 +51891,11 @@
         </is>
       </c>
       <c r="G1521">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51925,11 +51925,11 @@
         </is>
       </c>
       <c r="G1522">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51959,11 +51959,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51993,11 +51993,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52027,11 +52027,11 @@
         </is>
       </c>
       <c r="G1525">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52061,11 +52061,11 @@
         </is>
       </c>
       <c r="G1526">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52095,11 +52095,11 @@
         </is>
       </c>
       <c r="G1527">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52129,11 +52129,11 @@
         </is>
       </c>
       <c r="G1528">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52163,11 +52163,11 @@
         </is>
       </c>
       <c r="G1529">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52197,11 +52197,11 @@
         </is>
       </c>
       <c r="G1530">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52223,19 +52223,19 @@
         </is>
       </c>
       <c r="E1531">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1531">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52265,11 +52265,11 @@
         </is>
       </c>
       <c r="G1532">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52299,11 +52299,11 @@
         </is>
       </c>
       <c r="G1533">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52333,11 +52333,11 @@
         </is>
       </c>
       <c r="G1534">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52367,11 +52367,11 @@
         </is>
       </c>
       <c r="G1535">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52401,11 +52401,11 @@
         </is>
       </c>
       <c r="G1536">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52435,11 +52435,11 @@
         </is>
       </c>
       <c r="G1537">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52469,11 +52469,11 @@
         </is>
       </c>
       <c r="G1538">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52503,11 +52503,11 @@
         </is>
       </c>
       <c r="G1539">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52537,11 +52537,11 @@
         </is>
       </c>
       <c r="G1540">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52571,11 +52571,11 @@
         </is>
       </c>
       <c r="G1541">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52605,11 +52605,11 @@
         </is>
       </c>
       <c r="G1542">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52639,11 +52639,11 @@
         </is>
       </c>
       <c r="G1543">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52673,11 +52673,11 @@
         </is>
       </c>
       <c r="G1544">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52707,11 +52707,11 @@
         </is>
       </c>
       <c r="G1545">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52741,11 +52741,11 @@
         </is>
       </c>
       <c r="G1546">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52775,11 +52775,11 @@
         </is>
       </c>
       <c r="G1547">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52809,11 +52809,11 @@
         </is>
       </c>
       <c r="G1548">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52843,11 +52843,11 @@
         </is>
       </c>
       <c r="G1549">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52877,11 +52877,11 @@
         </is>
       </c>
       <c r="G1550">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52911,11 +52911,11 @@
         </is>
       </c>
       <c r="G1551">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52945,11 +52945,11 @@
         </is>
       </c>
       <c r="G1552">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52979,11 +52979,11 @@
         </is>
       </c>
       <c r="G1553">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53013,11 +53013,11 @@
         </is>
       </c>
       <c r="G1554">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53047,11 +53047,11 @@
         </is>
       </c>
       <c r="G1555">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53081,11 +53081,11 @@
         </is>
       </c>
       <c r="G1556">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53115,11 +53115,11 @@
         </is>
       </c>
       <c r="G1557">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53149,11 +53149,11 @@
         </is>
       </c>
       <c r="G1558">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53183,11 +53183,11 @@
         </is>
       </c>
       <c r="G1559">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53217,11 +53217,11 @@
         </is>
       </c>
       <c r="G1560">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53243,19 +53243,19 @@
         </is>
       </c>
       <c r="E1561">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1561" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1561">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53285,11 +53285,11 @@
         </is>
       </c>
       <c r="G1562">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -53311,19 +53311,19 @@
         </is>
       </c>
       <c r="E1563">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1563">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53353,11 +53353,11 @@
         </is>
       </c>
       <c r="G1564">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -53387,11 +53387,11 @@
         </is>
       </c>
       <c r="G1565">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -53413,19 +53413,19 @@
         </is>
       </c>
       <c r="E1566">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1566" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1566">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -53455,11 +53455,11 @@
         </is>
       </c>
       <c r="G1567">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -53473,11 +53473,11 @@
         </is>
       </c>
       <c r="C1568">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1568">
@@ -53507,27 +53507,27 @@
         </is>
       </c>
       <c r="C1569">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1569">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1569">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -53541,27 +53541,27 @@
         </is>
       </c>
       <c r="C1570">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1570" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1570">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1570" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1570">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -53591,11 +53591,11 @@
         </is>
       </c>
       <c r="G1571">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53617,19 +53617,19 @@
         </is>
       </c>
       <c r="E1572">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1572">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53659,11 +53659,11 @@
         </is>
       </c>
       <c r="G1573">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53685,19 +53685,19 @@
         </is>
       </c>
       <c r="E1574">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1574">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53711,27 +53711,27 @@
         </is>
       </c>
       <c r="C1575">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1575" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1575">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1575">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -53753,19 +53753,19 @@
         </is>
       </c>
       <c r="E1576">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1576">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -53779,27 +53779,27 @@
         </is>
       </c>
       <c r="C1577">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1577">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1577">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -53829,11 +53829,11 @@
         </is>
       </c>
       <c r="G1578">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -53847,27 +53847,27 @@
         </is>
       </c>
       <c r="C1579">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1579">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1579" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1579">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -53881,27 +53881,27 @@
         </is>
       </c>
       <c r="C1580">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1580" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1580">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1580" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1580">
-        <v>1922990199000</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -53915,27 +53915,27 @@
         </is>
       </c>
       <c r="C1581">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1581">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1581" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1581">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53949,27 +53949,27 @@
         </is>
       </c>
       <c r="C1582">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1582" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1582">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1582">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -53983,27 +53983,27 @@
         </is>
       </c>
       <c r="C1583">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1583">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1583">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -54033,11 +54033,11 @@
         </is>
       </c>
       <c r="G1584">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -54051,27 +54051,27 @@
         </is>
       </c>
       <c r="C1585">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1585" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1585">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1585">
-        <v>1711500102000</v>
+        <v>1911090101006</v>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
         </is>
       </c>
     </row>
@@ -54101,11 +54101,11 @@
         </is>
       </c>
       <c r="G1586">
-        <v>9711500102000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -54127,19 +54127,19 @@
         </is>
       </c>
       <c r="E1587">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1587" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1587">
-        <v>1711530102000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -54169,11 +54169,11 @@
         </is>
       </c>
       <c r="G1588">
-        <v>9711530102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -54195,19 +54195,19 @@
         </is>
       </c>
       <c r="E1589">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1589">
-        <v>1711530103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -54237,45 +54237,45 @@
         </is>
       </c>
       <c r="G1590">
-        <v>9711530103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
     <row r="1591">
       <c r="A1591">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1591">
-        <v>4711</v>
+        <v>1911</v>
       </c>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1591">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1591">
-        <v>7215021101001</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -54305,11 +54305,11 @@
         </is>
       </c>
       <c r="G1592">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54339,11 +54339,11 @@
         </is>
       </c>
       <c r="G1593">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -54373,11 +54373,11 @@
         </is>
       </c>
       <c r="G1594">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54407,11 +54407,11 @@
         </is>
       </c>
       <c r="G1595">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54441,11 +54441,11 @@
         </is>
       </c>
       <c r="G1596">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54475,11 +54475,11 @@
         </is>
       </c>
       <c r="G1597">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54509,11 +54509,11 @@
         </is>
       </c>
       <c r="G1598">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54535,19 +54535,19 @@
         </is>
       </c>
       <c r="E1599">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1599">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -54577,11 +54577,11 @@
         </is>
       </c>
       <c r="G1600">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -54611,11 +54611,11 @@
         </is>
       </c>
       <c r="G1601">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -54645,11 +54645,11 @@
         </is>
       </c>
       <c r="G1602">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -54679,11 +54679,11 @@
         </is>
       </c>
       <c r="G1603">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -54713,11 +54713,11 @@
         </is>
       </c>
       <c r="G1604">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -54747,11 +54747,11 @@
         </is>
       </c>
       <c r="G1605">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -54781,11 +54781,11 @@
         </is>
       </c>
       <c r="G1606">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -54815,11 +54815,11 @@
         </is>
       </c>
       <c r="G1607">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -54849,11 +54849,11 @@
         </is>
       </c>
       <c r="G1608">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -54883,11 +54883,11 @@
         </is>
       </c>
       <c r="G1609">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -54917,11 +54917,11 @@
         </is>
       </c>
       <c r="G1610">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -54951,11 +54951,11 @@
         </is>
       </c>
       <c r="G1611">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -54985,11 +54985,11 @@
         </is>
       </c>
       <c r="G1612">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -55019,11 +55019,11 @@
         </is>
       </c>
       <c r="G1613">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -55053,11 +55053,11 @@
         </is>
       </c>
       <c r="G1614">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -55087,11 +55087,11 @@
         </is>
       </c>
       <c r="G1615">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -55121,11 +55121,11 @@
         </is>
       </c>
       <c r="G1616">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -55155,11 +55155,11 @@
         </is>
       </c>
       <c r="G1617">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -55189,11 +55189,11 @@
         </is>
       </c>
       <c r="G1618">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -55223,11 +55223,11 @@
         </is>
       </c>
       <c r="G1619">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -55257,11 +55257,11 @@
         </is>
       </c>
       <c r="G1620">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -55283,19 +55283,19 @@
         </is>
       </c>
       <c r="E1621">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1621">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -55317,19 +55317,19 @@
         </is>
       </c>
       <c r="E1622">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1622">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -55359,11 +55359,11 @@
         </is>
       </c>
       <c r="G1623">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55393,11 +55393,11 @@
         </is>
       </c>
       <c r="G1624">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55427,11 +55427,11 @@
         </is>
       </c>
       <c r="G1625">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -55461,45 +55461,45 @@
         </is>
       </c>
       <c r="G1626">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1627">
       <c r="A1627">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1627">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1627" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1627">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1627" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1627">
-        <v>1215521104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55529,11 +55529,11 @@
         </is>
       </c>
       <c r="G1628">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -55563,45 +55563,45 @@
         </is>
       </c>
       <c r="G1629">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1630">
       <c r="A1630">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1630">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1630" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1630">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1630" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1630">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -55615,27 +55615,27 @@
         </is>
       </c>
       <c r="C1631">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1631">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1631" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1631">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -55649,11 +55649,11 @@
         </is>
       </c>
       <c r="C1632">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1632">
@@ -55683,11 +55683,11 @@
         </is>
       </c>
       <c r="C1633">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1633">
@@ -55699,11 +55699,11 @@
         </is>
       </c>
       <c r="G1633">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55733,11 +55733,11 @@
         </is>
       </c>
       <c r="G1634">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -55767,11 +55767,11 @@
         </is>
       </c>
       <c r="G1635">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -55785,27 +55785,27 @@
         </is>
       </c>
       <c r="C1636">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1636" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1636">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1636" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1636">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -55819,27 +55819,27 @@
         </is>
       </c>
       <c r="C1637">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1637">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1637" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1637">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -55869,11 +55869,11 @@
         </is>
       </c>
       <c r="G1638">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55903,9 +55903,43 @@
         </is>
       </c>
       <c r="G1639">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640">
+        <v>899</v>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1640">
+        <v>9999</v>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1640">
+        <v>95</v>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1640">
         <v>1921990101000</v>
       </c>
-      <c r="H1639" t="inlineStr">
+      <c r="H1640" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1729"/>
+  <dimension ref="A1:H1730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45601,35 +45601,35 @@
     </row>
     <row r="1337">
       <c r="A1337">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
+          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
         </is>
       </c>
       <c r="C1337">
-        <v>2301</v>
+        <v>1451</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1337">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1337">
-        <v>1321010101000</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -45643,11 +45643,11 @@
         </is>
       </c>
       <c r="C1338">
-        <v>9999</v>
+        <v>2301</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1338">
@@ -45659,11 +45659,11 @@
         </is>
       </c>
       <c r="G1338">
-        <v>1711540101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45693,11 +45693,11 @@
         </is>
       </c>
       <c r="G1339">
-        <v>1711540102000</v>
+        <v>1711540101000</v>
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
         </is>
       </c>
     </row>
@@ -45727,45 +45727,45 @@
         </is>
       </c>
       <c r="G1340">
-        <v>9711540102000</v>
+        <v>1711540102000</v>
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
+          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
         </is>
       </c>
       <c r="C1341">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1341">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="G1341">
-        <v>1911010103001</v>
+        <v>9711540102000</v>
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45795,11 +45795,11 @@
         </is>
       </c>
       <c r="G1342">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -45813,27 +45813,27 @@
         </is>
       </c>
       <c r="C1343">
-        <v>4381</v>
+        <v>1911</v>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1343">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1343" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1343">
-        <v>1911010103002</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -45863,11 +45863,11 @@
         </is>
       </c>
       <c r="G1344">
-        <v>1911010103003</v>
+        <v>1911010103002</v>
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -45881,27 +45881,27 @@
         </is>
       </c>
       <c r="C1345">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1345">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1345" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1345">
-        <v>1911010103001</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -45931,11 +45931,11 @@
         </is>
       </c>
       <c r="G1346">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -45949,27 +45949,27 @@
         </is>
       </c>
       <c r="C1347">
-        <v>4381</v>
+        <v>9999</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1347">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1347" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1347">
-        <v>1922990199000</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -45999,11 +45999,11 @@
         </is>
       </c>
       <c r="G1348">
-        <v>9911010103003</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46017,27 +46017,27 @@
         </is>
       </c>
       <c r="C1349">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1349">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1349" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1349">
-        <v>1911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46067,11 +46067,11 @@
         </is>
       </c>
       <c r="G1350">
-        <v>9911010103003</v>
+        <v>1911010103004</v>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46101,45 +46101,45 @@
         </is>
       </c>
       <c r="G1351">
-        <v>9911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
+          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
         </is>
       </c>
       <c r="C1352">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1352">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1352">
-        <v>1121040103000</v>
+        <v>9911010103004</v>
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46169,11 +46169,11 @@
         </is>
       </c>
       <c r="G1353">
-        <v>1121040203000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46203,11 +46203,11 @@
         </is>
       </c>
       <c r="G1354">
-        <v>1121040303000</v>
+        <v>1121040203000</v>
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46237,11 +46237,11 @@
         </is>
       </c>
       <c r="G1355">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46271,11 +46271,11 @@
         </is>
       </c>
       <c r="G1356">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46297,19 +46297,19 @@
         </is>
       </c>
       <c r="E1357">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1357">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46339,11 +46339,11 @@
         </is>
       </c>
       <c r="G1358">
-        <v>1121040109000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46357,27 +46357,27 @@
         </is>
       </c>
       <c r="C1359">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1359">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1359">
-        <v>1121040101000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46407,11 +46407,11 @@
         </is>
       </c>
       <c r="G1360">
-        <v>1121040201000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46441,11 +46441,11 @@
         </is>
       </c>
       <c r="G1361">
-        <v>1121040301000</v>
+        <v>1121040201000</v>
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46475,11 +46475,11 @@
         </is>
       </c>
       <c r="G1362">
-        <v>1922990199000</v>
+        <v>1121040301000</v>
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46501,19 +46501,19 @@
         </is>
       </c>
       <c r="E1363">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1363">
-        <v>1121040103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46543,11 +46543,11 @@
         </is>
       </c>
       <c r="G1364">
-        <v>1121040303000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46577,11 +46577,11 @@
         </is>
       </c>
       <c r="G1365">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46611,11 +46611,11 @@
         </is>
       </c>
       <c r="G1366">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46637,19 +46637,19 @@
         </is>
       </c>
       <c r="E1367">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1367">
-        <v>1121040105000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46679,11 +46679,11 @@
         </is>
       </c>
       <c r="G1368">
-        <v>1121040106000</v>
+        <v>1121040105000</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
         </is>
       </c>
     </row>
@@ -46713,11 +46713,11 @@
         </is>
       </c>
       <c r="G1369">
-        <v>1121040107000</v>
+        <v>1121040106000</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
         </is>
       </c>
     </row>
@@ -46747,11 +46747,11 @@
         </is>
       </c>
       <c r="G1370">
-        <v>1121040109000</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46781,11 +46781,11 @@
         </is>
       </c>
       <c r="G1371">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46799,11 +46799,11 @@
         </is>
       </c>
       <c r="C1372">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1372">
@@ -46815,11 +46815,11 @@
         </is>
       </c>
       <c r="G1372">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46849,11 +46849,11 @@
         </is>
       </c>
       <c r="G1373">
-        <v>1121040108000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46883,11 +46883,11 @@
         </is>
       </c>
       <c r="G1374">
-        <v>1121040109000</v>
+        <v>1121040108000</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
         </is>
       </c>
     </row>
@@ -46917,11 +46917,11 @@
         </is>
       </c>
       <c r="G1375">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46935,11 +46935,11 @@
         </is>
       </c>
       <c r="C1376">
-        <v>2301</v>
+        <v>2241</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1376">
@@ -46951,11 +46951,11 @@
         </is>
       </c>
       <c r="G1376">
-        <v>1122010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46985,11 +46985,11 @@
         </is>
       </c>
       <c r="G1377">
-        <v>1122010101006</v>
+        <v>1122010101001</v>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47019,11 +47019,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>1122010104000</v>
+        <v>1122010101006</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47053,11 +47053,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>1122010201006</v>
+        <v>1122010104000</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47087,11 +47087,11 @@
         </is>
       </c>
       <c r="G1380">
-        <v>1122010301006</v>
+        <v>1122010201006</v>
       </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47121,11 +47121,11 @@
         </is>
       </c>
       <c r="G1381">
-        <v>1122010401006</v>
+        <v>1122010301006</v>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47139,11 +47139,11 @@
         </is>
       </c>
       <c r="C1382">
-        <v>2371</v>
+        <v>2301</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1382">
@@ -47155,11 +47155,11 @@
         </is>
       </c>
       <c r="G1382">
-        <v>1122010101003</v>
+        <v>1122010401006</v>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
+          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47189,11 +47189,11 @@
         </is>
       </c>
       <c r="G1383">
-        <v>1321010101000</v>
+        <v>1122010101003</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
         </is>
       </c>
     </row>
@@ -47223,11 +47223,11 @@
         </is>
       </c>
       <c r="G1384">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47241,27 +47241,27 @@
         </is>
       </c>
       <c r="C1385">
-        <v>2441</v>
+        <v>2371</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1385">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1385">
-        <v>1121010104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47291,11 +47291,11 @@
         </is>
       </c>
       <c r="G1386">
-        <v>1922990199000</v>
+        <v>1121010104000</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -47309,19 +47309,19 @@
         </is>
       </c>
       <c r="C1387">
-        <v>4711</v>
+        <v>2441</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1387">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1387">
@@ -47343,27 +47343,27 @@
         </is>
       </c>
       <c r="C1388">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1388">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1388">
-        <v>1121010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47393,11 +47393,11 @@
         </is>
       </c>
       <c r="G1389">
-        <v>1121010101002</v>
+        <v>1121010101001</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47427,11 +47427,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1121010101003</v>
+        <v>1121010101002</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47461,11 +47461,11 @@
         </is>
       </c>
       <c r="G1391">
-        <v>1121010101004</v>
+        <v>1121010101003</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47495,11 +47495,11 @@
         </is>
       </c>
       <c r="G1392">
-        <v>1121010101006</v>
+        <v>1121010101004</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -47529,11 +47529,11 @@
         </is>
       </c>
       <c r="G1393">
-        <v>1121010201001</v>
+        <v>1121010101006</v>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47563,11 +47563,11 @@
         </is>
       </c>
       <c r="G1394">
-        <v>1121010201003</v>
+        <v>1121010201001</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47597,11 +47597,11 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1121010201004</v>
+        <v>1121010201003</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47631,11 +47631,11 @@
         </is>
       </c>
       <c r="G1396">
-        <v>1121010301001</v>
+        <v>1121010201004</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -47665,11 +47665,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1121010301002</v>
+        <v>1121010301001</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47699,11 +47699,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1121010301003</v>
+        <v>1121010301002</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47733,11 +47733,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1121010401002</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47767,11 +47767,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1121010401003</v>
+        <v>1121010401002</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47801,11 +47801,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1922990199000</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47827,19 +47827,19 @@
         </is>
       </c>
       <c r="E1402">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1402">
-        <v>1121040107000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47869,11 +47869,11 @@
         </is>
       </c>
       <c r="G1403">
-        <v>1122010101002</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47903,11 +47903,11 @@
         </is>
       </c>
       <c r="G1404">
-        <v>1122010101004</v>
+        <v>1122010101002</v>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -47937,11 +47937,11 @@
         </is>
       </c>
       <c r="G1405">
-        <v>1122010101005</v>
+        <v>1122010101004</v>
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -47971,11 +47971,11 @@
         </is>
       </c>
       <c r="G1406">
-        <v>1122010101011</v>
+        <v>1122010101005</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
     </row>
@@ -48005,11 +48005,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>1122010201002</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48039,11 +48039,11 @@
         </is>
       </c>
       <c r="G1408">
-        <v>1122010201004</v>
+        <v>1122010201002</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48065,19 +48065,19 @@
         </is>
       </c>
       <c r="E1409">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F1409" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1409">
-        <v>1121010101005</v>
+        <v>1122010201004</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48107,11 +48107,11 @@
         </is>
       </c>
       <c r="G1410">
-        <v>1121010201005</v>
+        <v>1121010101005</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48141,11 +48141,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>1121010301005</v>
+        <v>1121010201005</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48175,11 +48175,11 @@
         </is>
       </c>
       <c r="G1412">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48201,19 +48201,19 @@
         </is>
       </c>
       <c r="E1413">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1413">
-        <v>1121040102000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48243,11 +48243,11 @@
         </is>
       </c>
       <c r="G1414">
-        <v>1121040202000</v>
+        <v>1121040102000</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48277,11 +48277,11 @@
         </is>
       </c>
       <c r="G1415">
-        <v>1121040302000</v>
+        <v>1121040202000</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48311,11 +48311,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48345,11 +48345,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1922990199000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48371,19 +48371,19 @@
         </is>
       </c>
       <c r="E1418">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F1418" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1418">
-        <v>1121040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48405,19 +48405,19 @@
         </is>
       </c>
       <c r="E1419">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1419">
-        <v>1792010101000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48439,19 +48439,19 @@
         </is>
       </c>
       <c r="E1420">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1420">
-        <v>1321010101000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -48473,11 +48473,11 @@
         </is>
       </c>
       <c r="E1421">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1421">
@@ -48515,11 +48515,11 @@
         </is>
       </c>
       <c r="G1422">
-        <v>1921990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48549,11 +48549,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>1922063199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48583,11 +48583,11 @@
         </is>
       </c>
       <c r="G1424">
-        <v>1922990199000</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48609,19 +48609,19 @@
         </is>
       </c>
       <c r="E1425">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1425" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1425">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48635,27 +48635,27 @@
         </is>
       </c>
       <c r="C1426">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1426">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1426">
-        <v>1121040107000</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48685,11 +48685,11 @@
         </is>
       </c>
       <c r="G1427">
-        <v>1122010101011</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48703,27 +48703,27 @@
         </is>
       </c>
       <c r="C1428">
-        <v>2441</v>
+        <v>2091</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1428">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1428" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1428">
-        <v>1121010204000</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48737,27 +48737,27 @@
         </is>
       </c>
       <c r="C1429">
-        <v>1911</v>
+        <v>2441</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1429">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F1429" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1429">
-        <v>1121010301003</v>
+        <v>1121010204000</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -48787,11 +48787,11 @@
         </is>
       </c>
       <c r="G1430">
-        <v>1121010401003</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48813,19 +48813,19 @@
         </is>
       </c>
       <c r="E1431">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1431">
-        <v>1121010301005</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48855,11 +48855,11 @@
         </is>
       </c>
       <c r="G1432">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48881,19 +48881,19 @@
         </is>
       </c>
       <c r="E1433">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1433" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1433">
-        <v>1121040302000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48923,21 +48923,21 @@
         </is>
       </c>
       <c r="G1434">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
+          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
         </is>
       </c>
       <c r="C1435">
@@ -48949,19 +48949,19 @@
         </is>
       </c>
       <c r="E1435">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1435">
-        <v>1321010101000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48975,11 +48975,11 @@
         </is>
       </c>
       <c r="C1436">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1436">
@@ -49025,11 +49025,11 @@
         </is>
       </c>
       <c r="G1437">
-        <v>1922063199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49059,11 +49059,11 @@
         </is>
       </c>
       <c r="G1438">
-        <v>2119990103004</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49093,11 +49093,11 @@
         </is>
       </c>
       <c r="G1439">
-        <v>2129990103001</v>
+        <v>2119990103004</v>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
+          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
         </is>
       </c>
     </row>
@@ -49127,11 +49127,11 @@
         </is>
       </c>
       <c r="G1440">
-        <v>1922063299000</v>
+        <v>2129990103001</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
         </is>
       </c>
     </row>
@@ -49161,11 +49161,11 @@
         </is>
       </c>
       <c r="G1441">
-        <v>2119990102002</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49179,11 +49179,11 @@
         </is>
       </c>
       <c r="C1442">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1442">
@@ -49195,45 +49195,45 @@
         </is>
       </c>
       <c r="G1442">
-        <v>1922063299000</v>
+        <v>2119990102002</v>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
+          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
         </is>
       </c>
       <c r="C1443">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1443">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="G1443">
-        <v>1321010101000</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49263,11 +49263,11 @@
         </is>
       </c>
       <c r="G1444">
-        <v>2211020104000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49297,11 +49297,11 @@
         </is>
       </c>
       <c r="G1445">
-        <v>2211020105000</v>
+        <v>2211020104000</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
         </is>
       </c>
     </row>
@@ -49331,11 +49331,11 @@
         </is>
       </c>
       <c r="G1446">
-        <v>2211020199000</v>
+        <v>2211020105000</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
         </is>
       </c>
     </row>
@@ -49365,11 +49365,11 @@
         </is>
       </c>
       <c r="G1447">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49399,45 +49399,45 @@
         </is>
       </c>
       <c r="G1448">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
         </is>
       </c>
       <c r="C1449">
-        <v>2011</v>
+        <v>9999</v>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1449">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1449">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49451,11 +49451,11 @@
         </is>
       </c>
       <c r="C1450">
-        <v>2091</v>
+        <v>2011</v>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1450">
@@ -49485,11 +49485,11 @@
         </is>
       </c>
       <c r="C1451">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1451">
@@ -49519,11 +49519,11 @@
         </is>
       </c>
       <c r="C1452">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1452">
@@ -49553,11 +49553,11 @@
         </is>
       </c>
       <c r="C1453">
-        <v>2181</v>
+        <v>2121</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>FCS</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1453">
@@ -49587,11 +49587,11 @@
         </is>
       </c>
       <c r="C1454">
-        <v>2241</v>
+        <v>2181</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1454">
@@ -49621,11 +49621,11 @@
         </is>
       </c>
       <c r="C1455">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>FHEMIG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1455">
@@ -49655,11 +49655,11 @@
         </is>
       </c>
       <c r="C1456">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>UTRAMIG</t>
+          <t>FHEMIG</t>
         </is>
       </c>
       <c r="E1456">
@@ -49689,11 +49689,11 @@
         </is>
       </c>
       <c r="C1457">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>UTRAMIG</t>
         </is>
       </c>
       <c r="E1457">
@@ -49739,11 +49739,11 @@
         </is>
       </c>
       <c r="G1458">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49757,11 +49757,11 @@
         </is>
       </c>
       <c r="C1459">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1459">
@@ -49773,11 +49773,11 @@
         </is>
       </c>
       <c r="G1459">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49791,11 +49791,11 @@
         </is>
       </c>
       <c r="C1460">
-        <v>2371</v>
+        <v>2321</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="E1460">
@@ -49825,11 +49825,11 @@
         </is>
       </c>
       <c r="C1461">
-        <v>4031</v>
+        <v>2371</v>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1461">
@@ -49859,11 +49859,11 @@
         </is>
       </c>
       <c r="C1462">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1462">
@@ -49875,11 +49875,11 @@
         </is>
       </c>
       <c r="G1462">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49909,11 +49909,11 @@
         </is>
       </c>
       <c r="G1463">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49927,11 +49927,11 @@
         </is>
       </c>
       <c r="C1464">
-        <v>1091</v>
+        <v>9999</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1464">
@@ -49943,11 +49943,11 @@
         </is>
       </c>
       <c r="G1464">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49961,11 +49961,11 @@
         </is>
       </c>
       <c r="C1465">
-        <v>2261</v>
+        <v>1091</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>FUNED</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1465">
@@ -49977,11 +49977,11 @@
         </is>
       </c>
       <c r="G1465">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49995,11 +49995,11 @@
         </is>
       </c>
       <c r="C1466">
-        <v>2151</v>
+        <v>2261</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>FUNED</t>
         </is>
       </c>
       <c r="E1466">
@@ -50029,11 +50029,11 @@
         </is>
       </c>
       <c r="C1467">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>FUCAM</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="E1467">
@@ -50063,11 +50063,11 @@
         </is>
       </c>
       <c r="C1468">
-        <v>2251</v>
+        <v>2161</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FUCAM</t>
         </is>
       </c>
       <c r="E1468">
@@ -50079,11 +50079,11 @@
         </is>
       </c>
       <c r="G1468">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50097,11 +50097,11 @@
         </is>
       </c>
       <c r="C1469">
-        <v>1091</v>
+        <v>2251</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1469">
@@ -50113,11 +50113,11 @@
         </is>
       </c>
       <c r="G1469">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50131,11 +50131,11 @@
         </is>
       </c>
       <c r="C1470">
-        <v>1441</v>
+        <v>1091</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>DEF PUB</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1470">
@@ -50165,11 +50165,11 @@
         </is>
       </c>
       <c r="C1471">
-        <v>3051</v>
+        <v>1441</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>DEF PUB</t>
         </is>
       </c>
       <c r="E1471">
@@ -50199,11 +50199,11 @@
         </is>
       </c>
       <c r="C1472">
-        <v>2061</v>
+        <v>3051</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="E1472">
@@ -50233,11 +50233,11 @@
         </is>
       </c>
       <c r="C1473">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1473">
@@ -50249,11 +50249,11 @@
         </is>
       </c>
       <c r="G1473">
-        <v>2211020199000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50267,11 +50267,11 @@
         </is>
       </c>
       <c r="C1474">
-        <v>4441</v>
+        <v>2071</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1474">
@@ -50283,11 +50283,11 @@
         </is>
       </c>
       <c r="G1474">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50301,11 +50301,11 @@
         </is>
       </c>
       <c r="C1475">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="E1475">
@@ -50335,11 +50335,11 @@
         </is>
       </c>
       <c r="C1476">
-        <v>2071</v>
+        <v>4451</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="E1476">
@@ -50369,11 +50369,11 @@
         </is>
       </c>
       <c r="C1477">
-        <v>2251</v>
+        <v>2071</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1477">
@@ -50403,11 +50403,11 @@
         </is>
       </c>
       <c r="C1478">
-        <v>2121</v>
+        <v>2251</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1478">
@@ -50419,45 +50419,45 @@
         </is>
       </c>
       <c r="G1478">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1479">
-        <v>4031</v>
+        <v>2121</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1479">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1479" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1479">
-        <v>1611010123003</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50471,27 +50471,27 @@
         </is>
       </c>
       <c r="C1480">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1480">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1480">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -50505,27 +50505,27 @@
         </is>
       </c>
       <c r="C1481">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1481">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1481">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -50555,11 +50555,11 @@
         </is>
       </c>
       <c r="G1482">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -50573,27 +50573,27 @@
         </is>
       </c>
       <c r="C1483">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1483">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1483" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1483">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50607,27 +50607,27 @@
         </is>
       </c>
       <c r="C1484">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1484">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1484">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -50657,11 +50657,11 @@
         </is>
       </c>
       <c r="G1485">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -50675,27 +50675,27 @@
         </is>
       </c>
       <c r="C1486">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1486">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1486">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -50709,27 +50709,27 @@
         </is>
       </c>
       <c r="C1487">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1487">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1487">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -50743,11 +50743,11 @@
         </is>
       </c>
       <c r="C1488">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1488">
@@ -50759,11 +50759,11 @@
         </is>
       </c>
       <c r="G1488">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50793,11 +50793,11 @@
         </is>
       </c>
       <c r="G1489">
-        <v>1911010199000</v>
+        <v>1739990126001</v>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
+          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -50811,11 +50811,11 @@
         </is>
       </c>
       <c r="C1490">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1490">
@@ -50827,45 +50827,45 @@
         </is>
       </c>
       <c r="G1490">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1491">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1491">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1491" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1491">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50895,11 +50895,11 @@
         </is>
       </c>
       <c r="G1492">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -50929,11 +50929,11 @@
         </is>
       </c>
       <c r="G1493">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -50963,11 +50963,11 @@
         </is>
       </c>
       <c r="G1494">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -50997,11 +50997,11 @@
         </is>
       </c>
       <c r="G1495">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51031,11 +51031,11 @@
         </is>
       </c>
       <c r="G1496">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51065,11 +51065,11 @@
         </is>
       </c>
       <c r="G1497">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51099,11 +51099,11 @@
         </is>
       </c>
       <c r="G1498">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51133,11 +51133,11 @@
         </is>
       </c>
       <c r="G1499">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51167,11 +51167,11 @@
         </is>
       </c>
       <c r="G1500">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51201,11 +51201,11 @@
         </is>
       </c>
       <c r="G1501">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51235,11 +51235,11 @@
         </is>
       </c>
       <c r="G1502">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51269,11 +51269,11 @@
         </is>
       </c>
       <c r="G1503">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51303,11 +51303,11 @@
         </is>
       </c>
       <c r="G1504">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51337,11 +51337,11 @@
         </is>
       </c>
       <c r="G1505">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51371,11 +51371,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51405,11 +51405,11 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51439,11 +51439,11 @@
         </is>
       </c>
       <c r="G1508">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51473,11 +51473,11 @@
         </is>
       </c>
       <c r="G1509">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51507,11 +51507,11 @@
         </is>
       </c>
       <c r="G1510">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51541,11 +51541,11 @@
         </is>
       </c>
       <c r="G1511">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51575,11 +51575,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51609,11 +51609,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51643,11 +51643,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51677,41 +51677,41 @@
         </is>
       </c>
       <c r="G1515">
-        <v>1911090499000</v>
+        <v>1911090399000</v>
+      </c>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+        </is>
       </c>
     </row>
     <row r="1516">
       <c r="A1516">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1516">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1516">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1516">
-        <v>1114502101000</v>
-      </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
+        <v>1911090499000</v>
       </c>
     </row>
     <row r="1517">
@@ -51740,11 +51740,11 @@
         </is>
       </c>
       <c r="G1517">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51774,11 +51774,11 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51808,11 +51808,11 @@
         </is>
       </c>
       <c r="G1519">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51842,11 +51842,11 @@
         </is>
       </c>
       <c r="G1520">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51876,11 +51876,11 @@
         </is>
       </c>
       <c r="G1521">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51894,11 +51894,11 @@
         </is>
       </c>
       <c r="C1522">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1522">
@@ -51910,11 +51910,11 @@
         </is>
       </c>
       <c r="G1522">
-        <v>1114502101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51944,11 +51944,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51978,11 +51978,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52012,45 +52012,45 @@
         </is>
       </c>
       <c r="G1525">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
     <row r="1526">
       <c r="A1526">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1526">
-        <v>1231</v>
+        <v>1911</v>
       </c>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1526">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1526" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1526">
-        <v>1349010103000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52064,11 +52064,11 @@
         </is>
       </c>
       <c r="C1527">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1527">
@@ -52080,11 +52080,11 @@
         </is>
       </c>
       <c r="G1527">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -52098,27 +52098,27 @@
         </is>
       </c>
       <c r="C1528">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1528">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1528">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -52148,11 +52148,11 @@
         </is>
       </c>
       <c r="G1529">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52182,11 +52182,11 @@
         </is>
       </c>
       <c r="G1530">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52216,11 +52216,11 @@
         </is>
       </c>
       <c r="G1531">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52250,11 +52250,11 @@
         </is>
       </c>
       <c r="G1532">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52284,11 +52284,11 @@
         </is>
       </c>
       <c r="G1533">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52318,11 +52318,11 @@
         </is>
       </c>
       <c r="G1534">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52352,11 +52352,11 @@
         </is>
       </c>
       <c r="G1535">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52386,11 +52386,11 @@
         </is>
       </c>
       <c r="G1536">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52420,11 +52420,11 @@
         </is>
       </c>
       <c r="G1537">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52454,11 +52454,11 @@
         </is>
       </c>
       <c r="G1538">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52488,11 +52488,11 @@
         </is>
       </c>
       <c r="G1539">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52514,19 +52514,19 @@
         </is>
       </c>
       <c r="E1540">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1540" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1540">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52556,11 +52556,11 @@
         </is>
       </c>
       <c r="G1541">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52590,11 +52590,11 @@
         </is>
       </c>
       <c r="G1542">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52624,11 +52624,11 @@
         </is>
       </c>
       <c r="G1543">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52658,11 +52658,11 @@
         </is>
       </c>
       <c r="G1544">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52692,11 +52692,11 @@
         </is>
       </c>
       <c r="G1545">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52726,11 +52726,11 @@
         </is>
       </c>
       <c r="G1546">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52760,11 +52760,11 @@
         </is>
       </c>
       <c r="G1547">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52794,11 +52794,11 @@
         </is>
       </c>
       <c r="G1548">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52828,11 +52828,11 @@
         </is>
       </c>
       <c r="G1549">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52862,11 +52862,11 @@
         </is>
       </c>
       <c r="G1550">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52896,11 +52896,11 @@
         </is>
       </c>
       <c r="G1551">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52930,11 +52930,11 @@
         </is>
       </c>
       <c r="G1552">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52964,11 +52964,11 @@
         </is>
       </c>
       <c r="G1553">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52998,11 +52998,11 @@
         </is>
       </c>
       <c r="G1554">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53032,11 +53032,11 @@
         </is>
       </c>
       <c r="G1555">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53066,11 +53066,11 @@
         </is>
       </c>
       <c r="G1556">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53100,11 +53100,11 @@
         </is>
       </c>
       <c r="G1557">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53134,11 +53134,11 @@
         </is>
       </c>
       <c r="G1558">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53168,11 +53168,11 @@
         </is>
       </c>
       <c r="G1559">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53202,11 +53202,11 @@
         </is>
       </c>
       <c r="G1560">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53236,11 +53236,11 @@
         </is>
       </c>
       <c r="G1561">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53270,11 +53270,11 @@
         </is>
       </c>
       <c r="G1562">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53304,11 +53304,11 @@
         </is>
       </c>
       <c r="G1563">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53338,11 +53338,11 @@
         </is>
       </c>
       <c r="G1564">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53372,11 +53372,11 @@
         </is>
       </c>
       <c r="G1565">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53390,27 +53390,27 @@
         </is>
       </c>
       <c r="C1566">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1566">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1566" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1566">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53440,11 +53440,11 @@
         </is>
       </c>
       <c r="G1567">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53474,11 +53474,11 @@
         </is>
       </c>
       <c r="G1568">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -53508,11 +53508,11 @@
         </is>
       </c>
       <c r="G1569">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -53542,11 +53542,11 @@
         </is>
       </c>
       <c r="G1570">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -53576,11 +53576,11 @@
         </is>
       </c>
       <c r="G1571">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -53610,11 +53610,11 @@
         </is>
       </c>
       <c r="G1572">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -53644,11 +53644,11 @@
         </is>
       </c>
       <c r="G1573">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -53670,19 +53670,19 @@
         </is>
       </c>
       <c r="E1574">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1574">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -53712,11 +53712,11 @@
         </is>
       </c>
       <c r="G1575">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -53746,11 +53746,11 @@
         </is>
       </c>
       <c r="G1576">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -53780,11 +53780,11 @@
         </is>
       </c>
       <c r="G1577">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -53814,11 +53814,11 @@
         </is>
       </c>
       <c r="G1578">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -53848,11 +53848,11 @@
         </is>
       </c>
       <c r="G1579">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -53882,11 +53882,11 @@
         </is>
       </c>
       <c r="G1580">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -53916,11 +53916,11 @@
         </is>
       </c>
       <c r="G1581">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53934,27 +53934,27 @@
         </is>
       </c>
       <c r="C1582">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1582" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1582">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1582">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53984,11 +53984,11 @@
         </is>
       </c>
       <c r="G1583">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -54018,11 +54018,11 @@
         </is>
       </c>
       <c r="G1584">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -54052,11 +54052,11 @@
         </is>
       </c>
       <c r="G1585">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54086,11 +54086,11 @@
         </is>
       </c>
       <c r="G1586">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -54104,27 +54104,27 @@
         </is>
       </c>
       <c r="C1587">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1587">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1587" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1587">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54154,11 +54154,11 @@
         </is>
       </c>
       <c r="G1588">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54180,19 +54180,19 @@
         </is>
       </c>
       <c r="E1589">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1589">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54222,11 +54222,11 @@
         </is>
       </c>
       <c r="G1590">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54256,11 +54256,11 @@
         </is>
       </c>
       <c r="G1591">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54290,11 +54290,11 @@
         </is>
       </c>
       <c r="G1592">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54308,27 +54308,27 @@
         </is>
       </c>
       <c r="C1593">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1593">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1593">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54358,11 +54358,11 @@
         </is>
       </c>
       <c r="G1594">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -54376,27 +54376,27 @@
         </is>
       </c>
       <c r="C1595">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1595">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1595">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -54426,11 +54426,11 @@
         </is>
       </c>
       <c r="G1596">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -54460,11 +54460,11 @@
         </is>
       </c>
       <c r="G1597">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54494,11 +54494,11 @@
         </is>
       </c>
       <c r="G1598">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -54528,11 +54528,11 @@
         </is>
       </c>
       <c r="G1599">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -54562,11 +54562,11 @@
         </is>
       </c>
       <c r="G1600">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -54596,11 +54596,11 @@
         </is>
       </c>
       <c r="G1601">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -54630,11 +54630,11 @@
         </is>
       </c>
       <c r="G1602">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -54664,11 +54664,11 @@
         </is>
       </c>
       <c r="G1603">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -54698,11 +54698,11 @@
         </is>
       </c>
       <c r="G1604">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -54732,11 +54732,11 @@
         </is>
       </c>
       <c r="G1605">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54766,11 +54766,11 @@
         </is>
       </c>
       <c r="G1606">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54800,11 +54800,11 @@
         </is>
       </c>
       <c r="G1607">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54834,11 +54834,11 @@
         </is>
       </c>
       <c r="G1608">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -54868,11 +54868,11 @@
         </is>
       </c>
       <c r="G1609">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54902,11 +54902,11 @@
         </is>
       </c>
       <c r="G1610">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -54920,27 +54920,27 @@
         </is>
       </c>
       <c r="C1611">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1611">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1611">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -54970,11 +54970,11 @@
         </is>
       </c>
       <c r="G1612">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -54988,27 +54988,27 @@
         </is>
       </c>
       <c r="C1613">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1613">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1613">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55038,11 +55038,11 @@
         </is>
       </c>
       <c r="G1614">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55072,11 +55072,11 @@
         </is>
       </c>
       <c r="G1615">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55106,11 +55106,11 @@
         </is>
       </c>
       <c r="G1616">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55140,11 +55140,11 @@
         </is>
       </c>
       <c r="G1617">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55174,11 +55174,11 @@
         </is>
       </c>
       <c r="G1618">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55208,11 +55208,11 @@
         </is>
       </c>
       <c r="G1619">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55242,11 +55242,11 @@
         </is>
       </c>
       <c r="G1620">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55276,11 +55276,11 @@
         </is>
       </c>
       <c r="G1621">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55310,11 +55310,11 @@
         </is>
       </c>
       <c r="G1622">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55344,11 +55344,11 @@
         </is>
       </c>
       <c r="G1623">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55378,11 +55378,11 @@
         </is>
       </c>
       <c r="G1624">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55412,11 +55412,11 @@
         </is>
       </c>
       <c r="G1625">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55446,11 +55446,11 @@
         </is>
       </c>
       <c r="G1626">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55472,19 +55472,19 @@
         </is>
       </c>
       <c r="E1627">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1627" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1627">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55514,11 +55514,11 @@
         </is>
       </c>
       <c r="G1628">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55548,11 +55548,11 @@
         </is>
       </c>
       <c r="G1629">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55582,11 +55582,11 @@
         </is>
       </c>
       <c r="G1630">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55616,11 +55616,11 @@
         </is>
       </c>
       <c r="G1631">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55650,11 +55650,11 @@
         </is>
       </c>
       <c r="G1632">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55684,11 +55684,11 @@
         </is>
       </c>
       <c r="G1633">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55718,11 +55718,11 @@
         </is>
       </c>
       <c r="G1634">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55752,11 +55752,11 @@
         </is>
       </c>
       <c r="G1635">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55786,11 +55786,11 @@
         </is>
       </c>
       <c r="G1636">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55820,11 +55820,11 @@
         </is>
       </c>
       <c r="G1637">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55854,11 +55854,11 @@
         </is>
       </c>
       <c r="G1638">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55888,11 +55888,11 @@
         </is>
       </c>
       <c r="G1639">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55922,11 +55922,11 @@
         </is>
       </c>
       <c r="G1640">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55956,11 +55956,11 @@
         </is>
       </c>
       <c r="G1641">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55990,11 +55990,11 @@
         </is>
       </c>
       <c r="G1642">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56024,11 +56024,11 @@
         </is>
       </c>
       <c r="G1643">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56058,11 +56058,11 @@
         </is>
       </c>
       <c r="G1644">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56092,11 +56092,11 @@
         </is>
       </c>
       <c r="G1645">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56126,11 +56126,11 @@
         </is>
       </c>
       <c r="G1646">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56160,11 +56160,11 @@
         </is>
       </c>
       <c r="G1647">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56194,11 +56194,11 @@
         </is>
       </c>
       <c r="G1648">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56228,11 +56228,11 @@
         </is>
       </c>
       <c r="G1649">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56262,11 +56262,11 @@
         </is>
       </c>
       <c r="G1650">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56296,11 +56296,11 @@
         </is>
       </c>
       <c r="G1651">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56330,11 +56330,11 @@
         </is>
       </c>
       <c r="G1652">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56364,11 +56364,11 @@
         </is>
       </c>
       <c r="G1653">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56398,11 +56398,11 @@
         </is>
       </c>
       <c r="G1654">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56432,11 +56432,11 @@
         </is>
       </c>
       <c r="G1655">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56466,11 +56466,11 @@
         </is>
       </c>
       <c r="G1656">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56492,19 +56492,19 @@
         </is>
       </c>
       <c r="E1657">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1657" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1657">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56534,11 +56534,11 @@
         </is>
       </c>
       <c r="G1658">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -56560,19 +56560,19 @@
         </is>
       </c>
       <c r="E1659">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1659" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1659">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -56602,11 +56602,11 @@
         </is>
       </c>
       <c r="G1660">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -56636,11 +56636,11 @@
         </is>
       </c>
       <c r="G1661">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -56662,19 +56662,19 @@
         </is>
       </c>
       <c r="E1662">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1662" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1662">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -56704,11 +56704,11 @@
         </is>
       </c>
       <c r="G1663">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -56722,11 +56722,11 @@
         </is>
       </c>
       <c r="C1664">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1664" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1664">
@@ -56756,27 +56756,27 @@
         </is>
       </c>
       <c r="C1665">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1665">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1665" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1665">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1665" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -56790,27 +56790,27 @@
         </is>
       </c>
       <c r="C1666">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1666" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1666">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1666" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1666">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -56840,11 +56840,11 @@
         </is>
       </c>
       <c r="G1667">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56866,19 +56866,19 @@
         </is>
       </c>
       <c r="E1668">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1668">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56908,11 +56908,11 @@
         </is>
       </c>
       <c r="G1669">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56934,19 +56934,19 @@
         </is>
       </c>
       <c r="E1670">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1670" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1670">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56960,27 +56960,27 @@
         </is>
       </c>
       <c r="C1671">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1671">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1671" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1671">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57002,19 +57002,19 @@
         </is>
       </c>
       <c r="E1672">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1672">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -57028,27 +57028,27 @@
         </is>
       </c>
       <c r="C1673">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1673">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1673" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1673">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
       </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57078,11 +57078,11 @@
         </is>
       </c>
       <c r="G1674">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57096,27 +57096,27 @@
         </is>
       </c>
       <c r="C1675">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1675">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1675" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1675">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57130,27 +57130,27 @@
         </is>
       </c>
       <c r="C1676">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1676">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1676">
-        <v>1922990199000</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -57164,27 +57164,27 @@
         </is>
       </c>
       <c r="C1677">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1677">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1677">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57198,27 +57198,27 @@
         </is>
       </c>
       <c r="C1678">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1678">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1678">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57232,27 +57232,27 @@
         </is>
       </c>
       <c r="C1679">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1679">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1679">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57282,45 +57282,45 @@
         </is>
       </c>
       <c r="G1680">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
     <row r="1681">
       <c r="A1681">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1681">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1681">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1681">
-        <v>7215021101001</v>
+        <v>1911090101006</v>
       </c>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
         </is>
       </c>
     </row>
@@ -57350,11 +57350,11 @@
         </is>
       </c>
       <c r="G1682">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57384,11 +57384,11 @@
         </is>
       </c>
       <c r="G1683">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -57418,11 +57418,11 @@
         </is>
       </c>
       <c r="G1684">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57452,11 +57452,11 @@
         </is>
       </c>
       <c r="G1685">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57486,11 +57486,11 @@
         </is>
       </c>
       <c r="G1686">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57520,11 +57520,11 @@
         </is>
       </c>
       <c r="G1687">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1687" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57554,11 +57554,11 @@
         </is>
       </c>
       <c r="G1688">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1688" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57580,19 +57580,19 @@
         </is>
       </c>
       <c r="E1689">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1689" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1689">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57622,11 +57622,11 @@
         </is>
       </c>
       <c r="G1690">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -57656,11 +57656,11 @@
         </is>
       </c>
       <c r="G1691">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -57690,11 +57690,11 @@
         </is>
       </c>
       <c r="G1692">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1692" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -57724,11 +57724,11 @@
         </is>
       </c>
       <c r="G1693">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1693" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -57758,11 +57758,11 @@
         </is>
       </c>
       <c r="G1694">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1694" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -57792,11 +57792,11 @@
         </is>
       </c>
       <c r="G1695">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1695" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -57826,11 +57826,11 @@
         </is>
       </c>
       <c r="G1696">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1696" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -57860,11 +57860,11 @@
         </is>
       </c>
       <c r="G1697">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1697" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -57894,11 +57894,11 @@
         </is>
       </c>
       <c r="G1698">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1698" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -57928,11 +57928,11 @@
         </is>
       </c>
       <c r="G1699">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1699" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -57962,11 +57962,11 @@
         </is>
       </c>
       <c r="G1700">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1700" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -57996,11 +57996,11 @@
         </is>
       </c>
       <c r="G1701">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1701" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58030,11 +58030,11 @@
         </is>
       </c>
       <c r="G1702">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1702" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58064,11 +58064,11 @@
         </is>
       </c>
       <c r="G1703">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1703" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58098,11 +58098,11 @@
         </is>
       </c>
       <c r="G1704">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1704" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58132,11 +58132,11 @@
         </is>
       </c>
       <c r="G1705">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1705" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58166,11 +58166,11 @@
         </is>
       </c>
       <c r="G1706">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1706" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58200,11 +58200,11 @@
         </is>
       </c>
       <c r="G1707">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1707" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58234,11 +58234,11 @@
         </is>
       </c>
       <c r="G1708">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1708" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58268,11 +58268,11 @@
         </is>
       </c>
       <c r="G1709">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1709" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58302,11 +58302,11 @@
         </is>
       </c>
       <c r="G1710">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1710" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58328,19 +58328,19 @@
         </is>
       </c>
       <c r="E1711">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1711">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1711" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58362,19 +58362,19 @@
         </is>
       </c>
       <c r="E1712">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1712">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1712" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58404,11 +58404,11 @@
         </is>
       </c>
       <c r="G1713">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58438,11 +58438,11 @@
         </is>
       </c>
       <c r="G1714">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1714" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58472,11 +58472,11 @@
         </is>
       </c>
       <c r="G1715">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1715" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -58506,45 +58506,45 @@
         </is>
       </c>
       <c r="G1716">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1717">
       <c r="A1717">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1717">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1717">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1717">
-        <v>1215521104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58574,11 +58574,11 @@
         </is>
       </c>
       <c r="G1718">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -58608,45 +58608,45 @@
         </is>
       </c>
       <c r="G1719">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1720">
       <c r="A1720">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1720">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1720" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1720">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1720">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -58660,27 +58660,27 @@
         </is>
       </c>
       <c r="C1721">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1721" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1721">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1721">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58694,11 +58694,11 @@
         </is>
       </c>
       <c r="C1722">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1722">
@@ -58728,11 +58728,11 @@
         </is>
       </c>
       <c r="C1723">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1723">
@@ -58744,11 +58744,11 @@
         </is>
       </c>
       <c r="G1723">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58778,11 +58778,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58812,11 +58812,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -58830,27 +58830,27 @@
         </is>
       </c>
       <c r="C1726">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1726">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1726">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -58864,27 +58864,27 @@
         </is>
       </c>
       <c r="C1727">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1727">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1727">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58914,11 +58914,11 @@
         </is>
       </c>
       <c r="G1728">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58948,9 +58948,43 @@
         </is>
       </c>
       <c r="G1729">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1729" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730">
+        <v>899</v>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1730">
+        <v>9999</v>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1730">
+        <v>95</v>
+      </c>
+      <c r="F1730" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1730">
         <v>1921990101000</v>
       </c>
-      <c r="H1729" t="inlineStr">
+      <c r="H1730" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1730"/>
+  <dimension ref="A1:H1731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41828,45 +41828,45 @@
     </row>
     <row r="1225">
       <c r="A1225">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS DA UNIÃO REFERENTES A COMPENSAÇÕES FINANCEIRAS PELA EXPLORAÇÃO DE RECURSOS NATURAIS</t>
+          <t>OUTRAS TRANSFERÊNCIAS DE CONVÊNIOS OU INSTRUMENTOS CONGÊNERES DE OUTRAS ENTIDADES</t>
         </is>
       </c>
       <c r="C1225">
-        <v>9999</v>
+        <v>1501</v>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEPLAG</t>
         </is>
       </c>
       <c r="E1225">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
+          <t>ACORDOS E AJUSTES DE COOPERACAO MUTUA COM AS INSTITUICOES PRIVADAS E OS ORGANISMOS DO EXTERIOR</t>
         </is>
       </c>
       <c r="G1225">
-        <v>1712521101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>COTA-PARTE COMPENSACAO FINANCEIRA PRODUCAO PETROLEO - LEI FEDERAL NO 7.990/89 - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIA ESPECIAL DA UNIÃO</t>
+          <t>TRANSFERÊNCIAS DA UNIÃO REFERENTES A COMPENSAÇÕES FINANCEIRAS PELA EXPLORAÇÃO DE RECURSOS NATURAIS</t>
         </is>
       </c>
       <c r="C1226">
@@ -41878,19 +41878,19 @@
         </is>
       </c>
       <c r="E1226">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO</t>
+          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
         </is>
       </c>
       <c r="G1226">
-        <v>1321010101000</v>
+        <v>1712521101000</v>
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>COTA-PARTE COMPENSACAO FINANCEIRA PRODUCAO PETROLEO - LEI FEDERAL NO 7.990/89 - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41920,11 +41920,11 @@
         </is>
       </c>
       <c r="G1227">
-        <v>1719570101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>TRANSF. ESPECIAL UNIAO - PRINC. - EMENDAS PARLAMENTARES INDIVIDUAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -41954,7 +41954,7 @@
         </is>
       </c>
       <c r="G1228">
-        <v>2419510101000</v>
+        <v>1719570101000</v>
       </c>
       <c r="H1228" t="inlineStr">
         <is>
@@ -41988,21 +41988,21 @@
         </is>
       </c>
       <c r="G1229">
-        <v>1922990199000</v>
+        <v>2419510101000</v>
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TRANSF. ESPECIAL UNIAO - PRINC. - EMENDAS PARLAMENTARES INDIVIDUAIS</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIA DA UNIÃO REFERENTE À COMPENSAÇÃO FINANCEIRA DE RECURSOS MINERAIS</t>
+          <t>TRANSFERÊNCIA ESPECIAL DA UNIÃO</t>
         </is>
       </c>
       <c r="C1230">
@@ -42014,29 +42014,29 @@
         </is>
       </c>
       <c r="E1230">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>EXPLORACAO DE RECURSOS MINERAIS</t>
+          <t>TRANSFERENCIAS ESPECIAIS DE RECURSOS DA UNIAO</t>
         </is>
       </c>
       <c r="G1230">
-        <v>1712510101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>COTA-PARTE CFEM - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1231">
       <c r="A1231">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIA DA UNIÃO REFERENTE À COMPENSAÇÃO FINANCEIRA DE RECURSOS HÍDRICOS</t>
+          <t>TRANSFERÊNCIA DA UNIÃO REFERENTE À COMPENSAÇÃO FINANCEIRA DE RECURSOS MINERAIS</t>
         </is>
       </c>
       <c r="C1231">
@@ -42048,19 +42048,19 @@
         </is>
       </c>
       <c r="E1231">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>UTILIZACAO DE RECURSOS HIDRICOS</t>
+          <t>EXPLORACAO DE RECURSOS MINERAIS</t>
         </is>
       </c>
       <c r="G1231">
-        <v>1321010101000</v>
+        <v>1712510101000</v>
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>COTA-PARTE CFEM - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42090,11 +42090,11 @@
         </is>
       </c>
       <c r="G1232">
-        <v>1712500101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>COTA-PARTE COMPENSACAO FINANCEIRA RECURSOS HIDRICOS - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42124,11 +42124,11 @@
         </is>
       </c>
       <c r="G1233">
-        <v>1922990199000</v>
+        <v>1712500101000</v>
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>COTA-PARTE COMPENSACAO FINANCEIRA RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42158,45 +42158,45 @@
         </is>
       </c>
       <c r="G1234">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1235">
       <c r="A1235">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERÊNCIAS OBRIGATÓRIAS NÃO DECORRENTES DE REPARTIÇÕES DE RECEITAS.</t>
+          <t>TRANSFERÊNCIA DA UNIÃO REFERENTE À COMPENSAÇÃO FINANCEIRA DE RECURSOS HÍDRICOS</t>
         </is>
       </c>
       <c r="C1235">
-        <v>1481</v>
+        <v>9999</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>SEDESE</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1235">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
+          <t>UTILIZACAO DE RECURSOS HIDRICOS</t>
         </is>
       </c>
       <c r="G1235">
-        <v>1719990115001</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - MINISTERIO DO ESPORTE</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42210,11 +42210,11 @@
         </is>
       </c>
       <c r="C1236">
-        <v>9999</v>
+        <v>1481</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEDESE</t>
         </is>
       </c>
       <c r="E1236">
@@ -42244,27 +42244,27 @@
         </is>
       </c>
       <c r="C1237">
-        <v>1271</v>
+        <v>9999</v>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>SECULT</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1237">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
         </is>
       </c>
       <c r="G1237">
-        <v>1321010101000</v>
+        <v>1719990115001</v>
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DESPORTO LAZER - MINISTERIO DO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -42278,27 +42278,27 @@
         </is>
       </c>
       <c r="C1238">
-        <v>9999</v>
+        <v>1271</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SECULT</t>
         </is>
       </c>
       <c r="E1238">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F1238" t="inlineStr">
         <is>
-          <t>RECURSOS ORDINARIOS - OUTROS RECURSOS NAO VINCULADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1238">
-        <v>1719990129000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. UNIAO ENTIDADES - AUXILIO DE COMPLEMENTACAO DO FPE - LC N 201/2023</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42320,19 +42320,19 @@
         </is>
       </c>
       <c r="E1239">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
+          <t>RECURSOS ORDINARIOS - OUTROS RECURSOS NAO VINCULADOS</t>
         </is>
       </c>
       <c r="G1239">
-        <v>1922990199000</v>
+        <v>1719990129000</v>
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS TRANSF. UNIAO ENTIDADES - AUXILIO DE COMPLEMENTACAO DO FPE - LC N 201/2023</t>
         </is>
       </c>
     </row>
@@ -42346,11 +42346,11 @@
         </is>
       </c>
       <c r="C1240">
-        <v>1481</v>
+        <v>9999</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>SEDESE</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1240">
@@ -42372,35 +42372,35 @@
     </row>
     <row r="1241">
       <c r="A1241">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS FUNDO A FUNDO DE RECURSOS DO FUNDO PENITENCIÁRIO - FUNPEN</t>
+          <t>DEMAIS TRANSFERÊNCIAS OBRIGATÓRIAS NÃO DECORRENTES DE REPARTIÇÕES DE RECEITAS.</t>
         </is>
       </c>
       <c r="C1241">
-        <v>4141</v>
+        <v>1481</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>SEDESE</t>
         </is>
       </c>
       <c r="E1241">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TRANSFERENCIAS DA UNIAO VINCULADAS AO ESPORTE</t>
         </is>
       </c>
       <c r="G1241">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -42430,11 +42430,11 @@
         </is>
       </c>
       <c r="G1242">
-        <v>1719530101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>TRANSF. RECURSOS FUPEN - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42464,11 +42464,11 @@
         </is>
       </c>
       <c r="G1243">
-        <v>2419990123001</v>
+        <v>1719530101000</v>
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - FUNDO PENITENCIARIO NACIONAL</t>
+          <t>TRANSF. RECURSOS FUPEN - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42498,29 +42498,29 @@
         </is>
       </c>
       <c r="G1244">
-        <v>1922990199000</v>
+        <v>2419990123001</v>
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SEGURANCA PUBLICA - FUNDO PENITENCIARIO NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="1245">
       <c r="A1245">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS FUNDO A FUNDO DE RECURSOS DO FUNDO DE SEGURANÇA PÚBLICA - FSP</t>
+          <t>TRANSFERÊNCIAS FUNDO A FUNDO DE RECURSOS DO FUNDO PENITENCIÁRIO - FUNPEN</t>
         </is>
       </c>
       <c r="C1245">
-        <v>4691</v>
+        <v>4141</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>FESP-MG</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1245">
@@ -42532,11 +42532,11 @@
         </is>
       </c>
       <c r="G1245">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -42566,11 +42566,11 @@
         </is>
       </c>
       <c r="G1246">
-        <v>1719530101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>TRANSF. RECURSOS FUPEN - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42600,11 +42600,11 @@
         </is>
       </c>
       <c r="G1247">
-        <v>2419990123002</v>
+        <v>1719530101000</v>
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - FUNDO DE SEGURANCA NACIONAL</t>
+          <t>TRANSF. RECURSOS FUPEN - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42634,29 +42634,29 @@
         </is>
       </c>
       <c r="G1248">
-        <v>1922990199000</v>
+        <v>2419990123002</v>
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SEGURANCA PUBLICA - FUNDO DE SEGURANCA NACIONAL</t>
         </is>
       </c>
     </row>
     <row r="1249">
       <c r="A1249">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS FUNDO A FUNDO DE RECURSOS DO FUNDO DE AMPARO AO TRABALHADOR - FAT</t>
+          <t>TRANSFERÊNCIAS FUNDO A FUNDO DE RECURSOS DO FUNDO DE SEGURANÇA PÚBLICA - FSP</t>
         </is>
       </c>
       <c r="C1249">
-        <v>4701</v>
+        <v>4691</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>FET-MG</t>
+          <t>FESP-MG</t>
         </is>
       </c>
       <c r="E1249">
@@ -42668,11 +42668,11 @@
         </is>
       </c>
       <c r="G1249">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -42702,11 +42702,11 @@
         </is>
       </c>
       <c r="G1250">
-        <v>1719990125001</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>TRABALHO - FUNDO DE AMPARO AO TRABALHADOR - FAT</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42736,45 +42736,45 @@
         </is>
       </c>
       <c r="G1251">
-        <v>1922990199000</v>
+        <v>1719990125001</v>
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TRABALHO - FUNDO DE AMPARO AO TRABALHADOR - FAT</t>
         </is>
       </c>
     </row>
     <row r="1252">
       <c r="A1252">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS DESTINADAS AO SETOR CULTURAL - LC Nº 195/2022 - ART. 5º - AUDIOVISUAL</t>
+          <t>TRANSFERÊNCIAS FUNDO A FUNDO DE RECURSOS DO FUNDO DE AMPARO AO TRABALHADOR - FAT</t>
         </is>
       </c>
       <c r="C1252">
-        <v>9999</v>
+        <v>4701</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FET-MG</t>
         </is>
       </c>
       <c r="E1252">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F1252" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DESTINADAS AO SETOR CULTURAL - LC 195/2022 - ART 5O - AUDIOVISUAL</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="G1252">
-        <v>1719990127005</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>PANDEMIA CORONAVIRUS - LEI PAULO GUSTAVO - ACOES EMERGENCIAIS DESTINADAS AO SETOR CULTURAL - SETOR AUDIOVISUAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -42788,11 +42788,11 @@
         </is>
       </c>
       <c r="C1253">
-        <v>1271</v>
+        <v>9999</v>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>SECULT</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1253">
@@ -42804,11 +42804,11 @@
         </is>
       </c>
       <c r="G1253">
-        <v>1321010101000</v>
+        <v>1719990127005</v>
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>PANDEMIA CORONAVIRUS - LEI PAULO GUSTAVO - ACOES EMERGENCIAIS DESTINADAS AO SETOR CULTURAL - SETOR AUDIOVISUAL</t>
         </is>
       </c>
     </row>
@@ -42838,11 +42838,11 @@
         </is>
       </c>
       <c r="G1254">
-        <v>1719990127005</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>PANDEMIA CORONAVIRUS - LEI PAULO GUSTAVO - ACOES EMERGENCIAIS DESTINADAS AO SETOR CULTURAL - SETOR AUDIOVISUAL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -42856,11 +42856,11 @@
         </is>
       </c>
       <c r="C1255">
-        <v>9999</v>
+        <v>1271</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SECULT</t>
         </is>
       </c>
       <c r="E1255">
@@ -42872,37 +42872,37 @@
         </is>
       </c>
       <c r="G1255">
-        <v>1321010101000</v>
+        <v>1719990127005</v>
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>PANDEMIA CORONAVIRUS - LEI PAULO GUSTAVO - ACOES EMERGENCIAIS DESTINADAS AO SETOR CULTURAL - SETOR AUDIOVISUAL</t>
         </is>
       </c>
     </row>
     <row r="1256">
       <c r="A1256">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS DESTINADAS AO SETOR CULTURAL - LC Nº 195/2022 - ART. 8º - DEMAIS SETORES DA CULTURA</t>
+          <t>TRANSFERÊNCIAS DESTINADAS AO SETOR CULTURAL - LC Nº 195/2022 - ART. 5º - AUDIOVISUAL</t>
         </is>
       </c>
       <c r="C1256">
-        <v>1271</v>
+        <v>9999</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>SECULT</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1256">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
+          <t>TRANSFERENCIAS DESTINADAS AO SETOR CULTURAL - LC 195/2022 - ART 5O - AUDIOVISUAL</t>
         </is>
       </c>
       <c r="G1256">
@@ -42940,29 +42940,29 @@
         </is>
       </c>
       <c r="G1257">
-        <v>1719990127006</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>PANDEMIA CORONAVIRUS - LEI PAULO GUSTAVO - ACOES EMERGENCIAIS DESTINADAS AO SETOR CULTURAL - DEMAIS SETORES</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1258">
       <c r="A1258">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>ASSISTÊNCIA FINANCEIRA TRANSPORTE COLETIVO - ART. 5º, INCISO IV, EC Nº 123/2022</t>
+          <t>TRANSFERÊNCIAS DESTINADAS AO SETOR CULTURAL - LC Nº 195/2022 - ART. 8º - DEMAIS SETORES DA CULTURA</t>
         </is>
       </c>
       <c r="C1258">
-        <v>1301</v>
+        <v>1271</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>SECULT</t>
         </is>
       </c>
       <c r="E1258">
@@ -42974,45 +42974,45 @@
         </is>
       </c>
       <c r="G1258">
-        <v>1321010101000</v>
+        <v>1719990127006</v>
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>PANDEMIA CORONAVIRUS - LEI PAULO GUSTAVO - ACOES EMERGENCIAIS DESTINADAS AO SETOR CULTURAL - DEMAIS SETORES</t>
         </is>
       </c>
     </row>
     <row r="1259">
       <c r="A1259">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS DA POLÍTICA NACIONAL ALDIR BLANC DE FOMENTO À CULTURA - LEI Nº 14.399/2022</t>
+          <t>ASSISTÊNCIA FINANCEIRA TRANSPORTE COLETIVO - ART. 5º, INCISO IV, EC Nº 123/2022</t>
         </is>
       </c>
       <c r="C1259">
-        <v>1271</v>
+        <v>1301</v>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>SECULT</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1259">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>TRANSFERENCIAS DA UNIAO POR MEIO DE PORTARIA - EXCETO EMENDAS INDIVIDUAIS E DE BANCADA</t>
         </is>
       </c>
       <c r="G1259">
-        <v>1719990128000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. UNIAO ENTIDADES - POLITICA NACIONAL ALDIR BLANC DE FOMENTO A CULTURA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43042,79 +43042,79 @@
         </is>
       </c>
       <c r="G1260">
-        <v>1321010101000</v>
+        <v>1719990128000</v>
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. UNIAO ENTIDADES - POLITICA NACIONAL ALDIR BLANC DE FOMENTO A CULTURA</t>
         </is>
       </c>
     </row>
     <row r="1261">
       <c r="A1261">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>TRANSFERÊNCIAS DA UNIÃO REFERENTES ÀS PARTICIPAÇÕES NA EXPLORAÇÃO DE PETRÓLEO E GÁS NATURAL DESTINADAS AO FEP - LEI 9.478/1997</t>
+          <t>TRANSFERÊNCIAS DA POLÍTICA NACIONAL ALDIR BLANC DE FOMENTO À CULTURA - LEI Nº 14.399/2022</t>
         </is>
       </c>
       <c r="C1261">
-        <v>9999</v>
+        <v>1271</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SECULT</t>
         </is>
       </c>
       <c r="E1261">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="G1261">
-        <v>1712521101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>COTA-PARTE COMPENSACAO FINANCEIRA PRODUCAO PETROLEO - LEI FEDERAL NO 7.990/89 - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1262">
       <c r="A1262">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
+          <t>TRANSFERÊNCIAS DA UNIÃO REFERENTES ÀS PARTICIPAÇÕES NA EXPLORAÇÃO DE PETRÓLEO E GÁS NATURAL DESTINADAS AO FEP - LEI 9.478/1997</t>
         </is>
       </c>
       <c r="C1262">
-        <v>2061</v>
+        <v>9999</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1262">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>EXPLORACAO E PRODUCAO DE PETROLEO E GAS NATURAL</t>
         </is>
       </c>
       <c r="G1262">
-        <v>1741990127999</v>
+        <v>1712521101000</v>
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>EDUCACAO - OUTROS</t>
+          <t>COTA-PARTE COMPENSACAO FINANCEIRA PRODUCAO PETROLEO - LEI FEDERAL NO 7.990/89 - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43128,11 +43128,11 @@
         </is>
       </c>
       <c r="C1263">
-        <v>2091</v>
+        <v>2061</v>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1263">
@@ -43144,11 +43144,11 @@
         </is>
       </c>
       <c r="G1263">
-        <v>1321010101000</v>
+        <v>1741990127999</v>
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>EDUCACAO - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43178,11 +43178,11 @@
         </is>
       </c>
       <c r="G1264">
-        <v>1741990146999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>MEIO AMBIENTE - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43196,11 +43196,11 @@
         </is>
       </c>
       <c r="C1265">
-        <v>2201</v>
+        <v>2091</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>IEPHA</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1265">
@@ -43212,11 +43212,11 @@
         </is>
       </c>
       <c r="G1265">
-        <v>1321010101000</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MEIO AMBIENTE - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43230,11 +43230,11 @@
         </is>
       </c>
       <c r="C1266">
-        <v>4091</v>
+        <v>2201</v>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>FIA</t>
+          <t>IEPHA</t>
         </is>
       </c>
       <c r="E1266">
@@ -43246,11 +43246,11 @@
         </is>
       </c>
       <c r="G1266">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43280,11 +43280,11 @@
         </is>
       </c>
       <c r="G1267">
-        <v>1791990114000</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43298,11 +43298,11 @@
         </is>
       </c>
       <c r="C1268">
-        <v>4601</v>
+        <v>4091</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>FEI</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="E1268">
@@ -43314,11 +43314,11 @@
         </is>
       </c>
       <c r="G1268">
-        <v>1741990141999</v>
+        <v>1791990114000</v>
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
         </is>
       </c>
     </row>
@@ -43348,11 +43348,11 @@
         </is>
       </c>
       <c r="G1269">
-        <v>1791990114000</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43366,27 +43366,27 @@
         </is>
       </c>
       <c r="C1270">
-        <v>9999</v>
+        <v>4601</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEI</t>
         </is>
       </c>
       <c r="E1270">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1270">
-        <v>1321010101000</v>
+        <v>1791990114000</v>
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - DIREITOS HUMANOS E DE CIDADANIA</t>
         </is>
       </c>
     </row>
@@ -43416,11 +43416,11 @@
         </is>
       </c>
       <c r="G1271">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43450,7 +43450,7 @@
         </is>
       </c>
       <c r="G1272">
-        <v>2441990150999</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1272" t="inlineStr">
         <is>
@@ -43476,19 +43476,19 @@
         </is>
       </c>
       <c r="E1273">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1273" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1273">
-        <v>1321010101000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43518,11 +43518,11 @@
         </is>
       </c>
       <c r="G1274">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43552,11 +43552,11 @@
         </is>
       </c>
       <c r="G1275">
-        <v>1741990150999</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43586,11 +43586,11 @@
         </is>
       </c>
       <c r="G1276">
-        <v>1791990123000</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43620,11 +43620,11 @@
         </is>
       </c>
       <c r="G1277">
-        <v>2441990150999</v>
+        <v>1791990123000</v>
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
         </is>
       </c>
     </row>
@@ -43654,11 +43654,11 @@
         </is>
       </c>
       <c r="G1278">
-        <v>2491990123000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43680,19 +43680,19 @@
         </is>
       </c>
       <c r="E1279">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1279" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1279">
-        <v>1321010101000</v>
+        <v>2491990123000</v>
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
         </is>
       </c>
     </row>
@@ -43722,11 +43722,11 @@
         </is>
       </c>
       <c r="G1280">
-        <v>1792010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43740,27 +43740,27 @@
         </is>
       </c>
       <c r="C1281">
-        <v>1251</v>
+        <v>9999</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1281">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1281" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR AO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1281">
-        <v>1791990123000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -43774,11 +43774,11 @@
         </is>
       </c>
       <c r="C1282">
-        <v>1451</v>
+        <v>1251</v>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1282">
@@ -43790,11 +43790,11 @@
         </is>
       </c>
       <c r="G1282">
-        <v>1321010101000</v>
+        <v>1791990123000</v>
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS TRANSF. PESSOAS FISICAS - PRINC. - SEGURANCA PUBLICA</t>
         </is>
       </c>
     </row>
@@ -43808,11 +43808,11 @@
         </is>
       </c>
       <c r="C1283">
-        <v>2171</v>
+        <v>1451</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>FAOP</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1283">
@@ -43842,11 +43842,11 @@
         </is>
       </c>
       <c r="C1284">
-        <v>1251</v>
+        <v>2171</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>FAOP</t>
         </is>
       </c>
       <c r="E1284">
@@ -43858,11 +43858,11 @@
         </is>
       </c>
       <c r="G1284">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43892,7 +43892,7 @@
         </is>
       </c>
       <c r="G1285">
-        <v>2441990150999</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1285" t="inlineStr">
         <is>
@@ -43910,11 +43910,11 @@
         </is>
       </c>
       <c r="C1286">
-        <v>1511</v>
+        <v>1251</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1286">
@@ -43926,11 +43926,11 @@
         </is>
       </c>
       <c r="G1286">
-        <v>1321010101000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -43944,11 +43944,11 @@
         </is>
       </c>
       <c r="C1287">
-        <v>1401</v>
+        <v>1511</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>CBMMG</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1287">
@@ -43960,11 +43960,11 @@
         </is>
       </c>
       <c r="G1287">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -43978,11 +43978,11 @@
         </is>
       </c>
       <c r="C1288">
-        <v>1071</v>
+        <v>1401</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>GABINETE MILITAR</t>
+          <t>CBMMG</t>
         </is>
       </c>
       <c r="E1288">
@@ -43994,11 +43994,11 @@
         </is>
       </c>
       <c r="G1288">
-        <v>1321010101000</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44012,27 +44012,27 @@
         </is>
       </c>
       <c r="C1289">
-        <v>1251</v>
+        <v>1071</v>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>GABINETE MILITAR</t>
         </is>
       </c>
       <c r="E1289">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1289">
-        <v>2441990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44054,19 +44054,19 @@
         </is>
       </c>
       <c r="E1290">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1290">
-        <v>1321010101000</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44080,27 +44080,27 @@
         </is>
       </c>
       <c r="C1291">
-        <v>1081</v>
+        <v>1251</v>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1291">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1291">
-        <v>1741990134999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44130,7 +44130,7 @@
         </is>
       </c>
       <c r="G1292">
-        <v>2441990134999</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1292" t="inlineStr">
         <is>
@@ -44148,27 +44148,27 @@
         </is>
       </c>
       <c r="C1293">
-        <v>1481</v>
+        <v>1081</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>SEDESE</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="E1293">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1293">
-        <v>1741990140001</v>
+        <v>2441990134999</v>
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44182,27 +44182,27 @@
         </is>
       </c>
       <c r="C1294">
-        <v>9999</v>
+        <v>1481</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEDESE</t>
         </is>
       </c>
       <c r="E1294">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F1294" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1294">
-        <v>1741990134999</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -44232,7 +44232,7 @@
         </is>
       </c>
       <c r="G1295">
-        <v>2441990134999</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1295" t="inlineStr">
         <is>
@@ -44250,11 +44250,11 @@
         </is>
       </c>
       <c r="C1296">
-        <v>1371</v>
+        <v>9999</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1296">
@@ -44266,11 +44266,11 @@
         </is>
       </c>
       <c r="G1296">
-        <v>1741990146999</v>
+        <v>2441990134999</v>
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>MEIO AMBIENTE - OUTROS</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44300,7 +44300,7 @@
         </is>
       </c>
       <c r="G1297">
-        <v>2441990146999</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1297" t="inlineStr">
         <is>
@@ -44318,11 +44318,11 @@
         </is>
       </c>
       <c r="C1298">
-        <v>9999</v>
+        <v>1371</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1298">
@@ -44334,7 +44334,7 @@
         </is>
       </c>
       <c r="G1298">
-        <v>1741990146999</v>
+        <v>2441990146999</v>
       </c>
       <c r="H1298" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         </is>
       </c>
       <c r="G1299">
-        <v>2441990146999</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1299" t="inlineStr">
         <is>
@@ -44386,11 +44386,11 @@
         </is>
       </c>
       <c r="C1300">
-        <v>1251</v>
+        <v>9999</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1300">
@@ -44402,11 +44402,11 @@
         </is>
       </c>
       <c r="G1300">
-        <v>1321010101000</v>
+        <v>2441990146999</v>
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MEIO AMBIENTE - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44420,11 +44420,11 @@
         </is>
       </c>
       <c r="C1301">
-        <v>1371</v>
+        <v>1251</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1301">
@@ -44454,11 +44454,11 @@
         </is>
       </c>
       <c r="C1302">
-        <v>1511</v>
+        <v>1371</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1302">
@@ -44470,11 +44470,11 @@
         </is>
       </c>
       <c r="G1302">
-        <v>2441990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44488,11 +44488,11 @@
         </is>
       </c>
       <c r="C1303">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>CGE</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1303">
@@ -44504,11 +44504,11 @@
         </is>
       </c>
       <c r="G1303">
-        <v>1741990134999</v>
+        <v>2441990150999</v>
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44522,11 +44522,11 @@
         </is>
       </c>
       <c r="C1304">
-        <v>2091</v>
+        <v>1521</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>CGE</t>
         </is>
       </c>
       <c r="E1304">
@@ -44538,11 +44538,11 @@
         </is>
       </c>
       <c r="G1304">
-        <v>1321010101000</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44572,11 +44572,11 @@
         </is>
       </c>
       <c r="G1305">
-        <v>1741990146999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>MEIO AMBIENTE - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44606,7 +44606,7 @@
         </is>
       </c>
       <c r="G1306">
-        <v>2441990146999</v>
+        <v>1741990146999</v>
       </c>
       <c r="H1306" t="inlineStr">
         <is>
@@ -44624,11 +44624,11 @@
         </is>
       </c>
       <c r="C1307">
-        <v>2201</v>
+        <v>2091</v>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>IEPHA</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1307">
@@ -44640,11 +44640,11 @@
         </is>
       </c>
       <c r="G1307">
-        <v>1741990139999</v>
+        <v>2441990146999</v>
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>CULTURA - OUTROS</t>
+          <t>MEIO AMBIENTE - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44674,7 +44674,7 @@
         </is>
       </c>
       <c r="G1308">
-        <v>2441990139999</v>
+        <v>1741990139999</v>
       </c>
       <c r="H1308" t="inlineStr">
         <is>
@@ -44692,11 +44692,11 @@
         </is>
       </c>
       <c r="C1309">
-        <v>2101</v>
+        <v>2201</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IEPHA</t>
         </is>
       </c>
       <c r="E1309">
@@ -44708,11 +44708,11 @@
         </is>
       </c>
       <c r="G1309">
-        <v>1321010101000</v>
+        <v>2441990139999</v>
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CULTURA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44742,11 +44742,11 @@
         </is>
       </c>
       <c r="G1310">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44760,27 +44760,27 @@
         </is>
       </c>
       <c r="C1311">
-        <v>2171</v>
+        <v>2101</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>FAOP</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1311">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1311">
-        <v>1741990139999</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>CULTURA - OUTROS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -44810,7 +44810,7 @@
         </is>
       </c>
       <c r="G1312">
-        <v>2441990139999</v>
+        <v>1741990139999</v>
       </c>
       <c r="H1312" t="inlineStr">
         <is>
@@ -44828,27 +44828,27 @@
         </is>
       </c>
       <c r="C1313">
-        <v>4331</v>
+        <v>2171</v>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FAOP</t>
         </is>
       </c>
       <c r="E1313">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1313">
-        <v>1321010101000</v>
+        <v>2441990139999</v>
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CULTURA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -44878,11 +44878,11 @@
         </is>
       </c>
       <c r="G1314">
-        <v>1741990152001</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>URBANISMO - BELLAGIO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -44912,11 +44912,11 @@
         </is>
       </c>
       <c r="G1315">
-        <v>1922990199000</v>
+        <v>1741990152001</v>
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>URBANISMO - BELLAGIO</t>
         </is>
       </c>
     </row>
@@ -44930,11 +44930,11 @@
         </is>
       </c>
       <c r="C1316">
-        <v>9999</v>
+        <v>4331</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1316">
@@ -44972,19 +44972,19 @@
         </is>
       </c>
       <c r="E1317">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1317">
-        <v>1719990128000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>OUTRAS TRANSF. UNIAO ENTIDADES - POLITICA NACIONAL ALDIR BLANC DE FOMENTO A CULTURA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45006,19 +45006,19 @@
         </is>
       </c>
       <c r="E1318">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="G1318">
-        <v>1922990199000</v>
+        <v>1719990128000</v>
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS TRANSF. UNIAO ENTIDADES - POLITICA NACIONAL ALDIR BLANC DE FOMENTO A CULTURA</t>
         </is>
       </c>
     </row>
@@ -45048,11 +45048,11 @@
         </is>
       </c>
       <c r="G1319">
-        <v>2441990123999</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -45066,27 +45066,27 @@
         </is>
       </c>
       <c r="C1320">
-        <v>1081</v>
+        <v>9999</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1320">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1320">
-        <v>1321010101000</v>
+        <v>2441990123999</v>
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -45100,11 +45100,11 @@
         </is>
       </c>
       <c r="C1321">
-        <v>2201</v>
+        <v>1081</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>IEPHA</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="E1321">
@@ -45134,11 +45134,11 @@
         </is>
       </c>
       <c r="C1322">
-        <v>1191</v>
+        <v>2201</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>SEF</t>
+          <t>IEPHA</t>
         </is>
       </c>
       <c r="E1322">
@@ -45184,11 +45184,11 @@
         </is>
       </c>
       <c r="G1323">
-        <v>1741990134999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>ADM. ATIV. FISCAL - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45202,11 +45202,11 @@
         </is>
       </c>
       <c r="C1324">
-        <v>1251</v>
+        <v>1191</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>SEF</t>
         </is>
       </c>
       <c r="E1324">
@@ -45218,11 +45218,11 @@
         </is>
       </c>
       <c r="G1324">
-        <v>1741990150999</v>
+        <v>1741990134999</v>
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>ADM. ATIV. FISCAL - OUTROS</t>
         </is>
       </c>
     </row>
@@ -45236,11 +45236,11 @@
         </is>
       </c>
       <c r="C1325">
-        <v>1081</v>
+        <v>1251</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>AGE</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1325">
@@ -45252,7 +45252,12 @@
         </is>
       </c>
       <c r="G1325">
-        <v>1741990133999</v>
+        <v>1741990150999</v>
+      </c>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
+        </is>
       </c>
     </row>
     <row r="1326">
@@ -45281,7 +45286,7 @@
         </is>
       </c>
       <c r="G1326">
-        <v>2441990133999</v>
+        <v>1741990133999</v>
       </c>
     </row>
     <row r="1327">
@@ -45294,28 +45299,23 @@
         </is>
       </c>
       <c r="C1327">
-        <v>1251</v>
+        <v>1081</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>PMMG</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="E1327">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1327">
-        <v>2441990123999</v>
-      </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
-        </is>
+        <v>2441990133999</v>
       </c>
     </row>
     <row r="1328">
@@ -45328,27 +45328,27 @@
         </is>
       </c>
       <c r="C1328">
-        <v>1511</v>
+        <v>1251</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>PMMG</t>
         </is>
       </c>
       <c r="E1328">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1328">
-        <v>1321010101000</v>
+        <v>2441990123999</v>
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -45362,11 +45362,11 @@
         </is>
       </c>
       <c r="C1329">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>CGE</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1329">
@@ -45396,11 +45396,11 @@
         </is>
       </c>
       <c r="C1330">
-        <v>9999</v>
+        <v>1521</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>CGE</t>
         </is>
       </c>
       <c r="E1330">
@@ -45412,7 +45412,12 @@
         </is>
       </c>
       <c r="G1330">
-        <v>1741990133001</v>
+        <v>1321010101000</v>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+        </is>
       </c>
     </row>
     <row r="1331">
@@ -45441,7 +45446,7 @@
         </is>
       </c>
       <c r="G1331">
-        <v>1741990133999</v>
+        <v>1741990133001</v>
       </c>
     </row>
     <row r="1332">
@@ -45470,7 +45475,7 @@
         </is>
       </c>
       <c r="G1332">
-        <v>2441990133001</v>
+        <v>1741990133999</v>
       </c>
     </row>
     <row r="1333">
@@ -45499,7 +45504,7 @@
         </is>
       </c>
       <c r="G1333">
-        <v>2441990133999</v>
+        <v>2441990133001</v>
       </c>
     </row>
     <row r="1334">
@@ -45520,20 +45525,15 @@
         </is>
       </c>
       <c r="E1334">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1334" t="inlineStr">
         <is>
-          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1334">
-        <v>1321010101000</v>
-      </c>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
-        </is>
+        <v>2441990133999</v>
       </c>
     </row>
     <row r="1335">
@@ -45546,27 +45546,27 @@
         </is>
       </c>
       <c r="C1335">
-        <v>1511</v>
+        <v>9999</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>PCMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1335">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F1335" t="inlineStr">
         <is>
-          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
+          <t>DEMAIS TRANSFERENCIAS VINCULADAS DA UNIAO</t>
         </is>
       </c>
       <c r="G1335">
-        <v>1741990150999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45580,11 +45580,11 @@
         </is>
       </c>
       <c r="C1336">
-        <v>9999</v>
+        <v>1511</v>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>PCMG</t>
         </is>
       </c>
       <c r="E1336">
@@ -45596,7 +45596,12 @@
         </is>
       </c>
       <c r="G1336">
-        <v>2419990106001</v>
+        <v>1741990150999</v>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
+        </is>
       </c>
     </row>
     <row r="1337">
@@ -45609,11 +45614,11 @@
         </is>
       </c>
       <c r="C1337">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1337">
@@ -45625,45 +45630,40 @@
         </is>
       </c>
       <c r="G1337">
-        <v>1741990150999</v>
-      </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>SEGURANCA PUBLICA - OUTROS</t>
-        </is>
+        <v>2419990106001</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
+          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
         </is>
       </c>
       <c r="C1338">
-        <v>2301</v>
+        <v>1451</v>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1338">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1338">
-        <v>1321010101000</v>
+        <v>1741990150999</v>
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>SEGURANCA PUBLICA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -45677,11 +45677,11 @@
         </is>
       </c>
       <c r="C1339">
-        <v>9999</v>
+        <v>2301</v>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1339">
@@ -45693,11 +45693,11 @@
         </is>
       </c>
       <c r="G1339">
-        <v>1711540101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45727,11 +45727,11 @@
         </is>
       </c>
       <c r="G1340">
-        <v>1711540102000</v>
+        <v>1711540101000</v>
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
         </is>
       </c>
     </row>
@@ -45761,45 +45761,45 @@
         </is>
       </c>
       <c r="G1341">
-        <v>9711540102000</v>
+        <v>1711540102000</v>
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
+          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
         </is>
       </c>
       <c r="C1342">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1342">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="G1342">
-        <v>1911010103001</v>
+        <v>9711540102000</v>
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45829,11 +45829,11 @@
         </is>
       </c>
       <c r="G1343">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -45847,27 +45847,27 @@
         </is>
       </c>
       <c r="C1344">
-        <v>4381</v>
+        <v>1911</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1344">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1344" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1344">
-        <v>1911010103002</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -45897,11 +45897,11 @@
         </is>
       </c>
       <c r="G1345">
-        <v>1911010103003</v>
+        <v>1911010103002</v>
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -45915,27 +45915,27 @@
         </is>
       </c>
       <c r="C1346">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1346">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1346" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1346">
-        <v>1911010103001</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -45965,11 +45965,11 @@
         </is>
       </c>
       <c r="G1347">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -45983,27 +45983,27 @@
         </is>
       </c>
       <c r="C1348">
-        <v>4381</v>
+        <v>9999</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1348">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1348" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1348">
-        <v>1922990199000</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46033,11 +46033,11 @@
         </is>
       </c>
       <c r="G1349">
-        <v>9911010103003</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46051,27 +46051,27 @@
         </is>
       </c>
       <c r="C1350">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1350">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1350" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1350">
-        <v>1911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46101,11 +46101,11 @@
         </is>
       </c>
       <c r="G1351">
-        <v>9911010103003</v>
+        <v>1911010103004</v>
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46135,45 +46135,45 @@
         </is>
       </c>
       <c r="G1352">
-        <v>9911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
+          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
         </is>
       </c>
       <c r="C1353">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1353">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1353">
-        <v>1121040103000</v>
+        <v>9911010103004</v>
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46203,11 +46203,11 @@
         </is>
       </c>
       <c r="G1354">
-        <v>1121040203000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46237,11 +46237,11 @@
         </is>
       </c>
       <c r="G1355">
-        <v>1121040303000</v>
+        <v>1121040203000</v>
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46271,11 +46271,11 @@
         </is>
       </c>
       <c r="G1356">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46305,11 +46305,11 @@
         </is>
       </c>
       <c r="G1357">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46331,19 +46331,19 @@
         </is>
       </c>
       <c r="E1358">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1358">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46373,11 +46373,11 @@
         </is>
       </c>
       <c r="G1359">
-        <v>1121040109000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46391,27 +46391,27 @@
         </is>
       </c>
       <c r="C1360">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1360">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F1360" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1360">
-        <v>1121040101000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46441,11 +46441,11 @@
         </is>
       </c>
       <c r="G1361">
-        <v>1121040201000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46475,11 +46475,11 @@
         </is>
       </c>
       <c r="G1362">
-        <v>1121040301000</v>
+        <v>1121040201000</v>
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46509,11 +46509,11 @@
         </is>
       </c>
       <c r="G1363">
-        <v>1922990199000</v>
+        <v>1121040301000</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46535,19 +46535,19 @@
         </is>
       </c>
       <c r="E1364">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F1364" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1364">
-        <v>1121040103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46577,11 +46577,11 @@
         </is>
       </c>
       <c r="G1365">
-        <v>1121040303000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46611,11 +46611,11 @@
         </is>
       </c>
       <c r="G1366">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46645,11 +46645,11 @@
         </is>
       </c>
       <c r="G1367">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46671,19 +46671,19 @@
         </is>
       </c>
       <c r="E1368">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1368" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1368">
-        <v>1121040105000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46713,11 +46713,11 @@
         </is>
       </c>
       <c r="G1369">
-        <v>1121040106000</v>
+        <v>1121040105000</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
         </is>
       </c>
     </row>
@@ -46747,11 +46747,11 @@
         </is>
       </c>
       <c r="G1370">
-        <v>1121040107000</v>
+        <v>1121040106000</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
         </is>
       </c>
     </row>
@@ -46781,11 +46781,11 @@
         </is>
       </c>
       <c r="G1371">
-        <v>1121040109000</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46815,11 +46815,11 @@
         </is>
       </c>
       <c r="G1372">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46833,11 +46833,11 @@
         </is>
       </c>
       <c r="C1373">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1373">
@@ -46849,11 +46849,11 @@
         </is>
       </c>
       <c r="G1373">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46883,11 +46883,11 @@
         </is>
       </c>
       <c r="G1374">
-        <v>1121040108000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46917,11 +46917,11 @@
         </is>
       </c>
       <c r="G1375">
-        <v>1121040109000</v>
+        <v>1121040108000</v>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
         </is>
       </c>
     </row>
@@ -46951,11 +46951,11 @@
         </is>
       </c>
       <c r="G1376">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46969,11 +46969,11 @@
         </is>
       </c>
       <c r="C1377">
-        <v>2301</v>
+        <v>2241</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1377">
@@ -46985,11 +46985,11 @@
         </is>
       </c>
       <c r="G1377">
-        <v>1122010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47019,11 +47019,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>1122010101006</v>
+        <v>1122010101001</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47053,11 +47053,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>1122010104000</v>
+        <v>1122010101006</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47087,11 +47087,11 @@
         </is>
       </c>
       <c r="G1380">
-        <v>1122010201006</v>
+        <v>1122010104000</v>
       </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47121,11 +47121,11 @@
         </is>
       </c>
       <c r="G1381">
-        <v>1122010301006</v>
+        <v>1122010201006</v>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47155,11 +47155,11 @@
         </is>
       </c>
       <c r="G1382">
-        <v>1122010401006</v>
+        <v>1122010301006</v>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47173,11 +47173,11 @@
         </is>
       </c>
       <c r="C1383">
-        <v>2371</v>
+        <v>2301</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1383">
@@ -47189,11 +47189,11 @@
         </is>
       </c>
       <c r="G1383">
-        <v>1122010101003</v>
+        <v>1122010401006</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
+          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47223,11 +47223,11 @@
         </is>
       </c>
       <c r="G1384">
-        <v>1321010101000</v>
+        <v>1122010101003</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
         </is>
       </c>
     </row>
@@ -47257,11 +47257,11 @@
         </is>
       </c>
       <c r="G1385">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47275,27 +47275,27 @@
         </is>
       </c>
       <c r="C1386">
-        <v>2441</v>
+        <v>2371</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1386">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1386">
-        <v>1121010104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47325,11 +47325,11 @@
         </is>
       </c>
       <c r="G1387">
-        <v>1922990199000</v>
+        <v>1121010104000</v>
       </c>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -47343,19 +47343,19 @@
         </is>
       </c>
       <c r="C1388">
-        <v>4711</v>
+        <v>2441</v>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1388">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1388">
@@ -47377,27 +47377,27 @@
         </is>
       </c>
       <c r="C1389">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1389">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1389">
-        <v>1121010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47427,11 +47427,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1121010101002</v>
+        <v>1121010101001</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47461,11 +47461,11 @@
         </is>
       </c>
       <c r="G1391">
-        <v>1121010101003</v>
+        <v>1121010101002</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47495,11 +47495,11 @@
         </is>
       </c>
       <c r="G1392">
-        <v>1121010101004</v>
+        <v>1121010101003</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47529,11 +47529,11 @@
         </is>
       </c>
       <c r="G1393">
-        <v>1121010101006</v>
+        <v>1121010101004</v>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -47563,11 +47563,11 @@
         </is>
       </c>
       <c r="G1394">
-        <v>1121010201001</v>
+        <v>1121010101006</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47597,11 +47597,11 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1121010201003</v>
+        <v>1121010201001</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47631,11 +47631,11 @@
         </is>
       </c>
       <c r="G1396">
-        <v>1121010201004</v>
+        <v>1121010201003</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47665,11 +47665,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1121010301001</v>
+        <v>1121010201004</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -47699,11 +47699,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1121010301002</v>
+        <v>1121010301001</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47733,11 +47733,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1121010301003</v>
+        <v>1121010301002</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47767,11 +47767,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1121010401002</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47801,11 +47801,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1121010401003</v>
+        <v>1121010401002</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47835,11 +47835,11 @@
         </is>
       </c>
       <c r="G1402">
-        <v>1922990199000</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47861,19 +47861,19 @@
         </is>
       </c>
       <c r="E1403">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1403" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1403">
-        <v>1121040107000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47903,11 +47903,11 @@
         </is>
       </c>
       <c r="G1404">
-        <v>1122010101002</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47937,11 +47937,11 @@
         </is>
       </c>
       <c r="G1405">
-        <v>1122010101004</v>
+        <v>1122010101002</v>
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -47971,11 +47971,11 @@
         </is>
       </c>
       <c r="G1406">
-        <v>1122010101005</v>
+        <v>1122010101004</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48005,11 +48005,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>1122010101011</v>
+        <v>1122010101005</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
     </row>
@@ -48039,11 +48039,11 @@
         </is>
       </c>
       <c r="G1408">
-        <v>1122010201002</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48073,11 +48073,11 @@
         </is>
       </c>
       <c r="G1409">
-        <v>1122010201004</v>
+        <v>1122010201002</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48099,19 +48099,19 @@
         </is>
       </c>
       <c r="E1410">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1410">
-        <v>1121010101005</v>
+        <v>1122010201004</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48141,11 +48141,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>1121010201005</v>
+        <v>1121010101005</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48175,11 +48175,11 @@
         </is>
       </c>
       <c r="G1412">
-        <v>1121010301005</v>
+        <v>1121010201005</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48209,11 +48209,11 @@
         </is>
       </c>
       <c r="G1413">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48235,19 +48235,19 @@
         </is>
       </c>
       <c r="E1414">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1414" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1414">
-        <v>1121040102000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48277,11 +48277,11 @@
         </is>
       </c>
       <c r="G1415">
-        <v>1121040202000</v>
+        <v>1121040102000</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48311,11 +48311,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1121040302000</v>
+        <v>1121040202000</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48345,11 +48345,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48379,11 +48379,11 @@
         </is>
       </c>
       <c r="G1418">
-        <v>1922990199000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48405,19 +48405,19 @@
         </is>
       </c>
       <c r="E1419">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1419">
-        <v>1121040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48439,19 +48439,19 @@
         </is>
       </c>
       <c r="E1420">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1420">
-        <v>1792010101000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48473,19 +48473,19 @@
         </is>
       </c>
       <c r="E1421">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1421">
-        <v>1321010101000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -48507,11 +48507,11 @@
         </is>
       </c>
       <c r="E1422">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F1422" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1422">
@@ -48549,11 +48549,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>1921990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48583,11 +48583,11 @@
         </is>
       </c>
       <c r="G1424">
-        <v>1922063199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48617,11 +48617,11 @@
         </is>
       </c>
       <c r="G1425">
-        <v>1922990199000</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48643,19 +48643,19 @@
         </is>
       </c>
       <c r="E1426">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1426">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48669,27 +48669,27 @@
         </is>
       </c>
       <c r="C1427">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1427">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1427">
-        <v>1121040107000</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48719,11 +48719,11 @@
         </is>
       </c>
       <c r="G1428">
-        <v>1122010101011</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48737,27 +48737,27 @@
         </is>
       </c>
       <c r="C1429">
-        <v>2441</v>
+        <v>2091</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1429">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1429" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1429">
-        <v>1121010204000</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48771,27 +48771,27 @@
         </is>
       </c>
       <c r="C1430">
-        <v>1911</v>
+        <v>2441</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1430">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1430">
-        <v>1121010301003</v>
+        <v>1121010204000</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -48821,11 +48821,11 @@
         </is>
       </c>
       <c r="G1431">
-        <v>1121010401003</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48847,19 +48847,19 @@
         </is>
       </c>
       <c r="E1432">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F1432" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1432">
-        <v>1121010301005</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48889,11 +48889,11 @@
         </is>
       </c>
       <c r="G1433">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48915,19 +48915,19 @@
         </is>
       </c>
       <c r="E1434">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1434" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1434">
-        <v>1121040302000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48957,21 +48957,21 @@
         </is>
       </c>
       <c r="G1435">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
+          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
         </is>
       </c>
       <c r="C1436">
@@ -48983,19 +48983,19 @@
         </is>
       </c>
       <c r="E1436">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1436">
-        <v>1321010101000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -49009,11 +49009,11 @@
         </is>
       </c>
       <c r="C1437">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1437">
@@ -49059,11 +49059,11 @@
         </is>
       </c>
       <c r="G1438">
-        <v>1922063199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49093,11 +49093,11 @@
         </is>
       </c>
       <c r="G1439">
-        <v>2119990103004</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49127,11 +49127,11 @@
         </is>
       </c>
       <c r="G1440">
-        <v>2129990103001</v>
+        <v>2119990103004</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
+          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
         </is>
       </c>
     </row>
@@ -49161,11 +49161,11 @@
         </is>
       </c>
       <c r="G1441">
-        <v>1922063299000</v>
+        <v>2129990103001</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
         </is>
       </c>
     </row>
@@ -49195,11 +49195,11 @@
         </is>
       </c>
       <c r="G1442">
-        <v>2119990102002</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49213,11 +49213,11 @@
         </is>
       </c>
       <c r="C1443">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1443">
@@ -49229,45 +49229,45 @@
         </is>
       </c>
       <c r="G1443">
-        <v>1922063299000</v>
+        <v>2119990102002</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
+          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
         </is>
       </c>
       <c r="C1444">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1444">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="G1444">
-        <v>1321010101000</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49297,11 +49297,11 @@
         </is>
       </c>
       <c r="G1445">
-        <v>2211020104000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49331,11 +49331,11 @@
         </is>
       </c>
       <c r="G1446">
-        <v>2211020105000</v>
+        <v>2211020104000</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
         </is>
       </c>
     </row>
@@ -49365,11 +49365,11 @@
         </is>
       </c>
       <c r="G1447">
-        <v>2211020199000</v>
+        <v>2211020105000</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
         </is>
       </c>
     </row>
@@ -49399,11 +49399,11 @@
         </is>
       </c>
       <c r="G1448">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49433,45 +49433,45 @@
         </is>
       </c>
       <c r="G1449">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
         </is>
       </c>
       <c r="C1450">
-        <v>2011</v>
+        <v>9999</v>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1450">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1450">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49485,11 +49485,11 @@
         </is>
       </c>
       <c r="C1451">
-        <v>2091</v>
+        <v>2011</v>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1451">
@@ -49519,11 +49519,11 @@
         </is>
       </c>
       <c r="C1452">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1452">
@@ -49553,11 +49553,11 @@
         </is>
       </c>
       <c r="C1453">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1453">
@@ -49587,11 +49587,11 @@
         </is>
       </c>
       <c r="C1454">
-        <v>2181</v>
+        <v>2121</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>FCS</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1454">
@@ -49621,11 +49621,11 @@
         </is>
       </c>
       <c r="C1455">
-        <v>2241</v>
+        <v>2181</v>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1455">
@@ -49655,11 +49655,11 @@
         </is>
       </c>
       <c r="C1456">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>FHEMIG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1456">
@@ -49689,11 +49689,11 @@
         </is>
       </c>
       <c r="C1457">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>UTRAMIG</t>
+          <t>FHEMIG</t>
         </is>
       </c>
       <c r="E1457">
@@ -49723,11 +49723,11 @@
         </is>
       </c>
       <c r="C1458">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>UTRAMIG</t>
         </is>
       </c>
       <c r="E1458">
@@ -49773,11 +49773,11 @@
         </is>
       </c>
       <c r="G1459">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49791,11 +49791,11 @@
         </is>
       </c>
       <c r="C1460">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1460">
@@ -49807,11 +49807,11 @@
         </is>
       </c>
       <c r="G1460">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49825,11 +49825,11 @@
         </is>
       </c>
       <c r="C1461">
-        <v>2371</v>
+        <v>2321</v>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="E1461">
@@ -49859,11 +49859,11 @@
         </is>
       </c>
       <c r="C1462">
-        <v>4031</v>
+        <v>2371</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1462">
@@ -49893,11 +49893,11 @@
         </is>
       </c>
       <c r="C1463">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1463">
@@ -49909,11 +49909,11 @@
         </is>
       </c>
       <c r="G1463">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49943,11 +49943,11 @@
         </is>
       </c>
       <c r="G1464">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49961,11 +49961,11 @@
         </is>
       </c>
       <c r="C1465">
-        <v>1091</v>
+        <v>9999</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1465">
@@ -49977,11 +49977,11 @@
         </is>
       </c>
       <c r="G1465">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49995,11 +49995,11 @@
         </is>
       </c>
       <c r="C1466">
-        <v>2261</v>
+        <v>1091</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>FUNED</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1466">
@@ -50011,11 +50011,11 @@
         </is>
       </c>
       <c r="G1466">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50029,11 +50029,11 @@
         </is>
       </c>
       <c r="C1467">
-        <v>2151</v>
+        <v>2261</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>FUNED</t>
         </is>
       </c>
       <c r="E1467">
@@ -50063,11 +50063,11 @@
         </is>
       </c>
       <c r="C1468">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>FUCAM</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="E1468">
@@ -50097,11 +50097,11 @@
         </is>
       </c>
       <c r="C1469">
-        <v>2251</v>
+        <v>2161</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FUCAM</t>
         </is>
       </c>
       <c r="E1469">
@@ -50113,11 +50113,11 @@
         </is>
       </c>
       <c r="G1469">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50131,11 +50131,11 @@
         </is>
       </c>
       <c r="C1470">
-        <v>1091</v>
+        <v>2251</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1470">
@@ -50147,11 +50147,11 @@
         </is>
       </c>
       <c r="G1470">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50165,11 +50165,11 @@
         </is>
       </c>
       <c r="C1471">
-        <v>1441</v>
+        <v>1091</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>DEF PUB</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1471">
@@ -50199,11 +50199,11 @@
         </is>
       </c>
       <c r="C1472">
-        <v>3051</v>
+        <v>1441</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>DEF PUB</t>
         </is>
       </c>
       <c r="E1472">
@@ -50233,11 +50233,11 @@
         </is>
       </c>
       <c r="C1473">
-        <v>2061</v>
+        <v>3051</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="E1473">
@@ -50267,11 +50267,11 @@
         </is>
       </c>
       <c r="C1474">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1474">
@@ -50283,11 +50283,11 @@
         </is>
       </c>
       <c r="G1474">
-        <v>2211020199000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50301,11 +50301,11 @@
         </is>
       </c>
       <c r="C1475">
-        <v>4441</v>
+        <v>2071</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1475">
@@ -50317,11 +50317,11 @@
         </is>
       </c>
       <c r="G1475">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50335,11 +50335,11 @@
         </is>
       </c>
       <c r="C1476">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="E1476">
@@ -50369,11 +50369,11 @@
         </is>
       </c>
       <c r="C1477">
-        <v>2071</v>
+        <v>4451</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="E1477">
@@ -50403,11 +50403,11 @@
         </is>
       </c>
       <c r="C1478">
-        <v>2251</v>
+        <v>2071</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1478">
@@ -50437,11 +50437,11 @@
         </is>
       </c>
       <c r="C1479">
-        <v>2121</v>
+        <v>2251</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1479">
@@ -50453,45 +50453,45 @@
         </is>
       </c>
       <c r="G1479">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1480">
       <c r="A1480">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1480">
-        <v>4031</v>
+        <v>2121</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1480">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1480">
-        <v>1611010123003</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50505,27 +50505,27 @@
         </is>
       </c>
       <c r="C1481">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1481">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1481">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -50539,27 +50539,27 @@
         </is>
       </c>
       <c r="C1482">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1482">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1482" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1482">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -50589,11 +50589,11 @@
         </is>
       </c>
       <c r="G1483">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -50607,27 +50607,27 @@
         </is>
       </c>
       <c r="C1484">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1484">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1484">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50641,27 +50641,27 @@
         </is>
       </c>
       <c r="C1485">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1485">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1485">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -50691,11 +50691,11 @@
         </is>
       </c>
       <c r="G1486">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -50709,27 +50709,27 @@
         </is>
       </c>
       <c r="C1487">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1487">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1487">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -50743,27 +50743,27 @@
         </is>
       </c>
       <c r="C1488">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1488">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1488">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -50777,11 +50777,11 @@
         </is>
       </c>
       <c r="C1489">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1489">
@@ -50793,11 +50793,11 @@
         </is>
       </c>
       <c r="G1489">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50827,11 +50827,11 @@
         </is>
       </c>
       <c r="G1490">
-        <v>1911010199000</v>
+        <v>1739990126001</v>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
+          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -50845,11 +50845,11 @@
         </is>
       </c>
       <c r="C1491">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1491">
@@ -50861,45 +50861,45 @@
         </is>
       </c>
       <c r="G1491">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1492">
       <c r="A1492">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1492">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1492">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1492">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50929,11 +50929,11 @@
         </is>
       </c>
       <c r="G1493">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -50963,11 +50963,11 @@
         </is>
       </c>
       <c r="G1494">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -50997,11 +50997,11 @@
         </is>
       </c>
       <c r="G1495">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51031,11 +51031,11 @@
         </is>
       </c>
       <c r="G1496">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51065,11 +51065,11 @@
         </is>
       </c>
       <c r="G1497">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51099,11 +51099,11 @@
         </is>
       </c>
       <c r="G1498">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51133,11 +51133,11 @@
         </is>
       </c>
       <c r="G1499">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51167,11 +51167,11 @@
         </is>
       </c>
       <c r="G1500">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51201,11 +51201,11 @@
         </is>
       </c>
       <c r="G1501">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51235,11 +51235,11 @@
         </is>
       </c>
       <c r="G1502">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51269,11 +51269,11 @@
         </is>
       </c>
       <c r="G1503">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51303,11 +51303,11 @@
         </is>
       </c>
       <c r="G1504">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51337,11 +51337,11 @@
         </is>
       </c>
       <c r="G1505">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51371,11 +51371,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51405,11 +51405,11 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51439,11 +51439,11 @@
         </is>
       </c>
       <c r="G1508">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51473,11 +51473,11 @@
         </is>
       </c>
       <c r="G1509">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51507,11 +51507,11 @@
         </is>
       </c>
       <c r="G1510">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51541,11 +51541,11 @@
         </is>
       </c>
       <c r="G1511">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51575,11 +51575,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51609,11 +51609,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51643,11 +51643,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51677,11 +51677,11 @@
         </is>
       </c>
       <c r="G1515">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51711,41 +51711,41 @@
         </is>
       </c>
       <c r="G1516">
-        <v>1911090499000</v>
+        <v>1911090399000</v>
+      </c>
+      <c r="H1516" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+        </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1517">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1517">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1517" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1517">
-        <v>1114502101000</v>
-      </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
+        <v>1911090499000</v>
       </c>
     </row>
     <row r="1518">
@@ -51774,11 +51774,11 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51808,11 +51808,11 @@
         </is>
       </c>
       <c r="G1519">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51842,11 +51842,11 @@
         </is>
       </c>
       <c r="G1520">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51876,11 +51876,11 @@
         </is>
       </c>
       <c r="G1521">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51910,11 +51910,11 @@
         </is>
       </c>
       <c r="G1522">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51928,11 +51928,11 @@
         </is>
       </c>
       <c r="C1523">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1523">
@@ -51944,11 +51944,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>1114502101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51978,11 +51978,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52012,11 +52012,11 @@
         </is>
       </c>
       <c r="G1525">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52046,45 +52046,45 @@
         </is>
       </c>
       <c r="G1526">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1527">
-        <v>1231</v>
+        <v>1911</v>
       </c>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1527">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1527">
-        <v>1349010103000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52098,11 +52098,11 @@
         </is>
       </c>
       <c r="C1528">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1528">
@@ -52114,11 +52114,11 @@
         </is>
       </c>
       <c r="G1528">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -52132,27 +52132,27 @@
         </is>
       </c>
       <c r="C1529">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1529">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1529" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1529">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -52182,11 +52182,11 @@
         </is>
       </c>
       <c r="G1530">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52216,11 +52216,11 @@
         </is>
       </c>
       <c r="G1531">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52250,11 +52250,11 @@
         </is>
       </c>
       <c r="G1532">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52284,11 +52284,11 @@
         </is>
       </c>
       <c r="G1533">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52318,11 +52318,11 @@
         </is>
       </c>
       <c r="G1534">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52352,11 +52352,11 @@
         </is>
       </c>
       <c r="G1535">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52386,11 +52386,11 @@
         </is>
       </c>
       <c r="G1536">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52420,11 +52420,11 @@
         </is>
       </c>
       <c r="G1537">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52454,11 +52454,11 @@
         </is>
       </c>
       <c r="G1538">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52488,11 +52488,11 @@
         </is>
       </c>
       <c r="G1539">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52522,11 +52522,11 @@
         </is>
       </c>
       <c r="G1540">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52548,19 +52548,19 @@
         </is>
       </c>
       <c r="E1541">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1541">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52590,11 +52590,11 @@
         </is>
       </c>
       <c r="G1542">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52624,11 +52624,11 @@
         </is>
       </c>
       <c r="G1543">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52658,11 +52658,11 @@
         </is>
       </c>
       <c r="G1544">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52692,11 +52692,11 @@
         </is>
       </c>
       <c r="G1545">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52726,11 +52726,11 @@
         </is>
       </c>
       <c r="G1546">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52760,11 +52760,11 @@
         </is>
       </c>
       <c r="G1547">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52794,11 +52794,11 @@
         </is>
       </c>
       <c r="G1548">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52828,11 +52828,11 @@
         </is>
       </c>
       <c r="G1549">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52862,11 +52862,11 @@
         </is>
       </c>
       <c r="G1550">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52896,11 +52896,11 @@
         </is>
       </c>
       <c r="G1551">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52930,11 +52930,11 @@
         </is>
       </c>
       <c r="G1552">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52964,11 +52964,11 @@
         </is>
       </c>
       <c r="G1553">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52998,11 +52998,11 @@
         </is>
       </c>
       <c r="G1554">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53032,11 +53032,11 @@
         </is>
       </c>
       <c r="G1555">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53066,11 +53066,11 @@
         </is>
       </c>
       <c r="G1556">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53100,11 +53100,11 @@
         </is>
       </c>
       <c r="G1557">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53134,11 +53134,11 @@
         </is>
       </c>
       <c r="G1558">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53168,11 +53168,11 @@
         </is>
       </c>
       <c r="G1559">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53202,11 +53202,11 @@
         </is>
       </c>
       <c r="G1560">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53236,11 +53236,11 @@
         </is>
       </c>
       <c r="G1561">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53270,11 +53270,11 @@
         </is>
       </c>
       <c r="G1562">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53304,11 +53304,11 @@
         </is>
       </c>
       <c r="G1563">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53338,11 +53338,11 @@
         </is>
       </c>
       <c r="G1564">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53372,11 +53372,11 @@
         </is>
       </c>
       <c r="G1565">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53406,11 +53406,11 @@
         </is>
       </c>
       <c r="G1566">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53424,27 +53424,27 @@
         </is>
       </c>
       <c r="C1567">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1567" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1567">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1567" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1567">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53474,11 +53474,11 @@
         </is>
       </c>
       <c r="G1568">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53508,11 +53508,11 @@
         </is>
       </c>
       <c r="G1569">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -53542,11 +53542,11 @@
         </is>
       </c>
       <c r="G1570">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -53576,11 +53576,11 @@
         </is>
       </c>
       <c r="G1571">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -53610,11 +53610,11 @@
         </is>
       </c>
       <c r="G1572">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -53644,11 +53644,11 @@
         </is>
       </c>
       <c r="G1573">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -53678,11 +53678,11 @@
         </is>
       </c>
       <c r="G1574">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -53704,19 +53704,19 @@
         </is>
       </c>
       <c r="E1575">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1575">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -53746,11 +53746,11 @@
         </is>
       </c>
       <c r="G1576">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -53780,11 +53780,11 @@
         </is>
       </c>
       <c r="G1577">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -53814,11 +53814,11 @@
         </is>
       </c>
       <c r="G1578">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -53848,11 +53848,11 @@
         </is>
       </c>
       <c r="G1579">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -53882,11 +53882,11 @@
         </is>
       </c>
       <c r="G1580">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -53916,11 +53916,11 @@
         </is>
       </c>
       <c r="G1581">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -53950,11 +53950,11 @@
         </is>
       </c>
       <c r="G1582">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53968,27 +53968,27 @@
         </is>
       </c>
       <c r="C1583">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1583">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1583">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54018,11 +54018,11 @@
         </is>
       </c>
       <c r="G1584">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -54052,11 +54052,11 @@
         </is>
       </c>
       <c r="G1585">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -54086,11 +54086,11 @@
         </is>
       </c>
       <c r="G1586">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54120,11 +54120,11 @@
         </is>
       </c>
       <c r="G1587">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -54138,27 +54138,27 @@
         </is>
       </c>
       <c r="C1588">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1588" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1588">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1588" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1588">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54188,11 +54188,11 @@
         </is>
       </c>
       <c r="G1589">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54214,19 +54214,19 @@
         </is>
       </c>
       <c r="E1590">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1590" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1590">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54256,11 +54256,11 @@
         </is>
       </c>
       <c r="G1591">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54290,11 +54290,11 @@
         </is>
       </c>
       <c r="G1592">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54324,11 +54324,11 @@
         </is>
       </c>
       <c r="G1593">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54342,27 +54342,27 @@
         </is>
       </c>
       <c r="C1594">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1594">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1594">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54392,11 +54392,11 @@
         </is>
       </c>
       <c r="G1595">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -54410,27 +54410,27 @@
         </is>
       </c>
       <c r="C1596">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1596">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1596">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -54460,11 +54460,11 @@
         </is>
       </c>
       <c r="G1597">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -54494,11 +54494,11 @@
         </is>
       </c>
       <c r="G1598">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54528,11 +54528,11 @@
         </is>
       </c>
       <c r="G1599">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -54562,11 +54562,11 @@
         </is>
       </c>
       <c r="G1600">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -54596,11 +54596,11 @@
         </is>
       </c>
       <c r="G1601">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -54630,11 +54630,11 @@
         </is>
       </c>
       <c r="G1602">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -54664,11 +54664,11 @@
         </is>
       </c>
       <c r="G1603">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -54698,11 +54698,11 @@
         </is>
       </c>
       <c r="G1604">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -54732,11 +54732,11 @@
         </is>
       </c>
       <c r="G1605">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -54766,11 +54766,11 @@
         </is>
       </c>
       <c r="G1606">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54800,11 +54800,11 @@
         </is>
       </c>
       <c r="G1607">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54834,11 +54834,11 @@
         </is>
       </c>
       <c r="G1608">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54868,11 +54868,11 @@
         </is>
       </c>
       <c r="G1609">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -54902,11 +54902,11 @@
         </is>
       </c>
       <c r="G1610">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54936,11 +54936,11 @@
         </is>
       </c>
       <c r="G1611">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -54954,27 +54954,27 @@
         </is>
       </c>
       <c r="C1612">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1612">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1612">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55004,11 +55004,11 @@
         </is>
       </c>
       <c r="G1613">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -55022,27 +55022,27 @@
         </is>
       </c>
       <c r="C1614">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1614">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1614">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55072,11 +55072,11 @@
         </is>
       </c>
       <c r="G1615">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55106,11 +55106,11 @@
         </is>
       </c>
       <c r="G1616">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55140,11 +55140,11 @@
         </is>
       </c>
       <c r="G1617">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55174,11 +55174,11 @@
         </is>
       </c>
       <c r="G1618">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55208,11 +55208,11 @@
         </is>
       </c>
       <c r="G1619">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55242,11 +55242,11 @@
         </is>
       </c>
       <c r="G1620">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55276,11 +55276,11 @@
         </is>
       </c>
       <c r="G1621">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55310,11 +55310,11 @@
         </is>
       </c>
       <c r="G1622">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55344,11 +55344,11 @@
         </is>
       </c>
       <c r="G1623">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55378,11 +55378,11 @@
         </is>
       </c>
       <c r="G1624">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55412,11 +55412,11 @@
         </is>
       </c>
       <c r="G1625">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55446,11 +55446,11 @@
         </is>
       </c>
       <c r="G1626">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55480,11 +55480,11 @@
         </is>
       </c>
       <c r="G1627">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55506,19 +55506,19 @@
         </is>
       </c>
       <c r="E1628">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1628" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1628">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55548,11 +55548,11 @@
         </is>
       </c>
       <c r="G1629">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55582,11 +55582,11 @@
         </is>
       </c>
       <c r="G1630">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55616,11 +55616,11 @@
         </is>
       </c>
       <c r="G1631">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55650,11 +55650,11 @@
         </is>
       </c>
       <c r="G1632">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55684,11 +55684,11 @@
         </is>
       </c>
       <c r="G1633">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55718,11 +55718,11 @@
         </is>
       </c>
       <c r="G1634">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55752,11 +55752,11 @@
         </is>
       </c>
       <c r="G1635">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55786,11 +55786,11 @@
         </is>
       </c>
       <c r="G1636">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55820,11 +55820,11 @@
         </is>
       </c>
       <c r="G1637">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55854,11 +55854,11 @@
         </is>
       </c>
       <c r="G1638">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55888,11 +55888,11 @@
         </is>
       </c>
       <c r="G1639">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55922,11 +55922,11 @@
         </is>
       </c>
       <c r="G1640">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55956,11 +55956,11 @@
         </is>
       </c>
       <c r="G1641">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55990,11 +55990,11 @@
         </is>
       </c>
       <c r="G1642">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56024,11 +56024,11 @@
         </is>
       </c>
       <c r="G1643">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56058,11 +56058,11 @@
         </is>
       </c>
       <c r="G1644">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56092,11 +56092,11 @@
         </is>
       </c>
       <c r="G1645">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56126,11 +56126,11 @@
         </is>
       </c>
       <c r="G1646">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56160,11 +56160,11 @@
         </is>
       </c>
       <c r="G1647">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56194,11 +56194,11 @@
         </is>
       </c>
       <c r="G1648">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56228,11 +56228,11 @@
         </is>
       </c>
       <c r="G1649">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56262,11 +56262,11 @@
         </is>
       </c>
       <c r="G1650">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56296,11 +56296,11 @@
         </is>
       </c>
       <c r="G1651">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56330,11 +56330,11 @@
         </is>
       </c>
       <c r="G1652">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56364,11 +56364,11 @@
         </is>
       </c>
       <c r="G1653">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56398,11 +56398,11 @@
         </is>
       </c>
       <c r="G1654">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56432,11 +56432,11 @@
         </is>
       </c>
       <c r="G1655">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56466,11 +56466,11 @@
         </is>
       </c>
       <c r="G1656">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56500,11 +56500,11 @@
         </is>
       </c>
       <c r="G1657">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56526,19 +56526,19 @@
         </is>
       </c>
       <c r="E1658">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1658" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1658">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56568,11 +56568,11 @@
         </is>
       </c>
       <c r="G1659">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -56594,19 +56594,19 @@
         </is>
       </c>
       <c r="E1660">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1660" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1660">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -56636,11 +56636,11 @@
         </is>
       </c>
       <c r="G1661">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -56670,11 +56670,11 @@
         </is>
       </c>
       <c r="G1662">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -56696,19 +56696,19 @@
         </is>
       </c>
       <c r="E1663">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1663" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1663">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -56738,11 +56738,11 @@
         </is>
       </c>
       <c r="G1664">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -56756,11 +56756,11 @@
         </is>
       </c>
       <c r="C1665">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1665">
@@ -56790,27 +56790,27 @@
         </is>
       </c>
       <c r="C1666">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1666" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1666">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1666" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1666">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -56824,27 +56824,27 @@
         </is>
       </c>
       <c r="C1667">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1667">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1667" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1667">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -56874,11 +56874,11 @@
         </is>
       </c>
       <c r="G1668">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56900,19 +56900,19 @@
         </is>
       </c>
       <c r="E1669">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1669" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1669">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56942,11 +56942,11 @@
         </is>
       </c>
       <c r="G1670">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56968,19 +56968,19 @@
         </is>
       </c>
       <c r="E1671">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1671" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1671">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56994,27 +56994,27 @@
         </is>
       </c>
       <c r="C1672">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1672">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1672">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57036,19 +57036,19 @@
         </is>
       </c>
       <c r="E1673">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1673" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1673">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -57062,27 +57062,27 @@
         </is>
       </c>
       <c r="C1674">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1674">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1674">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57112,11 +57112,11 @@
         </is>
       </c>
       <c r="G1675">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57130,27 +57130,27 @@
         </is>
       </c>
       <c r="C1676">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1676">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1676">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57164,27 +57164,27 @@
         </is>
       </c>
       <c r="C1677">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1677">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1677">
-        <v>1922990199000</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -57198,27 +57198,27 @@
         </is>
       </c>
       <c r="C1678">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1678">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1678">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57232,27 +57232,27 @@
         </is>
       </c>
       <c r="C1679">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1679">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1679">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57266,27 +57266,27 @@
         </is>
       </c>
       <c r="C1680">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1680">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1680">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57316,45 +57316,45 @@
         </is>
       </c>
       <c r="G1681">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
     <row r="1682">
       <c r="A1682">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1682" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1682">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1682">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1682">
-        <v>7215021101001</v>
+        <v>1911090101006</v>
       </c>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
         </is>
       </c>
     </row>
@@ -57384,11 +57384,11 @@
         </is>
       </c>
       <c r="G1683">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57418,11 +57418,11 @@
         </is>
       </c>
       <c r="G1684">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -57452,11 +57452,11 @@
         </is>
       </c>
       <c r="G1685">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57486,11 +57486,11 @@
         </is>
       </c>
       <c r="G1686">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57520,11 +57520,11 @@
         </is>
       </c>
       <c r="G1687">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1687" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57554,11 +57554,11 @@
         </is>
       </c>
       <c r="G1688">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1688" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57588,11 +57588,11 @@
         </is>
       </c>
       <c r="G1689">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57614,19 +57614,19 @@
         </is>
       </c>
       <c r="E1690">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1690" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1690">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57656,11 +57656,11 @@
         </is>
       </c>
       <c r="G1691">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -57690,11 +57690,11 @@
         </is>
       </c>
       <c r="G1692">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1692" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -57724,11 +57724,11 @@
         </is>
       </c>
       <c r="G1693">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1693" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -57758,11 +57758,11 @@
         </is>
       </c>
       <c r="G1694">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1694" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -57792,11 +57792,11 @@
         </is>
       </c>
       <c r="G1695">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1695" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -57826,11 +57826,11 @@
         </is>
       </c>
       <c r="G1696">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1696" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -57860,11 +57860,11 @@
         </is>
       </c>
       <c r="G1697">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1697" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -57894,11 +57894,11 @@
         </is>
       </c>
       <c r="G1698">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1698" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -57928,11 +57928,11 @@
         </is>
       </c>
       <c r="G1699">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1699" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -57962,11 +57962,11 @@
         </is>
       </c>
       <c r="G1700">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1700" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -57996,11 +57996,11 @@
         </is>
       </c>
       <c r="G1701">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1701" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58030,11 +58030,11 @@
         </is>
       </c>
       <c r="G1702">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1702" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58064,11 +58064,11 @@
         </is>
       </c>
       <c r="G1703">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1703" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58098,11 +58098,11 @@
         </is>
       </c>
       <c r="G1704">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1704" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58132,11 +58132,11 @@
         </is>
       </c>
       <c r="G1705">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1705" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58166,11 +58166,11 @@
         </is>
       </c>
       <c r="G1706">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1706" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58200,11 +58200,11 @@
         </is>
       </c>
       <c r="G1707">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1707" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58234,11 +58234,11 @@
         </is>
       </c>
       <c r="G1708">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1708" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58268,11 +58268,11 @@
         </is>
       </c>
       <c r="G1709">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1709" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58302,11 +58302,11 @@
         </is>
       </c>
       <c r="G1710">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1710" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58336,11 +58336,11 @@
         </is>
       </c>
       <c r="G1711">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1711" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58362,19 +58362,19 @@
         </is>
       </c>
       <c r="E1712">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1712">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1712" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58396,19 +58396,19 @@
         </is>
       </c>
       <c r="E1713">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1713">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58438,11 +58438,11 @@
         </is>
       </c>
       <c r="G1714">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1714" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58472,11 +58472,11 @@
         </is>
       </c>
       <c r="G1715">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1715" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58506,11 +58506,11 @@
         </is>
       </c>
       <c r="G1716">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -58540,45 +58540,45 @@
         </is>
       </c>
       <c r="G1717">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1718">
       <c r="A1718">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1718">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1718">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1718">
-        <v>1215521104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58608,11 +58608,11 @@
         </is>
       </c>
       <c r="G1719">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -58642,45 +58642,45 @@
         </is>
       </c>
       <c r="G1720">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1721">
       <c r="A1721">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1721">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1721" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1721">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1721">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -58694,27 +58694,27 @@
         </is>
       </c>
       <c r="C1722">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1722">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1722">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58728,11 +58728,11 @@
         </is>
       </c>
       <c r="C1723">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1723">
@@ -58762,11 +58762,11 @@
         </is>
       </c>
       <c r="C1724">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1724">
@@ -58778,11 +58778,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58812,11 +58812,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58846,11 +58846,11 @@
         </is>
       </c>
       <c r="G1726">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -58864,27 +58864,27 @@
         </is>
       </c>
       <c r="C1727">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1727">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1727">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -58898,27 +58898,27 @@
         </is>
       </c>
       <c r="C1728">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1728">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1728" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1728">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58948,11 +58948,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58982,9 +58982,43 @@
         </is>
       </c>
       <c r="G1730">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1730" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731">
+        <v>899</v>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1731">
+        <v>9999</v>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1731">
+        <v>95</v>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1731">
         <v>1921990101000</v>
       </c>
-      <c r="H1730" t="inlineStr">
+      <c r="H1731" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1735"/>
+  <dimension ref="A1:H1736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45795,36 +45795,31 @@
     </row>
     <row r="1343">
       <c r="A1343">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
+          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
         </is>
       </c>
       <c r="C1343">
-        <v>2301</v>
+        <v>2181</v>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1343">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1343" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>DOACOES DE PESSOAS, DE INSTITUICOES PRIVADAS OU DO EXTERIOR A ORGAO E ENTIDADES DO ESTADO</t>
         </is>
       </c>
       <c r="G1343">
-        <v>1321010101000</v>
-      </c>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
-        </is>
+        <v>1761990139999</v>
       </c>
     </row>
     <row r="1344">
@@ -45837,11 +45832,11 @@
         </is>
       </c>
       <c r="C1344">
-        <v>9999</v>
+        <v>2301</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1344">
@@ -45853,11 +45848,11 @@
         </is>
       </c>
       <c r="G1344">
-        <v>1711540101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -45887,11 +45882,11 @@
         </is>
       </c>
       <c r="G1345">
-        <v>1711540102000</v>
+        <v>1711540101000</v>
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
         </is>
       </c>
     </row>
@@ -45921,45 +45916,45 @@
         </is>
       </c>
       <c r="G1346">
-        <v>9711540102000</v>
+        <v>1711540102000</v>
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
     <row r="1347">
       <c r="A1347">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
+          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
         </is>
       </c>
       <c r="C1347">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1347">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1347" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="G1347">
-        <v>1911010103001</v>
+        <v>9711540102000</v>
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -45989,11 +45984,11 @@
         </is>
       </c>
       <c r="G1348">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -46007,27 +46002,27 @@
         </is>
       </c>
       <c r="C1349">
-        <v>4381</v>
+        <v>1911</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1349">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1349" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1349">
-        <v>1911010103002</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46057,11 +46052,11 @@
         </is>
       </c>
       <c r="G1350">
-        <v>1911010103003</v>
+        <v>1911010103002</v>
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -46075,27 +46070,27 @@
         </is>
       </c>
       <c r="C1351">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1351">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1351">
-        <v>1911010103001</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46125,11 +46120,11 @@
         </is>
       </c>
       <c r="G1352">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1352" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -46143,27 +46138,27 @@
         </is>
       </c>
       <c r="C1353">
-        <v>4381</v>
+        <v>9999</v>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1353">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1353">
-        <v>1922990199000</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1353" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46193,11 +46188,11 @@
         </is>
       </c>
       <c r="G1354">
-        <v>9911010103003</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1354" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46211,27 +46206,27 @@
         </is>
       </c>
       <c r="C1355">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1355">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1355">
-        <v>1911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46261,11 +46256,11 @@
         </is>
       </c>
       <c r="G1356">
-        <v>9911010103003</v>
+        <v>1911010103004</v>
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46295,45 +46290,45 @@
         </is>
       </c>
       <c r="G1357">
-        <v>9911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
+          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
         </is>
       </c>
       <c r="C1358">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1358">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1358">
-        <v>1121040103000</v>
+        <v>9911010103004</v>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46363,11 +46358,11 @@
         </is>
       </c>
       <c r="G1359">
-        <v>1121040203000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46397,11 +46392,11 @@
         </is>
       </c>
       <c r="G1360">
-        <v>1121040303000</v>
+        <v>1121040203000</v>
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46431,11 +46426,11 @@
         </is>
       </c>
       <c r="G1361">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46465,11 +46460,11 @@
         </is>
       </c>
       <c r="G1362">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46491,19 +46486,19 @@
         </is>
       </c>
       <c r="E1363">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1363">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46533,11 +46528,11 @@
         </is>
       </c>
       <c r="G1364">
-        <v>1121040109000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46551,27 +46546,27 @@
         </is>
       </c>
       <c r="C1365">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1365">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1365">
-        <v>1121040101000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46601,11 +46596,11 @@
         </is>
       </c>
       <c r="G1366">
-        <v>1121040201000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46635,11 +46630,11 @@
         </is>
       </c>
       <c r="G1367">
-        <v>1121040301000</v>
+        <v>1121040201000</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46669,11 +46664,11 @@
         </is>
       </c>
       <c r="G1368">
-        <v>1922990199000</v>
+        <v>1121040301000</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46695,19 +46690,19 @@
         </is>
       </c>
       <c r="E1369">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1369">
-        <v>1121040103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46737,11 +46732,11 @@
         </is>
       </c>
       <c r="G1370">
-        <v>1121040303000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46771,11 +46766,11 @@
         </is>
       </c>
       <c r="G1371">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46805,11 +46800,11 @@
         </is>
       </c>
       <c r="G1372">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46831,19 +46826,19 @@
         </is>
       </c>
       <c r="E1373">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1373">
-        <v>1121040105000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46873,11 +46868,11 @@
         </is>
       </c>
       <c r="G1374">
-        <v>1121040106000</v>
+        <v>1121040105000</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
         </is>
       </c>
     </row>
@@ -46907,11 +46902,11 @@
         </is>
       </c>
       <c r="G1375">
-        <v>1121040107000</v>
+        <v>1121040106000</v>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
         </is>
       </c>
     </row>
@@ -46941,11 +46936,11 @@
         </is>
       </c>
       <c r="G1376">
-        <v>1121040109000</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46975,11 +46970,11 @@
         </is>
       </c>
       <c r="G1377">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46993,11 +46988,11 @@
         </is>
       </c>
       <c r="C1378">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1378">
@@ -47009,11 +47004,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47043,11 +47038,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>1121040108000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47077,11 +47072,11 @@
         </is>
       </c>
       <c r="G1380">
-        <v>1121040109000</v>
+        <v>1121040108000</v>
       </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
         </is>
       </c>
     </row>
@@ -47111,11 +47106,11 @@
         </is>
       </c>
       <c r="G1381">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -47129,11 +47124,11 @@
         </is>
       </c>
       <c r="C1382">
-        <v>2301</v>
+        <v>2241</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1382">
@@ -47145,11 +47140,11 @@
         </is>
       </c>
       <c r="G1382">
-        <v>1122010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47179,11 +47174,11 @@
         </is>
       </c>
       <c r="G1383">
-        <v>1122010101006</v>
+        <v>1122010101001</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47213,11 +47208,11 @@
         </is>
       </c>
       <c r="G1384">
-        <v>1122010104000</v>
+        <v>1122010101006</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47247,11 +47242,11 @@
         </is>
       </c>
       <c r="G1385">
-        <v>1122010201006</v>
+        <v>1122010104000</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47281,11 +47276,11 @@
         </is>
       </c>
       <c r="G1386">
-        <v>1122010301006</v>
+        <v>1122010201006</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47315,11 +47310,11 @@
         </is>
       </c>
       <c r="G1387">
-        <v>1122010401006</v>
+        <v>1122010301006</v>
       </c>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47333,11 +47328,11 @@
         </is>
       </c>
       <c r="C1388">
-        <v>2371</v>
+        <v>2301</v>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1388">
@@ -47349,11 +47344,11 @@
         </is>
       </c>
       <c r="G1388">
-        <v>1122010101003</v>
+        <v>1122010401006</v>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
+          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47383,11 +47378,11 @@
         </is>
       </c>
       <c r="G1389">
-        <v>1321010101000</v>
+        <v>1122010101003</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
         </is>
       </c>
     </row>
@@ -47417,11 +47412,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47435,27 +47430,27 @@
         </is>
       </c>
       <c r="C1391">
-        <v>2441</v>
+        <v>2371</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1391">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1391">
-        <v>1121010104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47485,11 +47480,11 @@
         </is>
       </c>
       <c r="G1392">
-        <v>1922990199000</v>
+        <v>1121010104000</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -47503,19 +47498,19 @@
         </is>
       </c>
       <c r="C1393">
-        <v>4711</v>
+        <v>2441</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1393">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1393" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1393">
@@ -47537,27 +47532,27 @@
         </is>
       </c>
       <c r="C1394">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1394">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1394">
-        <v>1121010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47587,11 +47582,11 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1121010101002</v>
+        <v>1121010101001</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47621,11 +47616,11 @@
         </is>
       </c>
       <c r="G1396">
-        <v>1121010101003</v>
+        <v>1121010101002</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47655,11 +47650,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1121010101004</v>
+        <v>1121010101003</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47689,11 +47684,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1121010101006</v>
+        <v>1121010101004</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -47723,11 +47718,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1121010201001</v>
+        <v>1121010101006</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47757,11 +47752,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1121010201003</v>
+        <v>1121010201001</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47791,11 +47786,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1121010201004</v>
+        <v>1121010201003</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47825,11 +47820,11 @@
         </is>
       </c>
       <c r="G1402">
-        <v>1121010301001</v>
+        <v>1121010201004</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -47859,11 +47854,11 @@
         </is>
       </c>
       <c r="G1403">
-        <v>1121010301002</v>
+        <v>1121010301001</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47893,11 +47888,11 @@
         </is>
       </c>
       <c r="G1404">
-        <v>1121010301003</v>
+        <v>1121010301002</v>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47927,11 +47922,11 @@
         </is>
       </c>
       <c r="G1405">
-        <v>1121010401002</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -47961,11 +47956,11 @@
         </is>
       </c>
       <c r="G1406">
-        <v>1121010401003</v>
+        <v>1121010401002</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47995,11 +47990,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>1922990199000</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48021,19 +48016,19 @@
         </is>
       </c>
       <c r="E1408">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1408">
-        <v>1121040107000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48063,11 +48058,11 @@
         </is>
       </c>
       <c r="G1409">
-        <v>1122010101002</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48097,11 +48092,11 @@
         </is>
       </c>
       <c r="G1410">
-        <v>1122010101004</v>
+        <v>1122010101002</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48131,11 +48126,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>1122010101005</v>
+        <v>1122010101004</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48165,11 +48160,11 @@
         </is>
       </c>
       <c r="G1412">
-        <v>1122010101011</v>
+        <v>1122010101005</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
     </row>
@@ -48199,11 +48194,11 @@
         </is>
       </c>
       <c r="G1413">
-        <v>1122010201002</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48233,11 +48228,11 @@
         </is>
       </c>
       <c r="G1414">
-        <v>1122010201004</v>
+        <v>1122010201002</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48259,19 +48254,19 @@
         </is>
       </c>
       <c r="E1415">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F1415" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1415">
-        <v>1121010101005</v>
+        <v>1122010201004</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48301,11 +48296,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1121010201005</v>
+        <v>1121010101005</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48335,11 +48330,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1121010301005</v>
+        <v>1121010201005</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48369,11 +48364,11 @@
         </is>
       </c>
       <c r="G1418">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48395,19 +48390,19 @@
         </is>
       </c>
       <c r="E1419">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1419">
-        <v>1121040102000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48437,11 +48432,11 @@
         </is>
       </c>
       <c r="G1420">
-        <v>1121040202000</v>
+        <v>1121040102000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48471,11 +48466,11 @@
         </is>
       </c>
       <c r="G1421">
-        <v>1121040302000</v>
+        <v>1121040202000</v>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48505,11 +48500,11 @@
         </is>
       </c>
       <c r="G1422">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48539,11 +48534,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>1922990199000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48565,19 +48560,19 @@
         </is>
       </c>
       <c r="E1424">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F1424" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1424">
-        <v>1121040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48599,19 +48594,19 @@
         </is>
       </c>
       <c r="E1425">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F1425" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1425">
-        <v>1792010101000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48633,19 +48628,19 @@
         </is>
       </c>
       <c r="E1426">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1426">
-        <v>1321010101000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -48667,11 +48662,11 @@
         </is>
       </c>
       <c r="E1427">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1427">
@@ -48709,11 +48704,11 @@
         </is>
       </c>
       <c r="G1428">
-        <v>1921990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48743,11 +48738,11 @@
         </is>
       </c>
       <c r="G1429">
-        <v>1922063199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48777,11 +48772,11 @@
         </is>
       </c>
       <c r="G1430">
-        <v>1922990199000</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48803,19 +48798,19 @@
         </is>
       </c>
       <c r="E1431">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1431">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48829,27 +48824,27 @@
         </is>
       </c>
       <c r="C1432">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1432">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F1432" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1432">
-        <v>1121040107000</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -48879,11 +48874,11 @@
         </is>
       </c>
       <c r="G1433">
-        <v>1122010101011</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48897,27 +48892,27 @@
         </is>
       </c>
       <c r="C1434">
-        <v>2441</v>
+        <v>2091</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1434">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1434" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1434">
-        <v>1121010204000</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48931,27 +48926,27 @@
         </is>
       </c>
       <c r="C1435">
-        <v>1911</v>
+        <v>2441</v>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1435">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1435">
-        <v>1121010301003</v>
+        <v>1121010204000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -48981,11 +48976,11 @@
         </is>
       </c>
       <c r="G1436">
-        <v>1121010401003</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -49007,19 +49002,19 @@
         </is>
       </c>
       <c r="E1437">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F1437" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1437">
-        <v>1121010301005</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -49049,11 +49044,11 @@
         </is>
       </c>
       <c r="G1438">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -49075,19 +49070,19 @@
         </is>
       </c>
       <c r="E1439">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1439">
-        <v>1121040302000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -49117,21 +49112,21 @@
         </is>
       </c>
       <c r="G1440">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
     <row r="1441">
       <c r="A1441">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
+          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
         </is>
       </c>
       <c r="C1441">
@@ -49143,19 +49138,19 @@
         </is>
       </c>
       <c r="E1441">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1441">
-        <v>1321010101000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -49169,11 +49164,11 @@
         </is>
       </c>
       <c r="C1442">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1442">
@@ -49219,11 +49214,11 @@
         </is>
       </c>
       <c r="G1443">
-        <v>1922063199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49253,11 +49248,11 @@
         </is>
       </c>
       <c r="G1444">
-        <v>2119990103004</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49287,11 +49282,11 @@
         </is>
       </c>
       <c r="G1445">
-        <v>2129990103001</v>
+        <v>2119990103004</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
+          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
         </is>
       </c>
     </row>
@@ -49321,11 +49316,11 @@
         </is>
       </c>
       <c r="G1446">
-        <v>1922063299000</v>
+        <v>2129990103001</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
         </is>
       </c>
     </row>
@@ -49355,11 +49350,11 @@
         </is>
       </c>
       <c r="G1447">
-        <v>2119990102002</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49373,11 +49368,11 @@
         </is>
       </c>
       <c r="C1448">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1448">
@@ -49389,45 +49384,45 @@
         </is>
       </c>
       <c r="G1448">
-        <v>1922063299000</v>
+        <v>2119990102002</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
+          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
         </is>
       </c>
       <c r="C1449">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1449">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="G1449">
-        <v>1321010101000</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49457,11 +49452,11 @@
         </is>
       </c>
       <c r="G1450">
-        <v>2211020104000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49491,11 +49486,11 @@
         </is>
       </c>
       <c r="G1451">
-        <v>2211020105000</v>
+        <v>2211020104000</v>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
         </is>
       </c>
     </row>
@@ -49525,11 +49520,11 @@
         </is>
       </c>
       <c r="G1452">
-        <v>2211020199000</v>
+        <v>2211020105000</v>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
         </is>
       </c>
     </row>
@@ -49559,11 +49554,11 @@
         </is>
       </c>
       <c r="G1453">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49593,45 +49588,45 @@
         </is>
       </c>
       <c r="G1454">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
         </is>
       </c>
       <c r="C1455">
-        <v>2011</v>
+        <v>9999</v>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1455">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1455" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1455">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49645,11 +49640,11 @@
         </is>
       </c>
       <c r="C1456">
-        <v>2091</v>
+        <v>2011</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1456">
@@ -49679,11 +49674,11 @@
         </is>
       </c>
       <c r="C1457">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1457">
@@ -49713,11 +49708,11 @@
         </is>
       </c>
       <c r="C1458">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1458">
@@ -49747,11 +49742,11 @@
         </is>
       </c>
       <c r="C1459">
-        <v>2181</v>
+        <v>2121</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>FCS</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1459">
@@ -49781,11 +49776,11 @@
         </is>
       </c>
       <c r="C1460">
-        <v>2241</v>
+        <v>2181</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1460">
@@ -49815,11 +49810,11 @@
         </is>
       </c>
       <c r="C1461">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>FHEMIG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1461">
@@ -49849,11 +49844,11 @@
         </is>
       </c>
       <c r="C1462">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>UTRAMIG</t>
+          <t>FHEMIG</t>
         </is>
       </c>
       <c r="E1462">
@@ -49883,11 +49878,11 @@
         </is>
       </c>
       <c r="C1463">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>UTRAMIG</t>
         </is>
       </c>
       <c r="E1463">
@@ -49933,11 +49928,11 @@
         </is>
       </c>
       <c r="G1464">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49951,11 +49946,11 @@
         </is>
       </c>
       <c r="C1465">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1465">
@@ -49967,11 +49962,11 @@
         </is>
       </c>
       <c r="G1465">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49985,11 +49980,11 @@
         </is>
       </c>
       <c r="C1466">
-        <v>2371</v>
+        <v>2321</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="E1466">
@@ -50019,11 +50014,11 @@
         </is>
       </c>
       <c r="C1467">
-        <v>4031</v>
+        <v>2371</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1467">
@@ -50053,11 +50048,11 @@
         </is>
       </c>
       <c r="C1468">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1468">
@@ -50069,11 +50064,11 @@
         </is>
       </c>
       <c r="G1468">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50103,11 +50098,11 @@
         </is>
       </c>
       <c r="G1469">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50121,11 +50116,11 @@
         </is>
       </c>
       <c r="C1470">
-        <v>1091</v>
+        <v>9999</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1470">
@@ -50137,11 +50132,11 @@
         </is>
       </c>
       <c r="G1470">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50155,11 +50150,11 @@
         </is>
       </c>
       <c r="C1471">
-        <v>2261</v>
+        <v>1091</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>FUNED</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1471">
@@ -50171,11 +50166,11 @@
         </is>
       </c>
       <c r="G1471">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50189,11 +50184,11 @@
         </is>
       </c>
       <c r="C1472">
-        <v>2151</v>
+        <v>2261</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>FUNED</t>
         </is>
       </c>
       <c r="E1472">
@@ -50223,11 +50218,11 @@
         </is>
       </c>
       <c r="C1473">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>FUCAM</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="E1473">
@@ -50257,11 +50252,11 @@
         </is>
       </c>
       <c r="C1474">
-        <v>2251</v>
+        <v>2161</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FUCAM</t>
         </is>
       </c>
       <c r="E1474">
@@ -50273,11 +50268,11 @@
         </is>
       </c>
       <c r="G1474">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50291,11 +50286,11 @@
         </is>
       </c>
       <c r="C1475">
-        <v>1091</v>
+        <v>2251</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1475">
@@ -50307,11 +50302,11 @@
         </is>
       </c>
       <c r="G1475">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50325,11 +50320,11 @@
         </is>
       </c>
       <c r="C1476">
-        <v>1441</v>
+        <v>1091</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>DEF PUB</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1476">
@@ -50359,11 +50354,11 @@
         </is>
       </c>
       <c r="C1477">
-        <v>3051</v>
+        <v>1441</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>DEF PUB</t>
         </is>
       </c>
       <c r="E1477">
@@ -50393,11 +50388,11 @@
         </is>
       </c>
       <c r="C1478">
-        <v>2061</v>
+        <v>3051</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="E1478">
@@ -50427,11 +50422,11 @@
         </is>
       </c>
       <c r="C1479">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1479">
@@ -50443,11 +50438,11 @@
         </is>
       </c>
       <c r="G1479">
-        <v>2211020199000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50461,11 +50456,11 @@
         </is>
       </c>
       <c r="C1480">
-        <v>4441</v>
+        <v>2071</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1480">
@@ -50477,11 +50472,11 @@
         </is>
       </c>
       <c r="G1480">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50495,11 +50490,11 @@
         </is>
       </c>
       <c r="C1481">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="E1481">
@@ -50529,11 +50524,11 @@
         </is>
       </c>
       <c r="C1482">
-        <v>2071</v>
+        <v>4451</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="E1482">
@@ -50563,11 +50558,11 @@
         </is>
       </c>
       <c r="C1483">
-        <v>2251</v>
+        <v>2071</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1483">
@@ -50597,11 +50592,11 @@
         </is>
       </c>
       <c r="C1484">
-        <v>2121</v>
+        <v>2251</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1484">
@@ -50613,45 +50608,45 @@
         </is>
       </c>
       <c r="G1484">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1485">
-        <v>4031</v>
+        <v>2121</v>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1485">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1485">
-        <v>1611010123003</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50665,27 +50660,27 @@
         </is>
       </c>
       <c r="C1486">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1486">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1486">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -50699,27 +50694,27 @@
         </is>
       </c>
       <c r="C1487">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1487">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1487">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -50749,11 +50744,11 @@
         </is>
       </c>
       <c r="G1488">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -50767,27 +50762,27 @@
         </is>
       </c>
       <c r="C1489">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1489">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1489" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1489">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50801,27 +50796,27 @@
         </is>
       </c>
       <c r="C1490">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1490">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1490">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -50851,11 +50846,11 @@
         </is>
       </c>
       <c r="G1491">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -50869,27 +50864,27 @@
         </is>
       </c>
       <c r="C1492">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1492">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1492" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1492">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -50903,27 +50898,27 @@
         </is>
       </c>
       <c r="C1493">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1493">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1493" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1493">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -50937,11 +50932,11 @@
         </is>
       </c>
       <c r="C1494">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1494">
@@ -50953,11 +50948,11 @@
         </is>
       </c>
       <c r="G1494">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50987,11 +50982,11 @@
         </is>
       </c>
       <c r="G1495">
-        <v>1911010199000</v>
+        <v>1739990126001</v>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
+          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51005,11 +51000,11 @@
         </is>
       </c>
       <c r="C1496">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1496">
@@ -51021,45 +51016,45 @@
         </is>
       </c>
       <c r="G1496">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1497">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1497">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1497">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51089,11 +51084,11 @@
         </is>
       </c>
       <c r="G1498">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51123,11 +51118,11 @@
         </is>
       </c>
       <c r="G1499">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51157,11 +51152,11 @@
         </is>
       </c>
       <c r="G1500">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51191,11 +51186,11 @@
         </is>
       </c>
       <c r="G1501">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51225,11 +51220,11 @@
         </is>
       </c>
       <c r="G1502">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51259,11 +51254,11 @@
         </is>
       </c>
       <c r="G1503">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51293,11 +51288,11 @@
         </is>
       </c>
       <c r="G1504">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51327,11 +51322,11 @@
         </is>
       </c>
       <c r="G1505">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51361,11 +51356,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51395,11 +51390,11 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51429,11 +51424,11 @@
         </is>
       </c>
       <c r="G1508">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51463,11 +51458,11 @@
         </is>
       </c>
       <c r="G1509">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51497,11 +51492,11 @@
         </is>
       </c>
       <c r="G1510">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51531,11 +51526,11 @@
         </is>
       </c>
       <c r="G1511">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51565,11 +51560,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51599,11 +51594,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51633,11 +51628,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51667,11 +51662,11 @@
         </is>
       </c>
       <c r="G1515">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51701,11 +51696,11 @@
         </is>
       </c>
       <c r="G1516">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51735,11 +51730,11 @@
         </is>
       </c>
       <c r="G1517">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51769,11 +51764,11 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51803,11 +51798,11 @@
         </is>
       </c>
       <c r="G1519">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51837,11 +51832,11 @@
         </is>
       </c>
       <c r="G1520">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51871,41 +51866,41 @@
         </is>
       </c>
       <c r="G1521">
-        <v>1911090499000</v>
+        <v>1911090399000</v>
+      </c>
+      <c r="H1521" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+        </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1522">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1522">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1522" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1522">
-        <v>1114502101000</v>
-      </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
+        <v>1911090499000</v>
       </c>
     </row>
     <row r="1523">
@@ -51934,11 +51929,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -51968,11 +51963,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52002,11 +51997,11 @@
         </is>
       </c>
       <c r="G1525">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52036,11 +52031,11 @@
         </is>
       </c>
       <c r="G1526">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52070,11 +52065,11 @@
         </is>
       </c>
       <c r="G1527">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52088,11 +52083,11 @@
         </is>
       </c>
       <c r="C1528">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1528">
@@ -52104,11 +52099,11 @@
         </is>
       </c>
       <c r="G1528">
-        <v>1114502101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -52138,11 +52133,11 @@
         </is>
       </c>
       <c r="G1529">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52172,11 +52167,11 @@
         </is>
       </c>
       <c r="G1530">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52206,45 +52201,45 @@
         </is>
       </c>
       <c r="G1531">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
     <row r="1532">
       <c r="A1532">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1532">
-        <v>1231</v>
+        <v>1911</v>
       </c>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1532">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1532">
-        <v>1349010103000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52258,11 +52253,11 @@
         </is>
       </c>
       <c r="C1533">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1533">
@@ -52274,11 +52269,11 @@
         </is>
       </c>
       <c r="G1533">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -52292,27 +52287,27 @@
         </is>
       </c>
       <c r="C1534">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1534">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1534">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -52342,11 +52337,11 @@
         </is>
       </c>
       <c r="G1535">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52376,11 +52371,11 @@
         </is>
       </c>
       <c r="G1536">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52410,11 +52405,11 @@
         </is>
       </c>
       <c r="G1537">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52444,11 +52439,11 @@
         </is>
       </c>
       <c r="G1538">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52478,11 +52473,11 @@
         </is>
       </c>
       <c r="G1539">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52512,11 +52507,11 @@
         </is>
       </c>
       <c r="G1540">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52546,11 +52541,11 @@
         </is>
       </c>
       <c r="G1541">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52580,11 +52575,11 @@
         </is>
       </c>
       <c r="G1542">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52614,11 +52609,11 @@
         </is>
       </c>
       <c r="G1543">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52648,11 +52643,11 @@
         </is>
       </c>
       <c r="G1544">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52682,11 +52677,11 @@
         </is>
       </c>
       <c r="G1545">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52708,19 +52703,19 @@
         </is>
       </c>
       <c r="E1546">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1546" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1546">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52750,11 +52745,11 @@
         </is>
       </c>
       <c r="G1547">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52784,11 +52779,11 @@
         </is>
       </c>
       <c r="G1548">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52818,11 +52813,11 @@
         </is>
       </c>
       <c r="G1549">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52852,11 +52847,11 @@
         </is>
       </c>
       <c r="G1550">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52886,11 +52881,11 @@
         </is>
       </c>
       <c r="G1551">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52920,11 +52915,11 @@
         </is>
       </c>
       <c r="G1552">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52954,11 +52949,11 @@
         </is>
       </c>
       <c r="G1553">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -52988,11 +52983,11 @@
         </is>
       </c>
       <c r="G1554">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53022,11 +53017,11 @@
         </is>
       </c>
       <c r="G1555">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53056,11 +53051,11 @@
         </is>
       </c>
       <c r="G1556">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53090,11 +53085,11 @@
         </is>
       </c>
       <c r="G1557">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53124,11 +53119,11 @@
         </is>
       </c>
       <c r="G1558">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53158,11 +53153,11 @@
         </is>
       </c>
       <c r="G1559">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53192,11 +53187,11 @@
         </is>
       </c>
       <c r="G1560">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53226,11 +53221,11 @@
         </is>
       </c>
       <c r="G1561">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53260,11 +53255,11 @@
         </is>
       </c>
       <c r="G1562">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53294,11 +53289,11 @@
         </is>
       </c>
       <c r="G1563">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53328,11 +53323,11 @@
         </is>
       </c>
       <c r="G1564">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53362,11 +53357,11 @@
         </is>
       </c>
       <c r="G1565">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53396,11 +53391,11 @@
         </is>
       </c>
       <c r="G1566">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53430,11 +53425,11 @@
         </is>
       </c>
       <c r="G1567">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53464,11 +53459,11 @@
         </is>
       </c>
       <c r="G1568">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53498,11 +53493,11 @@
         </is>
       </c>
       <c r="G1569">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53532,11 +53527,11 @@
         </is>
       </c>
       <c r="G1570">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53566,11 +53561,11 @@
         </is>
       </c>
       <c r="G1571">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53584,27 +53579,27 @@
         </is>
       </c>
       <c r="C1572">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1572" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1572">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1572">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53634,11 +53629,11 @@
         </is>
       </c>
       <c r="G1573">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53668,11 +53663,11 @@
         </is>
       </c>
       <c r="G1574">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -53702,11 +53697,11 @@
         </is>
       </c>
       <c r="G1575">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -53736,11 +53731,11 @@
         </is>
       </c>
       <c r="G1576">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -53770,11 +53765,11 @@
         </is>
       </c>
       <c r="G1577">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -53804,11 +53799,11 @@
         </is>
       </c>
       <c r="G1578">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -53838,11 +53833,11 @@
         </is>
       </c>
       <c r="G1579">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -53864,19 +53859,19 @@
         </is>
       </c>
       <c r="E1580">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1580" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1580">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -53906,11 +53901,11 @@
         </is>
       </c>
       <c r="G1581">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -53940,11 +53935,11 @@
         </is>
       </c>
       <c r="G1582">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -53974,11 +53969,11 @@
         </is>
       </c>
       <c r="G1583">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -54008,11 +54003,11 @@
         </is>
       </c>
       <c r="G1584">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -54042,11 +54037,11 @@
         </is>
       </c>
       <c r="G1585">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -54076,11 +54071,11 @@
         </is>
       </c>
       <c r="G1586">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -54110,11 +54105,11 @@
         </is>
       </c>
       <c r="G1587">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54128,27 +54123,27 @@
         </is>
       </c>
       <c r="C1588">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1588" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1588">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1588" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1588">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54178,11 +54173,11 @@
         </is>
       </c>
       <c r="G1589">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -54212,11 +54207,11 @@
         </is>
       </c>
       <c r="G1590">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -54246,11 +54241,11 @@
         </is>
       </c>
       <c r="G1591">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54280,11 +54275,11 @@
         </is>
       </c>
       <c r="G1592">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -54298,27 +54293,27 @@
         </is>
       </c>
       <c r="C1593">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1593">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1593">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54348,11 +54343,11 @@
         </is>
       </c>
       <c r="G1594">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54374,19 +54369,19 @@
         </is>
       </c>
       <c r="E1595">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1595">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54416,11 +54411,11 @@
         </is>
       </c>
       <c r="G1596">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54450,11 +54445,11 @@
         </is>
       </c>
       <c r="G1597">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54484,11 +54479,11 @@
         </is>
       </c>
       <c r="G1598">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54502,27 +54497,27 @@
         </is>
       </c>
       <c r="C1599">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1599">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1599">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54552,11 +54547,11 @@
         </is>
       </c>
       <c r="G1600">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -54570,27 +54565,27 @@
         </is>
       </c>
       <c r="C1601">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1601" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1601">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1601">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -54620,11 +54615,11 @@
         </is>
       </c>
       <c r="G1602">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -54654,11 +54649,11 @@
         </is>
       </c>
       <c r="G1603">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54688,11 +54683,11 @@
         </is>
       </c>
       <c r="G1604">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -54722,11 +54717,11 @@
         </is>
       </c>
       <c r="G1605">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -54756,11 +54751,11 @@
         </is>
       </c>
       <c r="G1606">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -54790,11 +54785,11 @@
         </is>
       </c>
       <c r="G1607">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -54824,11 +54819,11 @@
         </is>
       </c>
       <c r="G1608">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -54858,11 +54853,11 @@
         </is>
       </c>
       <c r="G1609">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -54892,11 +54887,11 @@
         </is>
       </c>
       <c r="G1610">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -54926,11 +54921,11 @@
         </is>
       </c>
       <c r="G1611">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54960,11 +54955,11 @@
         </is>
       </c>
       <c r="G1612">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54994,11 +54989,11 @@
         </is>
       </c>
       <c r="G1613">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55028,11 +55023,11 @@
         </is>
       </c>
       <c r="G1614">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55062,11 +55057,11 @@
         </is>
       </c>
       <c r="G1615">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55096,11 +55091,11 @@
         </is>
       </c>
       <c r="G1616">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -55114,27 +55109,27 @@
         </is>
       </c>
       <c r="C1617">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1617">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1617">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55164,11 +55159,11 @@
         </is>
       </c>
       <c r="G1618">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -55182,27 +55177,27 @@
         </is>
       </c>
       <c r="C1619">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1619">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1619">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55232,11 +55227,11 @@
         </is>
       </c>
       <c r="G1620">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55266,11 +55261,11 @@
         </is>
       </c>
       <c r="G1621">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55300,11 +55295,11 @@
         </is>
       </c>
       <c r="G1622">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55334,11 +55329,11 @@
         </is>
       </c>
       <c r="G1623">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55368,11 +55363,11 @@
         </is>
       </c>
       <c r="G1624">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55402,11 +55397,11 @@
         </is>
       </c>
       <c r="G1625">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55436,11 +55431,11 @@
         </is>
       </c>
       <c r="G1626">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55470,11 +55465,11 @@
         </is>
       </c>
       <c r="G1627">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55504,11 +55499,11 @@
         </is>
       </c>
       <c r="G1628">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55538,11 +55533,11 @@
         </is>
       </c>
       <c r="G1629">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55572,11 +55567,11 @@
         </is>
       </c>
       <c r="G1630">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55606,11 +55601,11 @@
         </is>
       </c>
       <c r="G1631">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55640,11 +55635,11 @@
         </is>
       </c>
       <c r="G1632">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55666,19 +55661,19 @@
         </is>
       </c>
       <c r="E1633">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1633">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55708,11 +55703,11 @@
         </is>
       </c>
       <c r="G1634">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55742,11 +55737,11 @@
         </is>
       </c>
       <c r="G1635">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55776,11 +55771,11 @@
         </is>
       </c>
       <c r="G1636">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55810,11 +55805,11 @@
         </is>
       </c>
       <c r="G1637">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55844,11 +55839,11 @@
         </is>
       </c>
       <c r="G1638">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55878,11 +55873,11 @@
         </is>
       </c>
       <c r="G1639">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55912,11 +55907,11 @@
         </is>
       </c>
       <c r="G1640">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55946,11 +55941,11 @@
         </is>
       </c>
       <c r="G1641">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -55980,11 +55975,11 @@
         </is>
       </c>
       <c r="G1642">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56014,11 +56009,11 @@
         </is>
       </c>
       <c r="G1643">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56048,11 +56043,11 @@
         </is>
       </c>
       <c r="G1644">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56082,11 +56077,11 @@
         </is>
       </c>
       <c r="G1645">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56116,11 +56111,11 @@
         </is>
       </c>
       <c r="G1646">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56150,11 +56145,11 @@
         </is>
       </c>
       <c r="G1647">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56184,11 +56179,11 @@
         </is>
       </c>
       <c r="G1648">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56218,11 +56213,11 @@
         </is>
       </c>
       <c r="G1649">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56252,11 +56247,11 @@
         </is>
       </c>
       <c r="G1650">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56286,11 +56281,11 @@
         </is>
       </c>
       <c r="G1651">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56320,11 +56315,11 @@
         </is>
       </c>
       <c r="G1652">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56354,11 +56349,11 @@
         </is>
       </c>
       <c r="G1653">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56388,11 +56383,11 @@
         </is>
       </c>
       <c r="G1654">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56422,11 +56417,11 @@
         </is>
       </c>
       <c r="G1655">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56456,11 +56451,11 @@
         </is>
       </c>
       <c r="G1656">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56490,11 +56485,11 @@
         </is>
       </c>
       <c r="G1657">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56524,11 +56519,11 @@
         </is>
       </c>
       <c r="G1658">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56558,11 +56553,11 @@
         </is>
       </c>
       <c r="G1659">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56592,11 +56587,11 @@
         </is>
       </c>
       <c r="G1660">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56626,11 +56621,11 @@
         </is>
       </c>
       <c r="G1661">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56660,11 +56655,11 @@
         </is>
       </c>
       <c r="G1662">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56686,19 +56681,19 @@
         </is>
       </c>
       <c r="E1663">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1663" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1663">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56728,11 +56723,11 @@
         </is>
       </c>
       <c r="G1664">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -56754,19 +56749,19 @@
         </is>
       </c>
       <c r="E1665">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1665" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1665">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1665" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -56796,11 +56791,11 @@
         </is>
       </c>
       <c r="G1666">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -56830,11 +56825,11 @@
         </is>
       </c>
       <c r="G1667">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -56856,19 +56851,19 @@
         </is>
       </c>
       <c r="E1668">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1668">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -56898,11 +56893,11 @@
         </is>
       </c>
       <c r="G1669">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -56916,11 +56911,11 @@
         </is>
       </c>
       <c r="C1670">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1670">
@@ -56950,27 +56945,27 @@
         </is>
       </c>
       <c r="C1671">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1671">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1671" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1671">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -56984,27 +56979,27 @@
         </is>
       </c>
       <c r="C1672">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1672">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1672">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57034,11 +57029,11 @@
         </is>
       </c>
       <c r="G1673">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -57060,19 +57055,19 @@
         </is>
       </c>
       <c r="E1674">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1674">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -57102,11 +57097,11 @@
         </is>
       </c>
       <c r="G1675">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57128,19 +57123,19 @@
         </is>
       </c>
       <c r="E1676">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1676">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57154,27 +57149,27 @@
         </is>
       </c>
       <c r="C1677">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1677">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1677">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57196,19 +57191,19 @@
         </is>
       </c>
       <c r="E1678">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1678">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -57222,27 +57217,27 @@
         </is>
       </c>
       <c r="C1679">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1679">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1679">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
       </c>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57272,11 +57267,11 @@
         </is>
       </c>
       <c r="G1680">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57290,27 +57285,27 @@
         </is>
       </c>
       <c r="C1681">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1681">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1681">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57324,27 +57319,27 @@
         </is>
       </c>
       <c r="C1682">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1682">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1682">
-        <v>1922990199000</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -57358,27 +57353,27 @@
         </is>
       </c>
       <c r="C1683">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1683">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1683" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1683">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57392,27 +57387,27 @@
         </is>
       </c>
       <c r="C1684">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1684">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1684" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1684">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57426,27 +57421,27 @@
         </is>
       </c>
       <c r="C1685">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1685">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1685" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1685">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57476,45 +57471,45 @@
         </is>
       </c>
       <c r="G1686">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
     <row r="1687">
       <c r="A1687">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1687">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1687">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F1687" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1687">
-        <v>7215021101001</v>
+        <v>1911090101006</v>
       </c>
       <c r="H1687" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
         </is>
       </c>
     </row>
@@ -57544,11 +57539,11 @@
         </is>
       </c>
       <c r="G1688">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1688" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57578,11 +57573,11 @@
         </is>
       </c>
       <c r="G1689">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -57612,11 +57607,11 @@
         </is>
       </c>
       <c r="G1690">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57646,11 +57641,11 @@
         </is>
       </c>
       <c r="G1691">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57680,11 +57675,11 @@
         </is>
       </c>
       <c r="G1692">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1692" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57714,11 +57709,11 @@
         </is>
       </c>
       <c r="G1693">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1693" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57748,11 +57743,11 @@
         </is>
       </c>
       <c r="G1694">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1694" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57774,19 +57769,19 @@
         </is>
       </c>
       <c r="E1695">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1695" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1695">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1695" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -57816,11 +57811,11 @@
         </is>
       </c>
       <c r="G1696">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1696" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -57850,11 +57845,11 @@
         </is>
       </c>
       <c r="G1697">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1697" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -57884,11 +57879,11 @@
         </is>
       </c>
       <c r="G1698">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1698" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -57918,11 +57913,11 @@
         </is>
       </c>
       <c r="G1699">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1699" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -57952,11 +57947,11 @@
         </is>
       </c>
       <c r="G1700">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1700" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -57986,11 +57981,11 @@
         </is>
       </c>
       <c r="G1701">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1701" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58020,11 +58015,11 @@
         </is>
       </c>
       <c r="G1702">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1702" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58054,11 +58049,11 @@
         </is>
       </c>
       <c r="G1703">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1703" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -58088,11 +58083,11 @@
         </is>
       </c>
       <c r="G1704">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1704" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58122,11 +58117,11 @@
         </is>
       </c>
       <c r="G1705">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1705" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58156,11 +58151,11 @@
         </is>
       </c>
       <c r="G1706">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1706" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58190,11 +58185,11 @@
         </is>
       </c>
       <c r="G1707">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1707" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58224,11 +58219,11 @@
         </is>
       </c>
       <c r="G1708">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1708" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58258,11 +58253,11 @@
         </is>
       </c>
       <c r="G1709">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1709" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58292,11 +58287,11 @@
         </is>
       </c>
       <c r="G1710">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1710" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58326,11 +58321,11 @@
         </is>
       </c>
       <c r="G1711">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1711" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58360,11 +58355,11 @@
         </is>
       </c>
       <c r="G1712">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1712" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58394,11 +58389,11 @@
         </is>
       </c>
       <c r="G1713">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58428,11 +58423,11 @@
         </is>
       </c>
       <c r="G1714">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1714" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58462,11 +58457,11 @@
         </is>
       </c>
       <c r="G1715">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1715" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58496,11 +58491,11 @@
         </is>
       </c>
       <c r="G1716">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58522,19 +58517,19 @@
         </is>
       </c>
       <c r="E1717">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1717">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58556,19 +58551,19 @@
         </is>
       </c>
       <c r="E1718">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1718">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58598,11 +58593,11 @@
         </is>
       </c>
       <c r="G1719">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58632,11 +58627,11 @@
         </is>
       </c>
       <c r="G1720">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58666,11 +58661,11 @@
         </is>
       </c>
       <c r="G1721">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -58700,45 +58695,45 @@
         </is>
       </c>
       <c r="G1722">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1723">
       <c r="A1723">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1723">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1723">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1723">
-        <v>1215521104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58768,11 +58763,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -58802,45 +58797,45 @@
         </is>
       </c>
       <c r="G1725">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1726">
       <c r="A1726">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1726">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1726">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1726">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -58854,27 +58849,27 @@
         </is>
       </c>
       <c r="C1727">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1727">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1727">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58888,11 +58883,11 @@
         </is>
       </c>
       <c r="C1728">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1728">
@@ -58922,11 +58917,11 @@
         </is>
       </c>
       <c r="C1729">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1729" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1729">
@@ -58938,11 +58933,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -58972,11 +58967,11 @@
         </is>
       </c>
       <c r="G1730">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1730" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59006,11 +59001,11 @@
         </is>
       </c>
       <c r="G1731">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1731" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -59024,27 +59019,27 @@
         </is>
       </c>
       <c r="C1732">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1732">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1732">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1732" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -59058,27 +59053,27 @@
         </is>
       </c>
       <c r="C1733">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1733">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1733">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1733" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59108,11 +59103,11 @@
         </is>
       </c>
       <c r="G1734">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1734" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59142,9 +59137,43 @@
         </is>
       </c>
       <c r="G1735">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1735" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736">
+        <v>899</v>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1736">
+        <v>9999</v>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1736">
+        <v>95</v>
+      </c>
+      <c r="F1736" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1736">
         <v>1921990101000</v>
       </c>
-      <c r="H1735" t="inlineStr">
+      <c r="H1736" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -24388,6 +24388,11 @@
       <c r="E708">
         <v>90</v>
       </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIAS DO FUNDEB - COMPLEMENTACAO DA UNIAO - VAAR</t>
+        </is>
+      </c>
       <c r="G708">
         <v>1715520101000</v>
       </c>
@@ -24411,6 +24416,11 @@
       </c>
       <c r="E709">
         <v>90</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>TRANSFERENCIAS DO FUNDEB - COMPLEMENTACAO DA UNIAO - VAAR</t>
+        </is>
       </c>
       <c r="G709">
         <v>1715520101000</v>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1751"/>
+  <dimension ref="A1:H1752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46119,27 +46119,27 @@
     </row>
     <row r="1354">
       <c r="A1354">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
+          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
         </is>
       </c>
       <c r="C1354">
-        <v>2301</v>
+        <v>1451</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1354">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1354">
@@ -46161,11 +46161,11 @@
         </is>
       </c>
       <c r="C1355">
-        <v>9999</v>
+        <v>2301</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1355">
@@ -46177,11 +46177,11 @@
         </is>
       </c>
       <c r="G1355">
-        <v>1711540101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46211,11 +46211,11 @@
         </is>
       </c>
       <c r="G1356">
-        <v>1711540102000</v>
+        <v>1711540101000</v>
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46245,45 +46245,45 @@
         </is>
       </c>
       <c r="G1357">
-        <v>9711540102000</v>
+        <v>1711540102000</v>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
     <row r="1358">
       <c r="A1358">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
+          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
         </is>
       </c>
       <c r="C1358">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1358">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="G1358">
-        <v>1911010103001</v>
+        <v>9711540102000</v>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -46313,11 +46313,11 @@
         </is>
       </c>
       <c r="G1359">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -46331,27 +46331,27 @@
         </is>
       </c>
       <c r="C1360">
-        <v>4381</v>
+        <v>1911</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1360">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1360" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1360">
-        <v>1911010103002</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46381,11 +46381,11 @@
         </is>
       </c>
       <c r="G1361">
-        <v>1911010103003</v>
+        <v>1911010103002</v>
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -46399,27 +46399,27 @@
         </is>
       </c>
       <c r="C1362">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1362">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1362" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1362">
-        <v>1911010103001</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46449,11 +46449,11 @@
         </is>
       </c>
       <c r="G1363">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -46467,27 +46467,27 @@
         </is>
       </c>
       <c r="C1364">
-        <v>4381</v>
+        <v>9999</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1364">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1364" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1364">
-        <v>1922990199000</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46517,11 +46517,11 @@
         </is>
       </c>
       <c r="G1365">
-        <v>9911010103003</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46535,27 +46535,27 @@
         </is>
       </c>
       <c r="C1366">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1366">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1366" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1366">
-        <v>1911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46585,11 +46585,11 @@
         </is>
       </c>
       <c r="G1367">
-        <v>9911010103003</v>
+        <v>1911010103004</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46619,45 +46619,45 @@
         </is>
       </c>
       <c r="G1368">
-        <v>9911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
+          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
         </is>
       </c>
       <c r="C1369">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1369">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1369">
-        <v>1121040103000</v>
+        <v>9911010103004</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46687,11 +46687,11 @@
         </is>
       </c>
       <c r="G1370">
-        <v>1121040203000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46721,11 +46721,11 @@
         </is>
       </c>
       <c r="G1371">
-        <v>1121040303000</v>
+        <v>1121040203000</v>
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46755,11 +46755,11 @@
         </is>
       </c>
       <c r="G1372">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46789,11 +46789,11 @@
         </is>
       </c>
       <c r="G1373">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46815,19 +46815,19 @@
         </is>
       </c>
       <c r="E1374">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1374">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46857,11 +46857,11 @@
         </is>
       </c>
       <c r="G1375">
-        <v>1121040109000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46875,27 +46875,27 @@
         </is>
       </c>
       <c r="C1376">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1376">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1376">
-        <v>1121040101000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46925,11 +46925,11 @@
         </is>
       </c>
       <c r="G1377">
-        <v>1121040201000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46959,11 +46959,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>1121040301000</v>
+        <v>1121040201000</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46993,11 +46993,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>1922990199000</v>
+        <v>1121040301000</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47019,19 +47019,19 @@
         </is>
       </c>
       <c r="E1380">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F1380" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1380">
-        <v>1121040103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47061,11 +47061,11 @@
         </is>
       </c>
       <c r="G1381">
-        <v>1121040303000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47095,11 +47095,11 @@
         </is>
       </c>
       <c r="G1382">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47129,11 +47129,11 @@
         </is>
       </c>
       <c r="G1383">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47155,19 +47155,19 @@
         </is>
       </c>
       <c r="E1384">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1384">
-        <v>1121040105000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47197,11 +47197,11 @@
         </is>
       </c>
       <c r="G1385">
-        <v>1121040106000</v>
+        <v>1121040105000</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
         </is>
       </c>
     </row>
@@ -47231,11 +47231,11 @@
         </is>
       </c>
       <c r="G1386">
-        <v>1121040107000</v>
+        <v>1121040106000</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
         </is>
       </c>
     </row>
@@ -47265,11 +47265,11 @@
         </is>
       </c>
       <c r="G1387">
-        <v>1121040109000</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47299,11 +47299,11 @@
         </is>
       </c>
       <c r="G1388">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -47317,11 +47317,11 @@
         </is>
       </c>
       <c r="C1389">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1389">
@@ -47333,11 +47333,11 @@
         </is>
       </c>
       <c r="G1389">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47367,11 +47367,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1121040108000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47401,11 +47401,11 @@
         </is>
       </c>
       <c r="G1391">
-        <v>1121040109000</v>
+        <v>1121040108000</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
         </is>
       </c>
     </row>
@@ -47435,11 +47435,11 @@
         </is>
       </c>
       <c r="G1392">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -47453,11 +47453,11 @@
         </is>
       </c>
       <c r="C1393">
-        <v>2301</v>
+        <v>2241</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1393">
@@ -47469,11 +47469,11 @@
         </is>
       </c>
       <c r="G1393">
-        <v>1122010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47503,11 +47503,11 @@
         </is>
       </c>
       <c r="G1394">
-        <v>1122010101006</v>
+        <v>1122010101001</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47537,11 +47537,11 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1122010104000</v>
+        <v>1122010101006</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47571,11 +47571,11 @@
         </is>
       </c>
       <c r="G1396">
-        <v>1122010201006</v>
+        <v>1122010104000</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47605,11 +47605,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1122010301006</v>
+        <v>1122010201006</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47639,11 +47639,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1122010401006</v>
+        <v>1122010301006</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47657,11 +47657,11 @@
         </is>
       </c>
       <c r="C1399">
-        <v>2371</v>
+        <v>2301</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1399">
@@ -47673,11 +47673,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1122010101003</v>
+        <v>1122010401006</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
+          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47707,11 +47707,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1321010101000</v>
+        <v>1122010101003</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
         </is>
       </c>
     </row>
@@ -47741,11 +47741,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47759,27 +47759,27 @@
         </is>
       </c>
       <c r="C1402">
-        <v>2441</v>
+        <v>2371</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1402">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1402">
-        <v>1121010104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47809,11 +47809,11 @@
         </is>
       </c>
       <c r="G1403">
-        <v>1922990199000</v>
+        <v>1121010104000</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -47827,19 +47827,19 @@
         </is>
       </c>
       <c r="C1404">
-        <v>4711</v>
+        <v>2441</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1404">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1404">
@@ -47861,27 +47861,27 @@
         </is>
       </c>
       <c r="C1405">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1405">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1405">
-        <v>1121010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47911,11 +47911,11 @@
         </is>
       </c>
       <c r="G1406">
-        <v>1121010101002</v>
+        <v>1121010101001</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47945,11 +47945,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>1121010101003</v>
+        <v>1121010101002</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -47979,11 +47979,11 @@
         </is>
       </c>
       <c r="G1408">
-        <v>1121010101004</v>
+        <v>1121010101003</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48013,11 +48013,11 @@
         </is>
       </c>
       <c r="G1409">
-        <v>1121010101006</v>
+        <v>1121010101004</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -48047,11 +48047,11 @@
         </is>
       </c>
       <c r="G1410">
-        <v>1121010201001</v>
+        <v>1121010101006</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -48081,11 +48081,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>1121010201003</v>
+        <v>1121010201001</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -48115,11 +48115,11 @@
         </is>
       </c>
       <c r="G1412">
-        <v>1121010201004</v>
+        <v>1121010201003</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48149,11 +48149,11 @@
         </is>
       </c>
       <c r="G1413">
-        <v>1121010301001</v>
+        <v>1121010201004</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -48183,11 +48183,11 @@
         </is>
       </c>
       <c r="G1414">
-        <v>1121010301002</v>
+        <v>1121010301001</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -48217,11 +48217,11 @@
         </is>
       </c>
       <c r="G1415">
-        <v>1121010301003</v>
+        <v>1121010301002</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48251,11 +48251,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1121010401002</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48285,11 +48285,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1121010401003</v>
+        <v>1121010401002</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48319,11 +48319,11 @@
         </is>
       </c>
       <c r="G1418">
-        <v>1922990199000</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48345,19 +48345,19 @@
         </is>
       </c>
       <c r="E1419">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1419">
-        <v>1121040107000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48387,11 +48387,11 @@
         </is>
       </c>
       <c r="G1420">
-        <v>1122010101002</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48421,11 +48421,11 @@
         </is>
       </c>
       <c r="G1421">
-        <v>1122010101004</v>
+        <v>1122010101002</v>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48455,11 +48455,11 @@
         </is>
       </c>
       <c r="G1422">
-        <v>1122010101005</v>
+        <v>1122010101004</v>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48489,11 +48489,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>1122010101011</v>
+        <v>1122010101005</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
     </row>
@@ -48523,11 +48523,11 @@
         </is>
       </c>
       <c r="G1424">
-        <v>1122010201002</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48557,11 +48557,11 @@
         </is>
       </c>
       <c r="G1425">
-        <v>1122010201004</v>
+        <v>1122010201002</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48583,19 +48583,19 @@
         </is>
       </c>
       <c r="E1426">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1426">
-        <v>1121010101005</v>
+        <v>1122010201004</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48625,11 +48625,11 @@
         </is>
       </c>
       <c r="G1427">
-        <v>1121010201005</v>
+        <v>1121010101005</v>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48659,11 +48659,11 @@
         </is>
       </c>
       <c r="G1428">
-        <v>1121010301005</v>
+        <v>1121010201005</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48693,11 +48693,11 @@
         </is>
       </c>
       <c r="G1429">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48719,19 +48719,19 @@
         </is>
       </c>
       <c r="E1430">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1430">
-        <v>1121040102000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48761,11 +48761,11 @@
         </is>
       </c>
       <c r="G1431">
-        <v>1121040202000</v>
+        <v>1121040102000</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48795,11 +48795,11 @@
         </is>
       </c>
       <c r="G1432">
-        <v>1121040302000</v>
+        <v>1121040202000</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48829,11 +48829,11 @@
         </is>
       </c>
       <c r="G1433">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48863,11 +48863,11 @@
         </is>
       </c>
       <c r="G1434">
-        <v>1922990199000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48889,19 +48889,19 @@
         </is>
       </c>
       <c r="E1435">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1435">
-        <v>1121040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48923,19 +48923,19 @@
         </is>
       </c>
       <c r="E1436">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1436">
-        <v>1792010101000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48957,19 +48957,19 @@
         </is>
       </c>
       <c r="E1437">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F1437" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1437">
-        <v>1321010101000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -48991,11 +48991,11 @@
         </is>
       </c>
       <c r="E1438">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F1438" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1438">
@@ -49033,11 +49033,11 @@
         </is>
       </c>
       <c r="G1439">
-        <v>1921990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49067,11 +49067,11 @@
         </is>
       </c>
       <c r="G1440">
-        <v>1922063199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49101,11 +49101,11 @@
         </is>
       </c>
       <c r="G1441">
-        <v>1922990199000</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49127,19 +49127,19 @@
         </is>
       </c>
       <c r="E1442">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1442" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1442">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49153,27 +49153,27 @@
         </is>
       </c>
       <c r="C1443">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1443">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1443">
-        <v>1121040107000</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49203,11 +49203,11 @@
         </is>
       </c>
       <c r="G1444">
-        <v>1122010101011</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -49221,27 +49221,27 @@
         </is>
       </c>
       <c r="C1445">
-        <v>2441</v>
+        <v>2091</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1445">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1445">
-        <v>1121010204000</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -49255,27 +49255,27 @@
         </is>
       </c>
       <c r="C1446">
-        <v>1911</v>
+        <v>2441</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1446">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1446">
-        <v>1121010301003</v>
+        <v>1121010204000</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -49305,11 +49305,11 @@
         </is>
       </c>
       <c r="G1447">
-        <v>1121010401003</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -49331,19 +49331,19 @@
         </is>
       </c>
       <c r="E1448">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1448">
-        <v>1121010301005</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -49373,11 +49373,11 @@
         </is>
       </c>
       <c r="G1449">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -49399,19 +49399,19 @@
         </is>
       </c>
       <c r="E1450">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1450">
-        <v>1121040302000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -49441,21 +49441,21 @@
         </is>
       </c>
       <c r="G1451">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
+          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
         </is>
       </c>
       <c r="C1452">
@@ -49467,19 +49467,19 @@
         </is>
       </c>
       <c r="E1452">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1452">
-        <v>1321010101000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -49493,11 +49493,11 @@
         </is>
       </c>
       <c r="C1453">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1453">
@@ -49543,11 +49543,11 @@
         </is>
       </c>
       <c r="G1454">
-        <v>1922063199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49577,11 +49577,11 @@
         </is>
       </c>
       <c r="G1455">
-        <v>2119990103004</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49611,11 +49611,11 @@
         </is>
       </c>
       <c r="G1456">
-        <v>2129990103001</v>
+        <v>2119990103004</v>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
+          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
         </is>
       </c>
     </row>
@@ -49645,11 +49645,11 @@
         </is>
       </c>
       <c r="G1457">
-        <v>1922063299000</v>
+        <v>2129990103001</v>
       </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
         </is>
       </c>
     </row>
@@ -49679,11 +49679,11 @@
         </is>
       </c>
       <c r="G1458">
-        <v>2119990102002</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49697,11 +49697,11 @@
         </is>
       </c>
       <c r="C1459">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1459">
@@ -49713,45 +49713,45 @@
         </is>
       </c>
       <c r="G1459">
-        <v>1922063299000</v>
+        <v>2119990102002</v>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
+          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
         </is>
       </c>
       <c r="C1460">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1460">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F1460" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="G1460">
-        <v>1321010101000</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49781,11 +49781,11 @@
         </is>
       </c>
       <c r="G1461">
-        <v>2211020104000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49815,11 +49815,11 @@
         </is>
       </c>
       <c r="G1462">
-        <v>2211020105000</v>
+        <v>2211020104000</v>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
         </is>
       </c>
     </row>
@@ -49849,11 +49849,11 @@
         </is>
       </c>
       <c r="G1463">
-        <v>2211020199000</v>
+        <v>2211020105000</v>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
         </is>
       </c>
     </row>
@@ -49883,11 +49883,11 @@
         </is>
       </c>
       <c r="G1464">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49917,45 +49917,45 @@
         </is>
       </c>
       <c r="G1465">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
         </is>
       </c>
       <c r="C1466">
-        <v>2011</v>
+        <v>9999</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1466">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1466" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1466">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49969,11 +49969,11 @@
         </is>
       </c>
       <c r="C1467">
-        <v>2091</v>
+        <v>2011</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1467">
@@ -50003,11 +50003,11 @@
         </is>
       </c>
       <c r="C1468">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1468">
@@ -50037,11 +50037,11 @@
         </is>
       </c>
       <c r="C1469">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1469">
@@ -50071,11 +50071,11 @@
         </is>
       </c>
       <c r="C1470">
-        <v>2181</v>
+        <v>2121</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>FCS</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1470">
@@ -50105,11 +50105,11 @@
         </is>
       </c>
       <c r="C1471">
-        <v>2241</v>
+        <v>2181</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1471">
@@ -50139,11 +50139,11 @@
         </is>
       </c>
       <c r="C1472">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>FHEMIG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1472">
@@ -50173,11 +50173,11 @@
         </is>
       </c>
       <c r="C1473">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>UTRAMIG</t>
+          <t>FHEMIG</t>
         </is>
       </c>
       <c r="E1473">
@@ -50207,11 +50207,11 @@
         </is>
       </c>
       <c r="C1474">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>UTRAMIG</t>
         </is>
       </c>
       <c r="E1474">
@@ -50257,11 +50257,11 @@
         </is>
       </c>
       <c r="G1475">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50275,11 +50275,11 @@
         </is>
       </c>
       <c r="C1476">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1476">
@@ -50291,11 +50291,11 @@
         </is>
       </c>
       <c r="G1476">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50309,11 +50309,11 @@
         </is>
       </c>
       <c r="C1477">
-        <v>2371</v>
+        <v>2321</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="E1477">
@@ -50343,11 +50343,11 @@
         </is>
       </c>
       <c r="C1478">
-        <v>4031</v>
+        <v>2371</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1478">
@@ -50377,11 +50377,11 @@
         </is>
       </c>
       <c r="C1479">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1479">
@@ -50393,11 +50393,11 @@
         </is>
       </c>
       <c r="G1479">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50427,11 +50427,11 @@
         </is>
       </c>
       <c r="G1480">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50445,11 +50445,11 @@
         </is>
       </c>
       <c r="C1481">
-        <v>1091</v>
+        <v>9999</v>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1481">
@@ -50461,11 +50461,11 @@
         </is>
       </c>
       <c r="G1481">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50479,11 +50479,11 @@
         </is>
       </c>
       <c r="C1482">
-        <v>2261</v>
+        <v>1091</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>FUNED</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1482">
@@ -50495,11 +50495,11 @@
         </is>
       </c>
       <c r="G1482">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50513,11 +50513,11 @@
         </is>
       </c>
       <c r="C1483">
-        <v>2151</v>
+        <v>2261</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>FUNED</t>
         </is>
       </c>
       <c r="E1483">
@@ -50547,11 +50547,11 @@
         </is>
       </c>
       <c r="C1484">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>FUCAM</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="E1484">
@@ -50581,11 +50581,11 @@
         </is>
       </c>
       <c r="C1485">
-        <v>2251</v>
+        <v>2161</v>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FUCAM</t>
         </is>
       </c>
       <c r="E1485">
@@ -50597,11 +50597,11 @@
         </is>
       </c>
       <c r="G1485">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50615,11 +50615,11 @@
         </is>
       </c>
       <c r="C1486">
-        <v>1091</v>
+        <v>2251</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1486">
@@ -50631,11 +50631,11 @@
         </is>
       </c>
       <c r="G1486">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50649,11 +50649,11 @@
         </is>
       </c>
       <c r="C1487">
-        <v>1441</v>
+        <v>1091</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>DEF PUB</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1487">
@@ -50683,11 +50683,11 @@
         </is>
       </c>
       <c r="C1488">
-        <v>3051</v>
+        <v>1441</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>DEF PUB</t>
         </is>
       </c>
       <c r="E1488">
@@ -50717,11 +50717,11 @@
         </is>
       </c>
       <c r="C1489">
-        <v>2061</v>
+        <v>3051</v>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="E1489">
@@ -50751,11 +50751,11 @@
         </is>
       </c>
       <c r="C1490">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1490">
@@ -50767,11 +50767,11 @@
         </is>
       </c>
       <c r="G1490">
-        <v>2211020199000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50785,11 +50785,11 @@
         </is>
       </c>
       <c r="C1491">
-        <v>4441</v>
+        <v>2071</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1491">
@@ -50801,11 +50801,11 @@
         </is>
       </c>
       <c r="G1491">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50819,11 +50819,11 @@
         </is>
       </c>
       <c r="C1492">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="E1492">
@@ -50853,11 +50853,11 @@
         </is>
       </c>
       <c r="C1493">
-        <v>2071</v>
+        <v>4451</v>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="E1493">
@@ -50887,11 +50887,11 @@
         </is>
       </c>
       <c r="C1494">
-        <v>2251</v>
+        <v>2071</v>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1494">
@@ -50921,11 +50921,11 @@
         </is>
       </c>
       <c r="C1495">
-        <v>2121</v>
+        <v>2251</v>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1495">
@@ -50937,45 +50937,45 @@
         </is>
       </c>
       <c r="G1495">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1496">
-        <v>4031</v>
+        <v>2121</v>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1496">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1496">
-        <v>1611010123003</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50989,27 +50989,27 @@
         </is>
       </c>
       <c r="C1497">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1497">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1497">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -51023,27 +51023,27 @@
         </is>
       </c>
       <c r="C1498">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1498">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1498">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51073,11 +51073,11 @@
         </is>
       </c>
       <c r="G1499">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51091,27 +51091,27 @@
         </is>
       </c>
       <c r="C1500">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1500">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1500" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1500">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51125,27 +51125,27 @@
         </is>
       </c>
       <c r="C1501">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1501">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1501" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1501">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -51175,11 +51175,11 @@
         </is>
       </c>
       <c r="G1502">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -51193,27 +51193,27 @@
         </is>
       </c>
       <c r="C1503">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1503">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1503">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -51227,27 +51227,27 @@
         </is>
       </c>
       <c r="C1504">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1504">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1504">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51261,11 +51261,11 @@
         </is>
       </c>
       <c r="C1505">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1505">
@@ -51277,11 +51277,11 @@
         </is>
       </c>
       <c r="G1505">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51311,11 +51311,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1911010199000</v>
+        <v>1739990126001</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
+          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51329,11 +51329,11 @@
         </is>
       </c>
       <c r="C1507">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1507">
@@ -51345,45 +51345,45 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1508">
       <c r="A1508">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1508">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1508">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1508">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51413,11 +51413,11 @@
         </is>
       </c>
       <c r="G1509">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51447,11 +51447,11 @@
         </is>
       </c>
       <c r="G1510">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51481,11 +51481,11 @@
         </is>
       </c>
       <c r="G1511">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51515,11 +51515,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51549,11 +51549,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51583,11 +51583,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51617,11 +51617,11 @@
         </is>
       </c>
       <c r="G1515">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51651,11 +51651,11 @@
         </is>
       </c>
       <c r="G1516">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51685,11 +51685,11 @@
         </is>
       </c>
       <c r="G1517">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51719,11 +51719,11 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51753,11 +51753,11 @@
         </is>
       </c>
       <c r="G1519">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51787,11 +51787,11 @@
         </is>
       </c>
       <c r="G1520">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51821,11 +51821,11 @@
         </is>
       </c>
       <c r="G1521">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51855,11 +51855,11 @@
         </is>
       </c>
       <c r="G1522">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51889,11 +51889,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51923,11 +51923,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51957,11 +51957,11 @@
         </is>
       </c>
       <c r="G1525">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51991,11 +51991,11 @@
         </is>
       </c>
       <c r="G1526">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -52025,11 +52025,11 @@
         </is>
       </c>
       <c r="G1527">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -52059,11 +52059,11 @@
         </is>
       </c>
       <c r="G1528">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52093,11 +52093,11 @@
         </is>
       </c>
       <c r="G1529">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52127,11 +52127,11 @@
         </is>
       </c>
       <c r="G1530">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52161,11 +52161,11 @@
         </is>
       </c>
       <c r="G1531">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52195,41 +52195,41 @@
         </is>
       </c>
       <c r="G1532">
-        <v>1911090499000</v>
+        <v>1911090399000</v>
+      </c>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+        </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1533">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1533">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1533" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1533">
-        <v>1114502101000</v>
-      </c>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
+        <v>1911090499000</v>
       </c>
     </row>
     <row r="1534">
@@ -52258,11 +52258,11 @@
         </is>
       </c>
       <c r="G1534">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52292,11 +52292,11 @@
         </is>
       </c>
       <c r="G1535">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52326,11 +52326,11 @@
         </is>
       </c>
       <c r="G1536">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52360,11 +52360,11 @@
         </is>
       </c>
       <c r="G1537">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52394,11 +52394,11 @@
         </is>
       </c>
       <c r="G1538">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52412,11 +52412,11 @@
         </is>
       </c>
       <c r="C1539">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1539">
@@ -52428,11 +52428,11 @@
         </is>
       </c>
       <c r="G1539">
-        <v>1114502101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -52462,11 +52462,11 @@
         </is>
       </c>
       <c r="G1540">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52496,11 +52496,11 @@
         </is>
       </c>
       <c r="G1541">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52530,45 +52530,45 @@
         </is>
       </c>
       <c r="G1542">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1543">
-        <v>1231</v>
+        <v>1911</v>
       </c>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1543">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1543">
-        <v>1349010103000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52582,11 +52582,11 @@
         </is>
       </c>
       <c r="C1544">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1544">
@@ -52598,11 +52598,11 @@
         </is>
       </c>
       <c r="G1544">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -52616,27 +52616,27 @@
         </is>
       </c>
       <c r="C1545">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1545">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1545" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1545">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -52666,11 +52666,11 @@
         </is>
       </c>
       <c r="G1546">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52700,11 +52700,11 @@
         </is>
       </c>
       <c r="G1547">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52734,11 +52734,11 @@
         </is>
       </c>
       <c r="G1548">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52768,11 +52768,11 @@
         </is>
       </c>
       <c r="G1549">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52802,11 +52802,11 @@
         </is>
       </c>
       <c r="G1550">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52836,11 +52836,11 @@
         </is>
       </c>
       <c r="G1551">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52870,11 +52870,11 @@
         </is>
       </c>
       <c r="G1552">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52904,11 +52904,11 @@
         </is>
       </c>
       <c r="G1553">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52938,11 +52938,11 @@
         </is>
       </c>
       <c r="G1554">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52972,11 +52972,11 @@
         </is>
       </c>
       <c r="G1555">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53006,11 +53006,11 @@
         </is>
       </c>
       <c r="G1556">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53032,19 +53032,19 @@
         </is>
       </c>
       <c r="E1557">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1557" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1557">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53074,11 +53074,11 @@
         </is>
       </c>
       <c r="G1558">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53108,11 +53108,11 @@
         </is>
       </c>
       <c r="G1559">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53142,11 +53142,11 @@
         </is>
       </c>
       <c r="G1560">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53176,11 +53176,11 @@
         </is>
       </c>
       <c r="G1561">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53210,11 +53210,11 @@
         </is>
       </c>
       <c r="G1562">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53244,11 +53244,11 @@
         </is>
       </c>
       <c r="G1563">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53278,11 +53278,11 @@
         </is>
       </c>
       <c r="G1564">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53312,11 +53312,11 @@
         </is>
       </c>
       <c r="G1565">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53346,11 +53346,11 @@
         </is>
       </c>
       <c r="G1566">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53380,11 +53380,11 @@
         </is>
       </c>
       <c r="G1567">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53414,11 +53414,11 @@
         </is>
       </c>
       <c r="G1568">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53448,11 +53448,11 @@
         </is>
       </c>
       <c r="G1569">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53482,11 +53482,11 @@
         </is>
       </c>
       <c r="G1570">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53516,11 +53516,11 @@
         </is>
       </c>
       <c r="G1571">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53550,11 +53550,11 @@
         </is>
       </c>
       <c r="G1572">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53584,11 +53584,11 @@
         </is>
       </c>
       <c r="G1573">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53618,11 +53618,11 @@
         </is>
       </c>
       <c r="G1574">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53652,11 +53652,11 @@
         </is>
       </c>
       <c r="G1575">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53686,11 +53686,11 @@
         </is>
       </c>
       <c r="G1576">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53720,11 +53720,11 @@
         </is>
       </c>
       <c r="G1577">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53754,11 +53754,11 @@
         </is>
       </c>
       <c r="G1578">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53788,11 +53788,11 @@
         </is>
       </c>
       <c r="G1579">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53822,11 +53822,11 @@
         </is>
       </c>
       <c r="G1580">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53856,11 +53856,11 @@
         </is>
       </c>
       <c r="G1581">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53890,11 +53890,11 @@
         </is>
       </c>
       <c r="G1582">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53908,27 +53908,27 @@
         </is>
       </c>
       <c r="C1583">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1583">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1583">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53958,11 +53958,11 @@
         </is>
       </c>
       <c r="G1584">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -53992,11 +53992,11 @@
         </is>
       </c>
       <c r="G1585">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -54026,11 +54026,11 @@
         </is>
       </c>
       <c r="G1586">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -54060,11 +54060,11 @@
         </is>
       </c>
       <c r="G1587">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -54094,11 +54094,11 @@
         </is>
       </c>
       <c r="G1588">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -54128,11 +54128,11 @@
         </is>
       </c>
       <c r="G1589">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -54162,11 +54162,11 @@
         </is>
       </c>
       <c r="G1590">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -54188,19 +54188,19 @@
         </is>
       </c>
       <c r="E1591">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1591">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -54230,11 +54230,11 @@
         </is>
       </c>
       <c r="G1592">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54264,11 +54264,11 @@
         </is>
       </c>
       <c r="G1593">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54298,11 +54298,11 @@
         </is>
       </c>
       <c r="G1594">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -54332,11 +54332,11 @@
         </is>
       </c>
       <c r="G1595">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -54366,11 +54366,11 @@
         </is>
       </c>
       <c r="G1596">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -54400,11 +54400,11 @@
         </is>
       </c>
       <c r="G1597">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -54434,11 +54434,11 @@
         </is>
       </c>
       <c r="G1598">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54452,27 +54452,27 @@
         </is>
       </c>
       <c r="C1599">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1599">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1599">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54502,11 +54502,11 @@
         </is>
       </c>
       <c r="G1600">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -54536,11 +54536,11 @@
         </is>
       </c>
       <c r="G1601">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -54570,11 +54570,11 @@
         </is>
       </c>
       <c r="G1602">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54604,11 +54604,11 @@
         </is>
       </c>
       <c r="G1603">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -54622,27 +54622,27 @@
         </is>
       </c>
       <c r="C1604">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1604">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1604">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54672,11 +54672,11 @@
         </is>
       </c>
       <c r="G1605">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54698,19 +54698,19 @@
         </is>
       </c>
       <c r="E1606">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1606">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54740,11 +54740,11 @@
         </is>
       </c>
       <c r="G1607">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54774,11 +54774,11 @@
         </is>
       </c>
       <c r="G1608">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54808,11 +54808,11 @@
         </is>
       </c>
       <c r="G1609">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54826,27 +54826,27 @@
         </is>
       </c>
       <c r="C1610">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1610">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1610">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54876,11 +54876,11 @@
         </is>
       </c>
       <c r="G1611">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -54894,27 +54894,27 @@
         </is>
       </c>
       <c r="C1612">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1612">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1612">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -54944,11 +54944,11 @@
         </is>
       </c>
       <c r="G1613">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -54978,11 +54978,11 @@
         </is>
       </c>
       <c r="G1614">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -55012,11 +55012,11 @@
         </is>
       </c>
       <c r="G1615">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -55046,11 +55046,11 @@
         </is>
       </c>
       <c r="G1616">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -55080,11 +55080,11 @@
         </is>
       </c>
       <c r="G1617">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -55114,11 +55114,11 @@
         </is>
       </c>
       <c r="G1618">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -55148,11 +55148,11 @@
         </is>
       </c>
       <c r="G1619">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -55182,11 +55182,11 @@
         </is>
       </c>
       <c r="G1620">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -55216,11 +55216,11 @@
         </is>
       </c>
       <c r="G1621">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -55250,11 +55250,11 @@
         </is>
       </c>
       <c r="G1622">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55284,11 +55284,11 @@
         </is>
       </c>
       <c r="G1623">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55318,11 +55318,11 @@
         </is>
       </c>
       <c r="G1624">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55352,11 +55352,11 @@
         </is>
       </c>
       <c r="G1625">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55386,11 +55386,11 @@
         </is>
       </c>
       <c r="G1626">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55420,11 +55420,11 @@
         </is>
       </c>
       <c r="G1627">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -55438,27 +55438,27 @@
         </is>
       </c>
       <c r="C1628">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1628">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1628" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1628">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55488,11 +55488,11 @@
         </is>
       </c>
       <c r="G1629">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -55506,27 +55506,27 @@
         </is>
       </c>
       <c r="C1630">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1630" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1630">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1630" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1630">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55556,11 +55556,11 @@
         </is>
       </c>
       <c r="G1631">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55590,11 +55590,11 @@
         </is>
       </c>
       <c r="G1632">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55624,11 +55624,11 @@
         </is>
       </c>
       <c r="G1633">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55658,11 +55658,11 @@
         </is>
       </c>
       <c r="G1634">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55692,11 +55692,11 @@
         </is>
       </c>
       <c r="G1635">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55726,11 +55726,11 @@
         </is>
       </c>
       <c r="G1636">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55760,11 +55760,11 @@
         </is>
       </c>
       <c r="G1637">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55794,11 +55794,11 @@
         </is>
       </c>
       <c r="G1638">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55828,11 +55828,11 @@
         </is>
       </c>
       <c r="G1639">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55862,11 +55862,11 @@
         </is>
       </c>
       <c r="G1640">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55896,11 +55896,11 @@
         </is>
       </c>
       <c r="G1641">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55930,11 +55930,11 @@
         </is>
       </c>
       <c r="G1642">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55964,11 +55964,11 @@
         </is>
       </c>
       <c r="G1643">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55990,19 +55990,19 @@
         </is>
       </c>
       <c r="E1644">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1644" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1644">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56032,11 +56032,11 @@
         </is>
       </c>
       <c r="G1645">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56066,11 +56066,11 @@
         </is>
       </c>
       <c r="G1646">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56100,11 +56100,11 @@
         </is>
       </c>
       <c r="G1647">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56134,11 +56134,11 @@
         </is>
       </c>
       <c r="G1648">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56168,11 +56168,11 @@
         </is>
       </c>
       <c r="G1649">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56202,11 +56202,11 @@
         </is>
       </c>
       <c r="G1650">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56236,11 +56236,11 @@
         </is>
       </c>
       <c r="G1651">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56270,11 +56270,11 @@
         </is>
       </c>
       <c r="G1652">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56304,11 +56304,11 @@
         </is>
       </c>
       <c r="G1653">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56338,11 +56338,11 @@
         </is>
       </c>
       <c r="G1654">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56372,11 +56372,11 @@
         </is>
       </c>
       <c r="G1655">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56406,11 +56406,11 @@
         </is>
       </c>
       <c r="G1656">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56440,11 +56440,11 @@
         </is>
       </c>
       <c r="G1657">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56474,11 +56474,11 @@
         </is>
       </c>
       <c r="G1658">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56508,11 +56508,11 @@
         </is>
       </c>
       <c r="G1659">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56542,11 +56542,11 @@
         </is>
       </c>
       <c r="G1660">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56576,11 +56576,11 @@
         </is>
       </c>
       <c r="G1661">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56610,11 +56610,11 @@
         </is>
       </c>
       <c r="G1662">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56644,11 +56644,11 @@
         </is>
       </c>
       <c r="G1663">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56678,11 +56678,11 @@
         </is>
       </c>
       <c r="G1664">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56712,11 +56712,11 @@
         </is>
       </c>
       <c r="G1665">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1665" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56746,11 +56746,11 @@
         </is>
       </c>
       <c r="G1666">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56780,11 +56780,11 @@
         </is>
       </c>
       <c r="G1667">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56814,11 +56814,11 @@
         </is>
       </c>
       <c r="G1668">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56848,11 +56848,11 @@
         </is>
       </c>
       <c r="G1669">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56882,11 +56882,11 @@
         </is>
       </c>
       <c r="G1670">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56916,11 +56916,11 @@
         </is>
       </c>
       <c r="G1671">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56950,11 +56950,11 @@
         </is>
       </c>
       <c r="G1672">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56984,11 +56984,11 @@
         </is>
       </c>
       <c r="G1673">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57010,19 +57010,19 @@
         </is>
       </c>
       <c r="E1674">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1674">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57052,11 +57052,11 @@
         </is>
       </c>
       <c r="G1675">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -57078,19 +57078,19 @@
         </is>
       </c>
       <c r="E1676">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1676">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57120,11 +57120,11 @@
         </is>
       </c>
       <c r="G1677">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57154,11 +57154,11 @@
         </is>
       </c>
       <c r="G1678">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -57180,19 +57180,19 @@
         </is>
       </c>
       <c r="E1679">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1679">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57222,11 +57222,11 @@
         </is>
       </c>
       <c r="G1680">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -57240,11 +57240,11 @@
         </is>
       </c>
       <c r="C1681">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1681">
@@ -57274,27 +57274,27 @@
         </is>
       </c>
       <c r="C1682">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1682">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1682">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1682" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -57308,27 +57308,27 @@
         </is>
       </c>
       <c r="C1683">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1683">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1683" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1683">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57358,11 +57358,11 @@
         </is>
       </c>
       <c r="G1684">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -57384,19 +57384,19 @@
         </is>
       </c>
       <c r="E1685">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1685" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1685">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -57426,11 +57426,11 @@
         </is>
       </c>
       <c r="G1686">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57452,19 +57452,19 @@
         </is>
       </c>
       <c r="E1687">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1687" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1687">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1687" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57478,27 +57478,27 @@
         </is>
       </c>
       <c r="C1688">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1688">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1688" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1688">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1688" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57520,19 +57520,19 @@
         </is>
       </c>
       <c r="E1689">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1689" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1689">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -57546,27 +57546,27 @@
         </is>
       </c>
       <c r="C1690">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1690" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1690">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1690" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1690">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
       </c>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57596,11 +57596,11 @@
         </is>
       </c>
       <c r="G1691">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57614,27 +57614,27 @@
         </is>
       </c>
       <c r="C1692">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1692">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1692" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1692">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
       <c r="H1692" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57648,27 +57648,27 @@
         </is>
       </c>
       <c r="C1693">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1693">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1693" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1693">
-        <v>1922990199000</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1693" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -57682,27 +57682,27 @@
         </is>
       </c>
       <c r="C1694">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1694">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1694">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1694" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57716,27 +57716,27 @@
         </is>
       </c>
       <c r="C1695">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1695">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1695" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1695">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1695" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57750,27 +57750,27 @@
         </is>
       </c>
       <c r="C1696">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1696">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1696" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1696">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1696" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57800,11 +57800,11 @@
         </is>
       </c>
       <c r="G1697">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1697" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -57826,15 +57826,20 @@
         </is>
       </c>
       <c r="E1698">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F1698" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1698">
-        <v>1215521101000</v>
+        <v>1911090101006</v>
+      </c>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+        </is>
       </c>
     </row>
     <row r="1699">
@@ -57855,15 +57860,15 @@
         </is>
       </c>
       <c r="E1699">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F1699" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="G1699">
-        <v>7215531102000</v>
+        <v>1215521101000</v>
       </c>
     </row>
     <row r="1700">
@@ -57892,7 +57897,7 @@
         </is>
       </c>
       <c r="G1700">
-        <v>7215532102000</v>
+        <v>7215531102000</v>
       </c>
     </row>
     <row r="1701">
@@ -57921,7 +57926,7 @@
         </is>
       </c>
       <c r="G1701">
-        <v>7215531103000</v>
+        <v>7215532102000</v>
       </c>
     </row>
     <row r="1702">
@@ -57950,41 +57955,36 @@
         </is>
       </c>
       <c r="G1702">
-        <v>7215532103000</v>
+        <v>7215531103000</v>
       </c>
     </row>
     <row r="1703">
       <c r="A1703">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1703" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1703">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1703">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1703">
-        <v>7215021101001</v>
-      </c>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7215532103000</v>
       </c>
     </row>
     <row r="1704">
@@ -58013,11 +58013,11 @@
         </is>
       </c>
       <c r="G1704">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1704" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58047,11 +58047,11 @@
         </is>
       </c>
       <c r="G1705">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1705" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -58081,11 +58081,11 @@
         </is>
       </c>
       <c r="G1706">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1706" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58115,11 +58115,11 @@
         </is>
       </c>
       <c r="G1707">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1707" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58149,11 +58149,11 @@
         </is>
       </c>
       <c r="G1708">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1708" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58183,11 +58183,11 @@
         </is>
       </c>
       <c r="G1709">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1709" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58217,11 +58217,11 @@
         </is>
       </c>
       <c r="G1710">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1710" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58243,19 +58243,19 @@
         </is>
       </c>
       <c r="E1711">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1711">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1711" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58285,11 +58285,11 @@
         </is>
       </c>
       <c r="G1712">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1712" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58319,11 +58319,11 @@
         </is>
       </c>
       <c r="G1713">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58353,11 +58353,11 @@
         </is>
       </c>
       <c r="G1714">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1714" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58387,11 +58387,11 @@
         </is>
       </c>
       <c r="G1715">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1715" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58421,11 +58421,11 @@
         </is>
       </c>
       <c r="G1716">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58455,11 +58455,11 @@
         </is>
       </c>
       <c r="G1717">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58489,11 +58489,11 @@
         </is>
       </c>
       <c r="G1718">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58523,11 +58523,11 @@
         </is>
       </c>
       <c r="G1719">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -58557,11 +58557,11 @@
         </is>
       </c>
       <c r="G1720">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58591,11 +58591,11 @@
         </is>
       </c>
       <c r="G1721">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58625,11 +58625,11 @@
         </is>
       </c>
       <c r="G1722">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58659,11 +58659,11 @@
         </is>
       </c>
       <c r="G1723">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58693,11 +58693,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58727,11 +58727,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58761,11 +58761,11 @@
         </is>
       </c>
       <c r="G1726">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58795,11 +58795,11 @@
         </is>
       </c>
       <c r="G1727">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58829,11 +58829,11 @@
         </is>
       </c>
       <c r="G1728">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58863,11 +58863,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58897,11 +58897,11 @@
         </is>
       </c>
       <c r="G1730">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1730" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58931,11 +58931,11 @@
         </is>
       </c>
       <c r="G1731">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1731" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58965,11 +58965,11 @@
         </is>
       </c>
       <c r="G1732">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1732" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58991,19 +58991,19 @@
         </is>
       </c>
       <c r="E1733">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1733">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1733" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59025,19 +59025,19 @@
         </is>
       </c>
       <c r="E1734">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1734">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1734" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59067,11 +59067,11 @@
         </is>
       </c>
       <c r="G1735">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1735" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59101,11 +59101,11 @@
         </is>
       </c>
       <c r="G1736">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1736" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59135,11 +59135,11 @@
         </is>
       </c>
       <c r="G1737">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1737" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -59169,45 +59169,45 @@
         </is>
       </c>
       <c r="G1738">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1738" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1739">
       <c r="A1739">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1739">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1739" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1739">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1739">
-        <v>1215521104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1739" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59237,11 +59237,11 @@
         </is>
       </c>
       <c r="G1740">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1740" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59271,45 +59271,45 @@
         </is>
       </c>
       <c r="G1741">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1741" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1742">
       <c r="A1742">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1742">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1742">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1742">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1742" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59323,27 +59323,27 @@
         </is>
       </c>
       <c r="C1743">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1743">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1743">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1743" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59357,11 +59357,11 @@
         </is>
       </c>
       <c r="C1744">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1744">
@@ -59391,11 +59391,11 @@
         </is>
       </c>
       <c r="C1745">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1745">
@@ -59407,11 +59407,11 @@
         </is>
       </c>
       <c r="G1745">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1745" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59441,11 +59441,11 @@
         </is>
       </c>
       <c r="G1746">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1746" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59475,11 +59475,11 @@
         </is>
       </c>
       <c r="G1747">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1747" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -59493,27 +59493,27 @@
         </is>
       </c>
       <c r="C1748">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1748">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1748">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1748" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -59527,27 +59527,27 @@
         </is>
       </c>
       <c r="C1749">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1749">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1749">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1749" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59577,11 +59577,11 @@
         </is>
       </c>
       <c r="G1750">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1750" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59611,9 +59611,43 @@
         </is>
       </c>
       <c r="G1751">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1751" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752">
+        <v>899</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1752">
+        <v>9999</v>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1752">
+        <v>95</v>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1752">
         <v>1921990101000</v>
       </c>
-      <c r="H1751" t="inlineStr">
+      <c r="H1752" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1752"/>
+  <dimension ref="A1:H1753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -59213,36 +59213,31 @@
     </row>
     <row r="1740">
       <c r="A1740">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1740">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1740">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1740">
-        <v>1215521104000</v>
-      </c>
-      <c r="H1740" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
-        </is>
+        <v>7999010101000</v>
       </c>
     </row>
     <row r="1741">
@@ -59271,11 +59266,11 @@
         </is>
       </c>
       <c r="G1741">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1741" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59305,45 +59300,45 @@
         </is>
       </c>
       <c r="G1742">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1742" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1743">
       <c r="A1743">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1743">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1743">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1743">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1743" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59357,27 +59352,27 @@
         </is>
       </c>
       <c r="C1744">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1744">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1744">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1744" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59391,11 +59386,11 @@
         </is>
       </c>
       <c r="C1745">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1745">
@@ -59425,11 +59420,11 @@
         </is>
       </c>
       <c r="C1746">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1746">
@@ -59441,11 +59436,11 @@
         </is>
       </c>
       <c r="G1746">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1746" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59475,11 +59470,11 @@
         </is>
       </c>
       <c r="G1747">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1747" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59509,11 +59504,11 @@
         </is>
       </c>
       <c r="G1748">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1748" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -59527,27 +59522,27 @@
         </is>
       </c>
       <c r="C1749">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1749">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1749">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1749" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -59561,27 +59556,27 @@
         </is>
       </c>
       <c r="C1750">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1750">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1750">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1750" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59611,11 +59606,11 @@
         </is>
       </c>
       <c r="G1751">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1751" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59645,9 +59640,43 @@
         </is>
       </c>
       <c r="G1752">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1752" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753">
+        <v>899</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1753">
+        <v>9999</v>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1753">
+        <v>95</v>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1753">
         <v>1921990101000</v>
       </c>
-      <c r="H1752" t="inlineStr">
+      <c r="H1753" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1753"/>
+  <dimension ref="A1:H1761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -57939,23 +57939,23 @@
         </is>
       </c>
       <c r="C1702">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1702">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F1702" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1702">
-        <v>7215531103000</v>
+        <v>7219991103053</v>
       </c>
     </row>
     <row r="1703">
@@ -57968,295 +57968,255 @@
         </is>
       </c>
       <c r="C1703">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1703">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1703">
-        <v>7215532103000</v>
+        <v>7219991103054</v>
       </c>
     </row>
     <row r="1704">
       <c r="A1704">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1704">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1704">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F1704" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1704">
-        <v>7215021101001</v>
-      </c>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7219991103055</v>
       </c>
     </row>
     <row r="1705">
       <c r="A1705">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1705">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1705">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F1705" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1705">
-        <v>7215021101002</v>
-      </c>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
-        </is>
+        <v>7219991103056</v>
       </c>
     </row>
     <row r="1706">
       <c r="A1706">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1706">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1706">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1706">
-        <v>7215021102001</v>
-      </c>
-      <c r="H1706" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>1219991103003</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1707">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1707">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1707">
-        <v>7215021103001</v>
-      </c>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>1219991103004</v>
       </c>
     </row>
     <row r="1708">
       <c r="A1708">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1708">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1708">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1708" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1708">
-        <v>7215021104001</v>
-      </c>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>1219991103005</v>
       </c>
     </row>
     <row r="1709">
       <c r="A1709">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1709">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1709">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1709">
-        <v>7215021105001</v>
-      </c>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>1219991103006</v>
       </c>
     </row>
     <row r="1710">
       <c r="A1710">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1710">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1710">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1710">
-        <v>7215021106001</v>
-      </c>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7215531103000</v>
       </c>
     </row>
     <row r="1711">
       <c r="A1711">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1711">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1711" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1711">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1711">
-        <v>7215021107001</v>
-      </c>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7215532103000</v>
       </c>
     </row>
     <row r="1712">
@@ -58277,19 +58237,19 @@
         </is>
       </c>
       <c r="E1712">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1712">
-        <v>1215011101000</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1712" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58311,19 +58271,19 @@
         </is>
       </c>
       <c r="E1713">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1713">
-        <v>1215011102000</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -58345,19 +58305,19 @@
         </is>
       </c>
       <c r="E1714">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1714">
-        <v>1215011103000</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1714" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58379,19 +58339,19 @@
         </is>
       </c>
       <c r="E1715">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1715">
-        <v>1215011104000</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1715" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58413,19 +58373,19 @@
         </is>
       </c>
       <c r="E1716">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1716" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1716">
-        <v>1215011105000</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58447,19 +58407,19 @@
         </is>
       </c>
       <c r="E1717">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1717">
-        <v>1215011106000</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58481,19 +58441,19 @@
         </is>
       </c>
       <c r="E1718">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1718">
-        <v>1215011107000</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58515,19 +58475,19 @@
         </is>
       </c>
       <c r="E1719">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1719" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1719">
-        <v>1215011199001</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58557,11 +58517,11 @@
         </is>
       </c>
       <c r="G1720">
-        <v>1215012101000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58591,11 +58551,11 @@
         </is>
       </c>
       <c r="G1721">
-        <v>1215012102000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58625,11 +58585,11 @@
         </is>
       </c>
       <c r="G1722">
-        <v>1215012103000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58659,11 +58619,11 @@
         </is>
       </c>
       <c r="G1723">
-        <v>1215012104000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58693,11 +58653,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>1215012105000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58727,11 +58687,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>1215012106000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58761,11 +58721,11 @@
         </is>
       </c>
       <c r="G1726">
-        <v>1215012107000</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58795,11 +58755,11 @@
         </is>
       </c>
       <c r="G1727">
-        <v>1215013101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -58829,11 +58789,11 @@
         </is>
       </c>
       <c r="G1728">
-        <v>1215013102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58863,11 +58823,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1215013104000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58897,11 +58857,11 @@
         </is>
       </c>
       <c r="G1730">
-        <v>1215013105000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1730" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58931,11 +58891,11 @@
         </is>
       </c>
       <c r="G1731">
-        <v>1215013106000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1731" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58965,11 +58925,11 @@
         </is>
       </c>
       <c r="G1732">
-        <v>1215014101000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1732" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58999,11 +58959,11 @@
         </is>
       </c>
       <c r="G1733">
-        <v>1215015101000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1733" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -59025,19 +58985,19 @@
         </is>
       </c>
       <c r="E1734">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1734">
-        <v>1999030101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1734" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -59059,19 +59019,19 @@
         </is>
       </c>
       <c r="E1735">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1735">
-        <v>1219991399000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1735" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -59093,19 +59053,19 @@
         </is>
       </c>
       <c r="E1736">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1736">
-        <v>1219991499000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1736" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -59127,19 +59087,19 @@
         </is>
       </c>
       <c r="E1737">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1737">
-        <v>1321040101000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1737" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -59161,19 +59121,19 @@
         </is>
       </c>
       <c r="E1738">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1738">
-        <v>1321040102000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1738" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -59195,19 +59155,19 @@
         </is>
       </c>
       <c r="E1739">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1739">
-        <v>1922990199000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1739" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -59229,296 +59189,296 @@
         </is>
       </c>
       <c r="E1740">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1740">
-        <v>7999010101000</v>
+        <v>1215014101000</v>
+      </c>
+      <c r="H1740" t="inlineStr">
+        <is>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+        </is>
       </c>
     </row>
     <row r="1741">
       <c r="A1741">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1741">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1741" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1741">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1741">
-        <v>1215521104000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1741" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1742">
       <c r="A1742">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1742">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1742">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1742">
-        <v>1215522104000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1742" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1743">
       <c r="A1743">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1743">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1743">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1743">
-        <v>1215523104000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1743" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1744">
       <c r="A1744">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1744">
-        <v>1301</v>
+        <v>4711</v>
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1744">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1744">
-        <v>1321010101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1744" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1745">
       <c r="A1745">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1745">
-        <v>2371</v>
+        <v>4711</v>
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1745">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1745">
-        <v>1922990199000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1745" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
     <row r="1746">
       <c r="A1746">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1746">
-        <v>4291</v>
+        <v>4711</v>
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1746">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1746">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1746" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1747">
       <c r="A1747">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1747">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1747">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1747">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1747" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1748">
       <c r="A1748">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1748">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1748">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1748">
-        <v>2999990102000</v>
-      </c>
-      <c r="H1748" t="inlineStr">
-        <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
-        </is>
+        <v>7999010101000</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1749">
@@ -59530,63 +59490,63 @@
         </is>
       </c>
       <c r="E1749">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1749">
-        <v>2999990103000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1749" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1750">
       <c r="A1750">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1750">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1750">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1750">
-        <v>1332040101000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1750" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1751">
       <c r="A1751">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1751">
@@ -59598,19 +59558,19 @@
         </is>
       </c>
       <c r="E1751">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1751">
-        <v>1922990199000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1751" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59624,27 +59584,27 @@
         </is>
       </c>
       <c r="C1752">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1752">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1752">
-        <v>1999992199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1752" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59658,11 +59618,11 @@
         </is>
       </c>
       <c r="C1753">
-        <v>9999</v>
+        <v>2371</v>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1753">
@@ -59674,9 +59634,281 @@
         </is>
       </c>
       <c r="G1753">
+        <v>1922990199000</v>
+      </c>
+      <c r="H1753" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754">
+        <v>899</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1754">
+        <v>4291</v>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="E1754">
+        <v>95</v>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1754">
+        <v>1922990199000</v>
+      </c>
+      <c r="H1754" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755">
+        <v>899</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1755">
+        <v>9999</v>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1755">
+        <v>95</v>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1755">
+        <v>1321010101000</v>
+      </c>
+      <c r="H1755" t="inlineStr">
+        <is>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756">
+        <v>899</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1756">
+        <v>9999</v>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1756">
+        <v>95</v>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1756">
+        <v>2999990102000</v>
+      </c>
+      <c r="H1756" t="inlineStr">
+        <is>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757">
+        <v>899</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1757">
+        <v>9999</v>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1757">
+        <v>95</v>
+      </c>
+      <c r="F1757" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1757">
+        <v>2999990103000</v>
+      </c>
+      <c r="H1757" t="inlineStr">
+        <is>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758">
+        <v>899</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1758">
+        <v>1301</v>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>SEINFRA</t>
+        </is>
+      </c>
+      <c r="E1758">
+        <v>59</v>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="G1758">
+        <v>1332040101000</v>
+      </c>
+      <c r="H1758" t="inlineStr">
+        <is>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759">
+        <v>899</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1759">
+        <v>9999</v>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1759">
+        <v>95</v>
+      </c>
+      <c r="F1759" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1759">
+        <v>1922990199000</v>
+      </c>
+      <c r="H1759" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760">
+        <v>899</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1760">
+        <v>9999</v>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1760">
+        <v>95</v>
+      </c>
+      <c r="F1760" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1760">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1760" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761">
+        <v>899</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1761">
+        <v>9999</v>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1761">
+        <v>95</v>
+      </c>
+      <c r="F1761" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1761">
         <v>1921990101000</v>
       </c>
-      <c r="H1753" t="inlineStr">
+      <c r="H1761" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1761"/>
+  <dimension ref="A1:H1763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46153,35 +46153,35 @@
     </row>
     <row r="1355">
       <c r="A1355">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
+          <t>OUTRAS VINCULAÇÕES DE TRANSFERÊNCIAS</t>
         </is>
       </c>
       <c r="C1355">
-        <v>2301</v>
+        <v>9999</v>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1355">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
+          <t>TERMOS DE AJUSTAMENTO, DOACOES CONTROLADAS POR INSTRUMENTO JURIDICO E CONGENERES</t>
         </is>
       </c>
       <c r="G1355">
-        <v>1321010101000</v>
+        <v>1923990199000</v>
       </c>
       <c r="H1355" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTROS RESSARCIMENTOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46195,11 +46195,11 @@
         </is>
       </c>
       <c r="C1356">
-        <v>9999</v>
+        <v>2301</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1356">
@@ -46211,11 +46211,11 @@
         </is>
       </c>
       <c r="G1356">
-        <v>1711540101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1356" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -46245,11 +46245,11 @@
         </is>
       </c>
       <c r="G1357">
-        <v>1711540102000</v>
+        <v>1711540101000</v>
       </c>
       <c r="H1357" t="inlineStr">
         <is>
-          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46279,45 +46279,45 @@
         </is>
       </c>
       <c r="G1358">
-        <v>9711540102000</v>
+        <v>1711540102000</v>
       </c>
       <c r="H1358" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
+          <t>COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
     <row r="1359">
       <c r="A1359">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
+          <t>RECURSOS DA CONTRIBUIÇÃO DE INTERVENÇÃO NO DOMÍNIO ECONÔMICO - CIDE</t>
         </is>
       </c>
       <c r="C1359">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1359">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>CONTRIBUICAO DE INTERVENCAO NO DOMINIO ECONOMICO/COMBUSTIVEIS-CIDE</t>
         </is>
       </c>
       <c r="G1359">
-        <v>1911010103001</v>
+        <v>9711540102000</v>
       </c>
       <c r="H1359" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>DEDUCAO REC. - COTA-PARTE CIDE - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -46347,11 +46347,11 @@
         </is>
       </c>
       <c r="G1360">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -46365,27 +46365,27 @@
         </is>
       </c>
       <c r="C1361">
-        <v>4381</v>
+        <v>1911</v>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1361">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1361" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1361">
-        <v>1911010103002</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46415,11 +46415,11 @@
         </is>
       </c>
       <c r="G1362">
-        <v>1911010103003</v>
+        <v>1911010103002</v>
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -46433,27 +46433,27 @@
         </is>
       </c>
       <c r="C1363">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1363">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1363">
-        <v>1911010103001</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46483,11 +46483,11 @@
         </is>
       </c>
       <c r="G1364">
-        <v>1911010103003</v>
+        <v>1911010103001</v>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -46501,27 +46501,27 @@
         </is>
       </c>
       <c r="C1365">
-        <v>4381</v>
+        <v>9999</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1365">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1365">
-        <v>1922990199000</v>
+        <v>1911010103003</v>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46551,11 +46551,11 @@
         </is>
       </c>
       <c r="G1366">
-        <v>9911010103003</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46569,27 +46569,27 @@
         </is>
       </c>
       <c r="C1367">
-        <v>9999</v>
+        <v>4381</v>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1367">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO FUNTRANS</t>
         </is>
       </c>
       <c r="G1367">
-        <v>1911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
@@ -46619,11 +46619,11 @@
         </is>
       </c>
       <c r="G1368">
-        <v>9911010103003</v>
+        <v>1911010103004</v>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46653,45 +46653,45 @@
         </is>
       </c>
       <c r="G1369">
-        <v>9911010103004</v>
+        <v>9911010103003</v>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET</t>
         </is>
       </c>
     </row>
     <row r="1370">
       <c r="A1370">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
+          <t>RECURSOS VINCULADOS AO TRÂNSITO</t>
         </is>
       </c>
       <c r="C1370">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1370">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F1370" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>NOTIFICACAO DE INFRACAO DE TRANSITO ESTADO</t>
         </is>
       </c>
       <c r="G1370">
-        <v>1121040103000</v>
+        <v>9911010103004</v>
       </c>
       <c r="H1370" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>DEDUCAO REC. - MULTAS LEGISL. ESPECIFICA - PRINC. - LEGISL. TRANSITO - COTA PARTE DO FUNDO NACIONAL DE SEGURANCA E EDUCACAO NO TRANSITO - FUNSET - ESTADO</t>
         </is>
       </c>
     </row>
@@ -46721,11 +46721,11 @@
         </is>
       </c>
       <c r="G1371">
-        <v>1121040203000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1371" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46755,11 +46755,11 @@
         </is>
       </c>
       <c r="G1372">
-        <v>1121040303000</v>
+        <v>1121040203000</v>
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46789,11 +46789,11 @@
         </is>
       </c>
       <c r="G1373">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1373" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46823,11 +46823,11 @@
         </is>
       </c>
       <c r="G1374">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46849,19 +46849,19 @@
         </is>
       </c>
       <c r="E1375">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1375">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -46891,11 +46891,11 @@
         </is>
       </c>
       <c r="G1376">
-        <v>1121040109000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -46909,27 +46909,27 @@
         </is>
       </c>
       <c r="C1377">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1377">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1377">
-        <v>1121040101000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1377" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -46959,11 +46959,11 @@
         </is>
       </c>
       <c r="G1378">
-        <v>1121040201000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -46993,11 +46993,11 @@
         </is>
       </c>
       <c r="G1379">
-        <v>1121040301000</v>
+        <v>1121040201000</v>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47027,11 +47027,11 @@
         </is>
       </c>
       <c r="G1380">
-        <v>1922990199000</v>
+        <v>1121040301000</v>
       </c>
       <c r="H1380" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47053,19 +47053,19 @@
         </is>
       </c>
       <c r="E1381">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F1381" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1381">
-        <v>1121040103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1381" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47095,11 +47095,11 @@
         </is>
       </c>
       <c r="G1382">
-        <v>1121040303000</v>
+        <v>1121040103000</v>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47129,11 +47129,11 @@
         </is>
       </c>
       <c r="G1383">
-        <v>1121040403000</v>
+        <v>1121040303000</v>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47163,11 +47163,11 @@
         </is>
       </c>
       <c r="G1384">
-        <v>1922990199000</v>
+        <v>1121040403000</v>
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47189,19 +47189,19 @@
         </is>
       </c>
       <c r="E1385">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1385">
-        <v>1121040105000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47231,11 +47231,11 @@
         </is>
       </c>
       <c r="G1386">
-        <v>1121040106000</v>
+        <v>1121040105000</v>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DA PESCA</t>
         </is>
       </c>
     </row>
@@ -47265,11 +47265,11 @@
         </is>
       </c>
       <c r="G1387">
-        <v>1121040107000</v>
+        <v>1121040106000</v>
       </c>
       <c r="H1387" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE LIBERACAO E MANEJO DA FAUNA E FLORA</t>
         </is>
       </c>
     </row>
@@ -47299,11 +47299,11 @@
         </is>
       </c>
       <c r="G1388">
-        <v>1121040109000</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1388" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -47333,11 +47333,11 @@
         </is>
       </c>
       <c r="G1389">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1389" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -47351,11 +47351,11 @@
         </is>
       </c>
       <c r="C1390">
-        <v>2241</v>
+        <v>2101</v>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1390">
@@ -47367,11 +47367,11 @@
         </is>
       </c>
       <c r="G1390">
-        <v>1121040104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1390" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47401,11 +47401,11 @@
         </is>
       </c>
       <c r="G1391">
-        <v>1121040108000</v>
+        <v>1121040104000</v>
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REGULARIZACAO AMBIENTAL</t>
         </is>
       </c>
     </row>
@@ -47435,11 +47435,11 @@
         </is>
       </c>
       <c r="G1392">
-        <v>1121040109000</v>
+        <v>1121040108000</v>
       </c>
       <c r="H1392" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE CADASTRO PERFURACAO DE POCOS TUBULARES</t>
         </is>
       </c>
     </row>
@@ -47469,11 +47469,11 @@
         </is>
       </c>
       <c r="G1393">
-        <v>1922990199000</v>
+        <v>1121040109000</v>
       </c>
       <c r="H1393" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE REPROGRAFIA, CERTIDOES E JULGAMENTO DE CONTENCIOSO</t>
         </is>
       </c>
     </row>
@@ -47487,11 +47487,11 @@
         </is>
       </c>
       <c r="C1394">
-        <v>2301</v>
+        <v>2241</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1394">
@@ -47503,11 +47503,11 @@
         </is>
       </c>
       <c r="G1394">
-        <v>1122010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1394" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47537,11 +47537,11 @@
         </is>
       </c>
       <c r="G1395">
-        <v>1122010101006</v>
+        <v>1122010101001</v>
       </c>
       <c r="H1395" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47571,11 +47571,11 @@
         </is>
       </c>
       <c r="G1396">
-        <v>1122010104000</v>
+        <v>1122010101006</v>
       </c>
       <c r="H1396" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47605,11 +47605,11 @@
         </is>
       </c>
       <c r="G1397">
-        <v>1122010201006</v>
+        <v>1122010104000</v>
       </c>
       <c r="H1397" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TAXA DE GERENCIAMENTO DO SISTEMA TRANSPORTE RODOVIARIO INTERMUNICIPAL - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -47639,11 +47639,11 @@
         </is>
       </c>
       <c r="G1398">
-        <v>1122010301006</v>
+        <v>1122010201006</v>
       </c>
       <c r="H1398" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47673,11 +47673,11 @@
         </is>
       </c>
       <c r="G1399">
-        <v>1122010401006</v>
+        <v>1122010301006</v>
       </c>
       <c r="H1399" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
+          <t>TX. PREST. SERV. G. - DA - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47691,11 +47691,11 @@
         </is>
       </c>
       <c r="C1400">
-        <v>2371</v>
+        <v>2301</v>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1400">
@@ -47707,11 +47707,11 @@
         </is>
       </c>
       <c r="G1400">
-        <v>1122010101003</v>
+        <v>1122010401006</v>
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
+          <t>TX. PREST. SERV. G. - DA-MJM - TX. EXP. - TRANSPORTE COLETIVO INTERMUNICIPAL - NOTIFICACAO</t>
         </is>
       </c>
     </row>
@@ -47741,11 +47741,11 @@
         </is>
       </c>
       <c r="G1401">
-        <v>1321010101000</v>
+        <v>1122010101003</v>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - INSTITUTO MINEIRO DE AGROPECUARIA - IMA</t>
         </is>
       </c>
     </row>
@@ -47775,11 +47775,11 @@
         </is>
       </c>
       <c r="G1402">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1402" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -47793,27 +47793,27 @@
         </is>
       </c>
       <c r="C1403">
-        <v>2441</v>
+        <v>2371</v>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1403">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1403" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1403">
-        <v>1121010104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47843,11 +47843,11 @@
         </is>
       </c>
       <c r="G1404">
-        <v>1922990199000</v>
+        <v>1121010104000</v>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -47861,19 +47861,19 @@
         </is>
       </c>
       <c r="C1405">
-        <v>4711</v>
+        <v>2441</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1405">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1405">
@@ -47895,27 +47895,27 @@
         </is>
       </c>
       <c r="C1406">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1406">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>TAXA DE CONTROLE E FISCALIZACAO AMBIENTAL</t>
         </is>
       </c>
       <c r="G1406">
-        <v>1121010101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -47945,11 +47945,11 @@
         </is>
       </c>
       <c r="G1407">
-        <v>1121010101002</v>
+        <v>1121010101001</v>
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -47979,11 +47979,11 @@
         </is>
       </c>
       <c r="G1408">
-        <v>1121010101003</v>
+        <v>1121010101002</v>
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48013,11 +48013,11 @@
         </is>
       </c>
       <c r="G1409">
-        <v>1121010101004</v>
+        <v>1121010101003</v>
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48047,11 +48047,11 @@
         </is>
       </c>
       <c r="G1410">
-        <v>1121010101006</v>
+        <v>1121010101004</v>
       </c>
       <c r="H1410" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -48081,11 +48081,11 @@
         </is>
       </c>
       <c r="G1411">
-        <v>1121010201001</v>
+        <v>1121010101006</v>
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - DEPARTAMENTO DE EDIFICACOES E ESTRADAS DE RODAGEM DO ESTADO DE MINAS GERAIS - DERMG</t>
         </is>
       </c>
     </row>
@@ -48115,11 +48115,11 @@
         </is>
       </c>
       <c r="G1412">
-        <v>1121010201003</v>
+        <v>1121010201001</v>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -48149,11 +48149,11 @@
         </is>
       </c>
       <c r="G1413">
-        <v>1121010201004</v>
+        <v>1121010201003</v>
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48183,11 +48183,11 @@
         </is>
       </c>
       <c r="G1414">
-        <v>1121010301001</v>
+        <v>1121010201004</v>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE RENOVACAO DE LICENCIAMENTO ANUAL DE VEICULO</t>
         </is>
       </c>
     </row>
@@ -48217,11 +48217,11 @@
         </is>
       </c>
       <c r="G1415">
-        <v>1121010301002</v>
+        <v>1121010301001</v>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA CIVIL DO ESTADO DE MINAS GERAIS - PCMG E COORDENADORIA ESTADUAL DE GESTAO DO TRANSITO - CET</t>
         </is>
       </c>
     </row>
@@ -48251,11 +48251,11 @@
         </is>
       </c>
       <c r="G1416">
-        <v>1121010301003</v>
+        <v>1121010301002</v>
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48285,11 +48285,11 @@
         </is>
       </c>
       <c r="G1417">
-        <v>1121010401002</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48319,11 +48319,11 @@
         </is>
       </c>
       <c r="G1418">
-        <v>1121010401003</v>
+        <v>1121010401002</v>
       </c>
       <c r="H1418" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48353,11 +48353,11 @@
         </is>
       </c>
       <c r="G1419">
-        <v>1922990199000</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1419" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -48379,19 +48379,19 @@
         </is>
       </c>
       <c r="E1420">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1420">
-        <v>1121040107000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1420" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48421,11 +48421,11 @@
         </is>
       </c>
       <c r="G1421">
-        <v>1122010101002</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48455,11 +48455,11 @@
         </is>
       </c>
       <c r="G1422">
-        <v>1122010101004</v>
+        <v>1122010101002</v>
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48489,11 +48489,11 @@
         </is>
       </c>
       <c r="G1423">
-        <v>1122010101005</v>
+        <v>1122010101004</v>
       </c>
       <c r="H1423" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48523,11 +48523,11 @@
         </is>
       </c>
       <c r="G1424">
-        <v>1122010101011</v>
+        <v>1122010101005</v>
       </c>
       <c r="H1424" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO SOCIAL - SEDESE</t>
         </is>
       </c>
     </row>
@@ -48557,11 +48557,11 @@
         </is>
       </c>
       <c r="G1425">
-        <v>1122010201002</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1425" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -48591,11 +48591,11 @@
         </is>
       </c>
       <c r="G1426">
-        <v>1122010201004</v>
+        <v>1122010201002</v>
       </c>
       <c r="H1426" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DA FAZENDA - SEF</t>
         </is>
       </c>
     </row>
@@ -48617,19 +48617,19 @@
         </is>
       </c>
       <c r="E1427">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1427">
-        <v>1121010101005</v>
+        <v>1122010201004</v>
       </c>
       <c r="H1427" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. PREST. SERV. G. - MJM - TX. EXP. - ATOS DA SECRETARIA DE ESTADO DE SAUDE - SES</t>
         </is>
       </c>
     </row>
@@ -48659,11 +48659,11 @@
         </is>
       </c>
       <c r="G1428">
-        <v>1121010201005</v>
+        <v>1121010101005</v>
       </c>
       <c r="H1428" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48693,11 +48693,11 @@
         </is>
       </c>
       <c r="G1429">
-        <v>1121010301005</v>
+        <v>1121010201005</v>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48727,11 +48727,11 @@
         </is>
       </c>
       <c r="G1430">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48753,19 +48753,19 @@
         </is>
       </c>
       <c r="E1431">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1431">
-        <v>1121040102000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -48795,11 +48795,11 @@
         </is>
       </c>
       <c r="G1432">
-        <v>1121040202000</v>
+        <v>1121040102000</v>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48829,11 +48829,11 @@
         </is>
       </c>
       <c r="G1433">
-        <v>1121040302000</v>
+        <v>1121040202000</v>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48863,11 +48863,11 @@
         </is>
       </c>
       <c r="G1434">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48897,11 +48897,11 @@
         </is>
       </c>
       <c r="G1435">
-        <v>1922990199000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -48923,19 +48923,19 @@
         </is>
       </c>
       <c r="E1436">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1436">
-        <v>1121040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -48957,19 +48957,19 @@
         </is>
       </c>
       <c r="E1437">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F1437" t="inlineStr">
         <is>
-          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO DIRETA</t>
         </is>
       </c>
       <c r="G1437">
-        <v>1792010101000</v>
+        <v>1121040101000</v>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -48991,19 +48991,19 @@
         </is>
       </c>
       <c r="E1438">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F1438" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA FLORESTAL - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1438">
-        <v>1321010101000</v>
+        <v>1792010101000</v>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TRANSF. DEPOSITOS NAO IDENTIFICADOS - PRINC. - CAMPANHA DE DOACAO CORONAVIRUS</t>
         </is>
       </c>
     </row>
@@ -49025,11 +49025,11 @@
         </is>
       </c>
       <c r="E1439">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1439">
@@ -49067,11 +49067,11 @@
         </is>
       </c>
       <c r="G1440">
-        <v>1921990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1440" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49101,11 +49101,11 @@
         </is>
       </c>
       <c r="G1441">
-        <v>1922063199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1441" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49135,11 +49135,11 @@
         </is>
       </c>
       <c r="G1442">
-        <v>1922990199000</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49161,19 +49161,19 @@
         </is>
       </c>
       <c r="E1443">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1443">
-        <v>1922011101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49187,27 +49187,27 @@
         </is>
       </c>
       <c r="C1444">
-        <v>2091</v>
+        <v>9999</v>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1444">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1444">
-        <v>1121040107000</v>
+        <v>1922011101000</v>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
+          <t>RESTITUICAO CONVENIOS - PRIMARIAS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49237,11 +49237,11 @@
         </is>
       </c>
       <c r="G1445">
-        <v>1122010101011</v>
+        <v>1121040107000</v>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
+          <t>TX. CONTR. FISC. AMBIENT. - PRINC. - TAXA DA LEI DE POLITICA FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -49255,27 +49255,27 @@
         </is>
       </c>
       <c r="C1446">
-        <v>2441</v>
+        <v>2091</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>ARSAE -MG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1446">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>TAXA DE EXPEDIENTE - ADMINISTRACAO INDIRETA</t>
         </is>
       </c>
       <c r="G1446">
-        <v>1121010204000</v>
+        <v>1122010101011</v>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
+          <t>TX. PREST. SERV. G. - PRINC. - TX. EXP. - ATOS DE AUTORIDADE ADMINISTRATIVA DO SISTEMA ESTADUAL DE MEIO AMBIENTE E RECURSOS HIDRICOS - SISEMA</t>
         </is>
       </c>
     </row>
@@ -49289,27 +49289,27 @@
         </is>
       </c>
       <c r="C1447">
-        <v>1911</v>
+        <v>2441</v>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>ARSAE -MG</t>
         </is>
       </c>
       <c r="E1447">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>TAXA DE SEGURANCA PUBLICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1447">
-        <v>1121010301003</v>
+        <v>1121010204000</v>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO SOBRE SERVICOS PUBLICOS DE ABASTECIMENTO DE AGUA E SANEAMENTO</t>
         </is>
       </c>
     </row>
@@ -49339,11 +49339,11 @@
         </is>
       </c>
       <c r="G1448">
-        <v>1121010401003</v>
+        <v>1121010301003</v>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -49365,19 +49365,19 @@
         </is>
       </c>
       <c r="E1449">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>TAXA DE INCENDIO</t>
+          <t>TAXA DE SEGURANCA PUBLICA</t>
         </is>
       </c>
       <c r="G1449">
-        <v>1121010301005</v>
+        <v>1121010401003</v>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - POLICIA MILITAR DO ESTADO DE MINAS GERAIS - PMMG</t>
         </is>
       </c>
     </row>
@@ -49407,11 +49407,11 @@
         </is>
       </c>
       <c r="G1450">
-        <v>1121010401005</v>
+        <v>1121010301005</v>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -49433,19 +49433,19 @@
         </is>
       </c>
       <c r="E1451">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TAXA DE INCENDIO</t>
         </is>
       </c>
       <c r="G1451">
-        <v>1121040302000</v>
+        <v>1121010401005</v>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TX. SEGURANCA PUBLICA - TAXA DE INCENDIO - CORPO DE BOMBEIROS MILITAR DO ESTADO DE MINAS GERAIS - CBMMG</t>
         </is>
       </c>
     </row>
@@ -49475,21 +49475,21 @@
         </is>
       </c>
       <c r="G1452">
-        <v>1121040402000</v>
+        <v>1121040302000</v>
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
+          <t>RECURSOS PROVENIENTES DE TAXAS, CONTRIBUIÇÕES E PREÇOS PÚBLICOS</t>
         </is>
       </c>
       <c r="C1453">
@@ -49501,19 +49501,19 @@
         </is>
       </c>
       <c r="E1453">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
+          <t>TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
       <c r="G1453">
-        <v>1321010101000</v>
+        <v>1121040402000</v>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>TX. CONTR. FISC. AMBIENT. - DA-MJM - TAXA DE FISCALIZACAO DE RECURSOS MINERARIOS</t>
         </is>
       </c>
     </row>
@@ -49527,11 +49527,11 @@
         </is>
       </c>
       <c r="C1454">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1454">
@@ -49577,11 +49577,11 @@
         </is>
       </c>
       <c r="G1455">
-        <v>1922063199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49611,11 +49611,11 @@
         </is>
       </c>
       <c r="G1456">
-        <v>2119990103004</v>
+        <v>1922063199000</v>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49645,11 +49645,11 @@
         </is>
       </c>
       <c r="G1457">
-        <v>2129990103001</v>
+        <v>2119990103004</v>
       </c>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
+          <t>BNDES - PROGRAMA DE APOIO AO INVESTIMENTO DOS ESTADOS E DISTRITO FEDERAL - PROINVESTE</t>
         </is>
       </c>
     </row>
@@ -49679,11 +49679,11 @@
         </is>
       </c>
       <c r="G1458">
-        <v>1922063299000</v>
+        <v>2129990103001</v>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>BANCO MUNDIAL - BIRD - PROGRAMA PROGESTAO</t>
         </is>
       </c>
     </row>
@@ -49713,11 +49713,11 @@
         </is>
       </c>
       <c r="G1459">
-        <v>2119990102002</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49731,11 +49731,11 @@
         </is>
       </c>
       <c r="C1460">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1460">
@@ -49747,45 +49747,45 @@
         </is>
       </c>
       <c r="G1460">
-        <v>1922063299000</v>
+        <v>2119990102002</v>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
+          <t>CAIXA ECONOMICA FEDERAL - PROGRAMA DE ACELERACAO DO CRESCIMENTO - PAC - CONTAGEM</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
+          <t>RECURSOS DE OPERAÇÕES DE CRÉDITO</t>
         </is>
       </c>
       <c r="C1461">
-        <v>9999</v>
+        <v>1911</v>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1461">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F1461" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
+          <t>OPERACOES DE CREDITO CONTRATUAIS</t>
         </is>
       </c>
       <c r="G1461">
-        <v>1321010101000</v>
+        <v>1922063299000</v>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>RESTITUICAO DESPESAS PRIMARIAS EXERCICIOS ANTERIORES - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49815,11 +49815,11 @@
         </is>
       </c>
       <c r="G1462">
-        <v>2211020104000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -49849,11 +49849,11 @@
         </is>
       </c>
       <c r="G1463">
-        <v>2211020105000</v>
+        <v>2211020104000</v>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - MINAS CAIXA</t>
         </is>
       </c>
     </row>
@@ -49883,11 +49883,11 @@
         </is>
       </c>
       <c r="G1464">
-        <v>2211020199000</v>
+        <v>2211020105000</v>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - SANEAMENTO DO SISTEMA FINANCEIRO - CREDIREAL/BEMGE</t>
         </is>
       </c>
     </row>
@@ -49917,11 +49917,11 @@
         </is>
       </c>
       <c r="G1465">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -49951,45 +49951,45 @@
         </is>
       </c>
       <c r="G1466">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO DIRETA</t>
         </is>
       </c>
       <c r="C1467">
-        <v>2011</v>
+        <v>9999</v>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1467">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
+          <t>ALIENACAO DE BENS DO TESOURO ESTADUAL</t>
         </is>
       </c>
       <c r="G1467">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50003,11 +50003,11 @@
         </is>
       </c>
       <c r="C1468">
-        <v>2091</v>
+        <v>2011</v>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1468">
@@ -50037,11 +50037,11 @@
         </is>
       </c>
       <c r="C1469">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1469">
@@ -50071,11 +50071,11 @@
         </is>
       </c>
       <c r="C1470">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1470">
@@ -50105,11 +50105,11 @@
         </is>
       </c>
       <c r="C1471">
-        <v>2181</v>
+        <v>2121</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>FCS</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1471">
@@ -50139,11 +50139,11 @@
         </is>
       </c>
       <c r="C1472">
-        <v>2241</v>
+        <v>2181</v>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>FCS</t>
         </is>
       </c>
       <c r="E1472">
@@ -50173,11 +50173,11 @@
         </is>
       </c>
       <c r="C1473">
-        <v>2271</v>
+        <v>2241</v>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>FHEMIG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1473">
@@ -50207,11 +50207,11 @@
         </is>
       </c>
       <c r="C1474">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>UTRAMIG</t>
+          <t>FHEMIG</t>
         </is>
       </c>
       <c r="E1474">
@@ -50241,11 +50241,11 @@
         </is>
       </c>
       <c r="C1475">
-        <v>2301</v>
+        <v>2281</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>DER-MG</t>
+          <t>UTRAMIG</t>
         </is>
       </c>
       <c r="E1475">
@@ -50291,11 +50291,11 @@
         </is>
       </c>
       <c r="G1476">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50309,11 +50309,11 @@
         </is>
       </c>
       <c r="C1477">
-        <v>2321</v>
+        <v>2301</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>HEMOMINAS</t>
+          <t>DER-MG</t>
         </is>
       </c>
       <c r="E1477">
@@ -50325,11 +50325,11 @@
         </is>
       </c>
       <c r="G1477">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50343,11 +50343,11 @@
         </is>
       </c>
       <c r="C1478">
-        <v>2371</v>
+        <v>2321</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>HEMOMINAS</t>
         </is>
       </c>
       <c r="E1478">
@@ -50377,11 +50377,11 @@
         </is>
       </c>
       <c r="C1479">
-        <v>4031</v>
+        <v>2371</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1479">
@@ -50411,11 +50411,11 @@
         </is>
       </c>
       <c r="C1480">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1480">
@@ -50427,11 +50427,11 @@
         </is>
       </c>
       <c r="G1480">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50461,11 +50461,11 @@
         </is>
       </c>
       <c r="G1481">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50479,11 +50479,11 @@
         </is>
       </c>
       <c r="C1482">
-        <v>1091</v>
+        <v>9999</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1482">
@@ -50495,11 +50495,11 @@
         </is>
       </c>
       <c r="G1482">
-        <v>1321010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50513,11 +50513,11 @@
         </is>
       </c>
       <c r="C1483">
-        <v>2261</v>
+        <v>1091</v>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>FUNED</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1483">
@@ -50529,11 +50529,11 @@
         </is>
       </c>
       <c r="G1483">
-        <v>2213010101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50547,11 +50547,11 @@
         </is>
       </c>
       <c r="C1484">
-        <v>2151</v>
+        <v>2261</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>FHA</t>
+          <t>FUNED</t>
         </is>
       </c>
       <c r="E1484">
@@ -50581,11 +50581,11 @@
         </is>
       </c>
       <c r="C1485">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>FUCAM</t>
+          <t>FHA</t>
         </is>
       </c>
       <c r="E1485">
@@ -50615,11 +50615,11 @@
         </is>
       </c>
       <c r="C1486">
-        <v>2251</v>
+        <v>2161</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FUCAM</t>
         </is>
       </c>
       <c r="E1486">
@@ -50631,11 +50631,11 @@
         </is>
       </c>
       <c r="G1486">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50649,11 +50649,11 @@
         </is>
       </c>
       <c r="C1487">
-        <v>1091</v>
+        <v>2251</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>PGJ</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1487">
@@ -50665,11 +50665,11 @@
         </is>
       </c>
       <c r="G1487">
-        <v>2213010101000</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50683,11 +50683,11 @@
         </is>
       </c>
       <c r="C1488">
-        <v>1441</v>
+        <v>1091</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>DEF PUB</t>
+          <t>PGJ</t>
         </is>
       </c>
       <c r="E1488">
@@ -50717,11 +50717,11 @@
         </is>
       </c>
       <c r="C1489">
-        <v>3051</v>
+        <v>1441</v>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>EPAMIG</t>
+          <t>DEF PUB</t>
         </is>
       </c>
       <c r="E1489">
@@ -50751,11 +50751,11 @@
         </is>
       </c>
       <c r="C1490">
-        <v>2061</v>
+        <v>3051</v>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>FJP</t>
+          <t>EPAMIG</t>
         </is>
       </c>
       <c r="E1490">
@@ -50785,11 +50785,11 @@
         </is>
       </c>
       <c r="C1491">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FJP</t>
         </is>
       </c>
       <c r="E1491">
@@ -50801,11 +50801,11 @@
         </is>
       </c>
       <c r="G1491">
-        <v>2211020199000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
@@ -50819,11 +50819,11 @@
         </is>
       </c>
       <c r="C1492">
-        <v>4441</v>
+        <v>2071</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>FUNEMP</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1492">
@@ -50835,11 +50835,11 @@
         </is>
       </c>
       <c r="G1492">
-        <v>2213010101000</v>
+        <v>2211020199000</v>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
+          <t>ALIEN. TITULOS VALORES MOBIL. APLIC. CONGEN. PERMANENTES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -50853,11 +50853,11 @@
         </is>
       </c>
       <c r="C1493">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>FEPDC</t>
+          <t>FUNEMP</t>
         </is>
       </c>
       <c r="E1493">
@@ -50887,11 +50887,11 @@
         </is>
       </c>
       <c r="C1494">
-        <v>2071</v>
+        <v>4451</v>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>FAPEMIG</t>
+          <t>FEPDC</t>
         </is>
       </c>
       <c r="E1494">
@@ -50921,11 +50921,11 @@
         </is>
       </c>
       <c r="C1495">
-        <v>2251</v>
+        <v>2071</v>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>JUCEMG</t>
+          <t>FAPEMIG</t>
         </is>
       </c>
       <c r="E1495">
@@ -50955,11 +50955,11 @@
         </is>
       </c>
       <c r="C1496">
-        <v>2121</v>
+        <v>2251</v>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>JUCEMG</t>
         </is>
       </c>
       <c r="E1496">
@@ -50971,45 +50971,45 @@
         </is>
       </c>
       <c r="G1496">
-        <v>2221010101000</v>
+        <v>2213010101000</v>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
+          <t>ALIENACAO BENS MOVEIS SEMOVENTES - PRINC.</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS A FUNDOS</t>
+          <t>RECURSOS DE ALIENAÇÃO DE BENS/ATIVOS - ADMINISTRAÇÃO INDIRETA</t>
         </is>
       </c>
       <c r="C1497">
-        <v>4031</v>
+        <v>2121</v>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1497">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>ALIENACAO DE BENS DE ENTIDADES ESTADUAIS</t>
         </is>
       </c>
       <c r="G1497">
-        <v>1611010123003</v>
+        <v>2221010101000</v>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
+          <t>ALIENACAO BENS IMOVEIS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51023,27 +51023,27 @@
         </is>
       </c>
       <c r="C1498">
-        <v>4141</v>
+        <v>4031</v>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>FPE</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1498">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1498">
-        <v>1911080101000</v>
+        <v>1611010123003</v>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - PODER JUDIC. - VERBA INDENIZATORIA DE TRANSPORTE CUSTEADA PELAS PARTES</t>
         </is>
       </c>
     </row>
@@ -51057,27 +51057,27 @@
         </is>
       </c>
       <c r="C1499">
-        <v>4331</v>
+        <v>4141</v>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FPE</t>
         </is>
       </c>
       <c r="E1499">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1499" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1499">
-        <v>1739990111001</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51107,11 +51107,11 @@
         </is>
       </c>
       <c r="G1500">
-        <v>1999992299000</v>
+        <v>1739990111001</v>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
+          <t>COMERCIO E SERVICOS - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51125,27 +51125,27 @@
         </is>
       </c>
       <c r="C1501">
-        <v>4341</v>
+        <v>4331</v>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>FHIDRO</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1501">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1501" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1501">
-        <v>1911010112000</v>
+        <v>1999992299000</v>
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
+          <t>OUTRAS REC. - PRIMARIAS - MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51159,27 +51159,27 @@
         </is>
       </c>
       <c r="C1502">
-        <v>4381</v>
+        <v>4341</v>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>FUNTRANS</t>
+          <t>FHIDRO</t>
         </is>
       </c>
       <c r="E1502">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F1502" t="inlineStr">
         <is>
-          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1502">
-        <v>1121010103000</v>
+        <v>1911010112000</v>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - INFRACAO A LEGISLACAO DE ABASTECIMENTO DE AGUA E ESGOTAMENTO SANITARIO</t>
         </is>
       </c>
     </row>
@@ -51209,11 +51209,11 @@
         </is>
       </c>
       <c r="G1503">
-        <v>1121010203000</v>
+        <v>1121010103000</v>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -51227,27 +51227,27 @@
         </is>
       </c>
       <c r="C1504">
-        <v>4421</v>
+        <v>4381</v>
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>FUNDIF</t>
+          <t>FUNTRANS</t>
         </is>
       </c>
       <c r="E1504">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F1504" t="inlineStr">
         <is>
-          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
+          <t>TAXA DE LICENCIAMENTO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
       <c r="G1504">
-        <v>1911080101000</v>
+        <v>1121010203000</v>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE LICENCIAMENTO PARA USO OU OCUPACAO DA FAIXA DE DOMINIO DAS RODOVIAS</t>
         </is>
       </c>
     </row>
@@ -51261,27 +51261,27 @@
         </is>
       </c>
       <c r="C1505">
-        <v>4491</v>
+        <v>4421</v>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FUNDIF</t>
         </is>
       </c>
       <c r="E1505">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>MULTAS PECUNIARIAS E JUROS DE MORA FIXADOS EM SENTENCAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1505">
-        <v>1999992199000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -51295,11 +51295,11 @@
         </is>
       </c>
       <c r="C1506">
-        <v>4331</v>
+        <v>4491</v>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>FDM</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1506">
@@ -51311,11 +51311,11 @@
         </is>
       </c>
       <c r="G1506">
-        <v>1739990126001</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -51345,11 +51345,11 @@
         </is>
       </c>
       <c r="G1507">
-        <v>1911010199000</v>
+        <v>1739990126001</v>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
+          <t>URBANISMO - DIVERSOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -51363,11 +51363,11 @@
         </is>
       </c>
       <c r="C1508">
-        <v>4491</v>
+        <v>4331</v>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>FDM</t>
         </is>
       </c>
       <c r="E1508">
@@ -51379,45 +51379,45 @@
         </is>
       </c>
       <c r="G1508">
-        <v>1321010101000</v>
+        <v>1911010199000</v>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>MULTAS LEGISL. ESPECIFICA - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1509">
       <c r="A1509">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
+          <t>RECURSOS VINCULADOS A FUNDOS</t>
         </is>
       </c>
       <c r="C1509">
-        <v>4031</v>
+        <v>4491</v>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>FEPJ</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="E1509">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1509">
-        <v>1121010102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -51447,11 +51447,11 @@
         </is>
       </c>
       <c r="G1510">
-        <v>1121010202000</v>
+        <v>1121010102000</v>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - PRINC. - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51481,11 +51481,11 @@
         </is>
       </c>
       <c r="G1511">
-        <v>1121010302000</v>
+        <v>1121010202000</v>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51515,11 +51515,11 @@
         </is>
       </c>
       <c r="G1512">
-        <v>1121010402000</v>
+        <v>1121010302000</v>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
+          <t>TX. INSP. CONTR. FISC. - DA - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51549,11 +51549,11 @@
         </is>
       </c>
       <c r="G1513">
-        <v>1122020101000</v>
+        <v>1121010402000</v>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>TX. INSP. CONTR. FISC. - DA-MJM - TAXA DE FISCALIZACAO JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51583,11 +51583,11 @@
         </is>
       </c>
       <c r="G1514">
-        <v>1122020102000</v>
+        <v>1122020101000</v>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51617,11 +51617,11 @@
         </is>
       </c>
       <c r="G1515">
-        <v>1122020103000</v>
+        <v>1122020102000</v>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51651,11 +51651,11 @@
         </is>
       </c>
       <c r="G1516">
-        <v>1122020201000</v>
+        <v>1122020103000</v>
       </c>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - PRINC. - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51685,11 +51685,11 @@
         </is>
       </c>
       <c r="G1517">
-        <v>1122020202000</v>
+        <v>1122020201000</v>
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51719,11 +51719,11 @@
         </is>
       </c>
       <c r="G1518">
-        <v>1122020203000</v>
+        <v>1122020202000</v>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51753,11 +51753,11 @@
         </is>
       </c>
       <c r="G1519">
-        <v>1122020301000</v>
+        <v>1122020203000</v>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51787,11 +51787,11 @@
         </is>
       </c>
       <c r="G1520">
-        <v>1122020302000</v>
+        <v>1122020301000</v>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51821,11 +51821,11 @@
         </is>
       </c>
       <c r="G1521">
-        <v>1122020303000</v>
+        <v>1122020302000</v>
       </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51855,11 +51855,11 @@
         </is>
       </c>
       <c r="G1522">
-        <v>1122020401000</v>
+        <v>1122020303000</v>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51889,11 +51889,11 @@
         </is>
       </c>
       <c r="G1523">
-        <v>1122020402000</v>
+        <v>1122020401000</v>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUSTICA COMUM</t>
         </is>
       </c>
     </row>
@@ -51923,11 +51923,11 @@
         </is>
       </c>
       <c r="G1524">
-        <v>1122020403000</v>
+        <v>1122020402000</v>
       </c>
       <c r="H1524" t="inlineStr">
         <is>
-          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - CUSTAS JUDICIAIS - JUIZADO ESPECIAL</t>
         </is>
       </c>
     </row>
@@ -51957,11 +51957,11 @@
         </is>
       </c>
       <c r="G1525">
-        <v>1911080101000</v>
+        <v>1122020403000</v>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>EMOLUMENTOS CUSTAS JUDICIAIS - DA-MJM - TAXA JUDICIARIA</t>
         </is>
       </c>
     </row>
@@ -51991,11 +51991,11 @@
         </is>
       </c>
       <c r="G1526">
-        <v>1911080301000</v>
+        <v>1911080101000</v>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - PRINC. - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -52025,11 +52025,11 @@
         </is>
       </c>
       <c r="G1527">
-        <v>1911080401000</v>
+        <v>1911080301000</v>
       </c>
       <c r="H1527" t="inlineStr">
         <is>
-          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -52059,11 +52059,11 @@
         </is>
       </c>
       <c r="G1528">
-        <v>1911090199000</v>
+        <v>1911080401000</v>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>MULTAS SENTENCAS JUDICIAIS - DA-MJM - MULTAS PECUNIARIAS E JUROS DE MORA</t>
         </is>
       </c>
     </row>
@@ -52093,11 +52093,11 @@
         </is>
       </c>
       <c r="G1529">
-        <v>1921990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52127,11 +52127,11 @@
         </is>
       </c>
       <c r="G1530">
-        <v>1922990199000</v>
+        <v>1921990199000</v>
       </c>
       <c r="H1530" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52161,11 +52161,11 @@
         </is>
       </c>
       <c r="G1531">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52195,11 +52195,11 @@
         </is>
       </c>
       <c r="G1532">
-        <v>1911090399000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52229,41 +52229,41 @@
         </is>
       </c>
       <c r="G1533">
-        <v>1911090499000</v>
+        <v>1911090399000</v>
+      </c>
+      <c r="H1533" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - DA</t>
+        </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
+          <t>RECURSOS DE EMOLUMENTOS, TAXAS E CUSTAS</t>
         </is>
       </c>
       <c r="C1534">
-        <v>9999</v>
+        <v>4031</v>
       </c>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FEPJ</t>
         </is>
       </c>
       <c r="E1534">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
+          <t>TAXA DE FISCALIZACAO JUDICIARIA E TAXAS E MULTAS JUDICIAIS</t>
         </is>
       </c>
       <c r="G1534">
-        <v>1114502101000</v>
-      </c>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
-        </is>
+        <v>1911090499000</v>
       </c>
     </row>
     <row r="1535">
@@ -52292,11 +52292,11 @@
         </is>
       </c>
       <c r="G1535">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52326,11 +52326,11 @@
         </is>
       </c>
       <c r="G1536">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52360,11 +52360,11 @@
         </is>
       </c>
       <c r="G1537">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52394,11 +52394,11 @@
         </is>
       </c>
       <c r="G1538">
-        <v>1922990199000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52428,11 +52428,11 @@
         </is>
       </c>
       <c r="G1539">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -52446,11 +52446,11 @@
         </is>
       </c>
       <c r="C1540">
-        <v>1911</v>
+        <v>9999</v>
       </c>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1540">
@@ -52462,11 +52462,11 @@
         </is>
       </c>
       <c r="G1540">
-        <v>1114502101000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -52496,11 +52496,11 @@
         </is>
       </c>
       <c r="G1541">
-        <v>1114502201000</v>
+        <v>1114502101000</v>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52530,11 +52530,11 @@
         </is>
       </c>
       <c r="G1542">
-        <v>1114502301000</v>
+        <v>1114502201000</v>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52564,45 +52564,45 @@
         </is>
       </c>
       <c r="G1543">
-        <v>1114502401000</v>
+        <v>1114502301000</v>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544">
-        <v>799</v>
+        <v>761</v>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO FUNDO DE COMBATE E ERRADICAÇÃO DA POBREZA</t>
         </is>
       </c>
       <c r="C1544">
-        <v>1231</v>
+        <v>1911</v>
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>SEAPA</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1544">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F1544" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DO FUNDO ESTADUAL DE ERRADICACAO DA MISERIA</t>
         </is>
       </c>
       <c r="G1544">
-        <v>1349010103000</v>
+        <v>1114502401000</v>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO ESTADO</t>
         </is>
       </c>
     </row>
@@ -52616,11 +52616,11 @@
         </is>
       </c>
       <c r="C1545">
-        <v>1371</v>
+        <v>1231</v>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
-          <t>SEMAD</t>
+          <t>SEAPA</t>
         </is>
       </c>
       <c r="E1545">
@@ -52632,11 +52632,11 @@
         </is>
       </c>
       <c r="G1545">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -52650,27 +52650,27 @@
         </is>
       </c>
       <c r="C1546">
-        <v>1911</v>
+        <v>1371</v>
       </c>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>EGE - SEF</t>
+          <t>SEMAD</t>
         </is>
       </c>
       <c r="E1546">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F1546" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1546">
-        <v>1112510102000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -52700,11 +52700,11 @@
         </is>
       </c>
       <c r="G1547">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52734,11 +52734,11 @@
         </is>
       </c>
       <c r="G1548">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52768,11 +52768,11 @@
         </is>
       </c>
       <c r="G1549">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52802,11 +52802,11 @@
         </is>
       </c>
       <c r="G1550">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52836,11 +52836,11 @@
         </is>
       </c>
       <c r="G1551">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1551" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52870,11 +52870,11 @@
         </is>
       </c>
       <c r="G1552">
-        <v>9112510102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52904,11 +52904,11 @@
         </is>
       </c>
       <c r="G1553">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52938,11 +52938,11 @@
         </is>
       </c>
       <c r="G1554">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1554" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -52972,11 +52972,11 @@
         </is>
       </c>
       <c r="G1555">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53006,11 +53006,11 @@
         </is>
       </c>
       <c r="G1556">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53040,11 +53040,11 @@
         </is>
       </c>
       <c r="G1557">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1557" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53066,19 +53066,19 @@
         </is>
       </c>
       <c r="E1558">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1558" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1558">
-        <v>1112510103000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1558" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -53108,11 +53108,11 @@
         </is>
       </c>
       <c r="G1559">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1559" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53142,11 +53142,11 @@
         </is>
       </c>
       <c r="G1560">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53176,11 +53176,11 @@
         </is>
       </c>
       <c r="G1561">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1561" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53210,11 +53210,11 @@
         </is>
       </c>
       <c r="G1562">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1562" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53244,11 +53244,11 @@
         </is>
       </c>
       <c r="G1563">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1563" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53278,11 +53278,11 @@
         </is>
       </c>
       <c r="G1564">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1564" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53312,11 +53312,11 @@
         </is>
       </c>
       <c r="G1565">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1565" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53346,11 +53346,11 @@
         </is>
       </c>
       <c r="G1566">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1566" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53380,11 +53380,11 @@
         </is>
       </c>
       <c r="G1567">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1567" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53414,11 +53414,11 @@
         </is>
       </c>
       <c r="G1568">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1568" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53448,11 +53448,11 @@
         </is>
       </c>
       <c r="G1569">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53482,11 +53482,11 @@
         </is>
       </c>
       <c r="G1570">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1570" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53516,11 +53516,11 @@
         </is>
       </c>
       <c r="G1571">
-        <v>9112510103000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1571" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53550,11 +53550,11 @@
         </is>
       </c>
       <c r="G1572">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53584,11 +53584,11 @@
         </is>
       </c>
       <c r="G1573">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1573" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53618,11 +53618,11 @@
         </is>
       </c>
       <c r="G1574">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1574" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53652,11 +53652,11 @@
         </is>
       </c>
       <c r="G1575">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1575" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53686,11 +53686,11 @@
         </is>
       </c>
       <c r="G1576">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1576" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53720,11 +53720,11 @@
         </is>
       </c>
       <c r="G1577">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1577" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53754,11 +53754,11 @@
         </is>
       </c>
       <c r="G1578">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1578" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53788,11 +53788,11 @@
         </is>
       </c>
       <c r="G1579">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1579" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53822,11 +53822,11 @@
         </is>
       </c>
       <c r="G1580">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1580" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53856,11 +53856,11 @@
         </is>
       </c>
       <c r="G1581">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1581" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53890,11 +53890,11 @@
         </is>
       </c>
       <c r="G1582">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1582" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53924,11 +53924,11 @@
         </is>
       </c>
       <c r="G1583">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1583" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53942,27 +53942,27 @@
         </is>
       </c>
       <c r="C1584">
-        <v>2011</v>
+        <v>1911</v>
       </c>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>IPSEMG</t>
+          <t>EGE - SEF</t>
         </is>
       </c>
       <c r="E1584">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1584">
-        <v>1922990199000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1584" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -53992,11 +53992,11 @@
         </is>
       </c>
       <c r="G1585">
-        <v>7219991101001</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1585" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54026,11 +54026,11 @@
         </is>
       </c>
       <c r="G1586">
-        <v>7219991101002</v>
+        <v>7219991101001</v>
       </c>
       <c r="H1586" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR ATIVO</t>
         </is>
       </c>
     </row>
@@ -54060,11 +54060,11 @@
         </is>
       </c>
       <c r="G1587">
-        <v>7219991101003</v>
+        <v>7219991101002</v>
       </c>
       <c r="H1587" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - SERVIDOR INATIVO</t>
         </is>
       </c>
     </row>
@@ -54094,11 +54094,11 @@
         </is>
       </c>
       <c r="G1588">
-        <v>7219991101004</v>
+        <v>7219991101003</v>
       </c>
       <c r="H1588" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -54128,11 +54128,11 @@
         </is>
       </c>
       <c r="G1589">
-        <v>7219991101005</v>
+        <v>7219991101004</v>
       </c>
       <c r="H1589" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -54162,11 +54162,11 @@
         </is>
       </c>
       <c r="G1590">
-        <v>7219991101006</v>
+        <v>7219991101005</v>
       </c>
       <c r="H1590" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -54196,11 +54196,11 @@
         </is>
       </c>
       <c r="G1591">
-        <v>7219991101007</v>
+        <v>7219991101006</v>
       </c>
       <c r="H1591" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -54222,19 +54222,19 @@
         </is>
       </c>
       <c r="E1592">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1592">
-        <v>1219991102001</v>
+        <v>7219991101007</v>
       </c>
       <c r="H1592" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. PATRON. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -54264,11 +54264,11 @@
         </is>
       </c>
       <c r="G1593">
-        <v>1219991102002</v>
+        <v>1219991102001</v>
       </c>
       <c r="H1593" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54298,11 +54298,11 @@
         </is>
       </c>
       <c r="G1594">
-        <v>1219991102004</v>
+        <v>1219991102002</v>
       </c>
       <c r="H1594" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54332,11 +54332,11 @@
         </is>
       </c>
       <c r="G1595">
-        <v>1219991102005</v>
+        <v>1219991102004</v>
       </c>
       <c r="H1595" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - CONTRATO ADMINISTRATIVO</t>
         </is>
       </c>
     </row>
@@ -54366,11 +54366,11 @@
         </is>
       </c>
       <c r="G1596">
-        <v>1219991102006</v>
+        <v>1219991102005</v>
       </c>
       <c r="H1596" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES</t>
         </is>
       </c>
     </row>
@@ -54400,11 +54400,11 @@
         </is>
       </c>
       <c r="G1597">
-        <v>1219991102007</v>
+        <v>1219991102006</v>
       </c>
       <c r="H1597" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - ESTADO - DEPENDENTES - FILHOS DE 21 A 35 ANOS</t>
         </is>
       </c>
     </row>
@@ -54434,11 +54434,11 @@
         </is>
       </c>
       <c r="G1598">
-        <v>1911090199000</v>
+        <v>1219991102007</v>
       </c>
       <c r="H1598" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - CONTRIB. CIVIL SAUDE - USUARIO FACULTATIVO</t>
         </is>
       </c>
     </row>
@@ -54468,11 +54468,11 @@
         </is>
       </c>
       <c r="G1599">
-        <v>1922990199000</v>
+        <v>1911090199000</v>
       </c>
       <c r="H1599" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54486,27 +54486,27 @@
         </is>
       </c>
       <c r="C1600">
-        <v>2101</v>
+        <v>2011</v>
       </c>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSEMG</t>
         </is>
       </c>
       <c r="E1600">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1600">
-        <v>1349010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1600" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54536,11 +54536,11 @@
         </is>
       </c>
       <c r="G1601">
-        <v>1349010102000</v>
+        <v>1349010101000</v>
       </c>
       <c r="H1601" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -54570,11 +54570,11 @@
         </is>
       </c>
       <c r="G1602">
-        <v>1349010199000</v>
+        <v>1349010102000</v>
       </c>
       <c r="H1602" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - REPOSICAO DA PESCA</t>
         </is>
       </c>
     </row>
@@ -54604,11 +54604,11 @@
         </is>
       </c>
       <c r="G1603">
-        <v>1611010118000</v>
+        <v>1349010199000</v>
       </c>
       <c r="H1603" t="inlineStr">
         <is>
-          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54638,11 +54638,11 @@
         </is>
       </c>
       <c r="G1604">
-        <v>1922990199000</v>
+        <v>1611010118000</v>
       </c>
       <c r="H1604" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>SERVICOS ADM. COMERC. GER. - PRINC. - VISITACAO DAS UNIDADES DE CONSERVACAO DA NATUREZA</t>
         </is>
       </c>
     </row>
@@ -54656,27 +54656,27 @@
         </is>
       </c>
       <c r="C1605">
-        <v>2121</v>
+        <v>2101</v>
       </c>
       <c r="D1605" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1605">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1605">
-        <v>7215532101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1605" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -54706,11 +54706,11 @@
         </is>
       </c>
       <c r="G1606">
-        <v>7219991103051</v>
+        <v>7215532101000</v>
       </c>
       <c r="H1606" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>REC. INTRA. - CONTRIB. PATRONAL MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54732,19 +54732,19 @@
         </is>
       </c>
       <c r="E1607">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1607">
-        <v>1215521103000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1607" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54774,11 +54774,11 @@
         </is>
       </c>
       <c r="G1608">
-        <v>1219991103001</v>
+        <v>1215521103000</v>
       </c>
       <c r="H1608" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -54808,11 +54808,11 @@
         </is>
       </c>
       <c r="G1609">
-        <v>1219991103002</v>
+        <v>1219991103001</v>
       </c>
       <c r="H1609" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - ATIVO</t>
         </is>
       </c>
     </row>
@@ -54842,11 +54842,11 @@
         </is>
       </c>
       <c r="G1610">
-        <v>7219991103051</v>
+        <v>1219991103002</v>
       </c>
       <c r="H1610" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. DO SERVIDOR CIVIL - INATIVO</t>
         </is>
       </c>
     </row>
@@ -54860,27 +54860,27 @@
         </is>
       </c>
       <c r="C1611">
-        <v>2241</v>
+        <v>2121</v>
       </c>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1611">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1611">
-        <v>1345010101000</v>
+        <v>7219991103051</v>
       </c>
       <c r="H1611" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - ATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -54910,11 +54910,11 @@
         </is>
       </c>
       <c r="G1612">
-        <v>1345010301000</v>
+        <v>1345010101000</v>
       </c>
       <c r="H1612" t="inlineStr">
         <is>
-          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -54928,27 +54928,27 @@
         </is>
       </c>
       <c r="C1613">
-        <v>2361</v>
+        <v>2241</v>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1613">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1613">
-        <v>1219991104001</v>
+        <v>1345010301000</v>
       </c>
       <c r="H1613" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
+          <t>OUTORGA DIR. USO RECURSOS HIDRICOS - DA</t>
         </is>
       </c>
     </row>
@@ -54978,11 +54978,11 @@
         </is>
       </c>
       <c r="G1614">
-        <v>1219991104002</v>
+        <v>1219991104001</v>
       </c>
       <c r="H1614" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - ATIVO - EXERCENTE DE MANDATO ELETIVO E OUTROS CIVIS</t>
         </is>
       </c>
     </row>
@@ -55012,11 +55012,11 @@
         </is>
       </c>
       <c r="G1615">
-        <v>1219991104003</v>
+        <v>1219991104002</v>
       </c>
       <c r="H1615" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - INATIVO</t>
         </is>
       </c>
     </row>
@@ -55046,11 +55046,11 @@
         </is>
       </c>
       <c r="G1616">
-        <v>1219991104052</v>
+        <v>1219991104003</v>
       </c>
       <c r="H1616" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. DO SEGURADO - PENSIONISTA</t>
         </is>
       </c>
     </row>
@@ -55080,11 +55080,11 @@
         </is>
       </c>
       <c r="G1617">
-        <v>1311011101000</v>
+        <v>1219991104052</v>
       </c>
       <c r="H1617" t="inlineStr">
         <is>
-          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ELETIVO FEDERAL OU MUNICIPAL</t>
         </is>
       </c>
     </row>
@@ -55114,11 +55114,11 @@
         </is>
       </c>
       <c r="G1618">
-        <v>1321040101000</v>
+        <v>1311011101000</v>
       </c>
       <c r="H1618" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>ALUGUEIS ARRENDAMENTOS - PRINC. - ALUGUEIS</t>
         </is>
       </c>
     </row>
@@ -55148,11 +55148,11 @@
         </is>
       </c>
       <c r="G1619">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1619" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -55182,11 +55182,11 @@
         </is>
       </c>
       <c r="G1620">
-        <v>1322010102000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -55216,11 +55216,11 @@
         </is>
       </c>
       <c r="G1621">
-        <v>1641010101000</v>
+        <v>1322010102000</v>
       </c>
       <c r="H1621" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DIVIDENDOS - PRINC. - EMPRESAS NAO ESTATAIS</t>
         </is>
       </c>
     </row>
@@ -55250,11 +55250,11 @@
         </is>
       </c>
       <c r="G1622">
-        <v>1641010199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1622" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -55284,11 +55284,11 @@
         </is>
       </c>
       <c r="G1623">
-        <v>1922990199000</v>
+        <v>1641010199000</v>
       </c>
       <c r="H1623" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55318,11 +55318,11 @@
         </is>
       </c>
       <c r="G1624">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1624" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55352,11 +55352,11 @@
         </is>
       </c>
       <c r="G1625">
-        <v>2999990101000</v>
+        <v>1999992199000</v>
       </c>
       <c r="H1625" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55386,11 +55386,11 @@
         </is>
       </c>
       <c r="G1626">
-        <v>2999990199000</v>
+        <v>2999990101000</v>
       </c>
       <c r="H1626" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - RESERVA ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55420,11 +55420,11 @@
         </is>
       </c>
       <c r="G1627">
-        <v>7219991104051</v>
+        <v>2999990199000</v>
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55454,11 +55454,11 @@
         </is>
       </c>
       <c r="G1628">
-        <v>7999992105000</v>
+        <v>7219991104051</v>
       </c>
       <c r="H1628" t="inlineStr">
         <is>
-          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
+          <t>REC. INTRA. - DEMAIS CONTRIB. SOC. - PRINC. - IPLEMG - CONTRIB. PATRONAL - EXERCENTE DE MANDATO ESTADUAL</t>
         </is>
       </c>
     </row>
@@ -55472,27 +55472,27 @@
         </is>
       </c>
       <c r="C1629">
-        <v>4111</v>
+        <v>2361</v>
       </c>
       <c r="D1629" t="inlineStr">
         <is>
-          <t>FUNDESE</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1629">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1629" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1629">
-        <v>1641010101000</v>
+        <v>7999992105000</v>
       </c>
       <c r="H1629" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>REC. INTRA. - OUTRAS REC. - PRIMARIAS - PRINC. - RESERVA TECNICA OBRIGATORIA - EQUILIBRIO ATUARIAL</t>
         </is>
       </c>
     </row>
@@ -55522,11 +55522,11 @@
         </is>
       </c>
       <c r="G1630">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1630" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -55540,27 +55540,27 @@
         </is>
       </c>
       <c r="C1631">
-        <v>9999</v>
+        <v>4111</v>
       </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FUNDESE</t>
         </is>
       </c>
       <c r="E1631">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F1631" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1631">
-        <v>1112510102000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1631" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -55590,11 +55590,11 @@
         </is>
       </c>
       <c r="G1632">
-        <v>1112510202000</v>
+        <v>1112510102000</v>
       </c>
       <c r="H1632" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55624,11 +55624,11 @@
         </is>
       </c>
       <c r="G1633">
-        <v>1112510302000</v>
+        <v>1112510202000</v>
       </c>
       <c r="H1633" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55658,11 +55658,11 @@
         </is>
       </c>
       <c r="G1634">
-        <v>1114501102000</v>
+        <v>1112510302000</v>
       </c>
       <c r="H1634" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55692,11 +55692,11 @@
         </is>
       </c>
       <c r="G1635">
-        <v>1114501202000</v>
+        <v>1114501102000</v>
       </c>
       <c r="H1635" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55726,11 +55726,11 @@
         </is>
       </c>
       <c r="G1636">
-        <v>1114501302000</v>
+        <v>1114501202000</v>
       </c>
       <c r="H1636" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55760,11 +55760,11 @@
         </is>
       </c>
       <c r="G1637">
-        <v>1711530102000</v>
+        <v>1114501302000</v>
       </c>
       <c r="H1637" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55794,11 +55794,11 @@
         </is>
       </c>
       <c r="G1638">
-        <v>9112510102000</v>
+        <v>1711530102000</v>
       </c>
       <c r="H1638" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55828,11 +55828,11 @@
         </is>
       </c>
       <c r="G1639">
-        <v>9112510202000</v>
+        <v>9112510102000</v>
       </c>
       <c r="H1639" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55862,11 +55862,11 @@
         </is>
       </c>
       <c r="G1640">
-        <v>9112510302000</v>
+        <v>9112510202000</v>
       </c>
       <c r="H1640" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55896,11 +55896,11 @@
         </is>
       </c>
       <c r="G1641">
-        <v>9114501102000</v>
+        <v>9112510302000</v>
       </c>
       <c r="H1641" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55930,11 +55930,11 @@
         </is>
       </c>
       <c r="G1642">
-        <v>9114501202000</v>
+        <v>9114501102000</v>
       </c>
       <c r="H1642" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55964,11 +55964,11 @@
         </is>
       </c>
       <c r="G1643">
-        <v>9114501302000</v>
+        <v>9114501202000</v>
       </c>
       <c r="H1643" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -55998,11 +55998,11 @@
         </is>
       </c>
       <c r="G1644">
-        <v>9711530102000</v>
+        <v>9114501302000</v>
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56024,19 +56024,19 @@
         </is>
       </c>
       <c r="E1645">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1645" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1645">
-        <v>1112510103000</v>
+        <v>9711530102000</v>
       </c>
       <c r="H1645" t="inlineStr">
         <is>
-          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -56066,11 +56066,11 @@
         </is>
       </c>
       <c r="G1646">
-        <v>1112510203000</v>
+        <v>1112510103000</v>
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56100,11 +56100,11 @@
         </is>
       </c>
       <c r="G1647">
-        <v>1112510303000</v>
+        <v>1112510203000</v>
       </c>
       <c r="H1647" t="inlineStr">
         <is>
-          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56134,11 +56134,11 @@
         </is>
       </c>
       <c r="G1648">
-        <v>1112520102000</v>
+        <v>1112510303000</v>
       </c>
       <c r="H1648" t="inlineStr">
         <is>
-          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56168,11 +56168,11 @@
         </is>
       </c>
       <c r="G1649">
-        <v>1112520202000</v>
+        <v>1112520102000</v>
       </c>
       <c r="H1649" t="inlineStr">
         <is>
-          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56202,11 +56202,11 @@
         </is>
       </c>
       <c r="G1650">
-        <v>1112520302000</v>
+        <v>1112520202000</v>
       </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
+          <t>ITCD - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56236,11 +56236,11 @@
         </is>
       </c>
       <c r="G1651">
-        <v>1114501103000</v>
+        <v>1112520302000</v>
       </c>
       <c r="H1651" t="inlineStr">
         <is>
-          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ITCD - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56270,11 +56270,11 @@
         </is>
       </c>
       <c r="G1652">
-        <v>1114501203000</v>
+        <v>1114501103000</v>
       </c>
       <c r="H1652" t="inlineStr">
         <is>
-          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56304,11 +56304,11 @@
         </is>
       </c>
       <c r="G1653">
-        <v>1114501303000</v>
+        <v>1114501203000</v>
       </c>
       <c r="H1653" t="inlineStr">
         <is>
-          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56338,11 +56338,11 @@
         </is>
       </c>
       <c r="G1654">
-        <v>1114502102000</v>
+        <v>1114501303000</v>
       </c>
       <c r="H1654" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56372,11 +56372,11 @@
         </is>
       </c>
       <c r="G1655">
-        <v>1114502202000</v>
+        <v>1114502102000</v>
       </c>
       <c r="H1655" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56406,11 +56406,11 @@
         </is>
       </c>
       <c r="G1656">
-        <v>1114502302000</v>
+        <v>1114502202000</v>
       </c>
       <c r="H1656" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56440,11 +56440,11 @@
         </is>
       </c>
       <c r="G1657">
-        <v>1114502402000</v>
+        <v>1114502302000</v>
       </c>
       <c r="H1657" t="inlineStr">
         <is>
-          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56474,11 +56474,11 @@
         </is>
       </c>
       <c r="G1658">
-        <v>1711500102000</v>
+        <v>1114502402000</v>
       </c>
       <c r="H1658" t="inlineStr">
         <is>
-          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56508,11 +56508,11 @@
         </is>
       </c>
       <c r="G1659">
-        <v>1711530103000</v>
+        <v>1711500102000</v>
       </c>
       <c r="H1659" t="inlineStr">
         <is>
-          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56542,11 +56542,11 @@
         </is>
       </c>
       <c r="G1660">
-        <v>9112510103000</v>
+        <v>1711530103000</v>
       </c>
       <c r="H1660" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56576,11 +56576,11 @@
         </is>
       </c>
       <c r="G1661">
-        <v>9112510203000</v>
+        <v>9112510103000</v>
       </c>
       <c r="H1661" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56610,11 +56610,11 @@
         </is>
       </c>
       <c r="G1662">
-        <v>9112510303000</v>
+        <v>9112510203000</v>
       </c>
       <c r="H1662" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56644,11 +56644,11 @@
         </is>
       </c>
       <c r="G1663">
-        <v>9112520102000</v>
+        <v>9112510303000</v>
       </c>
       <c r="H1663" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - IPVA - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56678,11 +56678,11 @@
         </is>
       </c>
       <c r="G1664">
-        <v>9112520202000</v>
+        <v>9112520102000</v>
       </c>
       <c r="H1664" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56712,11 +56712,11 @@
         </is>
       </c>
       <c r="G1665">
-        <v>9112520302000</v>
+        <v>9112520202000</v>
       </c>
       <c r="H1665" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56746,11 +56746,11 @@
         </is>
       </c>
       <c r="G1666">
-        <v>9114501103000</v>
+        <v>9112520302000</v>
       </c>
       <c r="H1666" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ITCD - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56780,11 +56780,11 @@
         </is>
       </c>
       <c r="G1667">
-        <v>9114501203000</v>
+        <v>9114501103000</v>
       </c>
       <c r="H1667" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - PRINC. - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56814,11 +56814,11 @@
         </is>
       </c>
       <c r="G1668">
-        <v>9114501303000</v>
+        <v>9114501203000</v>
       </c>
       <c r="H1668" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - MJM - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56848,11 +56848,11 @@
         </is>
       </c>
       <c r="G1669">
-        <v>9114502102000</v>
+        <v>9114501303000</v>
       </c>
       <c r="H1669" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ICMS - DA - COTA PARTE DO ESTADO PARA O FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56882,11 +56882,11 @@
         </is>
       </c>
       <c r="G1670">
-        <v>9114502202000</v>
+        <v>9114502102000</v>
       </c>
       <c r="H1670" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56916,11 +56916,11 @@
         </is>
       </c>
       <c r="G1671">
-        <v>9114502302000</v>
+        <v>9114502202000</v>
       </c>
       <c r="H1671" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56950,11 +56950,11 @@
         </is>
       </c>
       <c r="G1672">
-        <v>9114502402000</v>
+        <v>9114502302000</v>
       </c>
       <c r="H1672" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -56984,11 +56984,11 @@
         </is>
       </c>
       <c r="G1673">
-        <v>9711500102000</v>
+        <v>9114502402000</v>
       </c>
       <c r="H1673" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - ADICIONAL ICMS - FEM - DA-MJM - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57018,11 +57018,11 @@
         </is>
       </c>
       <c r="G1674">
-        <v>9711530103000</v>
+        <v>9711500102000</v>
       </c>
       <c r="H1674" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
+          <t>DEDUCAO REC. - COTA-PARTE FPE - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57044,19 +57044,19 @@
         </is>
       </c>
       <c r="E1675">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1675" t="inlineStr">
         <is>
-          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1675">
-        <v>1641010101000</v>
+        <v>9711530103000</v>
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
+          <t>DEDUCAO REC. - COTA-PARTE IPI - ESTADOS EXPORT. PROD. INDUST. - PRINC. - FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57086,11 +57086,11 @@
         </is>
       </c>
       <c r="G1676">
-        <v>2311071199000</v>
+        <v>1641010101000</v>
       </c>
       <c r="H1676" t="inlineStr">
         <is>
-          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
+          <t>RETORNO OPER. JUROS ENCARG. FINANCEIROS - PRINC. - JUROS DE EMPRESTIMOS</t>
         </is>
       </c>
     </row>
@@ -57112,19 +57112,19 @@
         </is>
       </c>
       <c r="E1677">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F1677" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS FUNDOS EXTINTOS-LEI NO 13.848/2001</t>
         </is>
       </c>
       <c r="G1677">
-        <v>1332040101000</v>
+        <v>2311071199000</v>
       </c>
       <c r="H1677" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>AMORTIZACAO FINANCIAMENTOS GERAL - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57154,11 +57154,11 @@
         </is>
       </c>
       <c r="G1678">
-        <v>1349010103000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1678" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57188,11 +57188,11 @@
         </is>
       </c>
       <c r="G1679">
-        <v>1921990101000</v>
+        <v>1349010103000</v>
       </c>
       <c r="H1679" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>COMPENSACOES AMBIENTAIS - PRINC. - SUPRESSAO DO PEQUI</t>
         </is>
       </c>
     </row>
@@ -57214,19 +57214,19 @@
         </is>
       </c>
       <c r="E1680">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1680">
-        <v>1411010102001</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1680" t="inlineStr">
         <is>
-          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57256,11 +57256,11 @@
         </is>
       </c>
       <c r="G1681">
-        <v>1511010101005</v>
+        <v>1411010102001</v>
       </c>
       <c r="H1681" t="inlineStr">
         <is>
-          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
+          <t>REC. AGROPECUARIA - PRINC. - PRODUCAO ANIMAL DERIVADOS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -57274,11 +57274,11 @@
         </is>
       </c>
       <c r="C1682">
-        <v>1451</v>
+        <v>9999</v>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>SEJUSP</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1682">
@@ -57308,27 +57308,27 @@
         </is>
       </c>
       <c r="C1683">
-        <v>2121</v>
+        <v>1451</v>
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>SEJUSP</t>
         </is>
       </c>
       <c r="E1683">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F1683" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1683">
-        <v>7215531101000</v>
+        <v>1511010101005</v>
       </c>
       <c r="H1683" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
+          <t>REC. INDUSTRIAL - PRINC. - INDUSTRIA TRANSFORMACAO - INDUSTRIAS DIVERSAS - UNIDADES PENAIS</t>
         </is>
       </c>
     </row>
@@ -57342,27 +57342,27 @@
         </is>
       </c>
       <c r="C1684">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1684">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1684" t="inlineStr">
         <is>
-          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1684">
-        <v>1719620102000</v>
+        <v>7215531101000</v>
       </c>
       <c r="H1684" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - MILITAR ATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57392,11 +57392,11 @@
         </is>
       </c>
       <c r="G1685">
-        <v>9719620102000</v>
+        <v>1719620102000</v>
       </c>
       <c r="H1685" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -57418,19 +57418,19 @@
         </is>
       </c>
       <c r="E1686">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1686" t="inlineStr">
         <is>
-          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
+          <t>RECURSOS CONSTITUC.VINCULADOS AOS MUNICIPIOS</t>
         </is>
       </c>
       <c r="G1686">
-        <v>1719620103000</v>
+        <v>9719620102000</v>
       </c>
       <c r="H1686" t="inlineStr">
         <is>
-          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DOS MUNICIPIOS</t>
         </is>
       </c>
     </row>
@@ -57460,11 +57460,11 @@
         </is>
       </c>
       <c r="G1687">
-        <v>9719620103000</v>
+        <v>1719620103000</v>
       </c>
       <c r="H1687" t="inlineStr">
         <is>
-          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
+          <t>TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57486,19 +57486,19 @@
         </is>
       </c>
       <c r="E1688">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="F1688" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>FUNDO DE MANUTENCAO E DESENVOLVIMENTO DA EDUCACAO BASICA - FUNDEB</t>
         </is>
       </c>
       <c r="G1688">
-        <v>1321010101000</v>
+        <v>9719620103000</v>
       </c>
       <c r="H1688" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>DEDUCAO REC. - TRANSF. COMPENS. FINANC. PERDAS ARRECAD. ICMS - LC N? 194/2022 - PRINC. - COTA PARTE DO FUNDEB</t>
         </is>
       </c>
     </row>
@@ -57512,27 +57512,27 @@
         </is>
       </c>
       <c r="C1689">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1689" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1689">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F1689" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1689">
-        <v>1219991103052</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1689" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57554,19 +57554,19 @@
         </is>
       </c>
       <c r="E1690">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1690" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1690">
-        <v>1215522103000</v>
+        <v>1219991103052</v>
       </c>
       <c r="H1690" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
+          <t>DEMAIS CONTRIB. SOC. - PRINC. - IPSM - CONTRIB. PATRONAL - INATIVO CIVIL</t>
         </is>
       </c>
     </row>
@@ -57580,27 +57580,27 @@
         </is>
       </c>
       <c r="C1691">
-        <v>2101</v>
+        <v>2121</v>
       </c>
       <c r="D1691" t="inlineStr">
         <is>
-          <t>IEF</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1691">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1691" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1691">
-        <v>1349010301000</v>
+        <v>1215522103000</v>
       </c>
       <c r="H1691" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SAUDE</t>
         </is>
       </c>
     </row>
@@ -57630,11 +57630,11 @@
         </is>
       </c>
       <c r="G1692">
-        <v>1349010401000</v>
+        <v>1349010301000</v>
       </c>
       <c r="H1692" t="inlineStr">
         <is>
-          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
+          <t>COMPENSACOES AMBIENTAIS - DA - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57648,27 +57648,27 @@
         </is>
       </c>
       <c r="C1693">
-        <v>9999</v>
+        <v>2101</v>
       </c>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IEF</t>
         </is>
       </c>
       <c r="E1693">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1693" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1693">
-        <v>1741990140001</v>
+        <v>1349010401000</v>
       </c>
       <c r="H1693" t="inlineStr">
         <is>
-          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
+          <t>COMPENSACOES AMBIENTAIS - DA-MJM - REPOSICAO FLORESTAL</t>
         </is>
       </c>
     </row>
@@ -57682,27 +57682,27 @@
         </is>
       </c>
       <c r="C1694">
-        <v>2241</v>
+        <v>9999</v>
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>IGAM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1694">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1694">
-        <v>1922990199000</v>
+        <v>1741990140001</v>
       </c>
       <c r="H1694" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DESPORTO LAZER - APOIO FINANCEIRO AO ESPORTE</t>
         </is>
       </c>
     </row>
@@ -57716,27 +57716,27 @@
         </is>
       </c>
       <c r="C1695">
-        <v>2091</v>
+        <v>2241</v>
       </c>
       <c r="D1695" t="inlineStr">
         <is>
-          <t>FEAM</t>
+          <t>IGAM</t>
         </is>
       </c>
       <c r="E1695">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1695" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1695">
-        <v>1921990101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1695" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -57750,27 +57750,27 @@
         </is>
       </c>
       <c r="C1696">
-        <v>2361</v>
+        <v>2091</v>
       </c>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>IPLEMG</t>
+          <t>FEAM</t>
         </is>
       </c>
       <c r="E1696">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1696" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1696">
-        <v>1321010101000</v>
+        <v>1921990101000</v>
       </c>
       <c r="H1696" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
       </c>
     </row>
@@ -57784,27 +57784,27 @@
         </is>
       </c>
       <c r="C1697">
-        <v>9999</v>
+        <v>2361</v>
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPLEMG</t>
         </is>
       </c>
       <c r="E1697">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1697" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS</t>
         </is>
       </c>
       <c r="G1697">
-        <v>1741990141999</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1697" t="inlineStr">
         <is>
-          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -57834,11 +57834,11 @@
         </is>
       </c>
       <c r="G1698">
-        <v>1911090101006</v>
+        <v>1741990141999</v>
       </c>
       <c r="H1698" t="inlineStr">
         <is>
-          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+          <t>DIREITOS HUMANOS E DE CIDADANIA - OUTROS</t>
         </is>
       </c>
     </row>
@@ -57860,15 +57860,20 @@
         </is>
       </c>
       <c r="E1699">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F1699" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1699">
-        <v>1215521101000</v>
+        <v>1911090101006</v>
+      </c>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>MULTAS JUROS PREVISTOS CONTRATOS - PRINC. - PPP - TRANSPORTE AEREO</t>
+        </is>
       </c>
     </row>
     <row r="1700">
@@ -57889,15 +57894,15 @@
         </is>
       </c>
       <c r="E1700">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F1700" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="G1700">
-        <v>7215531102000</v>
+        <v>1215521101000</v>
       </c>
     </row>
     <row r="1701">
@@ -57926,7 +57931,7 @@
         </is>
       </c>
       <c r="G1701">
-        <v>7215532102000</v>
+        <v>7215531102000</v>
       </c>
     </row>
     <row r="1702">
@@ -57939,23 +57944,23 @@
         </is>
       </c>
       <c r="C1702">
-        <v>2121</v>
+        <v>9999</v>
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1702">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F1702" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1702">
-        <v>7219991103053</v>
+        <v>7215532102000</v>
       </c>
     </row>
     <row r="1703">
@@ -57984,7 +57989,7 @@
         </is>
       </c>
       <c r="G1703">
-        <v>7219991103054</v>
+        <v>7219991103053</v>
       </c>
     </row>
     <row r="1704">
@@ -58013,7 +58018,7 @@
         </is>
       </c>
       <c r="G1704">
-        <v>7219991103055</v>
+        <v>7219991103054</v>
       </c>
     </row>
     <row r="1705">
@@ -58042,7 +58047,7 @@
         </is>
       </c>
       <c r="G1705">
-        <v>7219991103056</v>
+        <v>7219991103055</v>
       </c>
     </row>
     <row r="1706">
@@ -58063,15 +58068,15 @@
         </is>
       </c>
       <c r="E1706">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1706">
-        <v>1219991103003</v>
+        <v>7219991103056</v>
       </c>
     </row>
     <row r="1707">
@@ -58100,7 +58105,7 @@
         </is>
       </c>
       <c r="G1707">
-        <v>1219991103004</v>
+        <v>1219991103003</v>
       </c>
     </row>
     <row r="1708">
@@ -58129,7 +58134,7 @@
         </is>
       </c>
       <c r="G1708">
-        <v>1219991103005</v>
+        <v>1219991103004</v>
       </c>
     </row>
     <row r="1709">
@@ -58158,7 +58163,7 @@
         </is>
       </c>
       <c r="G1709">
-        <v>1219991103006</v>
+        <v>1219991103005</v>
       </c>
     </row>
     <row r="1710">
@@ -58171,23 +58176,23 @@
         </is>
       </c>
       <c r="C1710">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1710">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1710">
-        <v>7215531103000</v>
+        <v>1219991103006</v>
       </c>
     </row>
     <row r="1711">
@@ -58216,41 +58221,36 @@
         </is>
       </c>
       <c r="G1711">
-        <v>7215532103000</v>
+        <v>7215531103000</v>
       </c>
     </row>
     <row r="1712">
       <c r="A1712">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1712">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1712">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1712">
-        <v>7215021101001</v>
-      </c>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7215532103000</v>
       </c>
     </row>
     <row r="1713">
@@ -58279,11 +58279,11 @@
         </is>
       </c>
       <c r="G1713">
-        <v>7215021101002</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58313,11 +58313,11 @@
         </is>
       </c>
       <c r="G1714">
-        <v>7215021102001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1714" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -58347,11 +58347,11 @@
         </is>
       </c>
       <c r="G1715">
-        <v>7215021103001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1715" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58381,11 +58381,11 @@
         </is>
       </c>
       <c r="G1716">
-        <v>7215021104001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58415,11 +58415,11 @@
         </is>
       </c>
       <c r="G1717">
-        <v>7215021105001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58449,11 +58449,11 @@
         </is>
       </c>
       <c r="G1718">
-        <v>7215021106001</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58483,11 +58483,11 @@
         </is>
       </c>
       <c r="G1719">
-        <v>7215021107001</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58509,19 +58509,19 @@
         </is>
       </c>
       <c r="E1720">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1720">
-        <v>1215011101000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58551,11 +58551,11 @@
         </is>
       </c>
       <c r="G1721">
-        <v>1215011102000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58585,11 +58585,11 @@
         </is>
       </c>
       <c r="G1722">
-        <v>1215011103000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58619,11 +58619,11 @@
         </is>
       </c>
       <c r="G1723">
-        <v>1215011104000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58653,11 +58653,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>1215011105000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58687,11 +58687,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>1215011106000</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58721,11 +58721,11 @@
         </is>
       </c>
       <c r="G1726">
-        <v>1215011107000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58755,11 +58755,11 @@
         </is>
       </c>
       <c r="G1727">
-        <v>1215011199001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58789,11 +58789,11 @@
         </is>
       </c>
       <c r="G1728">
-        <v>1215012101000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -58823,11 +58823,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1215012102000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58857,11 +58857,11 @@
         </is>
       </c>
       <c r="G1730">
-        <v>1215012103000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1730" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58891,11 +58891,11 @@
         </is>
       </c>
       <c r="G1731">
-        <v>1215012104000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1731" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58925,11 +58925,11 @@
         </is>
       </c>
       <c r="G1732">
-        <v>1215012105000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1732" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58959,11 +58959,11 @@
         </is>
       </c>
       <c r="G1733">
-        <v>1215012106000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1733" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58993,11 +58993,11 @@
         </is>
       </c>
       <c r="G1734">
-        <v>1215012107000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1734" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -59027,11 +59027,11 @@
         </is>
       </c>
       <c r="G1735">
-        <v>1215013101000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1735" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -59061,11 +59061,11 @@
         </is>
       </c>
       <c r="G1736">
-        <v>1215013102000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1736" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -59095,11 +59095,11 @@
         </is>
       </c>
       <c r="G1737">
-        <v>1215013104000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1737" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -59129,11 +59129,11 @@
         </is>
       </c>
       <c r="G1738">
-        <v>1215013105000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1738" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -59163,11 +59163,11 @@
         </is>
       </c>
       <c r="G1739">
-        <v>1215013106000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1739" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -59197,11 +59197,11 @@
         </is>
       </c>
       <c r="G1740">
-        <v>1215014101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1740" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -59231,11 +59231,11 @@
         </is>
       </c>
       <c r="G1741">
-        <v>1215015101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1741" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59257,19 +59257,19 @@
         </is>
       </c>
       <c r="E1742">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1742">
-        <v>1999030101000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1742" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59291,19 +59291,19 @@
         </is>
       </c>
       <c r="E1743">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1743">
-        <v>1219991399000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1743" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59333,11 +59333,11 @@
         </is>
       </c>
       <c r="G1744">
-        <v>1219991499000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1744" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59367,11 +59367,11 @@
         </is>
       </c>
       <c r="G1745">
-        <v>1321040101000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1745" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59401,11 +59401,11 @@
         </is>
       </c>
       <c r="G1746">
-        <v>1321040102000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1746" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -59435,11 +59435,11 @@
         </is>
       </c>
       <c r="G1747">
-        <v>1922990199000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1747" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -59461,49 +59461,49 @@
         </is>
       </c>
       <c r="E1748">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1748">
-        <v>7999010101000</v>
+        <v>1922990199000</v>
+      </c>
+      <c r="H1748" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+        </is>
       </c>
     </row>
     <row r="1749">
       <c r="A1749">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1749">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1749">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1749">
-        <v>1215521104000</v>
-      </c>
-      <c r="H1749" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
-        </is>
+        <v>7999010101000</v>
       </c>
     </row>
     <row r="1750">
@@ -59532,11 +59532,11 @@
         </is>
       </c>
       <c r="G1750">
-        <v>1215522104000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1750" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59566,45 +59566,45 @@
         </is>
       </c>
       <c r="G1751">
-        <v>1215523104000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1751" t="inlineStr">
         <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1752">
       <c r="A1752">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1752">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1752">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1752">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1752" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59618,27 +59618,27 @@
         </is>
       </c>
       <c r="C1753">
-        <v>2371</v>
+        <v>1301</v>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1753">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1753">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1753" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59652,11 +59652,11 @@
         </is>
       </c>
       <c r="C1754">
-        <v>4291</v>
+        <v>2371</v>
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1754">
@@ -59686,11 +59686,11 @@
         </is>
       </c>
       <c r="C1755">
-        <v>9999</v>
+        <v>4291</v>
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1755">
@@ -59702,11 +59702,11 @@
         </is>
       </c>
       <c r="G1755">
-        <v>1321010101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1755" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59736,11 +59736,11 @@
         </is>
       </c>
       <c r="G1756">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1756" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59770,11 +59770,11 @@
         </is>
       </c>
       <c r="G1757">
-        <v>2999990103000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1757" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -59788,27 +59788,27 @@
         </is>
       </c>
       <c r="C1758">
-        <v>1301</v>
+        <v>9999</v>
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1758">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1758">
-        <v>1332040101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1758" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -59822,27 +59822,27 @@
         </is>
       </c>
       <c r="C1759">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1759">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1759">
-        <v>1922990199000</v>
+        <v>1332040101000</v>
       </c>
       <c r="H1759" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59872,11 +59872,11 @@
         </is>
       </c>
       <c r="G1760">
-        <v>1999992199000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1760" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59906,12 +59906,75 @@
         </is>
       </c>
       <c r="G1761">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1761" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762">
+        <v>899</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1762">
+        <v>9999</v>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1762">
+        <v>95</v>
+      </c>
+      <c r="F1762" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1762">
         <v>1921990101000</v>
       </c>
-      <c r="H1761" t="inlineStr">
+      <c r="H1762" t="inlineStr">
         <is>
           <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
         </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763">
+        <v>899</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1763">
+        <v>9999</v>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1763">
+        <v>80</v>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t>RECURSOS DO ACORDO DE REPACTUACAO DO RIO DOCE</t>
+        </is>
+      </c>
+      <c r="G1763">
+        <v>2999990104000</v>
       </c>
     </row>
   </sheetData>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1763"/>
+  <dimension ref="A1:H1767"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -58213,15 +58213,15 @@
         </is>
       </c>
       <c r="E1711">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="G1711">
-        <v>7215531103000</v>
+        <v>1219991110001</v>
       </c>
     </row>
     <row r="1712">
@@ -58250,109 +58250,94 @@
         </is>
       </c>
       <c r="G1712">
-        <v>7215532103000</v>
+        <v>7215531103000</v>
       </c>
     </row>
     <row r="1713">
       <c r="A1713">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1713">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1713">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1713">
-        <v>7215021101001</v>
-      </c>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7215532103000</v>
       </c>
     </row>
     <row r="1714">
       <c r="A1714">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1714">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1714">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1714">
-        <v>7215021101002</v>
-      </c>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
-        </is>
+        <v>7219991110051</v>
       </c>
     </row>
     <row r="1715">
       <c r="A1715">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
         </is>
       </c>
       <c r="C1715">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1715">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1715">
-        <v>7215021102001</v>
-      </c>
-      <c r="H1715" t="inlineStr">
-        <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
-        </is>
+        <v>7219991110052</v>
       </c>
     </row>
     <row r="1716">
@@ -58381,11 +58366,11 @@
         </is>
       </c>
       <c r="G1716">
-        <v>7215021103001</v>
+        <v>7215021101001</v>
       </c>
       <c r="H1716" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58415,11 +58400,11 @@
         </is>
       </c>
       <c r="G1717">
-        <v>7215021104001</v>
+        <v>7215021101002</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
         </is>
       </c>
     </row>
@@ -58449,11 +58434,11 @@
         </is>
       </c>
       <c r="G1718">
-        <v>7215021105001</v>
+        <v>7215021102001</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58483,11 +58468,11 @@
         </is>
       </c>
       <c r="G1719">
-        <v>7215021106001</v>
+        <v>7215021103001</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58517,11 +58502,11 @@
         </is>
       </c>
       <c r="G1720">
-        <v>7215021107001</v>
+        <v>7215021104001</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58543,19 +58528,19 @@
         </is>
       </c>
       <c r="E1721">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1721">
-        <v>1215011101000</v>
+        <v>7215021105001</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58577,19 +58562,19 @@
         </is>
       </c>
       <c r="E1722">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1722">
-        <v>1215011102000</v>
+        <v>7215021106001</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58611,19 +58596,19 @@
         </is>
       </c>
       <c r="E1723">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1723">
-        <v>1215011103000</v>
+        <v>7215021107001</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
         </is>
       </c>
     </row>
@@ -58653,11 +58638,11 @@
         </is>
       </c>
       <c r="G1724">
-        <v>1215011104000</v>
+        <v>1215011101000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58687,11 +58672,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>1215011105000</v>
+        <v>1215011102000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58721,11 +58706,11 @@
         </is>
       </c>
       <c r="G1726">
-        <v>1215011106000</v>
+        <v>1215011103000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58755,11 +58740,11 @@
         </is>
       </c>
       <c r="G1727">
-        <v>1215011107000</v>
+        <v>1215011104000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58789,11 +58774,11 @@
         </is>
       </c>
       <c r="G1728">
-        <v>1215011199001</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58823,11 +58808,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1215012101000</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58857,11 +58842,11 @@
         </is>
       </c>
       <c r="G1730">
-        <v>1215012102000</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1730" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58891,11 +58876,11 @@
         </is>
       </c>
       <c r="G1731">
-        <v>1215012103000</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1731" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -58925,11 +58910,11 @@
         </is>
       </c>
       <c r="G1732">
-        <v>1215012104000</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1732" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58959,11 +58944,11 @@
         </is>
       </c>
       <c r="G1733">
-        <v>1215012105000</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1733" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58993,11 +58978,11 @@
         </is>
       </c>
       <c r="G1734">
-        <v>1215012106000</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1734" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -59027,11 +59012,11 @@
         </is>
       </c>
       <c r="G1735">
-        <v>1215012107000</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1735" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -59061,11 +59046,11 @@
         </is>
       </c>
       <c r="G1736">
-        <v>1215013101000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1736" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -59095,11 +59080,11 @@
         </is>
       </c>
       <c r="G1737">
-        <v>1215013102000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1737" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -59129,11 +59114,11 @@
         </is>
       </c>
       <c r="G1738">
-        <v>1215013104000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1738" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -59163,11 +59148,11 @@
         </is>
       </c>
       <c r="G1739">
-        <v>1215013105000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1739" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -59197,11 +59182,11 @@
         </is>
       </c>
       <c r="G1740">
-        <v>1215013106000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1740" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -59231,11 +59216,11 @@
         </is>
       </c>
       <c r="G1741">
-        <v>1215014101000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1741" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -59265,11 +59250,11 @@
         </is>
       </c>
       <c r="G1742">
-        <v>1215015101000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1742" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -59291,19 +59276,19 @@
         </is>
       </c>
       <c r="E1743">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1743">
-        <v>1999030101000</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1743" t="inlineStr">
         <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -59325,19 +59310,19 @@
         </is>
       </c>
       <c r="E1744">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1744">
-        <v>1219991399000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1744" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59359,19 +59344,19 @@
         </is>
       </c>
       <c r="E1745">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1745">
-        <v>1219991499000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1745" t="inlineStr">
         <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59393,19 +59378,19 @@
         </is>
       </c>
       <c r="E1746">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1746">
-        <v>1321040101000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1746" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59435,11 +59420,11 @@
         </is>
       </c>
       <c r="G1747">
-        <v>1321040102000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1747" t="inlineStr">
         <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59469,11 +59454,11 @@
         </is>
       </c>
       <c r="G1748">
-        <v>1922990199000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1748" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59495,228 +59480,223 @@
         </is>
       </c>
       <c r="E1749">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1749">
-        <v>7999010101000</v>
+        <v>1321040101000</v>
+      </c>
+      <c r="H1749" t="inlineStr">
+        <is>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
+        </is>
       </c>
     </row>
     <row r="1750">
       <c r="A1750">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1750">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1750">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1750">
-        <v>1215521104000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1750" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
     <row r="1751">
       <c r="A1751">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1751">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1751" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1751">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1751">
-        <v>1215522104000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1751" t="inlineStr">
         <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
     <row r="1752">
       <c r="A1752">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1752">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1752">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1752">
-        <v>1215523104000</v>
-      </c>
-      <c r="H1752" t="inlineStr">
-        <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
-        </is>
+        <v>7999010101000</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1753">
-        <v>1301</v>
+        <v>4711</v>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1753">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1753">
-        <v>1321010101000</v>
-      </c>
-      <c r="H1753" t="inlineStr">
-        <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
-        </is>
+        <v>7999992114001</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1754">
-        <v>2371</v>
+        <v>9999</v>
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>IMA</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1754">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1754">
-        <v>1922990199000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1754" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1755">
       <c r="A1755">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1755">
-        <v>4291</v>
+        <v>9999</v>
       </c>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1755">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1755">
-        <v>1922990199000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1755" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1756">
       <c r="A1756">
-        <v>899</v>
+        <v>803</v>
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1756">
@@ -59728,19 +59708,19 @@
         </is>
       </c>
       <c r="E1756">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1756">
-        <v>1321010101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1756" t="inlineStr">
         <is>
-          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
@@ -59754,27 +59734,27 @@
         </is>
       </c>
       <c r="C1757">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1757">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F1757" t="inlineStr">
         <is>
-          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+          <t>OUTROS RECURSOS VINCULADOS</t>
         </is>
       </c>
       <c r="G1757">
-        <v>2999990102000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1757" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59788,11 +59768,11 @@
         </is>
       </c>
       <c r="C1758">
-        <v>9999</v>
+        <v>2371</v>
       </c>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IMA</t>
         </is>
       </c>
       <c r="E1758">
@@ -59804,11 +59784,11 @@
         </is>
       </c>
       <c r="G1758">
-        <v>2999990103000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1758" t="inlineStr">
         <is>
-          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59822,27 +59802,27 @@
         </is>
       </c>
       <c r="C1759">
-        <v>1301</v>
+        <v>4291</v>
       </c>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>SEINFRA</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="E1759">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>OUTROS RECURSOS VINCULADOS</t>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
         </is>
       </c>
       <c r="G1759">
-        <v>1332040101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1759" t="inlineStr">
         <is>
-          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59872,11 +59852,11 @@
         </is>
       </c>
       <c r="G1760">
-        <v>1922990199000</v>
+        <v>1321010101000</v>
       </c>
       <c r="H1760" t="inlineStr">
         <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+          <t>REMUNERACAO DEPOSITOS BANCARIOS - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59906,11 +59886,11 @@
         </is>
       </c>
       <c r="G1761">
-        <v>1999992199000</v>
+        <v>2999990102000</v>
       </c>
       <c r="H1761" t="inlineStr">
         <is>
-          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DA MINA DO CORREGO DO FEIJAO EM BRUMADINHO</t>
         </is>
       </c>
     </row>
@@ -59940,11 +59920,11 @@
         </is>
       </c>
       <c r="G1762">
-        <v>1921990101000</v>
+        <v>2999990103000</v>
       </c>
       <c r="H1762" t="inlineStr">
         <is>
-          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+          <t>DEMAIS REC. CAPITAL - PRINC. - ROMPIMENTO DA BARRAGEM DE FUNDAO EM MARIANA - RENOVA</t>
         </is>
       </c>
     </row>
@@ -59958,22 +59938,158 @@
         </is>
       </c>
       <c r="C1763">
-        <v>9999</v>
+        <v>1301</v>
       </c>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>SEINFRA</t>
         </is>
       </c>
       <c r="E1763">
+        <v>59</v>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="G1763">
+        <v>1332040101000</v>
+      </c>
+      <c r="H1763" t="inlineStr">
+        <is>
+          <t>DELEG. EXPLORACAO INFRAEST. AEROPORTUARIA - PRINC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764">
+        <v>899</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1764">
+        <v>9999</v>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1764">
+        <v>95</v>
+      </c>
+      <c r="F1764" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1764">
+        <v>1922990199000</v>
+      </c>
+      <c r="H1764" t="inlineStr">
+        <is>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765">
+        <v>899</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1765">
+        <v>9999</v>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1765">
+        <v>95</v>
+      </c>
+      <c r="F1765" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1765">
+        <v>1999992199000</v>
+      </c>
+      <c r="H1765" t="inlineStr">
+        <is>
+          <t>OUTRAS REC. - PRIMARIAS - PRINC. - DEMAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766">
+        <v>899</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1766">
+        <v>9999</v>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1766">
+        <v>95</v>
+      </c>
+      <c r="F1766" t="inlineStr">
+        <is>
+          <t>RECURSOS RECEBIDOS POR DANOS ADVINDOS DE DESASTRES SOCIOAMBIENTAIS</t>
+        </is>
+      </c>
+      <c r="G1766">
+        <v>1921990101000</v>
+      </c>
+      <c r="H1766" t="inlineStr">
+        <is>
+          <t>OUTRAS INDENIZACOES - PRINC. - IMPACTOS E DANOS AMBIENTAIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767">
+        <v>899</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>OUTROS RECURSOS VINCULADOS</t>
+        </is>
+      </c>
+      <c r="C1767">
+        <v>9999</v>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>EMG - ADM. DIRETA</t>
+        </is>
+      </c>
+      <c r="E1767">
         <v>80</v>
       </c>
-      <c r="F1763" t="inlineStr">
+      <c r="F1767" t="inlineStr">
         <is>
           <t>RECURSOS DO ACORDO DE REPACTUACAO DO RIO DOCE</t>
         </is>
       </c>
-      <c r="G1763">
+      <c r="G1767">
         <v>2999990104000</v>
       </c>
     </row>

--- a/data/matriz_receita_desc.xlsx
+++ b/data/matriz_receita_desc.xlsx
@@ -57920,23 +57920,23 @@
         </is>
       </c>
       <c r="C1701">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1701" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1701">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F1701" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1701">
-        <v>1215521101000</v>
+        <v>7219991103053</v>
       </c>
     </row>
     <row r="1702">
@@ -57949,23 +57949,23 @@
         </is>
       </c>
       <c r="C1702">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1702" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1702">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F1702" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1702">
-        <v>7215531102000</v>
+        <v>7219991103054</v>
       </c>
     </row>
     <row r="1703">
@@ -57978,23 +57978,23 @@
         </is>
       </c>
       <c r="C1703">
-        <v>9999</v>
+        <v>2121</v>
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1703">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1703">
-        <v>7215532102000</v>
+        <v>1219991103003</v>
       </c>
     </row>
     <row r="1704">
@@ -58015,363 +58015,423 @@
         </is>
       </c>
       <c r="E1704">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1704" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1704">
-        <v>7219991103053</v>
+        <v>1219991103004</v>
       </c>
     </row>
     <row r="1705">
       <c r="A1705">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1705">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1705">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F1705" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1705">
-        <v>7219991103054</v>
+        <v>7215021101001</v>
+      </c>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1706">
       <c r="A1706">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1706">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1706">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1706">
-        <v>7219991103055</v>
+        <v>7215021101002</v>
+      </c>
+      <c r="H1706" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+        </is>
       </c>
     </row>
     <row r="1707">
       <c r="A1707">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1707">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1707">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1707">
-        <v>7219991103056</v>
+        <v>7215021102001</v>
+      </c>
+      <c r="H1707" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1708">
       <c r="A1708">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1708">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1708">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F1708" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1708">
-        <v>1219991103003</v>
+        <v>7215021103001</v>
+      </c>
+      <c r="H1708" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1709">
       <c r="A1709">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1709">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1709">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1709">
-        <v>1219991103004</v>
+        <v>7215021104001</v>
+      </c>
+      <c r="H1709" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1710">
       <c r="A1710">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1710">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1710">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1710">
-        <v>1219991103005</v>
+        <v>7215021105001</v>
+      </c>
+      <c r="H1710" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1711">
       <c r="A1711">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1711">
-        <v>2121</v>
+        <v>4711</v>
       </c>
       <c r="D1711" t="inlineStr">
         <is>
-          <t>IPSM</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1711">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1711">
-        <v>1219991103006</v>
+        <v>7215021106001</v>
+      </c>
+      <c r="H1711" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1712">
       <c r="A1712">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1712">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1712">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO A APOSENTADORIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
         </is>
       </c>
       <c r="G1712">
-        <v>1219991110001</v>
+        <v>7215021107001</v>
+      </c>
+      <c r="H1712" t="inlineStr">
+        <is>
+          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+        </is>
       </c>
     </row>
     <row r="1713">
       <c r="A1713">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1713">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1713">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1713">
-        <v>7215531103000</v>
+        <v>1215011101000</v>
+      </c>
+      <c r="H1713" t="inlineStr">
+        <is>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+        </is>
       </c>
     </row>
     <row r="1714">
       <c r="A1714">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1714">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1714">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1714">
-        <v>7215532103000</v>
+        <v>1215011102000</v>
+      </c>
+      <c r="H1714" t="inlineStr">
+        <is>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+        </is>
       </c>
     </row>
     <row r="1715">
       <c r="A1715">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1715">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1715">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1715">
-        <v>7219991110051</v>
+        <v>1215011103000</v>
+      </c>
+      <c r="H1715" t="inlineStr">
+        <is>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+        </is>
       </c>
     </row>
     <row r="1716">
       <c r="A1716">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>OUTRAS VINCULAÇÕES LEGAIS</t>
+          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
         </is>
       </c>
       <c r="C1716">
-        <v>9999</v>
+        <v>4711</v>
       </c>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>EMG - ADM. DIRETA</t>
+          <t>FFP - MG</t>
         </is>
       </c>
       <c r="E1716">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F1716" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1716">
-        <v>7219991110052</v>
+        <v>1215011104000</v>
+      </c>
+      <c r="H1716" t="inlineStr">
+        <is>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+        </is>
       </c>
     </row>
     <row r="1717">
@@ -58392,19 +58452,19 @@
         </is>
       </c>
       <c r="E1717">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1717">
-        <v>7215021101001</v>
+        <v>1215011105000</v>
       </c>
       <c r="H1717" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58426,19 +58486,19 @@
         </is>
       </c>
       <c r="E1718">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1718">
-        <v>7215021101002</v>
+        <v>1215011106000</v>
       </c>
       <c r="H1718" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - EXECUTIVO - CONTRIB. SUPLEMENTAR</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58460,19 +58520,19 @@
         </is>
       </c>
       <c r="E1719">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1719" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1719">
-        <v>7215021102001</v>
+        <v>1215011107000</v>
       </c>
       <c r="H1719" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - ALMG - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58494,19 +58554,19 @@
         </is>
       </c>
       <c r="E1720">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1720">
-        <v>7215021103001</v>
+        <v>1215011199001</v>
       </c>
       <c r="H1720" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TCEMG - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
         </is>
       </c>
     </row>
@@ -58528,19 +58588,19 @@
         </is>
       </c>
       <c r="E1721">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1721">
-        <v>7215021104001</v>
+        <v>1215012101000</v>
       </c>
       <c r="H1721" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMG - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58562,19 +58622,19 @@
         </is>
       </c>
       <c r="E1722">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1722">
-        <v>7215021105001</v>
+        <v>1215012102000</v>
       </c>
       <c r="H1722" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - TJMMG - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58596,19 +58656,19 @@
         </is>
       </c>
       <c r="E1723">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1723">
-        <v>7215021106001</v>
+        <v>1215012103000</v>
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - MPMG - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
         </is>
       </c>
     </row>
@@ -58630,19 +58690,19 @@
         </is>
       </c>
       <c r="E1724">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO PATRONAL PARA O RPPS</t>
+          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
         </is>
       </c>
       <c r="G1724">
-        <v>7215021107001</v>
+        <v>1215012104000</v>
       </c>
       <c r="H1724" t="inlineStr">
         <is>
-          <t>REC. INTRA. - CONTRIB. PATRON. - SERV. CIVIL ATIVO - PRINC. - DEFPUB - CONTRIB. ORDINARIA</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58672,11 +58732,11 @@
         </is>
       </c>
       <c r="G1725">
-        <v>1215011101000</v>
+        <v>1215012105000</v>
       </c>
       <c r="H1725" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58706,11 +58766,11 @@
         </is>
       </c>
       <c r="G1726">
-        <v>1215011102000</v>
+        <v>1215012106000</v>
       </c>
       <c r="H1726" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58740,11 +58800,11 @@
         </is>
       </c>
       <c r="G1727">
-        <v>1215011103000</v>
+        <v>1215012107000</v>
       </c>
       <c r="H1727" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
         </is>
       </c>
     </row>
@@ -58774,11 +58834,11 @@
         </is>
       </c>
       <c r="G1728">
-        <v>1215011104000</v>
+        <v>1215013101000</v>
       </c>
       <c r="H1728" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
         </is>
       </c>
     </row>
@@ -58808,11 +58868,11 @@
         </is>
       </c>
       <c r="G1729">
-        <v>1215011105000</v>
+        <v>1215013102000</v>
       </c>
       <c r="H1729" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
         </is>
       </c>
     </row>
@@ -58842,11 +58902,11 @@
         </is>
       </c>
       <c r="G1730">
-        <v>1215011106000</v>
+        <v>1215013104000</v>
       </c>
       <c r="H1730" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
         </is>
       </c>
     </row>
@@ -58876,11 +58936,11 @@
         </is>
       </c>
       <c r="G1731">
-        <v>1215011107000</v>
+        <v>1215013105000</v>
       </c>
       <c r="H1731" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
         </is>
       </c>
     </row>
@@ -58910,11 +58970,11 @@
         </is>
       </c>
       <c r="G1732">
-        <v>1215011199001</v>
+        <v>1215013106000</v>
       </c>
       <c r="H1732" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL ATIVO - PRINC. - DEMAIS - PESSOAL LICENCIADO/A DISPOSICAO</t>
+          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
         </is>
       </c>
     </row>
@@ -58944,11 +59004,11 @@
         </is>
       </c>
       <c r="G1733">
-        <v>1215012101000</v>
+        <v>1215014101000</v>
       </c>
       <c r="H1733" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - PODER EXECUTIVO</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -58978,11 +59038,11 @@
         </is>
       </c>
       <c r="G1734">
-        <v>1215012102000</v>
+        <v>1215015101000</v>
       </c>
       <c r="H1734" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
+          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59004,19 +59064,19 @@
         </is>
       </c>
       <c r="E1735">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1735">
-        <v>1215012103000</v>
+        <v>1999030101000</v>
       </c>
       <c r="H1735" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE CONTAS DO ESTADO DE MINAS GERAIS - TCEMG</t>
+          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
         </is>
       </c>
     </row>
@@ -59038,19 +59098,19 @@
         </is>
       </c>
       <c r="E1736">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1736">
-        <v>1215012104000</v>
+        <v>1219991399000</v>
       </c>
       <c r="H1736" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
+          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59072,19 +59132,19 @@
         </is>
       </c>
       <c r="E1737">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1737">
-        <v>1215012105000</v>
+        <v>1219991499000</v>
       </c>
       <c r="H1737" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59106,19 +59166,19 @@
         </is>
       </c>
       <c r="E1738">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1738">
-        <v>1215012106000</v>
+        <v>1321040101000</v>
       </c>
       <c r="H1738" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
         </is>
       </c>
     </row>
@@ -59140,19 +59200,19 @@
         </is>
       </c>
       <c r="E1739">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1739">
-        <v>1215012107000</v>
+        <v>1321040102000</v>
       </c>
       <c r="H1739" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL INATIVO - PRINC. - DEFENSORIA PUBLICA DO ESTADO DE MINAS GERAIS - DEFPUB</t>
+          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
         </is>
       </c>
     </row>
@@ -59174,19 +59234,19 @@
         </is>
       </c>
       <c r="E1740">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
         </is>
       </c>
       <c r="G1740">
-        <v>1215013101000</v>
+        <v>1922990199000</v>
       </c>
       <c r="H1740" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - PODER EXECUTIVO</t>
+          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
         </is>
       </c>
     </row>
@@ -59208,20 +59268,15 @@
         </is>
       </c>
       <c r="E1741">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1741">
-        <v>1215013102000</v>
-      </c>
-      <c r="H1741" t="inlineStr">
-        <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - ASSEMBLEIA LEGISLATIVA DO ESTADO DE MINAS GERAIS - ALMG</t>
-        </is>
+        <v>7999010101000</v>
       </c>
     </row>
     <row r="1742">
@@ -59242,428 +59297,338 @@
         </is>
       </c>
       <c r="E1742">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
         </is>
       </c>
       <c r="G1742">
-        <v>1215013104000</v>
-      </c>
-      <c r="H1742" t="inlineStr">
-        <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA DO ESTADO DE MINAS GERAIS - TJMG</t>
-        </is>
+        <v>7999992114001</v>
       </c>
     </row>
     <row r="1743">
       <c r="A1743">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1743">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1743">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1743">
-        <v>1215013105000</v>
+        <v>1215521104000</v>
       </c>
       <c r="H1743" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - TRIBUNAL DE JUSTICA MILITAR DO ESTADO DE MINAS GERAIS - TJMMG</t>
+          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1744">
       <c r="A1744">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1744">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1744">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1744">
-        <v>1215013106000</v>
+        <v>1215522104000</v>
       </c>
       <c r="H1744" t="inlineStr">
         <is>
-          <t>CONTRIB. SERV. CIVIL - PENSIONISTAS - PRINC. - MINISTERIO PUBLICO DO ESTADO DE MINAS GERAIS - MPMG</t>
+          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1745">
       <c r="A1745">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
+          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
         </is>
       </c>
       <c r="C1745">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1745">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
       <c r="G1745">
-        <v>1215014101000</v>
+        <v>1215523104000</v>
       </c>
       <c r="H1745" t="inlineStr">
         <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL ATIVO - PRINC.</t>
+          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
         </is>
       </c>
     </row>
     <row r="1746">
       <c r="A1746">
-        <v>801</v>
-      </c>
-      <c r="B1746" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1746">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1746">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO DO SERVIDOR PARA O RPPS</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="G1746">
-        <v>1215015101000</v>
-      </c>
-      <c r="H1746" t="inlineStr">
-        <is>
-          <t>CONTRIB. ORIUNDA SENT. JUDIC. - SERV. CIVIL INATIVO - PRINC.</t>
-        </is>
+        <v>1215521101000</v>
       </c>
     </row>
     <row r="1747">
       <c r="A1747">
-        <v>801</v>
-      </c>
-      <c r="B1747" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1747">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1747">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>COMPENSACAO FINANCEIRA ENTRE REGIMES DE PREVIDENCIA</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1747">
-        <v>1999030101000</v>
-      </c>
-      <c r="H1747" t="inlineStr">
-        <is>
-          <t>COMPENSACOES FINANCEIRAS RGPS RPPS SIST. PROTECAO SOCIAL - PRINC.</t>
-        </is>
+        <v>7215531102000</v>
       </c>
     </row>
     <row r="1748">
       <c r="A1748">
-        <v>801</v>
-      </c>
-      <c r="B1748" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1748">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1748">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1748">
-        <v>1219991399000</v>
-      </c>
-      <c r="H1748" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - DA - DEMAIS</t>
-        </is>
+        <v>7215532102000</v>
       </c>
     </row>
     <row r="1749">
       <c r="A1749">
-        <v>801</v>
-      </c>
-      <c r="B1749" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1749">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1749">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1749">
-        <v>1219991499000</v>
-      </c>
-      <c r="H1749" t="inlineStr">
-        <is>
-          <t>DEMAIS CONTRIB. SOC. - DA-MJM - DEMAIS</t>
-        </is>
+        <v>7219991103055</v>
       </c>
     </row>
     <row r="1750">
       <c r="A1750">
-        <v>801</v>
-      </c>
-      <c r="B1750" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1750">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1750">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO PATRONAL DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1750">
-        <v>1321040101000</v>
-      </c>
-      <c r="H1750" t="inlineStr">
-        <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA FIXA</t>
-        </is>
+        <v>7219991103056</v>
       </c>
     </row>
     <row r="1751">
       <c r="A1751">
-        <v>801</v>
-      </c>
-      <c r="B1751" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1751">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1751" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1751">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1751">
-        <v>1321040102000</v>
-      </c>
-      <c r="H1751" t="inlineStr">
-        <is>
-          <t>REMUNERACAO RECURSOS RPPS - PRINC. - RENDA VARIAVEL</t>
-        </is>
+        <v>1219991103005</v>
       </c>
     </row>
     <row r="1752">
       <c r="A1752">
-        <v>801</v>
-      </c>
-      <c r="B1752" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1752">
-        <v>4711</v>
+        <v>2121</v>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>IPSM</t>
         </is>
       </c>
       <c r="E1752">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>RECURSOS DIRETAMENTE ARRECADADOS COM VINCULACAO ESPECIFICA</t>
+          <t>CONTRIBUICAO DO SERVIDOR DO ESTADO AOS INSTITUTOS DE PREVIDENCIA</t>
         </is>
       </c>
       <c r="G1752">
-        <v>1922990199000</v>
-      </c>
-      <c r="H1752" t="inlineStr">
-        <is>
-          <t>OUTRAS RESTITUICOES - PRINC. - DEMAIS</t>
-        </is>
+        <v>1219991103006</v>
       </c>
     </row>
     <row r="1753">
       <c r="A1753">
-        <v>801</v>
-      </c>
-      <c r="B1753" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1753">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1753" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1753">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>CONTRIBUICAO A APOSENTADORIA</t>
         </is>
       </c>
       <c r="G1753">
-        <v>7999010101000</v>
+        <v>1219991110001</v>
       </c>
     </row>
     <row r="1754">
       <c r="A1754">
-        <v>801</v>
-      </c>
-      <c r="B1754" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO RPPS - FUNDO EM REPARTIÇÃO (PLANO FINANCEIRO)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1754">
-        <v>4711</v>
+        <v>9999</v>
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>FFP - MG</t>
+          <t>EMG - ADM. DIRETA</t>
         </is>
       </c>
       <c r="E1754">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>RECURSOS PARA COBERTURA DE INSUFICIENCIA FINANCEIRA DO RPPS</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1754">
-        <v>7999992114001</v>
+        <v>7215531103000</v>
       </c>
     </row>
     <row r="1755">
       <c r="A1755">
-        <v>803</v>
-      </c>
-      <c r="B1755" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1755">
         <v>9999</v>
@@ -59674,30 +59639,20 @@
         </is>
       </c>
       <c r="E1755">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1755">
-        <v>1215521104000</v>
-      </c>
-      <c r="H1755" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR ATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
-        </is>
+        <v>7215532103000</v>
       </c>
     </row>
     <row r="1756">
       <c r="A1756">
-        <v>803</v>
-      </c>
-      <c r="B1756" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1756">
         <v>9999</v>
@@ -59708,30 +59663,20 @@
         </is>
       </c>
       <c r="E1756">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1756">
-        <v>1215522104000</v>
-      </c>
-      <c r="H1756" t="inlineStr">
-        <is>
-          <t>CONTRIB. MILITAR INATIVO - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
-        </is>
+        <v>7219991110051</v>
       </c>
     </row>
     <row r="1757">
       <c r="A1757">
-        <v>803</v>
-      </c>
-      <c r="B1757" t="inlineStr">
-        <is>
-          <t>RECURSOS VINCULADOS AO SISTEMA DE PROTEÇÃO SOCIAL DOS MILITARES (SPSM)</t>
-        </is>
+        <v>804</v>
       </c>
       <c r="C1757">
         <v>9999</v>
@@ -59742,20 +59687,15 @@
         </is>
       </c>
       <c r="E1757">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1757" t="inlineStr">
         <is>
-          <t>CONTRIBUICAO MILITAR PARA CUSTEIO DO SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
+          <t>CONTRIBUICAO PATRONAL PARA CUSTEIO DOS PROVENTOS DOS MILITARES</t>
         </is>
       </c>
       <c r="G1757">
-        <v>1215523104000</v>
-      </c>
-      <c r="H1757" t="inlineStr">
-        <is>
-          <t>CONTRIB. PENSIONISTAS MILITARES - PRINC. - SISTEMA DE PROTECAO SOCIAL DOS MILITARES</t>
-        </is>
+        <v>7219991110052</v>
       </c>
     </row>
     <row r="1758">
